--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1EAA7A-74B9-4ADA-B144-87A85351D662}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE25BA0D-7B69-467F-A7DC-BD4C691622A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR_PANDA_T01-SD_ADI.XML" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="282">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -174,60 +174,21 @@
     <t>package</t>
   </si>
   <si>
-    <t>EEDR6000000000000101</t>
-  </si>
-  <si>
-    <t>Serie Dr. Panda</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP01</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
-    <t>Dr. Panda T01 EP01</t>
-  </si>
-  <si>
-    <t>EP 01</t>
-  </si>
-  <si>
-    <t>Edye presenta: El Dr. Panda debe rescatar a Hoopa para después pensar cómo va a bajar a un pollo de un árbol.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Como bombero, Dr. Panda enfrenta un nuevo problema: Hoopa se quedó atrapado en la habitación que acaba de construir, porque olvidó poner una puerta y hay que sacarlo. Después debe usar su ingenio para bajar de un árbol a uno de los pollos de Moo.</t>
-  </si>
-  <si>
     <t>TV-Y</t>
   </si>
   <si>
-    <t>Infantil/Dr. Panda</t>
-  </si>
-  <si>
     <t>Parenting</t>
   </si>
   <si>
     <t>General</t>
   </si>
   <si>
-    <t>Dr. Panda</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
-    <t xml:space="preserve">Rasmus Hardiker, Marc Silk, Nicholls Sue Elliott ,Teresa Gallagher , Kerry Shake </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr.Panda Ltd  </t>
-  </si>
-  <si>
-    <t>Hardiker Rasmus, Silk Marc, Elliott Nicholls Sue, Gallagher Teresa, Shake Kerry</t>
-  </si>
-  <si>
-    <t>Chin, Patrick</t>
-  </si>
-  <si>
     <t>movie</t>
   </si>
   <si>
@@ -249,17 +210,9 @@
     <t>MPEG2</t>
   </si>
   <si>
-    <t>EEDRPD
-101.mpg</t>
-  </si>
-  <si>
     <t>box cover</t>
   </si>
   <si>
-    <t>EEDRPD
-1_box.jpg</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -269,247 +222,6 @@
     <t>1920x1080</t>
   </si>
   <si>
-    <t>EEDRPD
-101_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000102</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP02</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP02</t>
-  </si>
-  <si>
-    <t>EP 02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda y Hoppa construyen un sorprendente cobertizo para las gallinas de Moo ¿Les gustará?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr Panda y Hoopa construyen un cobertizo para las gallinas de Moo, pero para disgusto de Moo,  Hoopa se equivoca de  diseño. Dr. Panda debe convencer a Moo de que sus pollos están  más a gusto en el colorido cobertizo que diseñó Toto.</t>
-  </si>
-  <si>
-    <t>EEDRPD
-102.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-102_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000103</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP03</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP03</t>
-  </si>
-  <si>
-    <t>EP 03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoopa prepara mermelada de manzana, pero la arruina. Dr. Panda lo ayudará a salir del problema.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda ayuda a Moo a cosechar sus manzanas. Hoopa prepara mermelada, sólo que utiliza sal y no azúcar. Ahora necesitan más manzanas para reponerla, pero todas están dispersas en el suelo. Dr Panda utiliza su ingenio y soluciona el problema.</t>
-  </si>
-  <si>
-    <t>EEDRPD
-103.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-103_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000104</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP04</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP04</t>
-  </si>
-  <si>
-    <t>EP 04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda debe descubrir porqué está desapareciendo la comida favorita de Moo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Moo se encuentra en una crisis: Su comida está desapareciendo de la granja. Dr Panda, convertido en detective junto a su ayudante Toto deberá resolver el misterio, para lo cual pone en marcha un plan infalible para descubrir qué está pasando.</t>
-  </si>
-  <si>
-    <t>EEDRPD
-104.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-104_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000105</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP05</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP05</t>
-  </si>
-  <si>
-    <t>EP 05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda pondrá a prueba su detector de metales ¿Será capaz de descubrir algún tesoro?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda ha creado un detector de metales y junto a Hoopa salen en busca de tesoros, pero sólo han encontrado basura. Pero la suerte parece cambiar. ¿Podrán encontrar el tesoro que siempre han soñado?</t>
-  </si>
-  <si>
-    <t>Vernooij, Wip</t>
-  </si>
-  <si>
-    <t>EEDRPD
-105.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-105_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000106</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP06</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP06</t>
-  </si>
-  <si>
-    <t>EP 06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Al recolectar basura, Dr. Panda encuentra la forma de usar el viento a su favor.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda y Hoopa se encuentran recogiendo la basura en la granja de Moo, pero cuando el viento cambia de direccón toda la basura de dispersa. Afortunadamente a Dr Panda se le ocurre una idea para convertir a su nuevo enemigo en un aliado útil.</t>
-  </si>
-  <si>
-    <t>EEDRPD
-106.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-106_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000107</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP07</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP07</t>
-  </si>
-  <si>
-    <t>EP 07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras vuelan en un globo aerostático, Dr. Panda y Toto deberá controlar a la parvada de Moo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda está a cargo de organizar paseos en un globo aerostático, pero el desastre se avecina cuando los pollos de Moo zurcan los cielos sin supervisión alguna. ¿Podrán Dr. Panda y Toto controlar a las aves y regresarlas a tierra?</t>
-  </si>
-  <si>
-    <t>EEDRPD
-107.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-107_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000108</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP08</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP08</t>
-  </si>
-  <si>
-    <t>EP 08</t>
-  </si>
-  <si>
-    <t>Edye presenta: La lluvia arruina la decoración del Festival de Primavera. Pero Dr. Panda resuelve el problema.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda y June se encuentran pintando cuadros para decorar el Festival de la Primavera, pero una inesperada tormenta arruina su trabajo. Al Dr. Panda se le ocurre la ingeniosa idea de reciclar todo lo que June iba a tirar.</t>
-  </si>
-  <si>
-    <t>EEDRPD
-108.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-108_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000109</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP09</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP09</t>
-  </si>
-  <si>
-    <t>EP 09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mei Mei contrata a Dr Panda para fotografiar a los pollos de Moo y ¡hasta ella sale en la foto!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mei Mei ha decidido darle un regalo especial a Moo, ¡un poster de sus pollos! y contrata a Dr. Panda para ser el fotógrafo, el único problema es ¡encontrar a alguien que controle a los pollos para poder tomar la foto!</t>
-  </si>
-  <si>
-    <t>EEDRPD
-109.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-109_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000110</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP10</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP10</t>
-  </si>
-  <si>
-    <t>EP 10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Ocurrió un desastre en la oficina de correos y Dr. Panda lo resuelve usando todos sus sentidos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Ha ocurrido un desastre en la oficina de correos, Dr. Panda deberá usar todos sus sentidos para revisar uno a uno los paquetes y averiguar quién es el destinatario. Sólo un último paquete se resiste a develar a quién va dirigido.</t>
-  </si>
-  <si>
-    <t>EEDRPD
-110.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD
-110_land.jpg</t>
-  </si>
-  <si>
     <t>H264 HD</t>
   </si>
   <si>
@@ -519,36 +231,6 @@
     <t>Content_Value</t>
   </si>
   <si>
-    <t>EEDRPD101_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD102_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD103_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD104_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD105_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD106_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD107_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD108_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD109_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDRPD110_SD_ADI.XML</t>
-  </si>
-  <si>
     <t>EECBRD311_HD_ADI.XML</t>
   </si>
   <si>
@@ -1003,6 +685,198 @@
   </si>
   <si>
     <t>EECBRD326_land.jpg</t>
+  </si>
+  <si>
+    <t>EECBRD311_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000311</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP11</t>
+  </si>
+  <si>
+    <t>EECBRD311.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD312_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000312</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP12</t>
+  </si>
+  <si>
+    <t>EECBRD312.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD313_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000313</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP13</t>
+  </si>
+  <si>
+    <t>EECBRD313.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD314_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000314</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP14</t>
+  </si>
+  <si>
+    <t>EECBRD314.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD315_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000315</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP15</t>
+  </si>
+  <si>
+    <t>EECBRD315.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD316_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000316</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP16</t>
+  </si>
+  <si>
+    <t>EECBRD316.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD317_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000317</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP17</t>
+  </si>
+  <si>
+    <t>EECBRD317.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD318_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000318</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP18</t>
+  </si>
+  <si>
+    <t>EECBRD318.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD319_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000319</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP19</t>
+  </si>
+  <si>
+    <t>EECBRD319.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD320_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000320</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP20</t>
+  </si>
+  <si>
+    <t>EECBRD320.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD321_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000321</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP21</t>
+  </si>
+  <si>
+    <t>EECBRD321.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD322_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000322</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP22</t>
+  </si>
+  <si>
+    <t>EECBRD322.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD323_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000323</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP23</t>
+  </si>
+  <si>
+    <t>EECBRD323.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD324_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000324</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP24</t>
+  </si>
+  <si>
+    <t>EECBRD324.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD325_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000325</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP25</t>
+  </si>
+  <si>
+    <t>EECBRD325.mpg</t>
+  </si>
+  <si>
+    <t>EECBRD326_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EECB6000000000000326</t>
+  </si>
+  <si>
+    <t>Clifford T03 EP26</t>
+  </si>
+  <si>
+    <t>EECBRD326.mpg</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:BF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1674,7 +1548,7 @@
         <v>40</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="AW1" s="6"/>
       <c r="AX1" s="5" t="s">
@@ -1684,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="BA1" s="6"/>
       <c r="BB1" s="5" t="s">
@@ -1700,12 +1574,12 @@
         <v>42</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1729,151 +1603,151 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="9">
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS2" s="15">
-        <v>221158500</v>
+        <v>349391984</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD2" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE2" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="B3" s="7">
         <v>44623</v>
@@ -1897,151 +1771,151 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="9">
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO3" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS3" s="15">
-        <v>221158500</v>
+        <v>349363220</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC3" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD3" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="B4" s="7">
         <v>44623</v>
@@ -2065,151 +1939,151 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="9">
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO4" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS4" s="15">
-        <v>221158500</v>
+        <v>349391984</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC4" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE4" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="B5" s="7">
         <v>44623</v>
@@ -2233,151 +2107,151 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="9">
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO5" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS5" s="15">
-        <v>223663036</v>
+        <v>349377696</v>
       </c>
       <c r="AT5" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD5" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE5" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="B6" s="7">
         <v>44623</v>
@@ -2401,151 +2275,151 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC6" s="9">
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO6" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP6" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ6" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS6" s="15">
-        <v>224096188</v>
+        <v>349377696</v>
       </c>
       <c r="AT6" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC6" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD6" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE6" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="B7" s="7">
         <v>44623</v>
@@ -2569,151 +2443,151 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC7" s="9">
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN7" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO7" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP7" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ7" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS7" s="15">
-        <v>223123664</v>
+        <v>349331824</v>
       </c>
       <c r="AT7" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC7" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD7" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE7" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="B8" s="7">
         <v>44623</v>
@@ -2737,151 +2611,151 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC8" s="9">
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP8" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS8" s="15">
-        <v>223123664</v>
+        <v>349377696</v>
       </c>
       <c r="AT8" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC8" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD8" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE8" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="B9" s="7">
         <v>44623</v>
@@ -2905,151 +2779,151 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC9" s="9">
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO9" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS9" s="15">
-        <v>220676656</v>
+        <v>349377696</v>
       </c>
       <c r="AT9" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY9" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC9" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD9" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE9" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="B10" s="7">
         <v>44623</v>
@@ -3073,151 +2947,151 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC10" s="9">
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO10" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP10" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS10" s="15">
-        <v>219701124</v>
+        <v>349377696</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY10" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC10" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD10" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE10" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="B11" s="7">
         <v>44623</v>
@@ -3241,507 +3115,1155 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>8.5995370370370357E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC11" s="9">
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO11" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP11" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ11" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS11" s="15">
-        <v>223123664</v>
+        <v>349331824</v>
       </c>
       <c r="AT11" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC11" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD11" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE11" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="10">
+        <v>8.5995370370370357E-3</v>
+      </c>
+      <c r="U12" s="11">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL12" s="8"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
+      <c r="AM12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>349377696</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="AW12" s="8"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
+      <c r="AX12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
+      <c r="BB12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="10">
+        <v>8.5995370370370357E-3</v>
+      </c>
+      <c r="U13" s="11">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
+      <c r="AM13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>349331824</v>
+      </c>
+      <c r="AT13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV13" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="AW13" s="8"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
+      <c r="AX13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ13" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
+      <c r="BB13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF13" s="9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="10">
+        <v>8.5995370370370357E-3</v>
+      </c>
+      <c r="U14" s="11">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="V14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL14" s="8"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
+      <c r="AM14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>349377696</v>
+      </c>
+      <c r="AT14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="AW14" s="8"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
+      <c r="AX14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ14" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
+      <c r="BB14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF14" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="10">
+        <v>8.5995370370370357E-3</v>
+      </c>
+      <c r="U15" s="11">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="V15" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="9"/>
+      <c r="AM15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS15" s="9">
+        <v>349331824</v>
+      </c>
+      <c r="AT15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV15" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="AW15" s="8"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
+      <c r="AX15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ15" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
+      <c r="BB15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF15" s="9" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="10">
+        <v>8.5879629629629622E-3</v>
+      </c>
+      <c r="U16" s="11">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="V16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK16" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="9"/>
+      <c r="AM16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS16" s="9">
+        <v>348852612</v>
+      </c>
+      <c r="AT16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV16" s="9" t="s">
+        <v>277</v>
+      </c>
       <c r="AW16" s="8"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
+      <c r="AX16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ16" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA16" s="8"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
-      <c r="BF16" s="9"/>
+      <c r="BB16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF16" s="9" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
+      <c r="M17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="10">
+        <v>8.5879629629629622E-3</v>
+      </c>
+      <c r="U17" s="11">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="V17" s="3">
+        <v>2019</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK17" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL17" s="8"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
+      <c r="AM17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>348806740</v>
+      </c>
+      <c r="AT17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV17" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
+      <c r="AX17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ17" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="9"/>
+      <c r="BB17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF17" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -4352,7 +4874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4405,7 +4927,7 @@
   <sheetData>
     <row r="1" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4542,7 +5064,7 @@
         <v>40</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="AW1" s="6"/>
       <c r="AX1" s="5" t="s">
@@ -4552,7 +5074,7 @@
         <v>10</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="BA1" s="6"/>
       <c r="BB1" s="5" t="s">
@@ -4568,12 +5090,12 @@
         <v>42</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -4597,35 +5119,35 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T2" s="10">
         <v>8.5995370370370357E-3</v>
@@ -4637,10 +5159,10 @@
         <v>2019</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="9" t="s">
         <v>44</v>
@@ -4652,96 +5174,96 @@
         <v>45138</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="9">
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS2" s="15">
         <v>698726252</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD2" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE2" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -4765,35 +5287,35 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T3" s="10">
         <v>8.5995370370370357E-3</v>
@@ -4805,10 +5327,10 @@
         <v>2019</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>44</v>
@@ -4820,96 +5342,96 @@
         <v>45138</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="9">
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO3" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS3" s="15">
         <v>698663272</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC3" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD3" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -4933,35 +5455,35 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T4" s="10">
         <v>8.5995370370370357E-3</v>
@@ -4973,10 +5495,10 @@
         <v>2019</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>44</v>
@@ -4988,96 +5510,96 @@
         <v>45138</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="9">
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO4" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS4" s="15">
         <v>698726252</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC4" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE4" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -5101,35 +5623,35 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T5" s="10">
         <v>8.5995370370370357E-3</v>
@@ -5141,10 +5663,10 @@
         <v>2019</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="9" t="s">
         <v>44</v>
@@ -5156,96 +5678,96 @@
         <v>45138</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="9">
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO5" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS5" s="15">
         <v>698663272</v>
       </c>
       <c r="AT5" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD5" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE5" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -5269,35 +5791,35 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T6" s="10">
         <v>8.5995370370370357E-3</v>
@@ -5309,10 +5831,10 @@
         <v>2019</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="9" t="s">
         <v>44</v>
@@ -5324,96 +5846,96 @@
         <v>45138</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC6" s="9">
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO6" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP6" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ6" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS6" s="15">
         <v>698697676</v>
       </c>
       <c r="AT6" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC6" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD6" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE6" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -5437,35 +5959,35 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T7" s="10">
         <v>8.5995370370370357E-3</v>
@@ -5477,10 +5999,10 @@
         <v>2019</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y7" s="9" t="s">
         <v>44</v>
@@ -5492,96 +6014,96 @@
         <v>45138</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC7" s="9">
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN7" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO7" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP7" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ7" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS7" s="15">
         <v>698605932</v>
       </c>
       <c r="AT7" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC7" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD7" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE7" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -5605,35 +6127,35 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T8" s="10">
         <v>8.5995370370370357E-3</v>
@@ -5645,10 +6167,10 @@
         <v>2019</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y8" s="9" t="s">
         <v>44</v>
@@ -5660,96 +6182,96 @@
         <v>45138</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC8" s="9">
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP8" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS8" s="15">
         <v>698697676</v>
       </c>
       <c r="AT8" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC8" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD8" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE8" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -5773,35 +6295,35 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T9" s="10">
         <v>8.5995370370370357E-3</v>
@@ -5813,10 +6335,10 @@
         <v>2019</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y9" s="9" t="s">
         <v>44</v>
@@ -5828,96 +6350,96 @@
         <v>45138</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC9" s="9">
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO9" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP9" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS9" s="15">
         <v>698605744</v>
       </c>
       <c r="AT9" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY9" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC9" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD9" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE9" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -5941,35 +6463,35 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T10" s="10">
         <v>8.5995370370370357E-3</v>
@@ -5981,10 +6503,10 @@
         <v>2019</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>44</v>
@@ -5996,96 +6518,96 @@
         <v>45138</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC10" s="9">
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO10" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP10" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS10" s="15">
         <v>698697676</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY10" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC10" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD10" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE10" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -6109,35 +6631,35 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T11" s="10">
         <v>8.5995370370370357E-3</v>
@@ -6149,10 +6671,10 @@
         <v>2019</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y11" s="9" t="s">
         <v>44</v>
@@ -6164,96 +6686,96 @@
         <v>45138</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC11" s="9">
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO11" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP11" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ11" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS11" s="9">
         <v>698605744</v>
       </c>
       <c r="AT11" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC11" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD11" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE11" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="B12" s="12">
         <v>44623</v>
@@ -6277,35 +6799,35 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T12" s="10">
         <v>8.5995370370370357E-3</v>
@@ -6317,10 +6839,10 @@
         <v>2019</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>44</v>
@@ -6332,96 +6854,96 @@
         <v>45138</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC12" s="9">
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO12" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP12" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS12" s="9">
         <v>698697676</v>
       </c>
       <c r="AT12" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU12" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY12" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC12" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD12" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE12" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="B13" s="12">
         <v>44623</v>
@@ -6445,35 +6967,35 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T13" s="10">
         <v>8.5995370370370357E-3</v>
@@ -6485,10 +7007,10 @@
         <v>2019</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>44</v>
@@ -6500,96 +7022,96 @@
         <v>45138</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC13" s="9">
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN13" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO13" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP13" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ13" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS13" s="9">
         <v>698605744</v>
       </c>
       <c r="AT13" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU13" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY13" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC13" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD13" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE13" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="B14" s="12">
         <v>44623</v>
@@ -6613,35 +7135,35 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T14" s="10">
         <v>8.5995370370370357E-3</v>
@@ -6653,10 +7175,10 @@
         <v>2019</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>44</v>
@@ -6668,96 +7190,96 @@
         <v>45138</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC14" s="9">
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO14" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP14" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ14" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR14" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS14" s="9">
         <v>698697676</v>
       </c>
       <c r="AT14" s="14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU14" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY14" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC14" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD14" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE14" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="B15" s="12">
         <v>44623</v>
@@ -6781,35 +7303,35 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T15" s="10">
         <v>8.5995370370370357E-3</v>
@@ -6821,10 +7343,10 @@
         <v>2019</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>44</v>
@@ -6836,96 +7358,96 @@
         <v>45138</v>
       </c>
       <c r="AB15" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC15" s="9">
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO15" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP15" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ15" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR15" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS15" s="9">
         <v>698605744</v>
       </c>
       <c r="AT15" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU15" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY15" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC15" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD15" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE15" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="B16" s="12">
         <v>44623</v>
@@ -6949,35 +7471,35 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T16" s="10">
         <v>8.5879629629629622E-3</v>
@@ -6989,10 +7511,10 @@
         <v>2019</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>44</v>
@@ -7004,96 +7526,96 @@
         <v>45138</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC16" s="9">
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN16" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO16" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ16" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR16" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS16" s="9">
         <v>697647696</v>
       </c>
       <c r="AT16" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU16" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY16" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC16" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD16" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE16" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="B17" s="12">
         <v>44623</v>
@@ -7117,35 +7639,35 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T17" s="10">
         <v>8.5879629629629622E-3</v>
@@ -7157,10 +7679,10 @@
         <v>2019</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>44</v>
@@ -7172,91 +7694,91 @@
         <v>45138</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="9">
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AO17" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AP17" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AQ17" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AR17" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AS17" s="9">
         <v>697555764</v>
       </c>
       <c r="AT17" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AU17" s="9" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AY17" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BC17" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BD17" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="BE17" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE25BA0D-7B69-467F-A7DC-BD4C691622A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7144E-752E-4D50-9D48-B0B3C015D745}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR_PANDA_T01-SD_ADI.XML" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="284">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -231,652 +231,658 @@
     <t>Content_Value</t>
   </si>
   <si>
-    <t>EECBRD311_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000311</t>
-  </si>
-  <si>
-    <t>Serie Clifford</t>
-  </si>
-  <si>
-    <t>CliffordT03EP11</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP11 HD</t>
-  </si>
-  <si>
     <t>EP 11</t>
   </si>
   <si>
-    <t>Edye presenta: Un día salvaje de contratiempos deja a Clifford deseando no ser tan grande.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Después de un día con contratiempos, Clifford desearía no ser tan grande... hasta sueña con ser un perrito pequeño, ¡y le encanta!, hasta que Emily Elizabeth necesita ayuda. Clifford aprende que sin importar el tamaño, puedes ayudar a tus amigos.</t>
-  </si>
-  <si>
-    <t>Infantil/Clifford</t>
-  </si>
-  <si>
-    <t>Clifford</t>
-  </si>
-  <si>
-    <t>Hannah Levinson, Adam Sanders</t>
-  </si>
-  <si>
-    <t>Scholastic Ent.</t>
-  </si>
-  <si>
-    <t>Levinson Hannah, Sanders Adam</t>
-  </si>
-  <si>
-    <t>Weiss, Mike</t>
-  </si>
-  <si>
-    <t>EECBRD311.ts</t>
-  </si>
-  <si>
-    <t>EECBRD3_box.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD311_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD312_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000312</t>
-  </si>
-  <si>
-    <t>CliffordT03EP12</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP12 HD</t>
-  </si>
-  <si>
     <t>EP 12</t>
   </si>
   <si>
-    <t>Edye presenta: ¡Hay un nuevo cartero en Birdwell Island! La pandilla ayuda con la fiesta de bienvenida.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hay un nuevo cartero en la isla Birdwell. Emily Elizabeth, Clifford, Tucker y Bailey ayudan a la Sra. Clayton a entregar invitaciones para la fiesta de bienvenida . De pronto, se dan cuenta de que falta llevar la invitación al invitado de honor!</t>
-  </si>
-  <si>
-    <t>EECBRD312.ts</t>
-  </si>
-  <si>
-    <t>EECBRD312_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD313_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000313</t>
-  </si>
-  <si>
-    <t>CliffordT03EP13</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP13 HD</t>
-  </si>
-  <si>
     <t>EP 13</t>
   </si>
   <si>
-    <t>Edye presenta: Pablo está muy triste; su autor favorito no puede visitar la isla.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pablo está devastado porque su autor favorito no puede visitar la isla Birdwell. ¡Deseaba tanto conocerlo! Emily, Clifford y sus amigos intentan animarlo representando una de sus historias... sin percatarse de que el autor, sí llegó después de todo.</t>
-  </si>
-  <si>
-    <t>EECBRD313.ts</t>
-  </si>
-  <si>
-    <t>EECBRD313_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD314_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000314</t>
-  </si>
-  <si>
-    <t>CliffordT03EP14</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP14 HD</t>
-  </si>
-  <si>
     <t>EP 14</t>
   </si>
   <si>
-    <t>Edye presenta: Tucker quiere ganar una insignia de perro bombero por su valentía.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Ha llegado el día del Desafío del perro bombero y Tucker quiere ganar su insignia de valentía. ¡Pero tiene miedo! Con la ayuda de Clifford y Emily, Tucker aprende que está bien tener miedo y que si actúas a pesar de lo que sientes, ¡eso es valentía!</t>
-  </si>
-  <si>
-    <t>EECBRD314.ts</t>
-  </si>
-  <si>
-    <t>EECBRD314_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD315_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000315</t>
-  </si>
-  <si>
-    <t>CliffordT03EP15</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP15 HD</t>
-  </si>
-  <si>
     <t>EP 15</t>
   </si>
   <si>
-    <t>Edye presenta: Un día lluvioso significa que es hora de una carrera fangosa de Ruff Ruff.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Emily Elizabeth, Clifford, Sam y Bailey se preparan para un día de carreras en el barro, pero Tucker teme ensuciarse o ¿tiene miedo a bañarse? ¿Pueden Clifford y sus amigos demostrarle a Tucker que bañarse puede ser divertido?</t>
-  </si>
-  <si>
-    <t>EECBRD315.ts</t>
-  </si>
-  <si>
-    <t>EECBRD315_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD316_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000316</t>
-  </si>
-  <si>
-    <t>CliffordT03EP16</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP16 HD</t>
-  </si>
-  <si>
     <t>EP 16</t>
   </si>
   <si>
-    <t>Edye presenta: ¡Una noche de cine al aire libre inspira a Samantha a hacer su propia película!</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Una noche de cine al aire libre inspira a Samantha a hacer su propia película! Incluir a todos tus amigos significa lidiar con muchas, muchas, ideas y descubrir qué significa ser un líder.</t>
-  </si>
-  <si>
-    <t>EECBRD316.ts</t>
-  </si>
-  <si>
-    <t>EECBRD316_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD317_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000317</t>
-  </si>
-  <si>
-    <t>CliffordT03EP17</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP17 HD</t>
-  </si>
-  <si>
     <t>EP 17</t>
   </si>
   <si>
-    <t>Edye presenta: Para recaudar dinero, Emily Elizabeth y Clifford instalaron un puesto de limonada.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Emily Elizabeth, Clifford y sus amigos montan un puesto de limonada para recaudar fondos para nuevas camisetas de fútbol. Rápidamente se vuelven locos, pero el equipo se da cuenta de que pueden lograr cualquier cosa cuando todos trabajan juntos.</t>
-  </si>
-  <si>
-    <t>EECBRD317.ts</t>
-  </si>
-  <si>
-    <t>EECBRD317_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD318_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000318</t>
-  </si>
-  <si>
-    <t>CliffordT03EP18</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP18 HD</t>
-  </si>
-  <si>
     <t>EP 18</t>
   </si>
   <si>
-    <t>Edye presenta: Emily está lista para saltar del trampolín por primera vez, pero la piscina está cerrada.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Emily Elizabeth está lista para saltar del trampolín por primera vez, pero como la piscina está cerrada, ella y Clifford pasan el tiempo fingiendo ser animales en busca de agua en medio de la selva.</t>
-  </si>
-  <si>
-    <t>EECBRD318.ts</t>
-  </si>
-  <si>
-    <t>EECBRD318_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD319_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000319</t>
-  </si>
-  <si>
-    <t>CliffordT03EP19</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP19 HD</t>
-  </si>
-  <si>
     <t>EP 19</t>
   </si>
   <si>
-    <t>Edye presenta: Emily Elizabeth tiene un gran regalo sorpresa para su tía Violet.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Emily Elizabeth tiene un gran regalo sorpresa para su tía Violeta: aviones de papel con dibujos de los momentos queridos que han compartido juntas. Pero el viento esparce los aviones de papel por toda la ciudad.</t>
-  </si>
-  <si>
-    <t>EECBRD319.ts</t>
-  </si>
-  <si>
-    <t>EECBRD319_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD320_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000320</t>
-  </si>
-  <si>
-    <t>CliffordT03EP20</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP20 HD</t>
-  </si>
-  <si>
     <t>EP 20</t>
   </si>
   <si>
-    <t>Edye presenta: Emily Elizabeth y el gran Cliffini deleitan al público con su prestidigitación.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Presentamos a la mágica Emily Elizabeth y al gran Cliffini, deleitando al público con sus prestidigitaciones. Pero mientras el cangrejo ermitaño mascota de Samantha cuida a otros cangrejos, un truco de magia surte efecto y ¡Shelly desaparece!</t>
-  </si>
-  <si>
-    <t>EECBRD320.ts</t>
-  </si>
-  <si>
-    <t>EECBRD320_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD321_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000321</t>
-  </si>
-  <si>
-    <t>CliffordT03EP21</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP21 HD</t>
-  </si>
-  <si>
     <t>EP 21</t>
   </si>
   <si>
-    <t>Edye presenta: Emily y sus amigos se disponen a escalar una montaña y ponerle el nombre de sus conquistadores.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Emily Elizabeth y sus amigos se enteran de que el compañero de viaje del Sr. Morgan, Ravi, escaló una montaña y le puso nombre, ¡deciden hacer lo mismo! Pero hay muchos obstáculos imaginarios en el camino, ¿llegarán alguna vez a la cima?</t>
-  </si>
-  <si>
-    <t>EECBRD321.ts</t>
-  </si>
-  <si>
-    <t>EECBRD321_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD322_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000322</t>
-  </si>
-  <si>
-    <t>CliffordT03EP22</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP22 HD</t>
-  </si>
-  <si>
     <t>EP 22</t>
   </si>
   <si>
-    <t>Edye presenta: Los Animales guardianes del espacio luchan contra la Comadreja Espacial para salvar el cosmos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los animales Guardabosques Estelares luchan contra la malvada Comadreja Espacial en un juego épico para salvar la galaxia! Pero cuando el tamaño de Clifford dificulta jugar a las escondidas, Emily debe encontrar una forma creativa de ayudarlo.</t>
-  </si>
-  <si>
-    <t>EECBRD322.ts</t>
-  </si>
-  <si>
-    <t>EECBRD322_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD323_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000323</t>
-  </si>
-  <si>
-    <t>CliffordT03EP23</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP23 HD</t>
-  </si>
-  <si>
     <t>EP 23</t>
   </si>
   <si>
-    <t>Edye presenta: Emily y Jack quieren cocinar algo para la fiesta de la estación de bomberos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Emily y Jack quieren cocinar algo para la fiesta de la estación de bomberos. Emily Elizabeth ha cultivado un tomate enorme, pero cuando un desacuerdo hace que el tomate ruede colina abajo, deben dejar de lado sus diferencias para salvar su amistad.</t>
-  </si>
-  <si>
-    <t>EECBRD323.ts</t>
-  </si>
-  <si>
-    <t>EECBRD323_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD324_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000324</t>
-  </si>
-  <si>
-    <t>CliffordT03EP24</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP24 HD</t>
-  </si>
-  <si>
     <t>EP 24</t>
   </si>
   <si>
-    <t>Edye presenta: Emily Elizabeth y Clifford fingen ser robots para terminar sus tareas rápidamente.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Howard están organizando una cena, por lo que Emily Elizabeth y Clifford fingen ser robots que terminan rápidamente sus tareas. ¡Pero los dos amigos se dejan llevar un poco en su robo-carrera y cometen muchos errores en el camino!</t>
-  </si>
-  <si>
-    <t>EECBRD324.ts</t>
-  </si>
-  <si>
-    <t>EECBRD324_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD325_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000325</t>
-  </si>
-  <si>
-    <t>CliffordT03EP25</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP25 HD</t>
-  </si>
-  <si>
     <t>EP 25</t>
   </si>
   <si>
-    <t>Edye presenta: El mal humor de Emily Elizabeth hace que casi todos en la isla también estén descontentos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El mal humor de Emily Elizabeth provoca una reacción en cadena, y pronto casi todos en la isla se encuentran en el mismo estado de enojo. Con un poco de ayuda de Clifford, los amigos pronto descubren que la risa y la bondad también son contagiosas.</t>
-  </si>
-  <si>
-    <t>EECBRD325.ts</t>
-  </si>
-  <si>
-    <t>EECBRD325_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD326_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB7000000000000326</t>
-  </si>
-  <si>
-    <t>CliffordT03EP26</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP26 HD</t>
-  </si>
-  <si>
     <t>EP 26</t>
   </si>
   <si>
-    <t>Edye presenta: Cuando Jack saca los tesoros de viaje de su padre, los chicos planean hacer una gira mundial.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Jack saca el baúl de los tesoros de viajes mundiales de su padre, los niños se inspiran para hacer una "gira mundial" por la isla Birdwell. Viajan a México, India y Australia ... pero cuando llegan a Italia, Sam ya no quiere jugar más.</t>
-  </si>
-  <si>
-    <t>EECBRD326.ts</t>
-  </si>
-  <si>
-    <t>EECBRD326_land.jpg</t>
-  </si>
-  <si>
-    <t>EECBRD311_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000311</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP11</t>
-  </si>
-  <si>
-    <t>EECBRD311.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD312_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000312</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP12</t>
-  </si>
-  <si>
-    <t>EECBRD312.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD313_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000313</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP13</t>
-  </si>
-  <si>
-    <t>EECBRD313.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD314_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000314</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP14</t>
-  </si>
-  <si>
-    <t>EECBRD314.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD315_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000315</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP15</t>
-  </si>
-  <si>
-    <t>EECBRD315.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD316_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000316</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP16</t>
-  </si>
-  <si>
-    <t>EECBRD316.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD317_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000317</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP17</t>
-  </si>
-  <si>
-    <t>EECBRD317.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD318_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000318</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP18</t>
-  </si>
-  <si>
-    <t>EECBRD318.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD319_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000319</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP19</t>
-  </si>
-  <si>
-    <t>EECBRD319.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD320_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000320</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP20</t>
-  </si>
-  <si>
-    <t>EECBRD320.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD321_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000321</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP21</t>
-  </si>
-  <si>
-    <t>EECBRD321.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD322_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000322</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP22</t>
-  </si>
-  <si>
-    <t>EECBRD322.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD323_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000323</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP23</t>
-  </si>
-  <si>
-    <t>EECBRD323.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD324_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000324</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP24</t>
-  </si>
-  <si>
-    <t>EECBRD324.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD325_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000325</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP25</t>
-  </si>
-  <si>
-    <t>EECBRD325.mpg</t>
-  </si>
-  <si>
-    <t>EECBRD326_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EECB6000000000000326</t>
-  </si>
-  <si>
-    <t>Clifford T03 EP26</t>
-  </si>
-  <si>
-    <t>EECBRD326.mpg</t>
+    <t>EEDRPD111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000111</t>
+  </si>
+  <si>
+    <t>Serie Dr. Panda</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP11</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mei Mei causa una gran problema de tráfico y Dr. Panda encuentra la forma de resolverlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda y Mei Mei están a cargo de dirigir el tránsito. Todo parece ir normal hasta que Mei Mei convierte las señales de tráfico en una rutina de baile que causa un caos. Dr. Panda debe crear otra rutina especial, para hacer circular los coches.</t>
+  </si>
+  <si>
+    <t>Infantil/Dr. Panda</t>
+  </si>
+  <si>
+    <t>Dr. Panda</t>
+  </si>
+  <si>
+    <t>Rasmus Hardiker, Marc Silk, Nicholls Sue Elliott ,Teresa Gallagher , Kerry Shake</t>
+  </si>
+  <si>
+    <t>Dr.Panda Ltd</t>
+  </si>
+  <si>
+    <t>Hardiker Rasmus, Silk Marc, Elliott Nicholls Sue, Gallagher Teresa, Shake Kerry</t>
+  </si>
+  <si>
+    <t>Chin, Patrick</t>
+  </si>
+  <si>
+    <t>EEDRPD111.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000112</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP12</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda debe dejar reluciente la casa de Olette…después de que Hoopa la llena de basura.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Olette quiere que su casa impecable para recibir a Bip y Mei Mei y contrata a Dr. Panda y su máquina de limpieza casera. Pero Hoopa confunde los controles y pasa de una casa brillante a una llena de desperdicios regados por el suelo.</t>
+  </si>
+  <si>
+    <t>EEDRPD112.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000113</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP13</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: June va a la panadería del Dr. Panda a elegir un pastel especial y recibe no uno, sino muchos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: June va a la panadería del Dr. Panda para elegir un pastel, lo quiere especial, y no sabe qué sabor elegir. Dr. Panda le sugiere que sea uno de 3 sabores, June aprueba la idea, sólo que se presentará un inconveniente con el super pastel.</t>
+  </si>
+  <si>
+    <t>Vernooij, Wip</t>
+  </si>
+  <si>
+    <t>EEDRPD113.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000114</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP14</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: En el Día del deporte de Panda City Dr. Panda resuelve una problema entre los participantes.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda es el árbitro en el Día del Deporte de Panda City, y se enfrenta a un problema Bip está utilizando las reglas para su pripio beneficio, lo cual causa molestia a Olette, quien le pide que lo castigue.</t>
+  </si>
+  <si>
+    <t>EEDRPD114.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000115</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP15</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: En el restaurante de Dr. Panda no hay huevos. Las gallinas de Moo no están haciendo su trabajo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda abre un restaurante, con Hoopa como su camarero, Ziggy, uno de sus comensales tiene un apetito voraz y pide huevos, el problema es que las gallinas de Moo, no han producido ninguno porque no hay paja para ellas en el gallineno.</t>
+  </si>
+  <si>
+    <t>EEDRPD115.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000116</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP16</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda tiene que inventar vehículo capaz de transportar huevos ¡sin romper uno solo!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda enfrenta un nuevo desafío: transportar una carga de frágiles huevos, desde la ganja de Moo hasta la cabaña de Leo, por una carretera montañosa. Deberá inventar un transportador de huevos especial para que lleguen en una sola pieza.</t>
+  </si>
+  <si>
+    <t>EEDRPD116.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000117</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP17</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda desafía a una lavadora enloquecida llena de espuma con su equipo de buceo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda ayuda a Moo a lavar la ropa, pero la lavadora se descompone y Hoopa empeora las cosas en lugar de mejorarlas. Dr. Panda desafía a una lavadora enloquecida llena de espuma con su equipo de buceo.</t>
+  </si>
+  <si>
+    <t>EEDRPD117.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000118</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP18</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda enfrenta serios problemas en su pizería cuando los pedidos comienzan a acumularse.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda enfrenta serios problemas en su pizería cuando tiene un compromiso con Olette y el juego de Bip, y los pedidos comienzan a acumularse. Deberá enfrentar una carrera contra el tiempo para entregar todo a tiempo.</t>
+  </si>
+  <si>
+    <t>EEDRPD118.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000119</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP19</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda y Toto ayudan a Leo a localizar a una rara mariposa en el parque de la ciudad.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda y Toto ayudan a Leo a localizar un raro ejemplar de mariposa en el parque de la ciudad. Cada vez que ven algo de colores, resultan ser sus amigos con sus trajes de camuflaje ¿La encontrarán antes que desaparezca hasta el siguiente año?</t>
+  </si>
+  <si>
+    <t>EEDRPD119.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000120</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP20</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda debe reponer unas piezas especiales de alfarería que Hoopa vendió por error.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda tiene una tienda donde vende sus productos de alfarería. Por equivocación, Hoopa vende un juego de platos fabricado especialmente para Moo. Dr. Panda tendrá que elaborar otro, sólo que la arcilla se ha terminado.</t>
+  </si>
+  <si>
+    <t>EEDRPD120.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD121_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000121</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP21</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda debe ayudar Moo a superar sus temores para que acepte la revisión del dentista.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Doctor Panda es un dentista muy tranquilo. Pero cuando Moo tiene tiene que pasar por una revisión dental, se pone muy nerviosa. Dr. Panda la calma, demostrando a Moo que la revisión es muy sencilla ¡con una de sus gallinas!</t>
+  </si>
+  <si>
+    <t>EEDRPD121.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD121_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD122_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000122</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP22</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda será el DJ en la fiesta de June ¡pero no logra encontrar su canción favorita!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Dr. Panda es el DJ de radio de Panda City, y sus amigos solicitan sus favoritos. Pero cuando Leo solicita una canción para el cumpleaños de June lo mete en un problema porque Dr. Panda no puede encontrarlo y la fiesta está por comenzar.</t>
+  </si>
+  <si>
+    <t>EEDRPD122.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD122_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD123_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000123</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP23</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Dr Panda ayudará a armar el esqueleto de un dinosaurio pero no tienen una guía para hacerlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En el museo de la ciudad, Dr. Panda ayudará a Richy a armar una nueva exhibición de dinosaurios. Pero el esqueleto de un dinosaurio resulta ser un revoltijo de huesos en una caja y necesitan un instructivo y el Dr. Panda se dispone a encontrarlo.</t>
+  </si>
+  <si>
+    <t>EEDRPD123.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD123_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD124_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000124</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP24</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda, Mei Mei y Bip se preparan para presentarse en un concurso de baile.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mei Mei participa en una competencia de baile, con Bip como pareja, y el Dr Panda es su profesor. Él es el mejor bailarín, pero le cuesta seguir las instrucciones y ella teme no poder bailar el vals. Por suerte, un nuevo compañero se presenta.</t>
+  </si>
+  <si>
+    <t>EEDRPD124.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD124_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD125_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000125</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP25</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda tiene un truco para que Ziggy arregle el jardín de Olette tras desordenarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Dr. Panda ayuda a Olette a ordenar su jardín. Mientras Ziggy se imagina un césped prolijamente recortado para practicar su swing de golf conviierte el jardín de Olette en un caos, al Dr. Panda se le ocurre un truco para que limpie el desastre.</t>
+  </si>
+  <si>
+    <t>EEDRPD125.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD125_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD126_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR6000000000000126</t>
+  </si>
+  <si>
+    <t>Dr. PandaT01EP26</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: La escultura de hielo que preparó Dr. Panda para Moo ¡se derritió! ¿Podrá repornerla a tiempo?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Doctor Panda es un escultor de hielo y talla una figura para la apertura del carrito de paletas de Moo . Cuando la escueltura se derrite por accidente, Toto inspira al Dr. Panda para hacer un nuevo escultura de gelatina - una Pollo De Paletas.</t>
+  </si>
+  <si>
+    <t>EEDRPD126.mpg</t>
+  </si>
+  <si>
+    <t>EEDRPD126_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDRPD111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000111</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD111.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000112</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD112.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000113</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD113.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000114</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD114.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000115</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD115.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000116</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD116.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000117</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD117.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000118</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD118.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000119</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD119.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000120</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD120.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD121_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000121</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD121.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD122_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000122</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD122.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD123_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000123</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD123.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD124_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000124</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD124.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD125_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000125</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEDRPD125.ts</t>
+  </si>
+  <si>
+    <t>EEDRPD126_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDR7000000000000126</t>
+  </si>
+  <si>
+    <t>Dr. Panda T01 EP26 HD</t>
+  </si>
+  <si>
+    <t>Edye presenta: Doctor Panda es un escultor de hielo y talla una figura para la apertura del carrito de paletas de Moo. Cuando la escueltura se derrite por accidente, Toto inspira al Dr. Panda para hacer un nuevo escultura de gelatina - una Pollo De Paletas.</t>
+  </si>
+  <si>
+    <t>EEDRPD126.ts</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1364,7 @@
   <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF17"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1585,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1603,13 +1609,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -1619,31 +1625,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -1652,7 +1658,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
@@ -1664,28 +1670,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -1707,7 +1713,7 @@
         <v>56</v>
       </c>
       <c r="AS2" s="15">
-        <v>349391984</v>
+        <v>220676656</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>57</v>
@@ -1716,7 +1722,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -1726,7 +1732,7 @@
         <v>59</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -1742,12 +1748,12 @@
         <v>62</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7">
         <v>44623</v>
@@ -1771,13 +1777,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -1787,31 +1793,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -1820,7 +1826,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
@@ -1832,28 +1838,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -1875,7 +1881,7 @@
         <v>56</v>
       </c>
       <c r="AS3" s="15">
-        <v>349363220</v>
+        <v>222627344</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>57</v>
@@ -1884,7 +1890,7 @@
         <v>58</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -1894,7 +1900,7 @@
         <v>59</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -1910,12 +1916,12 @@
         <v>62</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="B4" s="7">
         <v>44623</v>
@@ -1939,13 +1945,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -1955,31 +1961,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -1988,7 +1994,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
@@ -2000,28 +2006,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -2043,7 +2049,7 @@
         <v>56</v>
       </c>
       <c r="AS4" s="15">
-        <v>349391984</v>
+        <v>219207812</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>57</v>
@@ -2052,7 +2058,7 @@
         <v>58</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -2062,7 +2068,7 @@
         <v>59</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -2078,12 +2084,12 @@
         <v>62</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="B5" s="7">
         <v>44623</v>
@@ -2107,13 +2113,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -2123,31 +2129,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -2156,7 +2162,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
@@ -2168,28 +2174,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -2211,7 +2217,7 @@
         <v>56</v>
       </c>
       <c r="AS5" s="15">
-        <v>349377696</v>
+        <v>222506836</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>57</v>
@@ -2220,7 +2226,7 @@
         <v>58</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -2230,7 +2236,7 @@
         <v>59</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -2246,12 +2252,12 @@
         <v>62</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="B6" s="7">
         <v>44623</v>
@@ -2275,13 +2281,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -2291,31 +2297,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -2324,7 +2330,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
@@ -2336,28 +2342,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -2379,7 +2385,7 @@
         <v>56</v>
       </c>
       <c r="AS6" s="15">
-        <v>349377696</v>
+        <v>225071532</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>57</v>
@@ -2388,7 +2394,7 @@
         <v>58</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -2398,7 +2404,7 @@
         <v>59</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -2414,12 +2420,12 @@
         <v>62</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="B7" s="7">
         <v>44623</v>
@@ -2443,13 +2449,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -2459,31 +2465,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -2492,7 +2498,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
@@ -2504,28 +2510,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -2547,7 +2553,7 @@
         <v>56</v>
       </c>
       <c r="AS7" s="15">
-        <v>349331824</v>
+        <v>223092080</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>57</v>
@@ -2556,7 +2562,7 @@
         <v>58</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -2566,7 +2572,7 @@
         <v>59</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -2582,12 +2588,12 @@
         <v>62</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="B8" s="7">
         <v>44623</v>
@@ -2611,13 +2617,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -2627,31 +2633,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -2660,7 +2666,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
@@ -2672,28 +2678,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -2715,7 +2721,7 @@
         <v>56</v>
       </c>
       <c r="AS8" s="15">
-        <v>349377696</v>
+        <v>223961392</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>57</v>
@@ -2724,7 +2730,7 @@
         <v>58</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -2734,7 +2740,7 @@
         <v>59</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -2750,12 +2756,12 @@
         <v>62</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="B9" s="7">
         <v>44623</v>
@@ -2779,13 +2785,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -2795,31 +2801,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -2828,7 +2834,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
@@ -2840,28 +2846,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -2883,7 +2889,7 @@
         <v>56</v>
       </c>
       <c r="AS9" s="15">
-        <v>349377696</v>
+        <v>223588400</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>57</v>
@@ -2892,7 +2898,7 @@
         <v>58</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -2902,7 +2908,7 @@
         <v>59</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -2918,12 +2924,12 @@
         <v>62</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="B10" s="7">
         <v>44623</v>
@@ -2947,13 +2953,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -2963,31 +2969,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -2996,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
@@ -3008,28 +3014,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE10" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -3051,7 +3057,7 @@
         <v>56</v>
       </c>
       <c r="AS10" s="15">
-        <v>349377696</v>
+        <v>220992120</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>57</v>
@@ -3060,7 +3066,7 @@
         <v>58</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -3070,7 +3076,7 @@
         <v>59</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -3086,12 +3092,12 @@
         <v>62</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="B11" s="7">
         <v>44623</v>
@@ -3115,13 +3121,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -3131,31 +3137,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -3164,7 +3170,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
@@ -3176,28 +3182,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -3219,7 +3225,7 @@
         <v>56</v>
       </c>
       <c r="AS11" s="15">
-        <v>349331824</v>
+        <v>225897792</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>57</v>
@@ -3228,7 +3234,7 @@
         <v>58</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -3238,7 +3244,7 @@
         <v>59</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -3254,12 +3260,12 @@
         <v>62</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="B12" s="7">
         <v>44623</v>
@@ -3283,13 +3289,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -3299,31 +3305,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V12" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -3332,7 +3338,7 @@
         <v>44</v>
       </c>
       <c r="Z12" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA12" s="4">
         <v>45138</v>
@@ -3344,28 +3350,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -3387,7 +3393,7 @@
         <v>56</v>
       </c>
       <c r="AS12" s="9">
-        <v>349377696</v>
+        <v>223648560</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>57</v>
@@ -3396,7 +3402,7 @@
         <v>58</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -3406,7 +3412,7 @@
         <v>59</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -3422,12 +3428,12 @@
         <v>62</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="B13" s="7">
         <v>44623</v>
@@ -3451,13 +3457,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -3467,31 +3473,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V13" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -3500,7 +3506,7 @@
         <v>44</v>
       </c>
       <c r="Z13" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA13" s="4">
         <v>45138</v>
@@ -3512,28 +3518,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE13" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -3555,7 +3561,7 @@
         <v>56</v>
       </c>
       <c r="AS13" s="9">
-        <v>349331824</v>
+        <v>225642488</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>57</v>
@@ -3564,7 +3570,7 @@
         <v>58</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -3574,7 +3580,7 @@
         <v>59</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -3590,12 +3596,12 @@
         <v>62</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="B14" s="7">
         <v>44623</v>
@@ -3619,13 +3625,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -3635,31 +3641,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V14" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -3668,7 +3674,7 @@
         <v>44</v>
       </c>
       <c r="Z14" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA14" s="4">
         <v>45138</v>
@@ -3680,28 +3686,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE14" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -3723,7 +3729,7 @@
         <v>56</v>
       </c>
       <c r="AS14" s="9">
-        <v>349377696</v>
+        <v>224426128</v>
       </c>
       <c r="AT14" s="9" t="s">
         <v>57</v>
@@ -3732,7 +3738,7 @@
         <v>58</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -3742,7 +3748,7 @@
         <v>59</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -3758,12 +3764,12 @@
         <v>62</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="B15" s="7">
         <v>44623</v>
@@ -3787,13 +3793,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -3803,31 +3809,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V15" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -3836,7 +3842,7 @@
         <v>44</v>
       </c>
       <c r="Z15" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA15" s="4">
         <v>45138</v>
@@ -3848,28 +3854,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE15" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -3891,7 +3897,7 @@
         <v>56</v>
       </c>
       <c r="AS15" s="9">
-        <v>349331824</v>
+        <v>224893684</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>57</v>
@@ -3900,7 +3906,7 @@
         <v>58</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -3910,7 +3916,7 @@
         <v>59</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -3926,12 +3932,12 @@
         <v>62</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="B16" s="7">
         <v>44623</v>
@@ -3955,13 +3961,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -3971,31 +3977,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>8.5879629629629622E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V16" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -4004,7 +4010,7 @@
         <v>44</v>
       </c>
       <c r="Z16" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA16" s="4">
         <v>45138</v>
@@ -4016,28 +4022,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE16" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -4059,7 +4065,7 @@
         <v>56</v>
       </c>
       <c r="AS16" s="9">
-        <v>348852612</v>
+        <v>221652000</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>57</v>
@@ -4068,7 +4074,7 @@
         <v>58</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -4078,7 +4084,7 @@
         <v>59</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -4094,12 +4100,12 @@
         <v>62</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="B17" s="7">
         <v>44623</v>
@@ -4123,13 +4129,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
@@ -4139,31 +4145,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>8.5879629629629622E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V17" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -4172,7 +4178,7 @@
         <v>44</v>
       </c>
       <c r="Z17" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA17" s="4">
         <v>45138</v>
@@ -4184,28 +4190,28 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE17" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -4227,7 +4233,7 @@
         <v>56</v>
       </c>
       <c r="AS17" s="9">
-        <v>348806740</v>
+        <v>220662180</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>57</v>
@@ -4236,7 +4242,7 @@
         <v>58</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -4246,7 +4252,7 @@
         <v>59</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -4262,7 +4268,7 @@
         <v>62</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
@@ -4875,7 +4881,7 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:BF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5095,7 +5101,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -5119,13 +5125,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -5135,31 +5141,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -5168,7 +5174,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
@@ -5180,28 +5186,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -5223,7 +5229,7 @@
         <v>56</v>
       </c>
       <c r="AS2" s="15">
-        <v>698726252</v>
+        <v>441295408</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -5232,7 +5238,7 @@
         <v>63</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -5242,7 +5248,7 @@
         <v>59</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -5258,12 +5264,12 @@
         <v>62</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -5287,13 +5293,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -5303,31 +5309,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -5336,7 +5342,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
@@ -5348,28 +5354,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -5391,7 +5397,7 @@
         <v>56</v>
       </c>
       <c r="AS3" s="15">
-        <v>698663272</v>
+        <v>445196972</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -5400,7 +5406,7 @@
         <v>63</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -5410,7 +5416,7 @@
         <v>59</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -5426,12 +5432,12 @@
         <v>62</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -5455,13 +5461,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -5471,31 +5477,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -5504,7 +5510,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
@@ -5516,28 +5522,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -5559,7 +5565,7 @@
         <v>56</v>
       </c>
       <c r="AS4" s="15">
-        <v>698726252</v>
+        <v>438357908</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -5568,7 +5574,7 @@
         <v>63</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -5578,7 +5584,7 @@
         <v>59</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -5594,12 +5600,12 @@
         <v>62</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -5623,13 +5629,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -5639,31 +5645,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -5672,7 +5678,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
@@ -5684,28 +5690,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -5727,7 +5733,7 @@
         <v>56</v>
       </c>
       <c r="AS5" s="15">
-        <v>698663272</v>
+        <v>444955956</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -5736,7 +5742,7 @@
         <v>63</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -5746,7 +5752,7 @@
         <v>59</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -5762,12 +5768,12 @@
         <v>62</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -5791,13 +5797,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -5807,31 +5813,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -5840,7 +5846,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
@@ -5852,28 +5858,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -5895,7 +5901,7 @@
         <v>56</v>
       </c>
       <c r="AS6" s="15">
-        <v>698697676</v>
+        <v>450085348</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -5904,7 +5910,7 @@
         <v>63</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -5914,7 +5920,7 @@
         <v>59</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -5930,12 +5936,12 @@
         <v>62</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -5959,13 +5965,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -5975,31 +5981,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -6008,7 +6014,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
@@ -6020,28 +6026,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -6063,7 +6069,7 @@
         <v>56</v>
       </c>
       <c r="AS7" s="15">
-        <v>698605932</v>
+        <v>446126444</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -6072,7 +6078,7 @@
         <v>63</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -6082,7 +6088,7 @@
         <v>59</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -6098,12 +6104,12 @@
         <v>62</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -6127,13 +6133,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -6143,31 +6149,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -6176,7 +6182,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
@@ -6188,28 +6194,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -6231,7 +6237,7 @@
         <v>56</v>
       </c>
       <c r="AS8" s="15">
-        <v>698697676</v>
+        <v>447864880</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -6240,7 +6246,7 @@
         <v>63</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -6250,7 +6256,7 @@
         <v>59</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -6266,12 +6272,12 @@
         <v>62</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -6295,13 +6301,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -6311,31 +6317,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -6344,7 +6350,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
@@ -6356,28 +6362,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -6399,7 +6405,7 @@
         <v>56</v>
       </c>
       <c r="AS9" s="15">
-        <v>698605744</v>
+        <v>447113256</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -6408,7 +6414,7 @@
         <v>63</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -6418,7 +6424,7 @@
         <v>59</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -6434,12 +6440,12 @@
         <v>62</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -6463,13 +6469,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -6479,31 +6485,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -6512,7 +6518,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
@@ -6524,28 +6530,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE10" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -6567,7 +6573,7 @@
         <v>56</v>
       </c>
       <c r="AS10" s="15">
-        <v>698697676</v>
+        <v>441926712</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -6576,7 +6582,7 @@
         <v>63</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -6586,7 +6592,7 @@
         <v>59</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -6602,12 +6608,12 @@
         <v>62</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -6631,13 +6637,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -6647,31 +6653,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -6680,7 +6686,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
@@ -6692,28 +6698,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -6735,7 +6741,7 @@
         <v>56</v>
       </c>
       <c r="AS11" s="9">
-        <v>698605744</v>
+        <v>451737680</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -6744,7 +6750,7 @@
         <v>63</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -6754,7 +6760,7 @@
         <v>59</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -6770,12 +6776,12 @@
         <v>62</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="B12" s="12">
         <v>44623</v>
@@ -6799,13 +6805,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -6815,31 +6821,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V12" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -6848,7 +6854,7 @@
         <v>44</v>
       </c>
       <c r="Z12" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA12" s="4">
         <v>45138</v>
@@ -6860,28 +6866,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -6903,7 +6909,7 @@
         <v>56</v>
       </c>
       <c r="AS12" s="9">
-        <v>698697676</v>
+        <v>447233764</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>56</v>
@@ -6912,7 +6918,7 @@
         <v>63</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -6922,7 +6928,7 @@
         <v>59</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -6938,12 +6944,12 @@
         <v>62</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="B13" s="12">
         <v>44623</v>
@@ -6967,13 +6973,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -6983,31 +6989,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V13" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -7016,7 +7022,7 @@
         <v>44</v>
       </c>
       <c r="Z13" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA13" s="4">
         <v>45138</v>
@@ -7028,28 +7034,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE13" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -7071,7 +7077,7 @@
         <v>56</v>
       </c>
       <c r="AS13" s="9">
-        <v>698605744</v>
+        <v>451227072</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>56</v>
@@ -7080,7 +7086,7 @@
         <v>63</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -7090,7 +7096,7 @@
         <v>59</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -7106,12 +7112,12 @@
         <v>62</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="B14" s="12">
         <v>44623</v>
@@ -7135,13 +7141,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -7151,31 +7157,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V14" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -7184,7 +7190,7 @@
         <v>44</v>
       </c>
       <c r="Z14" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA14" s="4">
         <v>45138</v>
@@ -7196,28 +7202,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE14" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -7239,7 +7245,7 @@
         <v>56</v>
       </c>
       <c r="AS14" s="9">
-        <v>698697676</v>
+        <v>448794352</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>56</v>
@@ -7248,7 +7254,7 @@
         <v>63</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -7258,7 +7264,7 @@
         <v>59</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -7274,12 +7280,12 @@
         <v>62</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="B15" s="12">
         <v>44623</v>
@@ -7303,13 +7309,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -7319,31 +7325,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>8.5995370370370357E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V15" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -7352,7 +7358,7 @@
         <v>44</v>
       </c>
       <c r="Z15" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA15" s="4">
         <v>45138</v>
@@ -7364,28 +7370,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE15" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -7407,7 +7413,7 @@
         <v>56</v>
       </c>
       <c r="AS15" s="9">
-        <v>698605744</v>
+        <v>449723824</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>56</v>
@@ -7416,7 +7422,7 @@
         <v>63</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -7426,7 +7432,7 @@
         <v>59</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -7442,12 +7448,12 @@
         <v>62</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="B16" s="12">
         <v>44623</v>
@@ -7471,13 +7477,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -7487,31 +7493,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>8.5879629629629622E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V16" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -7520,7 +7526,7 @@
         <v>44</v>
       </c>
       <c r="Z16" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA16" s="4">
         <v>45138</v>
@@ -7532,28 +7538,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE16" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -7575,7 +7581,7 @@
         <v>56</v>
       </c>
       <c r="AS16" s="9">
-        <v>697647696</v>
+        <v>443246284</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>56</v>
@@ -7584,7 +7590,7 @@
         <v>63</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -7594,7 +7600,7 @@
         <v>59</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -7610,12 +7616,12 @@
         <v>62</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="B17" s="12">
         <v>44623</v>
@@ -7639,13 +7645,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
@@ -7655,31 +7661,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>8.5879629629629622E-3</v>
+        <v>5.4282407407407404E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V17" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -7688,7 +7694,7 @@
         <v>44</v>
       </c>
       <c r="Z17" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA17" s="4">
         <v>45138</v>
@@ -7700,28 +7706,28 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE17" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -7743,7 +7749,7 @@
         <v>56</v>
       </c>
       <c r="AS17" s="9">
-        <v>697555764</v>
+        <v>441266832</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>56</v>
@@ -7752,7 +7758,7 @@
         <v>63</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -7762,7 +7768,7 @@
         <v>59</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -7778,7 +7784,7 @@
         <v>62</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7144E-752E-4D50-9D48-B0B3C015D745}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D3F44F-F490-4D66-88CD-317E2C82BA12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR_PANDA_T01-SD_ADI.XML" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="204">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -261,628 +261,388 @@
     <t>EP 20</t>
   </si>
   <si>
-    <t>EP 21</t>
-  </si>
-  <si>
-    <t>EP 22</t>
-  </si>
-  <si>
-    <t>EP 23</t>
-  </si>
-  <si>
-    <t>EP 24</t>
-  </si>
-  <si>
-    <t>EP 25</t>
-  </si>
-  <si>
-    <t>EP 26</t>
-  </si>
-  <si>
-    <t>EEDRPD111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000111</t>
-  </si>
-  <si>
-    <t>Serie Dr. Panda</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP11</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mei Mei causa una gran problema de tráfico y Dr. Panda encuentra la forma de resolverlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda y Mei Mei están a cargo de dirigir el tránsito. Todo parece ir normal hasta que Mei Mei convierte las señales de tráfico en una rutina de baile que causa un caos. Dr. Panda debe crear otra rutina especial, para hacer circular los coches.</t>
-  </si>
-  <si>
-    <t>Infantil/Dr. Panda</t>
-  </si>
-  <si>
-    <t>Dr. Panda</t>
-  </si>
-  <si>
-    <t>Rasmus Hardiker, Marc Silk, Nicholls Sue Elliott ,Teresa Gallagher , Kerry Shake</t>
-  </si>
-  <si>
-    <t>Dr.Panda Ltd</t>
-  </si>
-  <si>
-    <t>Hardiker Rasmus, Silk Marc, Elliott Nicholls Sue, Gallagher Teresa, Shake Kerry</t>
-  </si>
-  <si>
-    <t>Chin, Patrick</t>
-  </si>
-  <si>
-    <t>EEDRPD111.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000112</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP12</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda debe dejar reluciente la casa de Olette…después de que Hoopa la llena de basura.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Olette quiere que su casa impecable para recibir a Bip y Mei Mei y contrata a Dr. Panda y su máquina de limpieza casera. Pero Hoopa confunde los controles y pasa de una casa brillante a una llena de desperdicios regados por el suelo.</t>
-  </si>
-  <si>
-    <t>EEDRPD112.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000113</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP13</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: June va a la panadería del Dr. Panda a elegir un pastel especial y recibe no uno, sino muchos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: June va a la panadería del Dr. Panda para elegir un pastel, lo quiere especial, y no sabe qué sabor elegir. Dr. Panda le sugiere que sea uno de 3 sabores, June aprueba la idea, sólo que se presentará un inconveniente con el super pastel.</t>
-  </si>
-  <si>
-    <t>Vernooij, Wip</t>
-  </si>
-  <si>
-    <t>EEDRPD113.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000114</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP14</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: En el Día del deporte de Panda City Dr. Panda resuelve una problema entre los participantes.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda es el árbitro en el Día del Deporte de Panda City, y se enfrenta a un problema Bip está utilizando las reglas para su pripio beneficio, lo cual causa molestia a Olette, quien le pide que lo castigue.</t>
-  </si>
-  <si>
-    <t>EEDRPD114.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000115</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP15</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: En el restaurante de Dr. Panda no hay huevos. Las gallinas de Moo no están haciendo su trabajo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda abre un restaurante, con Hoopa como su camarero, Ziggy, uno de sus comensales tiene un apetito voraz y pide huevos, el problema es que las gallinas de Moo, no han producido ninguno porque no hay paja para ellas en el gallineno.</t>
-  </si>
-  <si>
-    <t>EEDRPD115.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000116</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP16</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda tiene que inventar vehículo capaz de transportar huevos ¡sin romper uno solo!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda enfrenta un nuevo desafío: transportar una carga de frágiles huevos, desde la ganja de Moo hasta la cabaña de Leo, por una carretera montañosa. Deberá inventar un transportador de huevos especial para que lleguen en una sola pieza.</t>
-  </si>
-  <si>
-    <t>EEDRPD116.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000117</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP17</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda desafía a una lavadora enloquecida llena de espuma con su equipo de buceo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda ayuda a Moo a lavar la ropa, pero la lavadora se descompone y Hoopa empeora las cosas en lugar de mejorarlas. Dr. Panda desafía a una lavadora enloquecida llena de espuma con su equipo de buceo.</t>
-  </si>
-  <si>
-    <t>EEDRPD117.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000118</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP18</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda enfrenta serios problemas en su pizería cuando los pedidos comienzan a acumularse.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda enfrenta serios problemas en su pizería cuando tiene un compromiso con Olette y el juego de Bip, y los pedidos comienzan a acumularse. Deberá enfrentar una carrera contra el tiempo para entregar todo a tiempo.</t>
-  </si>
-  <si>
-    <t>EEDRPD118.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000119</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP19</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda y Toto ayudan a Leo a localizar a una rara mariposa en el parque de la ciudad.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda y Toto ayudan a Leo a localizar un raro ejemplar de mariposa en el parque de la ciudad. Cada vez que ven algo de colores, resultan ser sus amigos con sus trajes de camuflaje ¿La encontrarán antes que desaparezca hasta el siguiente año?</t>
-  </si>
-  <si>
-    <t>EEDRPD119.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000120</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP20</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda debe reponer unas piezas especiales de alfarería que Hoopa vendió por error.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda tiene una tienda donde vende sus productos de alfarería. Por equivocación, Hoopa vende un juego de platos fabricado especialmente para Moo. Dr. Panda tendrá que elaborar otro, sólo que la arcilla se ha terminado.</t>
-  </si>
-  <si>
-    <t>EEDRPD120.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD121_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000121</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP21</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda debe ayudar Moo a superar sus temores para que acepte la revisión del dentista.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Doctor Panda es un dentista muy tranquilo. Pero cuando Moo tiene tiene que pasar por una revisión dental, se pone muy nerviosa. Dr. Panda la calma, demostrando a Moo que la revisión es muy sencilla ¡con una de sus gallinas!</t>
-  </si>
-  <si>
-    <t>EEDRPD121.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD121_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD122_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000122</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP22</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda será el DJ en la fiesta de June ¡pero no logra encontrar su canción favorita!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Dr. Panda es el DJ de radio de Panda City, y sus amigos solicitan sus favoritos. Pero cuando Leo solicita una canción para el cumpleaños de June lo mete en un problema porque Dr. Panda no puede encontrarlo y la fiesta está por comenzar.</t>
-  </si>
-  <si>
-    <t>EEDRPD122.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD122_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD123_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000123</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP23</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: El Dr Panda ayudará a armar el esqueleto de un dinosaurio pero no tienen una guía para hacerlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: En el museo de la ciudad, Dr. Panda ayudará a Richy a armar una nueva exhibición de dinosaurios. Pero el esqueleto de un dinosaurio resulta ser un revoltijo de huesos en una caja y necesitan un instructivo y el Dr. Panda se dispone a encontrarlo.</t>
-  </si>
-  <si>
-    <t>EEDRPD123.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD123_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD124_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000124</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP24</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda, Mei Mei y Bip se preparan para presentarse en un concurso de baile.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mei Mei participa en una competencia de baile, con Bip como pareja, y el Dr Panda es su profesor. Él es el mejor bailarín, pero le cuesta seguir las instrucciones y ella teme no poder bailar el vals. Por suerte, un nuevo compañero se presenta.</t>
-  </si>
-  <si>
-    <t>EEDRPD124.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD124_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD125_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000125</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP25</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda tiene un truco para que Ziggy arregle el jardín de Olette tras desordenarlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Dr. Panda ayuda a Olette a ordenar su jardín. Mientras Ziggy se imagina un césped prolijamente recortado para practicar su swing de golf conviierte el jardín de Olette en un caos, al Dr. Panda se le ocurre un truco para que limpie el desastre.</t>
-  </si>
-  <si>
-    <t>EEDRPD125.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD125_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD126_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR6000000000000126</t>
-  </si>
-  <si>
-    <t>Dr. PandaT01EP26</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: La escultura de hielo que preparó Dr. Panda para Moo ¡se derritió! ¿Podrá repornerla a tiempo?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Doctor Panda es un escultor de hielo y talla una figura para la apertura del carrito de paletas de Moo . Cuando la escueltura se derrite por accidente, Toto inspira al Dr. Panda para hacer un nuevo escultura de gelatina - una Pollo De Paletas.</t>
-  </si>
-  <si>
-    <t>EEDRPD126.mpg</t>
-  </si>
-  <si>
-    <t>EEDRPD126_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDRPD111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000111</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD111.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000112</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD112.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000113</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD113.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000114</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD114.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000115</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD115.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000116</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD116.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000117</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD117.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000118</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD118.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000119</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD119.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000120</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD120.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD121_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000121</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD121.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD122_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000122</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD122.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD123_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000123</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD123.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD124_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000124</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD124.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD125_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000125</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEDRPD125.ts</t>
-  </si>
-  <si>
-    <t>EEDRPD126_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDR7000000000000126</t>
-  </si>
-  <si>
-    <t>Dr. Panda T01 EP26 HD</t>
-  </si>
-  <si>
-    <t>Edye presenta: Doctor Panda es un escultor de hielo y talla una figura para la apertura del carrito de paletas de Moo. Cuando la escueltura se derrite por accidente, Toto inspira al Dr. Panda para hacer un nuevo escultura de gelatina - una Pollo De Paletas.</t>
-  </si>
-  <si>
-    <t>EEDRPD126.ts</t>
+    <t>EEDATG111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000111</t>
+  </si>
+  <si>
+    <t>Serie Daniel Tigre</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP11</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel visita a la Srita. Elena su casa es un museo carrusel. Juntos juegan a ser astronautas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel visita a la Srita. Elena cuya casa es un museo carrusel. Juntos jugarán a ser astronautas para volar al espacio exterior. Pero ocurre un contratiempo: el telescopio se ha dañado.</t>
+  </si>
+  <si>
+    <t>Infantil/Daniel Tigre</t>
+  </si>
+  <si>
+    <t>Daniel Tigre</t>
+  </si>
+  <si>
+    <t>Jake Bale, Tomy Lioutas, Heather Bambrick , Ted Dykstra</t>
+  </si>
+  <si>
+    <t>Striped Tiger, LLC</t>
+  </si>
+  <si>
+    <t>Bale Jake, Lioutas Tomy, Bambrick Heather, Dykstra Ted</t>
+  </si>
+  <si>
+    <t>Kapridov, Vadim</t>
+  </si>
+  <si>
+    <t>EEDATG111.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000112</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP12</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel visita el castillo del Príncipe Miércoles, quien le muestra su colección de piedras.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel va a jugar al castillo de su amigo Príncipe Miércoles, quien lo invita a conocer su colección de piedras. Pero hay un problema…no pueden jugar con ellas.</t>
+  </si>
+  <si>
+    <t>EEDATG112.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000113</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP13</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel va a jugar a casa de Catalina. Donde organizan una fiesta de cumpleaños para el Sr. Mono</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Daniel va a jugar a la casa de Catalina gatita. Organizan una fiesta de cumpleaños para el señor Mono. Todos los peluches están invitados a la fiesta. Pero surge un inconveniente. ¿Podrán los amigos ayudarse para solucionarlo?</t>
+  </si>
+  <si>
+    <t>EEDATG113.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000114</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP14</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: En la biblioteca de Úo, Daniel y su amigo crean su propio final de una historia de dinosaurios.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel visita a su amigo Úo el búho, quien lo invita jugar en su biblioteca. Juntos compartirán la lectura de un libro de dinosaurios, pero les falta la última página entonces tendrán que crear su propio final.</t>
+  </si>
+  <si>
+    <t>EEDATG114.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000115</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP15</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel decide sorprender a su papá enviándole una carta con un dibujo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Despúes de que Daniel y su papá reciben una carta del abuelo Tigre. Daniel decide sorpender a su papá enviándole una carta con un dibujo, por lo cual en compañía de su mamá va a la oficina de correo a depositarla.</t>
+  </si>
+  <si>
+    <t>EEDATG115.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000116</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP16</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel y su papá deciden soprender a mamá con un pan de banana elaborado por ellos mismos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel juega con su mamá, a quien decide hacerle un collar. Después junto con su papá van a la panadería para prepararle un pan de banana y sorprenderla.</t>
+  </si>
+  <si>
+    <t>EEDATG116.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000117</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP17</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: La mamá quiere hacer panqueques de fresas, así que van al Jardín Encantado a recolectarlas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel comienza el día haciendo ejercicios de estiramiento. La mamá quiere hacer panqueques de fresas, pero como no tienen fruta deben ir al Jardín Encantado a recolectarlas para acabar de preparar el desayuno.</t>
+  </si>
+  <si>
+    <t>EEDATG117.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000118</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP18</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel y sus amigas visitan la fábrica de crayones para conocer como se elaboran.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel y sus amigas Elena y Catalina, visitan la fábrica de crayones para conocer como se elaboran.</t>
+  </si>
+  <si>
+    <t>EEDATG118.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000119</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP19</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel compartirá con sus amigos su nuevo juguete el auto tigre-tástico.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy Daniel tiene una sorpresa para sus amigos compartirá con ellos su nuevo juguete el auto tigre-tástico. Su papá lo acompaña al parque donde se encontrará con sus amigos, quienes también llevarán sus juguetes. Todos comparten sus autos.</t>
+  </si>
+  <si>
+    <t>EEDATG119.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA6000000000000120</t>
+  </si>
+  <si>
+    <t>Daniel TigreT01EP20</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel y Catalina preparan un baile de la selva. Daniel será un león y su amiga una bella flor.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Daniel y Catalina preparan un show del baile de la selva. Daniel elige ser el gran león de la selva y su amiga una flor. Ambos compartirán el tutu para su presentación.</t>
+  </si>
+  <si>
+    <t>EEDATG120.mpg</t>
+  </si>
+  <si>
+    <t>EEDATG120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEDATG111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000111</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEDATG111.ts</t>
+  </si>
+  <si>
+    <t>EEDATG112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000112</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEDATG112.ts</t>
+  </si>
+  <si>
+    <t>EEDATG113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000113</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEDATG113.ts</t>
+  </si>
+  <si>
+    <t>EEDATG114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000114</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEDATG114.ts</t>
+  </si>
+  <si>
+    <t>EEDATG115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000115</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEDATG115.ts</t>
+  </si>
+  <si>
+    <t>EEDATG116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000116</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEDATG116.ts</t>
+  </si>
+  <si>
+    <t>EEDATG117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000117</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEDATG117.ts</t>
+  </si>
+  <si>
+    <t>EEDATG118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000118</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEDATG118.ts</t>
+  </si>
+  <si>
+    <t>EEDATG119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000119</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEDATG119.ts</t>
+  </si>
+  <si>
+    <t>EEDATG120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEDA7000000000000120</t>
+  </si>
+  <si>
+    <t>Daniel Tigre T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEDATG120.ts</t>
   </si>
 </sst>
 </file>
@@ -1363,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:BF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1345,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1609,13 +1369,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -1625,31 +1385,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>66</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -1670,28 +1430,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -1713,7 +1473,7 @@
         <v>56</v>
       </c>
       <c r="AS2" s="15">
-        <v>220676656</v>
+        <v>324551356</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>57</v>
@@ -1722,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -1732,7 +1492,7 @@
         <v>59</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -1748,12 +1508,12 @@
         <v>62</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B3" s="7">
         <v>44623</v>
@@ -1777,13 +1537,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -1793,31 +1553,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -1838,28 +1598,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -1881,7 +1641,7 @@
         <v>56</v>
       </c>
       <c r="AS3" s="15">
-        <v>222627344</v>
+        <v>324551356</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>57</v>
@@ -1890,7 +1650,7 @@
         <v>58</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -1900,7 +1660,7 @@
         <v>59</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -1916,12 +1676,12 @@
         <v>62</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7">
         <v>44623</v>
@@ -1945,13 +1705,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -1961,31 +1721,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -2006,28 +1766,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -2049,7 +1809,7 @@
         <v>56</v>
       </c>
       <c r="AS4" s="15">
-        <v>219207812</v>
+        <v>324491196</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>57</v>
@@ -2058,7 +1818,7 @@
         <v>58</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -2068,7 +1828,7 @@
         <v>59</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -2084,12 +1844,12 @@
         <v>62</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B5" s="7">
         <v>44623</v>
@@ -2113,13 +1873,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -2129,31 +1889,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -2174,28 +1934,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -2217,7 +1977,7 @@
         <v>56</v>
       </c>
       <c r="AS5" s="15">
-        <v>222506836</v>
+        <v>324508304</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>57</v>
@@ -2226,7 +1986,7 @@
         <v>58</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -2236,7 +1996,7 @@
         <v>59</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -2252,12 +2012,12 @@
         <v>62</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B6" s="7">
         <v>44623</v>
@@ -2281,13 +2041,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -2297,31 +2057,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>70</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -2342,28 +2102,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -2385,7 +2145,7 @@
         <v>56</v>
       </c>
       <c r="AS6" s="15">
-        <v>225071532</v>
+        <v>324508304</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>57</v>
@@ -2394,7 +2154,7 @@
         <v>58</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -2404,7 +2164,7 @@
         <v>59</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -2420,12 +2180,12 @@
         <v>62</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B7" s="7">
         <v>44623</v>
@@ -2449,13 +2209,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -2465,31 +2225,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>71</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -2510,28 +2270,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -2553,7 +2313,7 @@
         <v>56</v>
       </c>
       <c r="AS7" s="15">
-        <v>223092080</v>
+        <v>324508304</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>57</v>
@@ -2562,7 +2322,7 @@
         <v>58</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -2572,7 +2332,7 @@
         <v>59</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -2588,12 +2348,12 @@
         <v>62</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B8" s="7">
         <v>44623</v>
@@ -2617,13 +2377,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -2633,31 +2393,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -2678,28 +2438,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -2721,7 +2481,7 @@
         <v>56</v>
       </c>
       <c r="AS8" s="15">
-        <v>223961392</v>
+        <v>324491196</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>57</v>
@@ -2730,7 +2490,7 @@
         <v>58</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -2740,7 +2500,7 @@
         <v>59</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -2756,12 +2516,12 @@
         <v>62</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B9" s="7">
         <v>44623</v>
@@ -2785,13 +2545,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -2801,31 +2561,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -2846,28 +2606,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -2889,7 +2649,7 @@
         <v>56</v>
       </c>
       <c r="AS9" s="15">
-        <v>223588400</v>
+        <v>324491196</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>57</v>
@@ -2898,7 +2658,7 @@
         <v>58</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -2908,7 +2668,7 @@
         <v>59</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -2924,12 +2684,12 @@
         <v>62</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B10" s="7">
         <v>44623</v>
@@ -2953,13 +2713,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -2969,31 +2729,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -3014,28 +2774,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE10" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -3057,7 +2817,7 @@
         <v>56</v>
       </c>
       <c r="AS10" s="15">
-        <v>220992120</v>
+        <v>324491196</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>57</v>
@@ -3066,7 +2826,7 @@
         <v>58</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -3076,7 +2836,7 @@
         <v>59</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -3092,12 +2852,12 @@
         <v>62</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B11" s="7">
         <v>44623</v>
@@ -3121,13 +2881,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -3137,31 +2897,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -3182,28 +2942,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -3225,7 +2985,7 @@
         <v>56</v>
       </c>
       <c r="AS11" s="15">
-        <v>225897792</v>
+        <v>324508304</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>57</v>
@@ -3234,7 +2994,7 @@
         <v>58</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -3244,7 +3004,7 @@
         <v>59</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -3260,1016 +3020,368 @@
         <v>62</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U12" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V12" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK12" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
       <c r="AL12" s="8"/>
-      <c r="AM12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS12" s="9">
-        <v>223648560</v>
-      </c>
-      <c r="AT12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV12" s="9" t="s">
-        <v>177</v>
-      </c>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
       <c r="AW12" s="8"/>
-      <c r="AX12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ12" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF12" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U13" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V13" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF13" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK13" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS13" s="9">
-        <v>225642488</v>
-      </c>
-      <c r="AT13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV13" s="9" t="s">
-        <v>185</v>
-      </c>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
       <c r="AW13" s="8"/>
-      <c r="AX13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ13" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF13" s="9" t="s">
-        <v>186</v>
-      </c>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>189</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T14" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U14" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V14" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK14" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
       <c r="AL14" s="8"/>
-      <c r="AM14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS14" s="9">
-        <v>224426128</v>
-      </c>
-      <c r="AT14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="9" t="s">
-        <v>193</v>
-      </c>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
       <c r="AW14" s="8"/>
-      <c r="AX14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ14" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF14" s="9" t="s">
-        <v>194</v>
-      </c>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>197</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T15" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U15" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK15" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS15" s="9">
-        <v>224893684</v>
-      </c>
-      <c r="AT15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV15" s="9" t="s">
-        <v>201</v>
-      </c>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
       <c r="AW15" s="8"/>
-      <c r="AX15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ15" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF15" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>205</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U16" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V16" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK16" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS16" s="9">
-        <v>221652000</v>
-      </c>
-      <c r="AT16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV16" s="9" t="s">
-        <v>209</v>
-      </c>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
       <c r="AW16" s="8"/>
-      <c r="AX16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ16" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
       <c r="BA16" s="8"/>
-      <c r="BB16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF16" s="9" t="s">
-        <v>210</v>
-      </c>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T17" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U17" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK17" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
       <c r="AL17" s="8"/>
-      <c r="AM17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS17" s="9">
-        <v>220662180</v>
-      </c>
-      <c r="AT17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV17" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ17" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF17" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -4880,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF25"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF17"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:BF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5101,7 +4213,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -5125,13 +4237,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -5141,31 +4253,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>66</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -5186,28 +4298,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -5229,7 +4341,7 @@
         <v>56</v>
       </c>
       <c r="AS2" s="15">
-        <v>441295408</v>
+        <v>649045184</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -5238,7 +4350,7 @@
         <v>63</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -5248,7 +4360,7 @@
         <v>59</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -5264,12 +4376,12 @@
         <v>62</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -5293,13 +4405,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -5309,31 +4421,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>67</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -5354,28 +4466,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -5397,7 +4509,7 @@
         <v>56</v>
       </c>
       <c r="AS3" s="15">
-        <v>445196972</v>
+        <v>649045184</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -5406,7 +4518,7 @@
         <v>63</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -5416,7 +4528,7 @@
         <v>59</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -5432,12 +4544,12 @@
         <v>62</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -5461,13 +4573,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -5477,31 +4589,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -5522,28 +4634,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -5565,7 +4677,7 @@
         <v>56</v>
       </c>
       <c r="AS4" s="15">
-        <v>438357908</v>
+        <v>648924676</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -5574,7 +4686,7 @@
         <v>63</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -5584,7 +4696,7 @@
         <v>59</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -5600,12 +4712,12 @@
         <v>62</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -5629,13 +4741,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -5645,31 +4757,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -5690,28 +4802,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -5733,7 +4845,7 @@
         <v>56</v>
       </c>
       <c r="AS5" s="15">
-        <v>444955956</v>
+        <v>648924676</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -5742,7 +4854,7 @@
         <v>63</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -5752,7 +4864,7 @@
         <v>59</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -5768,12 +4880,12 @@
         <v>62</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -5797,13 +4909,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -5813,31 +4925,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>70</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -5858,28 +4970,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -5901,7 +5013,7 @@
         <v>56</v>
       </c>
       <c r="AS6" s="15">
-        <v>450085348</v>
+        <v>648953440</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -5910,7 +5022,7 @@
         <v>63</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -5920,7 +5032,7 @@
         <v>59</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -5936,12 +5048,12 @@
         <v>62</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -5965,13 +5077,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -5981,31 +5093,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>71</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -6026,28 +5138,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -6069,7 +5181,7 @@
         <v>56</v>
       </c>
       <c r="AS7" s="15">
-        <v>446126444</v>
+        <v>648953440</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -6078,7 +5190,7 @@
         <v>63</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -6088,7 +5200,7 @@
         <v>59</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -6104,12 +5216,12 @@
         <v>62</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -6133,13 +5245,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -6149,31 +5261,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -6194,28 +5306,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -6237,7 +5349,7 @@
         <v>56</v>
       </c>
       <c r="AS8" s="15">
-        <v>447864880</v>
+        <v>648924676</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -6246,7 +5358,7 @@
         <v>63</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -6256,7 +5368,7 @@
         <v>59</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -6272,12 +5384,12 @@
         <v>62</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -6301,13 +5413,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -6317,31 +5429,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -6362,28 +5474,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -6405,7 +5517,7 @@
         <v>56</v>
       </c>
       <c r="AS9" s="15">
-        <v>447113256</v>
+        <v>648924676</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -6414,7 +5526,7 @@
         <v>63</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -6424,7 +5536,7 @@
         <v>59</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -6440,12 +5552,12 @@
         <v>62</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -6469,13 +5581,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -6485,31 +5597,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -6530,28 +5642,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE10" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -6573,7 +5685,7 @@
         <v>56</v>
       </c>
       <c r="AS10" s="15">
-        <v>441926712</v>
+        <v>648924676</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -6582,7 +5694,7 @@
         <v>63</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -6592,7 +5704,7 @@
         <v>59</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -6608,12 +5720,12 @@
         <v>62</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -6637,13 +5749,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -6653,31 +5765,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>5.4282407407407404E-3</v>
+        <v>7.9976851851851893E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -6698,28 +5810,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -6741,7 +5853,7 @@
         <v>56</v>
       </c>
       <c r="AS11" s="9">
-        <v>451737680</v>
+        <v>648953440</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -6750,7 +5862,7 @@
         <v>63</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -6760,7 +5872,7 @@
         <v>59</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -6776,1016 +5888,368 @@
         <v>62</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U12" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V12" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK12" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
       <c r="AL12" s="8"/>
-      <c r="AM12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS12" s="9">
-        <v>447233764</v>
-      </c>
-      <c r="AT12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV12" s="9" t="s">
-        <v>262</v>
-      </c>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
       <c r="AW12" s="8"/>
-      <c r="AX12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ12" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF12" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U13" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V13" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF13" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK13" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS13" s="9">
-        <v>451227072</v>
-      </c>
-      <c r="AT13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV13" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
       <c r="AW13" s="8"/>
-      <c r="AX13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ13" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF13" s="9" t="s">
-        <v>186</v>
-      </c>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>189</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T14" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U14" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V14" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK14" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
       <c r="AL14" s="8"/>
-      <c r="AM14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS14" s="9">
-        <v>448794352</v>
-      </c>
-      <c r="AT14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV14" s="9" t="s">
-        <v>270</v>
-      </c>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
       <c r="AW14" s="8"/>
-      <c r="AX14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ14" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF14" s="9" t="s">
-        <v>194</v>
-      </c>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>197</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T15" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U15" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V15" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK15" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS15" s="9">
-        <v>449723824</v>
-      </c>
-      <c r="AT15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV15" s="9" t="s">
-        <v>274</v>
-      </c>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
       <c r="AW15" s="8"/>
-      <c r="AX15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ15" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF15" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>205</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U16" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V16" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK16" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS16" s="9">
-        <v>443246284</v>
-      </c>
-      <c r="AT16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV16" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
       <c r="AW16" s="8"/>
-      <c r="AX16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ16" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
       <c r="BA16" s="8"/>
-      <c r="BB16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF16" s="9" t="s">
-        <v>210</v>
-      </c>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T17" s="10">
-        <v>5.4282407407407404E-3</v>
-      </c>
-      <c r="U17" s="11">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="V17" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>43678</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK17" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
       <c r="AL17" s="8"/>
-      <c r="AM17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS17" s="9">
-        <v>441266832</v>
-      </c>
-      <c r="AT17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV17" s="9" t="s">
-        <v>283</v>
-      </c>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ17" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF17" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D3F44F-F490-4D66-88CD-317E2C82BA12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA739AEF-7234-4E8F-9C79-06325B3AA408}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="282">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -261,388 +261,622 @@
     <t>EP 20</t>
   </si>
   <si>
-    <t>EEDATG111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000111</t>
-  </si>
-  <si>
-    <t>Serie Daniel Tigre</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP11</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel visita a la Srita. Elena su casa es un museo carrusel. Juntos juegan a ser astronautas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel visita a la Srita. Elena cuya casa es un museo carrusel. Juntos jugarán a ser astronautas para volar al espacio exterior. Pero ocurre un contratiempo: el telescopio se ha dañado.</t>
-  </si>
-  <si>
-    <t>Infantil/Daniel Tigre</t>
-  </si>
-  <si>
-    <t>Daniel Tigre</t>
-  </si>
-  <si>
-    <t>Jake Bale, Tomy Lioutas, Heather Bambrick , Ted Dykstra</t>
-  </si>
-  <si>
-    <t>Striped Tiger, LLC</t>
-  </si>
-  <si>
-    <t>Bale Jake, Lioutas Tomy, Bambrick Heather, Dykstra Ted</t>
-  </si>
-  <si>
-    <t>Kapridov, Vadim</t>
-  </si>
-  <si>
-    <t>EEDATG111.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000112</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP12</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel visita el castillo del Príncipe Miércoles, quien le muestra su colección de piedras.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel va a jugar al castillo de su amigo Príncipe Miércoles, quien lo invita a conocer su colección de piedras. Pero hay un problema…no pueden jugar con ellas.</t>
-  </si>
-  <si>
-    <t>EEDATG112.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000113</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP13</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel va a jugar a casa de Catalina. Donde organizan una fiesta de cumpleaños para el Sr. Mono</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Daniel va a jugar a la casa de Catalina gatita. Organizan una fiesta de cumpleaños para el señor Mono. Todos los peluches están invitados a la fiesta. Pero surge un inconveniente. ¿Podrán los amigos ayudarse para solucionarlo?</t>
-  </si>
-  <si>
-    <t>EEDATG113.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000114</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP14</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: En la biblioteca de Úo, Daniel y su amigo crean su propio final de una historia de dinosaurios.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel visita a su amigo Úo el búho, quien lo invita jugar en su biblioteca. Juntos compartirán la lectura de un libro de dinosaurios, pero les falta la última página entonces tendrán que crear su propio final.</t>
-  </si>
-  <si>
-    <t>EEDATG114.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000115</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP15</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel decide sorprender a su papá enviándole una carta con un dibujo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Despúes de que Daniel y su papá reciben una carta del abuelo Tigre. Daniel decide sorpender a su papá enviándole una carta con un dibujo, por lo cual en compañía de su mamá va a la oficina de correo a depositarla.</t>
-  </si>
-  <si>
-    <t>EEDATG115.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000116</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP16</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel y su papá deciden soprender a mamá con un pan de banana elaborado por ellos mismos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel juega con su mamá, a quien decide hacerle un collar. Después junto con su papá van a la panadería para prepararle un pan de banana y sorprenderla.</t>
-  </si>
-  <si>
-    <t>EEDATG116.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000117</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP17</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: La mamá quiere hacer panqueques de fresas, así que van al Jardín Encantado a recolectarlas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel comienza el día haciendo ejercicios de estiramiento. La mamá quiere hacer panqueques de fresas, pero como no tienen fruta deben ir al Jardín Encantado a recolectarlas para acabar de preparar el desayuno.</t>
-  </si>
-  <si>
-    <t>EEDATG117.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000118</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP18</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel y sus amigas visitan la fábrica de crayones para conocer como se elaboran.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel y sus amigas Elena y Catalina, visitan la fábrica de crayones para conocer como se elaboran.</t>
-  </si>
-  <si>
-    <t>EEDATG118.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000119</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP19</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel compartirá con sus amigos su nuevo juguete el auto tigre-tástico.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hoy Daniel tiene una sorpresa para sus amigos compartirá con ellos su nuevo juguete el auto tigre-tástico. Su papá lo acompaña al parque donde se encontrará con sus amigos, quienes también llevarán sus juguetes. Todos comparten sus autos.</t>
-  </si>
-  <si>
-    <t>EEDATG119.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA6000000000000120</t>
-  </si>
-  <si>
-    <t>Daniel TigreT01EP20</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel y Catalina preparan un baile de la selva. Daniel será un león y su amiga una bella flor.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Daniel y Catalina preparan un show del baile de la selva. Daniel elige ser el gran león de la selva y su amiga una flor. Ambos compartirán el tutu para su presentación.</t>
-  </si>
-  <si>
-    <t>EEDATG120.mpg</t>
-  </si>
-  <si>
-    <t>EEDATG120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEDATG111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000111</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEDATG111.ts</t>
-  </si>
-  <si>
-    <t>EEDATG112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000112</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEDATG112.ts</t>
-  </si>
-  <si>
-    <t>EEDATG113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000113</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEDATG113.ts</t>
-  </si>
-  <si>
-    <t>EEDATG114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000114</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEDATG114.ts</t>
-  </si>
-  <si>
-    <t>EEDATG115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000115</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEDATG115.ts</t>
-  </si>
-  <si>
-    <t>EEDATG116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000116</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEDATG116.ts</t>
-  </si>
-  <si>
-    <t>EEDATG117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000117</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEDATG117.ts</t>
-  </si>
-  <si>
-    <t>EEDATG118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000118</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEDATG118.ts</t>
-  </si>
-  <si>
-    <t>EEDATG119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000119</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEDATG119.ts</t>
-  </si>
-  <si>
-    <t>EEDATG120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEDA7000000000000120</t>
-  </si>
-  <si>
-    <t>Daniel Tigre T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEDATG120.ts</t>
+    <t>EEGHML111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000111</t>
+  </si>
+  <si>
+    <t>Serie Adivina Cuánto te Quiero</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP11</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una simpática mariquita pasa el día con Nutbrown , cuando se marcha él descubre algo hermoso.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una linda mariquita manchada aterriza en Nutbrown y se queda con él. Todos sus amigos la admiran y él se siente muy especial. Pero de pronto la mariquita vuela, Nutbrown la sigue y descubre que tiene muchos bebés pequeños y manchados esperándola.</t>
+  </si>
+  <si>
+    <t>Infantil/Adivina Cuánto te Quiero</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero</t>
+  </si>
+  <si>
+    <t>Matthew Jacob Wayne, Allie Carlton , Kirk Thornton, Kat Cressida, Stuart Allan, Nick Roye, Bianca Mercado, Michaela Dean, Angie Perron</t>
+  </si>
+  <si>
+    <t>SLR Productions</t>
+  </si>
+  <si>
+    <t>Wayne Matthew Jacob, Carlton Allie, Thornton Kirk, Cressida Kat, Allan Stuart, Roye Nick, Mercado Bianca, Dean Michaela, Perron Angie</t>
+  </si>
+  <si>
+    <t>Moltzen, Steve</t>
+  </si>
+  <si>
+    <t>EEGHML111.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000112</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP12</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: La lluvia parece arruinar el día de Nutbrown y Ratoncita ¿Dejarán de divertirse por el agua?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown y Ratoncita disfrutan de un día soleado en la pradera hasta que la lluvia los obliga a buscar refugio. ¿Permitirán los amigos que un poco de agua arruine su diversión o descubrirán que los días lluviosos pueden ser igual de emocionantes?</t>
+  </si>
+  <si>
+    <t>EEGHML112.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000113</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP13</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Las hormigas robaron las bayas de Nutbrown! Pero entiende las razones por las que lo hicieron.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown está enojado porque las hormigas se llevaron sus bayas. Pápa Nutbrown le explica que las hormigas probablemente estaban llevando las bayas a sus familias, Nutbrown las perdona y descubre que son muy inteligentes y quiere ser como ellas.</t>
+  </si>
+  <si>
+    <t>EEGHML113.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000114</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP14</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown y Ratoncita buscan “tesoros azules” pero Papá Nutbrown encuentra el mejor de todos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown encuentra una hermosa mariposa azul y va con Ratoncita a buscar otros tesoros azules que incluyen arándanos, campanas azules e incluso cáscaras de huevo azules. Pero Papá Nutbrown ha descubierto el tesoro azul más grande de todos. ¿Qué será?</t>
+  </si>
+  <si>
+    <t>EEGHML114.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000115</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP15</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tras conocer las diferentes y hermosas casas de sus amigos, ¿Qué pensará Nutbrown de la suya?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Papá Nutbrown envía al pequeño Nutbrown a invitar a sus amigos a desayunar. En el camino, Nutbrown descubre lo maravillosas y diferentes que son todas las casas de sus amigos. Tras conocer las de los demás ¿Su casa le seguirá pareciendo hermosa?</t>
+  </si>
+  <si>
+    <t>EEGHML115.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000116</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP16</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown quiere una cola larga e inteligente hasta que descubre que la suya es lo que necesita.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown decide que quiere una cola larga e inteligente como sus amigos, en lugar de una corta y esponjosa. Cuando Papá Nutbrown ve a su hijo en un campo cubierto de hierba, se dan cuenta de que la pequeña cola de Nutbrown es inteligente a su manera.</t>
+  </si>
+  <si>
+    <t>EEGHML116.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000117</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP17</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown toma “la cosa favorita” de Ratoncita y la pierde ¿Cómo podrá explicarle lo que pasó?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Ratoncita está emocionada y quiere mostrarle a Nutbrown su nueva cosa favorita, una flor, ¡la más bonita de todas! La liebre la toma para enseñársela a su papá, pero la flor desaparece durante la noche,¿Cómo podrá Nutbrown explicarlo a Ratoncita?</t>
+  </si>
+  <si>
+    <t>EEGHML117.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000118</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP18</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown y su padre comienzan a seguir los palos que flotan en el río ¿A dónde terminarán?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown y su padre notan que los palos flotan en el agua. Intrigados, comienzan a seguirlos río abajo para ver a dónde van. La persecusión no es fácil pero encuentran una sorpresa en cada esquina, pero ¿Dónde terminarán los palos?</t>
+  </si>
+  <si>
+    <t>EEGHML118.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000119</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP19</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Ardilla Gris le da un regalo a Nutbrown pero luego se lo quita. ¿Podrán superar el problema?</t>
+  </si>
+  <si>
+    <t>Edye presenta: En un día caluroso, Ardilla gris ofrece a Nutbrown y Ratoncita un regalo: grandes sombrillas. Más tarde cambia de opinión y le pide a Nutbrown que devuelva la suya, lo que lo entristece. ¿Podrán encontrar la manera de que todos estén contentos?</t>
+  </si>
+  <si>
+    <t>EEGHML119.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000120</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP20</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown quiere ser como su papá. Aunque ¡él también tiene algunos trucos que enseñarle!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Papá Nutbrown sabe todos los trucos y escondites para encontrar golosinas y el pequeño Nutbrown quisiera ser tan inteligente como su padre. Sin embargo, pronto descubre que hay algunas cosas que una liebre pequeña puede enseñar a una liebre grande.</t>
+  </si>
+  <si>
+    <t>EEGHML120.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML121_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000121</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP21</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP21</t>
+  </si>
+  <si>
+    <t>EP 21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hace mucho calor. Nutbrown y sus amigos le piden a Búho Blanco un cuento muy frío para dormir.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En una noche más calurosa del verano, Nutbrown y sus amigos no pueden dormir y le piden a Búho Blanco que les cuente un cuento muy frío. ¿Se le ocurrirá una historia que pueda hacer que se sientan geniales y finalmente los haga dormir?</t>
+  </si>
+  <si>
+    <t>EEGHML121.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML121_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML122_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000122</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP22</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP22</t>
+  </si>
+  <si>
+    <t>EP 22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown descubre que cada criatura tiene una visión personal de lo que hay a su alrededor.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown queda impresionado por la descripción de Pajarita Azul de un campo florido que se ve como un mar de color desde las alturas. De visita el campo con Papá Nutbrown y Ratoncita, descubre que cada uno tiene su propia y única visión del lugar.</t>
+  </si>
+  <si>
+    <t>EEGHML122.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML122_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML123_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000123</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP23</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP23</t>
+  </si>
+  <si>
+    <t>EP 23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown decide inventar una historia, pero le resulta más difícil de lo que pensaba.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tras escuchar una historia del Búho Blanco, Nutbrown decide inventar una historia, pero le resulta más difícil de lo que pensaba. Con la ayuda de su padre, usa un poco de fruta que ha recogido en el camino para ayudarlo a contar una gran historia.</t>
+  </si>
+  <si>
+    <t>EEGHML123.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML123_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML124_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000124</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP24</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP24</t>
+  </si>
+  <si>
+    <t>EP 24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown y su papá intercambian sus roles jugando. Pronto descubren que es mejor ser uno mismo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Por un día, Nutbrown ocupará el lugar y las actividades de su papá mientras Papá Nutbrown actuará como su hijo jugando con sus amigos. Todo es muy divertido hasta que se dan cuenta de que son mucho, mucho mejores, siendo ellos mismos.</t>
+  </si>
+  <si>
+    <t>EEGHML124.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML124_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML125_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000125</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP25</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP25</t>
+  </si>
+  <si>
+    <t>EP 25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown se pregunta si es posible disfrutar una tormenta y de las maravillas de la naturaleza.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una tormenta obliga a Nutbrown y sus amigos a refugiarse en una cueva. Ahí Papá Nutbrown les explica que los ruidos no pueden lastimarte, pero ¿los ayudará a superar sus miedos como para disfrutar de la tormenta y las maravillas de la naturaleza?</t>
+  </si>
+  <si>
+    <t>EEGHML125.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML125_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML126_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH6000000000000126</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te QuieroT01EP26</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP26</t>
+  </si>
+  <si>
+    <t>EP 26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Nutbrown y sus amigos descubren un árbol lleno ciruelas ¿qué pasará cuando se acaben?</t>
+  </si>
+  <si>
+    <t>Edye presenta: En verano Nutbrown descubre un árbol lleno ciruelas. Pero él no es el único que disfruta de la fruta: todos los animales de la pradera vienen probarla. Cuando avanza el verano, Nutbrown se pregunta ¿qué harán todos los animales cuando se terminen?</t>
+  </si>
+  <si>
+    <t>EEGHML126.mpg</t>
+  </si>
+  <si>
+    <t>EEGHML126_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGHML111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000111</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEGHML111.ts</t>
+  </si>
+  <si>
+    <t>EEGHML112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000112</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEGHML112.ts</t>
+  </si>
+  <si>
+    <t>EEGHML113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000113</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEGHML113.ts</t>
+  </si>
+  <si>
+    <t>EEGHML114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000114</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEGHML114.ts</t>
+  </si>
+  <si>
+    <t>EEGHML115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000115</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEGHML115.ts</t>
+  </si>
+  <si>
+    <t>EEGHML116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000116</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEGHML116.ts</t>
+  </si>
+  <si>
+    <t>EEGHML117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000117</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEGHML117.ts</t>
+  </si>
+  <si>
+    <t>EEGHML118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000118</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEGHML118.ts</t>
+  </si>
+  <si>
+    <t>EEGHML119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000119</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEGHML119.ts</t>
+  </si>
+  <si>
+    <t>EEGHML120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000120</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEGHML120.ts</t>
+  </si>
+  <si>
+    <t>EEGHML121_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000121</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEGHML121.ts</t>
+  </si>
+  <si>
+    <t>EEGHML122_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000122</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEGHML122.ts</t>
+  </si>
+  <si>
+    <t>EEGHML123_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000123</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEGHML123.ts</t>
+  </si>
+  <si>
+    <t>EEGHML124_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000124</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEGHML124.ts</t>
+  </si>
+  <si>
+    <t>EEGHML125_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000125</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEGHML125.ts</t>
+  </si>
+  <si>
+    <t>EEGHML126_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGH7000000000000126</t>
+  </si>
+  <si>
+    <t>Adivina Cuánto te Quiero T01 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEGHML126.ts</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1358,7 @@
   <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF11"/>
+      <selection activeCell="A2" sqref="A2:BF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1400,10 +1634,10 @@
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V2" s="3">
         <v>2012</v>
@@ -1418,7 +1652,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
@@ -1473,7 +1707,7 @@
         <v>56</v>
       </c>
       <c r="AS2" s="15">
-        <v>324551356</v>
+        <v>305322152</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>57</v>
@@ -1568,10 +1802,10 @@
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V3" s="3">
         <v>2012</v>
@@ -1586,7 +1820,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
@@ -1641,7 +1875,7 @@
         <v>56</v>
       </c>
       <c r="AS3" s="15">
-        <v>324551356</v>
+        <v>305350728</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>57</v>
@@ -1736,10 +1970,10 @@
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V4" s="3">
         <v>2012</v>
@@ -1754,7 +1988,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
@@ -1809,7 +2043,7 @@
         <v>56</v>
       </c>
       <c r="AS4" s="15">
-        <v>324491196</v>
+        <v>305350728</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>57</v>
@@ -1904,10 +2138,10 @@
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V5" s="3">
         <v>2012</v>
@@ -1922,7 +2156,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
@@ -1977,7 +2211,7 @@
         <v>56</v>
       </c>
       <c r="AS5" s="15">
-        <v>324508304</v>
+        <v>305350728</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>57</v>
@@ -2072,10 +2306,10 @@
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V6" s="3">
         <v>2012</v>
@@ -2090,7 +2324,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
@@ -2145,7 +2379,7 @@
         <v>56</v>
       </c>
       <c r="AS6" s="15">
-        <v>324508304</v>
+        <v>305350728</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>57</v>
@@ -2240,10 +2474,10 @@
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V7" s="3">
         <v>2012</v>
@@ -2258,7 +2492,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
@@ -2313,7 +2547,7 @@
         <v>56</v>
       </c>
       <c r="AS7" s="15">
-        <v>324508304</v>
+        <v>305350728</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>57</v>
@@ -2408,10 +2642,10 @@
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V8" s="3">
         <v>2012</v>
@@ -2426,7 +2660,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
@@ -2481,7 +2715,7 @@
         <v>56</v>
       </c>
       <c r="AS8" s="15">
-        <v>324491196</v>
+        <v>305350728</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>57</v>
@@ -2576,10 +2810,10 @@
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V9" s="3">
         <v>2012</v>
@@ -2594,7 +2828,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
@@ -2649,7 +2883,7 @@
         <v>56</v>
       </c>
       <c r="AS9" s="15">
-        <v>324491196</v>
+        <v>305350728</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>57</v>
@@ -2744,10 +2978,10 @@
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V10" s="3">
         <v>2012</v>
@@ -2762,7 +2996,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
@@ -2817,7 +3051,7 @@
         <v>56</v>
       </c>
       <c r="AS10" s="15">
-        <v>324491196</v>
+        <v>305350728</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>57</v>
@@ -2912,10 +3146,10 @@
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V11" s="3">
         <v>2012</v>
@@ -2930,7 +3164,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
@@ -2985,7 +3219,7 @@
         <v>56</v>
       </c>
       <c r="AS11" s="15">
-        <v>324508304</v>
+        <v>305350728</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>57</v>
@@ -3024,364 +3258,1012 @@
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U12" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2012</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL12" s="8"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
+      <c r="AM12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>305350728</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="AW12" s="8"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
+      <c r="AX12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
+      <c r="BB12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U13" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2012</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
+      <c r="AM13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>305350728</v>
+      </c>
+      <c r="AT13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV13" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="AW13" s="8"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
+      <c r="AX13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ13" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
+      <c r="BB13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF13" s="9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U14" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V14" s="3">
+        <v>2012</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL14" s="8"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
+      <c r="AM14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>305350728</v>
+      </c>
+      <c r="AT14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="AW14" s="8"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
+      <c r="AX14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ14" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
+      <c r="BB14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF14" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U15" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="9"/>
+      <c r="AM15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS15" s="9">
+        <v>305350728</v>
+      </c>
+      <c r="AT15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV15" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="AW15" s="8"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
+      <c r="AX15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ15" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
+      <c r="BB15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF15" s="9" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U16" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V16" s="3">
+        <v>2012</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK16" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="9"/>
+      <c r="AM16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS16" s="9">
+        <v>305350728</v>
+      </c>
+      <c r="AT16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV16" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="AW16" s="8"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
+      <c r="AX16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ16" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA16" s="8"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
-      <c r="BF16" s="9"/>
+      <c r="BB16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF16" s="9" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
+      <c r="M17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U17" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V17" s="3">
+        <v>2012</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK17" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL17" s="8"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
+      <c r="AM17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>305350728</v>
+      </c>
+      <c r="AT17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV17" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
+      <c r="AX17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ17" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="9"/>
+      <c r="BB17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF17" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -3993,7 +4875,7 @@
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF11"/>
+      <selection activeCell="A2" sqref="A2:BF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4213,7 +5095,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -4237,7 +5119,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>78</v>
@@ -4253,7 +5135,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>66</v>
@@ -4268,10 +5150,10 @@
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V2" s="9">
         <v>2012</v>
@@ -4286,7 +5168,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
@@ -4341,7 +5223,7 @@
         <v>56</v>
       </c>
       <c r="AS2" s="15">
-        <v>649045184</v>
+        <v>610586588</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -4350,7 +5232,7 @@
         <v>63</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -4381,7 +5263,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -4405,7 +5287,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>78</v>
@@ -4421,7 +5303,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>67</v>
@@ -4436,10 +5318,10 @@
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V3" s="9">
         <v>2012</v>
@@ -4454,7 +5336,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
@@ -4509,7 +5391,7 @@
         <v>56</v>
       </c>
       <c r="AS3" s="15">
-        <v>649045184</v>
+        <v>610643928</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -4518,7 +5400,7 @@
         <v>63</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -4549,7 +5431,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -4573,7 +5455,7 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>78</v>
@@ -4589,7 +5471,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>68</v>
@@ -4604,10 +5486,10 @@
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V4" s="9">
         <v>2012</v>
@@ -4622,7 +5504,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
@@ -4677,7 +5559,7 @@
         <v>56</v>
       </c>
       <c r="AS4" s="15">
-        <v>648924676</v>
+        <v>610643928</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -4686,7 +5568,7 @@
         <v>63</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -4717,7 +5599,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -4741,7 +5623,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>78</v>
@@ -4757,7 +5639,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>69</v>
@@ -4772,10 +5654,10 @@
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V5" s="9">
         <v>2012</v>
@@ -4790,7 +5672,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
@@ -4845,7 +5727,7 @@
         <v>56</v>
       </c>
       <c r="AS5" s="15">
-        <v>648924676</v>
+        <v>610643928</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -4854,7 +5736,7 @@
         <v>63</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -4885,7 +5767,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -4909,7 +5791,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>78</v>
@@ -4925,7 +5807,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>70</v>
@@ -4940,10 +5822,10 @@
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V6" s="9">
         <v>2012</v>
@@ -4958,7 +5840,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
@@ -5013,7 +5895,7 @@
         <v>56</v>
       </c>
       <c r="AS6" s="15">
-        <v>648953440</v>
+        <v>610643928</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -5022,7 +5904,7 @@
         <v>63</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -5053,7 +5935,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -5077,7 +5959,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>78</v>
@@ -5093,7 +5975,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>71</v>
@@ -5108,10 +5990,10 @@
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V7" s="9">
         <v>2012</v>
@@ -5126,7 +6008,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
@@ -5181,7 +6063,7 @@
         <v>56</v>
       </c>
       <c r="AS7" s="15">
-        <v>648953440</v>
+        <v>610643928</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -5190,7 +6072,7 @@
         <v>63</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -5221,7 +6103,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -5245,7 +6127,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>78</v>
@@ -5261,7 +6143,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>72</v>
@@ -5276,10 +6158,10 @@
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V8" s="9">
         <v>2012</v>
@@ -5294,7 +6176,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
@@ -5349,7 +6231,7 @@
         <v>56</v>
       </c>
       <c r="AS8" s="15">
-        <v>648924676</v>
+        <v>610643928</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -5358,7 +6240,7 @@
         <v>63</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -5389,7 +6271,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -5413,7 +6295,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>78</v>
@@ -5429,7 +6311,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>73</v>
@@ -5444,10 +6326,10 @@
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V9" s="9">
         <v>2012</v>
@@ -5462,7 +6344,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
@@ -5517,7 +6399,7 @@
         <v>56</v>
       </c>
       <c r="AS9" s="15">
-        <v>648924676</v>
+        <v>610643928</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -5526,7 +6408,7 @@
         <v>63</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -5557,7 +6439,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -5581,7 +6463,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>78</v>
@@ -5597,7 +6479,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>74</v>
@@ -5612,10 +6494,10 @@
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V10" s="9">
         <v>2012</v>
@@ -5630,7 +6512,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
@@ -5685,7 +6567,7 @@
         <v>56</v>
       </c>
       <c r="AS10" s="15">
-        <v>648924676</v>
+        <v>610643928</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -5694,7 +6576,7 @@
         <v>63</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -5725,7 +6607,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -5749,7 +6631,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>78</v>
@@ -5765,7 +6647,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>75</v>
@@ -5780,10 +6662,10 @@
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.9976851851851893E-3</v>
+        <v>7.5231481481481477E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V11" s="9">
         <v>2012</v>
@@ -5798,7 +6680,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
@@ -5853,7 +6735,7 @@
         <v>56</v>
       </c>
       <c r="AS11" s="9">
-        <v>648953440</v>
+        <v>610643928</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -5862,7 +6744,7 @@
         <v>63</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -5892,364 +6774,1012 @@
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U12" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V12" s="9">
+        <v>2012</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL12" s="8"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
+      <c r="AM12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>610643928</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="AW12" s="8"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
+      <c r="AX12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
+      <c r="BB12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U13" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V13" s="9">
+        <v>2012</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
+      <c r="AM13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>610643928</v>
+      </c>
+      <c r="AT13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV13" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="AW13" s="8"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
+      <c r="AX13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ13" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
+      <c r="BB13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF13" s="9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U14" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V14" s="9">
+        <v>2012</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL14" s="8"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
+      <c r="AM14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>610643928</v>
+      </c>
+      <c r="AT14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="AW14" s="8"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
+      <c r="AX14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ14" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
+      <c r="BB14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF14" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U15" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V15" s="9">
+        <v>2012</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="9"/>
+      <c r="AM15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS15" s="9">
+        <v>610643928</v>
+      </c>
+      <c r="AT15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV15" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="AW15" s="8"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
+      <c r="AX15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ15" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
+      <c r="BB15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF15" s="9" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U16" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V16" s="9">
+        <v>2012</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK16" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="9"/>
+      <c r="AM16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS16" s="9">
+        <v>610643928</v>
+      </c>
+      <c r="AT16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV16" s="9" t="s">
+        <v>277</v>
+      </c>
       <c r="AW16" s="8"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
+      <c r="AX16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ16" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA16" s="8"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
-      <c r="BF16" s="9"/>
+      <c r="BB16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF16" s="9" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
+      <c r="M17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="10">
+        <v>7.5231481481481477E-3</v>
+      </c>
+      <c r="U17" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V17" s="9">
+        <v>2012</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>44409</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>45138</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK17" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="AL17" s="8"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
+      <c r="AM17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>610643928</v>
+      </c>
+      <c r="AT17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV17" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
+      <c r="AX17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ17" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="9"/>
+      <c r="BB17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF17" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA739AEF-7234-4E8F-9C79-06325B3AA408}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80A0FCF-D760-4185-8B7B-D4235699268E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="204">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -186,697 +186,465 @@
     <t>General</t>
   </si>
   <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MPEG2</t>
+  </si>
+  <si>
+    <t>box cover</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>HighResLandscape</t>
+  </si>
+  <si>
+    <t>1920x1080</t>
+  </si>
+  <si>
+    <t>H264 HD</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Content_Value</t>
+  </si>
+  <si>
+    <t>EEPEGC111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000111</t>
+  </si>
+  <si>
+    <t>Serie Peg + Gato</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP11</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP11</t>
+  </si>
+  <si>
+    <t>EP 11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Peg y Gato hacen un pastel de cumpleaños para Jonah y sus amigos “Los adolescentes.</t>
+  </si>
+  <si>
+    <t>Edye presenta: La Pizzería de Peg. Peg y Gato hacen un tambaleante pastel de cumpleaños para Jonah y sus amigos “Los adolescentes”, pero primero necesitan averiguar cuántos años tiene Jonah.</t>
+  </si>
+  <si>
+    <t>Infantil/Peg + Gato</t>
+  </si>
+  <si>
+    <t>Peg + Gato</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
-    <t>movie</t>
-  </si>
-  <si>
-    <t>Stereo</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>MPEG2</t>
-  </si>
-  <si>
-    <t>box cover</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>HighResLandscape</t>
-  </si>
-  <si>
-    <t>1920x1080</t>
-  </si>
-  <si>
-    <t>H264 HD</t>
-  </si>
-  <si>
-    <t>FileName</t>
-  </si>
-  <si>
-    <t>Content_Value</t>
-  </si>
-  <si>
-    <t>EP 11</t>
+    <t>Hayley Faith Negrin, Dwayne Hill, Thamela Mpumlwana, Tommy Wazelle, Christian DiStefano, Rob Morrison, Emilie Claire Barlow</t>
+  </si>
+  <si>
+    <t>Feline Features LLC</t>
+  </si>
+  <si>
+    <t>Negrin Hayley Faith, Hill Dwayne, Mpumlwana Thamela, Wazelle Tommy, DiStefano Christian, Morrison Rob, Barlow Emilie Claire</t>
+  </si>
+  <si>
+    <t>Bobiak, Cory</t>
+  </si>
+  <si>
+    <t>EEPEGC111.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000112</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP12</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP12</t>
   </si>
   <si>
     <t>EP 12</t>
   </si>
   <si>
+    <t>Edye presenta: Cuando su nave espacial se aplasta, Peg y Gato deben volver a armarla como puedan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edye presenta: El Planeta morado. Cuando su nave espacial se aplasta, Peg y Gato deben volver a montar sus partes de formas diferentes y recuperar los dieciséis doohickeys robados.
+</t>
+  </si>
+  <si>
+    <t>EEPEGC112.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000113</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP13</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP13</t>
+  </si>
+  <si>
     <t>EP 13</t>
   </si>
   <si>
+    <t>Edye presenta: Cuando Gato está atrapado en un árbol, Peg debe descubrir cómo hacerlo bajar usando 3 regalos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Barrio de Peg. Cuando Gato está atrapado en un árbol, Peg debe descubrir la manera de hacerlo bajar usando tres regalos gigantes.</t>
+  </si>
+  <si>
+    <t>EEPEGC113.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000114</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP14</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP14</t>
+  </si>
+  <si>
     <t>EP 14</t>
   </si>
   <si>
+    <t>Edye presenta: Gato está atrapado en un árbol nuevamente y Peg necesita encontrar cómo bajarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Barrio de Peg. Gato está atrapado en un árbol… nuevamente y Peg necesita encontrar una forma diferente de bajarlo.</t>
+  </si>
+  <si>
+    <t>EEPEGC114.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000115</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP15</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP15</t>
+  </si>
+  <si>
     <t>EP 15</t>
   </si>
   <si>
+    <t>Edye presenta: Peg y Gato se pierden montando dinosaurios a través de un bosque prehistórico.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Valle prehistórico. Cuando Peg y Gato se pierden montando dinosaurios a través de un bosque prehistórico, deben usar un diagrama para llegar a un lugar seguro antes de que el Bebé T-Rex los alcance.</t>
+  </si>
+  <si>
+    <t>EEPEGC115.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000116</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP16</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP16</t>
+  </si>
+  <si>
     <t>EP 16</t>
   </si>
   <si>
+    <t>Edye presenta: Peg y Gato están ayudando a su amigo Ludwig Van Beethoven a escribir una sinfonía.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Viena, alrededor de los años 1800. Cuando Peg y Gato están ayudando a su amigo Ludwig Van Beethoven a escribir una sinfonía, Gato se ríe de ciertas notas, lo que le da a Beethoven una gran idea.</t>
+  </si>
+  <si>
+    <t>EEPEGC116.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000117</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP17</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP17</t>
+  </si>
+  <si>
     <t>EP 17</t>
   </si>
   <si>
+    <t>Edye presenta: Las abejas hacen miel para el famoso pastel de miel de Peg y Gato.</t>
+  </si>
+  <si>
+    <t>Edye presenta: La Pizzería de Peg. Las abejas hacen miel para el pastel de miel súper popular de Peg y Gato. Pero para llevar los cubos de miel, Peg y Gato deben saber la diferencia entre pesado, más pesado y el más pesado.</t>
+  </si>
+  <si>
+    <t>EEPEGC117.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000118</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP18</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP18</t>
+  </si>
+  <si>
     <t>EP 18</t>
   </si>
   <si>
+    <t>Edye presenta: Peg y Gato entrenan a un equipo de pingüinos para que puedan ganar una medalla de oro olímpica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edye presenta: En el Polo Sur. Peg y Gato entrenan a un equipo de pingüinos esquiadores, que podrían tener la oportunidad de ganar una medalla de oro olímpica, sólo si aprenden a diferenciar lo que es ir por encima, por debajo y por enmedio.
+</t>
+  </si>
+  <si>
+    <t>EEPEGC118.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000119</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP19</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP19</t>
+  </si>
+  <si>
     <t>EP 19</t>
   </si>
   <si>
+    <t>Edye presenta: Peg y Gato construyen un auto de carreras con desechos de direntes formas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Depósito de chatarra/El Estadio. Peg y Gato construyen un auto de carreras con desechos de difentes formas, para luego enfrentar a sus rivales y grandes favoritos, en una carrera de 20 vueltas.</t>
+  </si>
+  <si>
+    <t>EEPEGC119.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE6000000000000120</t>
+  </si>
+  <si>
+    <t>Peg + GatoT01EP20</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP20</t>
+  </si>
+  <si>
     <t>EP 20</t>
   </si>
   <si>
-    <t>EEGHML111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000111</t>
-  </si>
-  <si>
-    <t>Serie Adivina Cuánto te Quiero</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP11</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una simpática mariquita pasa el día con Nutbrown , cuando se marcha él descubre algo hermoso.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una linda mariquita manchada aterriza en Nutbrown y se queda con él. Todos sus amigos la admiran y él se siente muy especial. Pero de pronto la mariquita vuela, Nutbrown la sigue y descubre que tiene muchos bebés pequeños y manchados esperándola.</t>
-  </si>
-  <si>
-    <t>Infantil/Adivina Cuánto te Quiero</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero</t>
-  </si>
-  <si>
-    <t>Matthew Jacob Wayne, Allie Carlton , Kirk Thornton, Kat Cressida, Stuart Allan, Nick Roye, Bianca Mercado, Michaela Dean, Angie Perron</t>
-  </si>
-  <si>
-    <t>SLR Productions</t>
-  </si>
-  <si>
-    <t>Wayne Matthew Jacob, Carlton Allie, Thornton Kirk, Cressida Kat, Allan Stuart, Roye Nick, Mercado Bianca, Dean Michaela, Perron Angie</t>
-  </si>
-  <si>
-    <t>Moltzen, Steve</t>
-  </si>
-  <si>
-    <t>EEGHML111.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000112</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP12</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: La lluvia parece arruinar el día de Nutbrown y Ratoncita ¿Dejarán de divertirse por el agua?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown y Ratoncita disfrutan de un día soleado en la pradera hasta que la lluvia los obliga a buscar refugio. ¿Permitirán los amigos que un poco de agua arruine su diversión o descubrirán que los días lluviosos pueden ser igual de emocionantes?</t>
-  </si>
-  <si>
-    <t>EEGHML112.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000113</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP13</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Las hormigas robaron las bayas de Nutbrown! Pero entiende las razones por las que lo hicieron.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown está enojado porque las hormigas se llevaron sus bayas. Pápa Nutbrown le explica que las hormigas probablemente estaban llevando las bayas a sus familias, Nutbrown las perdona y descubre que son muy inteligentes y quiere ser como ellas.</t>
-  </si>
-  <si>
-    <t>EEGHML113.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000114</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP14</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown y Ratoncita buscan “tesoros azules” pero Papá Nutbrown encuentra el mejor de todos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown encuentra una hermosa mariposa azul y va con Ratoncita a buscar otros tesoros azules que incluyen arándanos, campanas azules e incluso cáscaras de huevo azules. Pero Papá Nutbrown ha descubierto el tesoro azul más grande de todos. ¿Qué será?</t>
-  </si>
-  <si>
-    <t>EEGHML114.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000115</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP15</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Tras conocer las diferentes y hermosas casas de sus amigos, ¿Qué pensará Nutbrown de la suya?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Papá Nutbrown envía al pequeño Nutbrown a invitar a sus amigos a desayunar. En el camino, Nutbrown descubre lo maravillosas y diferentes que son todas las casas de sus amigos. Tras conocer las de los demás ¿Su casa le seguirá pareciendo hermosa?</t>
-  </si>
-  <si>
-    <t>EEGHML115.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000116</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP16</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown quiere una cola larga e inteligente hasta que descubre que la suya es lo que necesita.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown decide que quiere una cola larga e inteligente como sus amigos, en lugar de una corta y esponjosa. Cuando Papá Nutbrown ve a su hijo en un campo cubierto de hierba, se dan cuenta de que la pequeña cola de Nutbrown es inteligente a su manera.</t>
-  </si>
-  <si>
-    <t>EEGHML116.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000117</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP17</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown toma “la cosa favorita” de Ratoncita y la pierde ¿Cómo podrá explicarle lo que pasó?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Ratoncita está emocionada y quiere mostrarle a Nutbrown su nueva cosa favorita, una flor, ¡la más bonita de todas! La liebre la toma para enseñársela a su papá, pero la flor desaparece durante la noche,¿Cómo podrá Nutbrown explicarlo a Ratoncita?</t>
-  </si>
-  <si>
-    <t>EEGHML117.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000118</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP18</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown y su padre comienzan a seguir los palos que flotan en el río ¿A dónde terminarán?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown y su padre notan que los palos flotan en el agua. Intrigados, comienzan a seguirlos río abajo para ver a dónde van. La persecusión no es fácil pero encuentran una sorpresa en cada esquina, pero ¿Dónde terminarán los palos?</t>
-  </si>
-  <si>
-    <t>EEGHML118.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000119</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP19</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Ardilla Gris le da un regalo a Nutbrown pero luego se lo quita. ¿Podrán superar el problema?</t>
-  </si>
-  <si>
-    <t>Edye presenta: En un día caluroso, Ardilla gris ofrece a Nutbrown y Ratoncita un regalo: grandes sombrillas. Más tarde cambia de opinión y le pide a Nutbrown que devuelva la suya, lo que lo entristece. ¿Podrán encontrar la manera de que todos estén contentos?</t>
-  </si>
-  <si>
-    <t>EEGHML119.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000120</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP20</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown quiere ser como su papá. Aunque ¡él también tiene algunos trucos que enseñarle!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Papá Nutbrown sabe todos los trucos y escondites para encontrar golosinas y el pequeño Nutbrown quisiera ser tan inteligente como su padre. Sin embargo, pronto descubre que hay algunas cosas que una liebre pequeña puede enseñar a una liebre grande.</t>
-  </si>
-  <si>
-    <t>EEGHML120.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML121_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000121</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP21</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP21</t>
-  </si>
-  <si>
-    <t>EP 21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hace mucho calor. Nutbrown y sus amigos le piden a Búho Blanco un cuento muy frío para dormir.</t>
-  </si>
-  <si>
-    <t>Edye presenta: En una noche más calurosa del verano, Nutbrown y sus amigos no pueden dormir y le piden a Búho Blanco que les cuente un cuento muy frío. ¿Se le ocurrirá una historia que pueda hacer que se sientan geniales y finalmente los haga dormir?</t>
-  </si>
-  <si>
-    <t>EEGHML121.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML121_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML122_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000122</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP22</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP22</t>
-  </si>
-  <si>
-    <t>EP 22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown descubre que cada criatura tiene una visión personal de lo que hay a su alrededor.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown queda impresionado por la descripción de Pajarita Azul de un campo florido que se ve como un mar de color desde las alturas. De visita el campo con Papá Nutbrown y Ratoncita, descubre que cada uno tiene su propia y única visión del lugar.</t>
-  </si>
-  <si>
-    <t>EEGHML122.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML122_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML123_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000123</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP23</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP23</t>
-  </si>
-  <si>
-    <t>EP 23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown decide inventar una historia, pero le resulta más difícil de lo que pensaba.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Tras escuchar una historia del Búho Blanco, Nutbrown decide inventar una historia, pero le resulta más difícil de lo que pensaba. Con la ayuda de su padre, usa un poco de fruta que ha recogido en el camino para ayudarlo a contar una gran historia.</t>
-  </si>
-  <si>
-    <t>EEGHML123.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML123_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML124_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000124</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP24</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP24</t>
-  </si>
-  <si>
-    <t>EP 24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown y su papá intercambian sus roles jugando. Pronto descubren que es mejor ser uno mismo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Por un día, Nutbrown ocupará el lugar y las actividades de su papá mientras Papá Nutbrown actuará como su hijo jugando con sus amigos. Todo es muy divertido hasta que se dan cuenta de que son mucho, mucho mejores, siendo ellos mismos.</t>
-  </si>
-  <si>
-    <t>EEGHML124.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML124_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML125_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000125</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP25</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP25</t>
-  </si>
-  <si>
-    <t>EP 25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown se pregunta si es posible disfrutar una tormenta y de las maravillas de la naturaleza.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una tormenta obliga a Nutbrown y sus amigos a refugiarse en una cueva. Ahí Papá Nutbrown les explica que los ruidos no pueden lastimarte, pero ¿los ayudará a superar sus miedos como para disfrutar de la tormenta y las maravillas de la naturaleza?</t>
-  </si>
-  <si>
-    <t>EEGHML125.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML125_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML126_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH6000000000000126</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te QuieroT01EP26</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP26</t>
-  </si>
-  <si>
-    <t>EP 26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nutbrown y sus amigos descubren un árbol lleno ciruelas ¿qué pasará cuando se acaben?</t>
-  </si>
-  <si>
-    <t>Edye presenta: En verano Nutbrown descubre un árbol lleno ciruelas. Pero él no es el único que disfruta de la fruta: todos los animales de la pradera vienen probarla. Cuando avanza el verano, Nutbrown se pregunta ¿qué harán todos los animales cuando se terminen?</t>
-  </si>
-  <si>
-    <t>EEGHML126.mpg</t>
-  </si>
-  <si>
-    <t>EEGHML126_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGHML111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000111</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEGHML111.ts</t>
-  </si>
-  <si>
-    <t>EEGHML112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000112</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEGHML112.ts</t>
-  </si>
-  <si>
-    <t>EEGHML113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000113</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEGHML113.ts</t>
-  </si>
-  <si>
-    <t>EEGHML114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000114</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEGHML114.ts</t>
-  </si>
-  <si>
-    <t>EEGHML115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000115</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEGHML115.ts</t>
-  </si>
-  <si>
-    <t>EEGHML116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000116</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEGHML116.ts</t>
-  </si>
-  <si>
-    <t>EEGHML117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000117</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEGHML117.ts</t>
-  </si>
-  <si>
-    <t>EEGHML118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000118</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEGHML118.ts</t>
-  </si>
-  <si>
-    <t>EEGHML119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000119</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEGHML119.ts</t>
-  </si>
-  <si>
-    <t>EEGHML120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000120</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEGHML120.ts</t>
-  </si>
-  <si>
-    <t>EEGHML121_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000121</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEGHML121.ts</t>
-  </si>
-  <si>
-    <t>EEGHML122_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000122</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEGHML122.ts</t>
-  </si>
-  <si>
-    <t>EEGHML123_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000123</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEGHML123.ts</t>
-  </si>
-  <si>
-    <t>EEGHML124_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000124</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEGHML124.ts</t>
-  </si>
-  <si>
-    <t>EEGHML125_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000125</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEGHML125.ts</t>
-  </si>
-  <si>
-    <t>EEGHML126_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGH7000000000000126</t>
-  </si>
-  <si>
-    <t>Adivina Cuánto te Quiero T01 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEGHML126.ts</t>
+    <t>Edye presenta: Peg y Gato deben reunir a los miembros ausentes de su banda ambulante "Los once eléctricos".</t>
+  </si>
+  <si>
+    <t>Edye presenta: La granja. Peg y Gato deben encontrar a los miembros ausentes de su banda ambulante, “Los once eléctricos”, a tiempo para su gran actuación frente a 100 pollos.</t>
+  </si>
+  <si>
+    <t>EEPEGC120.mpg</t>
+  </si>
+  <si>
+    <t>EEPEGC120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEPEGC111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000111</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC111.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000112</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC112.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000113</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC113.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000114</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC114.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000115</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC115.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000116</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC116.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000117</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC117.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000118</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC118.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000119</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC119.ts</t>
+  </si>
+  <si>
+    <t>EEPEGC120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEPE7000000000000120</t>
+  </si>
+  <si>
+    <t>Peg + Gato T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEPEGC120.ts</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1126,7 @@
   <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF17"/>
+      <selection activeCell="A2" sqref="A2:BF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1548,7 +1316,7 @@
         <v>40</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AW1" s="6"/>
       <c r="AX1" s="5" t="s">
@@ -1558,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BA1" s="6"/>
       <c r="BB1" s="5" t="s">
@@ -1574,12 +1342,12 @@
         <v>42</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1603,13 +1371,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -1619,31 +1387,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -1652,7 +1420,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
@@ -1664,90 +1432,90 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="15">
+        <v>361676092</v>
+      </c>
+      <c r="AT2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS2" s="15">
-        <v>305322152</v>
-      </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU2" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV2" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE2" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF2" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7">
         <v>44623</v>
@@ -1771,13 +1539,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -1787,31 +1555,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -1820,7 +1588,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
@@ -1832,90 +1600,90 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AP3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AR3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AS3" s="15">
+        <v>375761616</v>
+      </c>
+      <c r="AT3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS3" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AU3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU3" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV3" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BE3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE3" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF3" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7">
         <v>44623</v>
@@ -1939,13 +1707,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -1955,31 +1723,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -1988,7 +1756,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
@@ -2000,90 +1768,90 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AS4" s="15">
+        <v>361661616</v>
+      </c>
+      <c r="AT4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS4" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AU4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU4" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV4" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD4" s="9" t="s">
+      <c r="BE4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE4" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF4" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7">
         <v>44623</v>
@@ -2107,13 +1875,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -2123,31 +1891,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -2156,7 +1924,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
@@ -2168,90 +1936,90 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AP5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AR5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AS5" s="15">
+        <v>375732852</v>
+      </c>
+      <c r="AT5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS5" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AU5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU5" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV5" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD5" s="9" t="s">
+      <c r="BE5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE5" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF5" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B6" s="7">
         <v>44623</v>
@@ -2275,13 +2043,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -2291,31 +2059,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -2324,7 +2092,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
@@ -2336,90 +2104,90 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AP6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AR6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AS6" s="15">
+        <v>361661616</v>
+      </c>
+      <c r="AT6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS6" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AU6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU6" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV6" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD6" s="9" t="s">
+      <c r="BE6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE6" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF6" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B7" s="7">
         <v>44623</v>
@@ -2443,13 +2211,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -2459,31 +2227,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -2492,7 +2260,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
@@ -2504,90 +2272,90 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO7" s="9" t="s">
+      <c r="AP7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP7" s="9" t="s">
+      <c r="AQ7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ7" s="9" t="s">
+      <c r="AR7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR7" s="9" t="s">
+      <c r="AS7" s="15">
+        <v>375761616</v>
+      </c>
+      <c r="AT7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS7" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT7" s="9" t="s">
+      <c r="AU7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU7" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV7" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD7" s="9" t="s">
+      <c r="BE7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE7" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF7" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B8" s="7">
         <v>44623</v>
@@ -2611,13 +2379,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -2627,31 +2395,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -2660,7 +2428,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
@@ -2672,90 +2440,90 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO8" s="9" t="s">
+      <c r="AP8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP8" s="9" t="s">
+      <c r="AQ8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ8" s="9" t="s">
+      <c r="AR8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR8" s="9" t="s">
+      <c r="AS8" s="15">
+        <v>361661616</v>
+      </c>
+      <c r="AT8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS8" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT8" s="9" t="s">
+      <c r="AU8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU8" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV8" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD8" s="9" t="s">
+      <c r="BE8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE8" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF8" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" s="7">
         <v>44623</v>
@@ -2779,13 +2547,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -2795,31 +2563,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -2828,7 +2596,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
@@ -2840,90 +2608,90 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO9" s="9" t="s">
+      <c r="AP9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP9" s="9" t="s">
+      <c r="AQ9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ9" s="9" t="s">
+      <c r="AR9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR9" s="9" t="s">
+      <c r="AS9" s="15">
+        <v>375732852</v>
+      </c>
+      <c r="AT9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS9" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT9" s="9" t="s">
+      <c r="AU9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU9" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV9" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD9" s="9" t="s">
+      <c r="BE9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE9" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF9" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="7">
         <v>44623</v>
@@ -2947,13 +2715,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -2963,31 +2731,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -2996,7 +2764,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
@@ -3008,90 +2776,90 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO10" s="9" t="s">
+      <c r="AP10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP10" s="9" t="s">
+      <c r="AQ10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ10" s="9" t="s">
+      <c r="AR10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR10" s="9" t="s">
+      <c r="AS10" s="15">
+        <v>361661616</v>
+      </c>
+      <c r="AT10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS10" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT10" s="9" t="s">
+      <c r="AU10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AU10" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="AV10" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD10" s="9" t="s">
+      <c r="BE10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE10" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF10" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="7">
         <v>44623</v>
@@ -3115,13 +2883,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -3131,10 +2899,10 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>160</v>
@@ -3146,16 +2914,16 @@
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -3164,7 +2932,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
@@ -3176,1094 +2944,446 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO11" s="9" t="s">
+      <c r="AP11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP11" s="9" t="s">
+      <c r="AQ11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ11" s="9" t="s">
+      <c r="AR11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR11" s="9" t="s">
+      <c r="AS11" s="15">
+        <v>375732852</v>
+      </c>
+      <c r="AT11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AS11" s="15">
-        <v>305350728</v>
-      </c>
-      <c r="AT11" s="9" t="s">
+      <c r="AU11" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="AU11" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="AV11" s="9" t="s">
         <v>162</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD11" s="9" t="s">
+      <c r="BE11" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="BE11" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="BF11" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>166</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U12" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V12" s="3">
-        <v>2012</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK12" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
       <c r="AL12" s="8"/>
-      <c r="AM12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS12" s="9">
-        <v>305350728</v>
-      </c>
-      <c r="AT12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV12" s="9" t="s">
-        <v>171</v>
-      </c>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
       <c r="AW12" s="8"/>
-      <c r="AX12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ12" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF12" s="9" t="s">
-        <v>172</v>
-      </c>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>175</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U13" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V13" s="3">
-        <v>2012</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ13" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK13" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS13" s="9">
-        <v>305350728</v>
-      </c>
-      <c r="AT13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV13" s="9" t="s">
-        <v>180</v>
-      </c>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
       <c r="AW13" s="8"/>
-      <c r="AX13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ13" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF13" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T14" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U14" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V14" s="3">
-        <v>2012</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK14" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
       <c r="AL14" s="8"/>
-      <c r="AM14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS14" s="9">
-        <v>305350728</v>
-      </c>
-      <c r="AT14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="9" t="s">
-        <v>189</v>
-      </c>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
       <c r="AW14" s="8"/>
-      <c r="AX14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ14" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF14" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>193</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T15" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U15" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2012</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK15" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS15" s="9">
-        <v>305350728</v>
-      </c>
-      <c r="AT15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV15" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
       <c r="AW15" s="8"/>
-      <c r="AX15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ15" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF15" s="9" t="s">
-        <v>199</v>
-      </c>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U16" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V16" s="3">
-        <v>2012</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK16" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS16" s="9">
-        <v>305350728</v>
-      </c>
-      <c r="AT16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV16" s="9" t="s">
-        <v>207</v>
-      </c>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
       <c r="AW16" s="8"/>
-      <c r="AX16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ16" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
       <c r="BA16" s="8"/>
-      <c r="BB16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF16" s="9" t="s">
-        <v>208</v>
-      </c>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>211</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T17" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U17" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2012</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK17" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
       <c r="AL17" s="8"/>
-      <c r="AM17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS17" s="9">
-        <v>305350728</v>
-      </c>
-      <c r="AT17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV17" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ17" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF17" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -4874,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF17"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BP2" sqref="BP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4927,7 +4047,7 @@
   <sheetData>
     <row r="1" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5064,7 +4184,7 @@
         <v>40</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AW1" s="6"/>
       <c r="AX1" s="5" t="s">
@@ -5074,7 +4194,7 @@
         <v>10</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BA1" s="6"/>
       <c r="BB1" s="5" t="s">
@@ -5090,12 +4210,12 @@
         <v>42</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -5119,13 +4239,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -5135,31 +4255,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -5168,7 +4288,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
@@ -5180,90 +4300,90 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR2" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS2" s="15">
-        <v>610586588</v>
+        <v>723294280</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE2" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF2" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -5287,13 +4407,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -5303,31 +4423,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -5336,7 +4456,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
@@ -5348,90 +4468,90 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AP3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AR3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR3" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS3" s="15">
-        <v>610643928</v>
+        <v>751465516</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BE3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE3" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF3" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -5455,13 +4575,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -5471,31 +4591,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -5504,7 +4624,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
@@ -5516,90 +4636,90 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AR4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR4" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS4" s="15">
-        <v>610643928</v>
+        <v>723265704</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD4" s="9" t="s">
+      <c r="BE4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE4" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF4" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -5623,13 +4743,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -5639,31 +4759,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -5672,7 +4792,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
@@ -5684,90 +4804,90 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AP5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AR5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR5" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS5" s="15">
-        <v>610643928</v>
+        <v>751402348</v>
       </c>
       <c r="AT5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD5" s="9" t="s">
+      <c r="BE5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE5" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF5" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -5791,13 +4911,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -5807,31 +4927,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -5840,7 +4960,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
@@ -5852,90 +4972,90 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AP6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AR6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR6" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS6" s="15">
-        <v>610643928</v>
+        <v>723265704</v>
       </c>
       <c r="AT6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD6" s="9" t="s">
+      <c r="BE6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE6" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF6" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -5959,13 +5079,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -5975,31 +5095,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -6008,7 +5128,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
@@ -6020,90 +5140,90 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO7" s="9" t="s">
+      <c r="AP7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP7" s="9" t="s">
+      <c r="AQ7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ7" s="9" t="s">
+      <c r="AR7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR7" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS7" s="15">
-        <v>610643928</v>
+        <v>751465516</v>
       </c>
       <c r="AT7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD7" s="9" t="s">
+      <c r="BE7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE7" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF7" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -6127,13 +5247,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -6143,31 +5263,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -6176,7 +5296,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
@@ -6188,90 +5308,90 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO8" s="9" t="s">
+      <c r="AP8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP8" s="9" t="s">
+      <c r="AQ8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ8" s="9" t="s">
+      <c r="AR8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR8" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS8" s="15">
-        <v>610643928</v>
+        <v>723265704</v>
       </c>
       <c r="AT8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD8" s="9" t="s">
+      <c r="BE8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE8" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF8" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -6295,13 +5415,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -6311,31 +5431,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -6344,7 +5464,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
@@ -6356,90 +5476,90 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO9" s="9" t="s">
+      <c r="AP9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP9" s="9" t="s">
+      <c r="AQ9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ9" s="9" t="s">
+      <c r="AR9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR9" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS9" s="15">
-        <v>610643928</v>
+        <v>751402348</v>
       </c>
       <c r="AT9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD9" s="9" t="s">
+      <c r="BE9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE9" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF9" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -6463,13 +5583,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -6479,31 +5599,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -6512,7 +5632,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
@@ -6524,90 +5644,90 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO10" s="9" t="s">
+      <c r="AP10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP10" s="9" t="s">
+      <c r="AQ10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ10" s="9" t="s">
+      <c r="AR10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR10" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS10" s="15">
-        <v>610643928</v>
+        <v>723265704</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD10" s="9" t="s">
+      <c r="BE10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BE10" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="BF10" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -6631,13 +5751,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -6647,10 +5767,10 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>160</v>
@@ -6662,16 +5782,16 @@
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.5231481481481477E-3</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -6680,7 +5800,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>44409</v>
+        <v>43678</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
@@ -6692,1094 +5812,446 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AN11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO11" s="9" t="s">
+      <c r="AP11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AP11" s="9" t="s">
+      <c r="AQ11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AQ11" s="9" t="s">
+      <c r="AR11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AR11" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="AS11" s="9">
-        <v>610643928</v>
+        <v>751402348</v>
       </c>
       <c r="AT11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BC11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD11" s="9" t="s">
+      <c r="BE11" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="BE11" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="BF11" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>166</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U12" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V12" s="9">
-        <v>2012</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK12" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
       <c r="AL12" s="8"/>
-      <c r="AM12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS12" s="9">
-        <v>610643928</v>
-      </c>
-      <c r="AT12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV12" s="9" t="s">
-        <v>261</v>
-      </c>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
       <c r="AW12" s="8"/>
-      <c r="AX12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ12" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF12" s="9" t="s">
-        <v>172</v>
-      </c>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>175</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U13" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V13" s="9">
-        <v>2012</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ13" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK13" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
       <c r="AL13" s="8"/>
-      <c r="AM13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS13" s="9">
-        <v>610643928</v>
-      </c>
-      <c r="AT13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV13" s="9" t="s">
-        <v>265</v>
-      </c>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
       <c r="AW13" s="8"/>
-      <c r="AX13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ13" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF13" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T14" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U14" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V14" s="9">
-        <v>2012</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK14" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
       <c r="AL14" s="8"/>
-      <c r="AM14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS14" s="9">
-        <v>610643928</v>
-      </c>
-      <c r="AT14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV14" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
       <c r="AW14" s="8"/>
-      <c r="AX14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ14" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF14" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B15" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>193</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T15" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U15" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V15" s="9">
-        <v>2012</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC15" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK15" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
       <c r="AL15" s="8"/>
-      <c r="AM15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS15" s="9">
-        <v>610643928</v>
-      </c>
-      <c r="AT15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV15" s="9" t="s">
-        <v>273</v>
-      </c>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
       <c r="AW15" s="8"/>
-      <c r="AX15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ15" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF15" s="9" t="s">
-        <v>199</v>
-      </c>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U16" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V16" s="9">
-        <v>2012</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK16" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS16" s="9">
-        <v>610643928</v>
-      </c>
-      <c r="AT16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV16" s="9" t="s">
-        <v>277</v>
-      </c>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
       <c r="AW16" s="8"/>
-      <c r="AX16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ16" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
       <c r="BA16" s="8"/>
-      <c r="BB16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF16" s="9" t="s">
-        <v>208</v>
-      </c>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>211</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T17" s="10">
-        <v>7.5231481481481477E-3</v>
-      </c>
-      <c r="U17" s="11">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="V17" s="9">
-        <v>2012</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>44409</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>45138</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK17" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
       <c r="AL17" s="8"/>
-      <c r="AM17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS17" s="9">
-        <v>610643928</v>
-      </c>
-      <c r="AT17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV17" s="9" t="s">
-        <v>281</v>
-      </c>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ17" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF17" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36626AB-A048-4384-BDA4-D3C0EA6B00D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619C854-B835-4A81-8517-14D2E1EDBE17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="281">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -231,9 +231,6 @@
     <t>EP 11</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>EP 12</t>
   </si>
   <si>
@@ -279,604 +276,605 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>EEHBFD111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000111</t>
-  </si>
-  <si>
-    <t>Serie Harry y su cubeta de dinosaurios</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP11</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry decide imitar a su madre y convertirse en periodista por un día.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry decide imitar a su madre y convertirse en periodista por un día. ¡Harry no puede encontrar en casa nada digno de reportar, así que va al Dino-mundo para informar sobre la primera carrera de dinosaurios de la historia!</t>
-  </si>
-  <si>
-    <t>Infantil/Harry y su cubeta de dinosaurios</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios</t>
-  </si>
-  <si>
-    <t>Andrew Chalmers, Jamie Watson, Ron Rubin, Andrew Sabiston, Stacey DePass, Juan Chioran, Jonathan Wilson, Susan Roman, Debra Toffan</t>
-  </si>
-  <si>
-    <t>Harry's Bucket Inc</t>
-  </si>
-  <si>
-    <t>Chalmers Andrew, Watson Jamie, Rubin Ron, Sabiston Andrew, DePass Stacey, Chioran Juan, Wilson Jonathan, Roman Susan, Toffan Debra</t>
-  </si>
-  <si>
-    <t>Graham, Ralph</t>
-  </si>
-  <si>
-    <t>EEHBFD111.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000112</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP12</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry está decepcionado porque no puede desayunar lo que quiere y se va al Dino-mundo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry está molesto porque no puede desayunar lo que quiere y se va al Dino-mundo donde hay un restaurante y ¡él es el jefe de cocina! Muy pronto se da cuenta que darle gusto a todos no es fácil, y regresa a casa a disfrutar de la cocina de Nana.</t>
-  </si>
-  <si>
-    <t>EEHBFD112.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000113</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP13</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: En un día lluvioso, Harry decide ir al Dino-mundo en donde hace mucho sol y calor.</t>
-  </si>
-  <si>
-    <t>Edye presenta: En un día lluvioso, Harry decide ir al Dino-mundo en donde hay mucho sol y calor, y puede usar sus nuevas gafas de sol. Pero al encontrar a un delfín varado y presenciar la operación de rescate, Harry se dé cuenta de lo importante que es la lluvia.</t>
-  </si>
-  <si>
-    <t>EEHBFD113.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000114</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP14</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: A Harry y Charlie les quitan su balón de fútbol porque no pueden jugar sin discutir.</t>
-  </si>
-  <si>
-    <t>Edye presenta: A Harry y Charlie les quitan su balón de fútbol porque no pueden jugar sin pelear. Van a jugar al Dino-mundo pero Charlie no es muy buena y Harry se enoja con ella. Él termina disculpándose con Charlie y ambos disfrutan de un partido amistoso.</t>
-  </si>
-  <si>
-    <t>EEHBFD114.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000115</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP15</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry tiene un resfriado pero se aburre de quedarse en la cama, y se va a jugar al Dino-mundo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry tiene un resfriado pero se aburre de quedarse en la cama, y se va a jugar al Dino-mundo, donde contagia a todos los dinosaurios. Harry termina llevando a todos los dinosaurios a su habitación para tomar un poco de la sopa de pollo de mamá.</t>
-  </si>
-  <si>
-    <t>EEHBFD115.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000116</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP16</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry finge ser un superhéroe pero sus esfuerzos por ayudar a su familia sólo causan problemas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry finge ser un superhéroe, pero sus esfuerzos por ayudar a su familia sólo causan problemas, por lo que va al Dino-mundo, ¡donde puede ser un verdadero superhéroe gracias a las cualidades de cada uno sus dinosaurios!</t>
-  </si>
-  <si>
-    <t>EEHBFD116.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000117</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP17</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: A Harry le resulta difícil tocar el violín y tiene miedo de actuar en el concierto escolar.</t>
-  </si>
-  <si>
-    <t>Edye presenta: A Harry le cuestra trabajo tocar el violín y tiene miedo de actuar en el concierto escolar, por lo que va al Dino-mundo a practicar. Al hacerlo, las notas musicales cobran vida y descubre que tocar, incluso cuando se cometen errores, es muy divertido</t>
-  </si>
-  <si>
-    <t>EEHBFD117.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000118</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP18</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry es demasiado pequeño para recoger manzanas y va al Dino-mundo para intentar resolverlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Harry descubre que aún es pequeño para recoger manzanas, va al Dino-mundo buscando leche para crecer. La leche primero lo hace muy grande y luego demasiado pequeño. Con sus amigos, Harry encuentra la forma de volver a su tamaño normal.</t>
-  </si>
-  <si>
-    <t>EEHBFD118.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000119</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP19</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Sam usa el cubo de Harry para recoger agua poniendo al Dino-mundo en peligro de inundación.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Sam usa el cubo de Harry para recoger agua y Harry corre al Dino-mundo para salvar a los dinosaurios de ahogarse. El Dino-mundo está inundado y los juguetes de la bañera de Harry están ahí con lo que descubre que la fuga viene del grifo del baño.</t>
-  </si>
-  <si>
-    <t>EEHBFD119.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000120</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP20</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: En la escuela, a los chicos les parece que los dinosaurios de Harry son anticuados.</t>
-  </si>
-  <si>
-    <t>Edye presenta: En la escuela, a los chicos les parece que los dinosaurios de Harry son anticuados en comparación con un Dino-Robot de alta tecnología. Los dinosaurios de Harry construyen un robot Raging-Rex, que rápidamente se sale de control.</t>
-  </si>
-  <si>
-    <t>EEHBFD120.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD121_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000121</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP21</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry no puede encontrar uno de sus calcetines de vaquero y va a Dino-mundo a buscarlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry no puede encontrar uno de sus calcetines de vaquero y va a Dino-mundo a buscarlo. A su llegada, descubren que el Dino-mundo está invadido por una manada de calcetines perdidos ¡Y ahí está el suyo!</t>
-  </si>
-  <si>
-    <t>EEHBFD121.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD121_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD122_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000122</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP22</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Charlie le presta a Harry su Sargento Shout, Harry lo lleva al Dino-mundo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Charlie le presta a Harry su Sargento Shout, él promete no dejarlo solo. Harry lleva al Sargento al Dino-mundo en donde el militar enseña a Harry y los dinosaurios cómo ser soldados, y lo pasa tan bien, que ya no quiere regresar al mundo real.</t>
-  </si>
-  <si>
-    <t>EEHBFD122.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD122_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD123_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000123</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP23</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry recibe una caja de trucos para Navidad pero no puede hacer ninguna magia.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry recibe una caja de trucos para Navidad pero no puede hacer ninguna magia. Disgustado, va al Dino-mundo donde conoce a un conejo llamado Mr. Wiggle-Noso, quien le enseña a Harry que, para creer y crear magia, primero debe creer en sí mismo.</t>
-  </si>
-  <si>
-    <t>EEHBFD123.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD123_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD124_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000124</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP24</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry teme ir al dentista, no obstante, lleva a Trike al Bocinhospital cuando le duele la bocina.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry teme ir al dentista, no obstante, lleva a Trike al Bocinhospital del Dino-mundo, cuando le duele la bocina. A Harry se le permite ser el Asistente del “doctor” y queda fascinado por el mundo de la odontología.</t>
-  </si>
-  <si>
-    <t>EEHBFD124.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD124_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD125_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000125</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP25</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Nana le da a Harry un libro sobre el Rey Arturo y sus Caballeros para que pueda aprender buenos modales.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry molesta a Charly en la escuela y Nana le da un libro sobre el Rey Arturo y sus Caballeros para que aprenda a comportarse. Tras leerlo, va al Dino-mundo para ser un caballero y cuando un dragón lo atrapa, aprende que los buenos modales importan.</t>
-  </si>
-  <si>
-    <t>EEHBFD125.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD125_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD126_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB6000000000000126</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosauriosT01EP26</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry está jugando en la computadora y accidentalmente pierde el último trabajo de su mamá.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Harry está jugando en la computadora y accidentalmente pierde el último trabajo de su mamá. Con la ayuda de un ratón de computadora en Dino-mundo, viaja a la papelera de reciclaje para intentar recuperarlo antes de que se pierda para siempre.</t>
-  </si>
-  <si>
-    <t>EEHBFD126.mpg</t>
-  </si>
-  <si>
-    <t>EEHBFD126_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHBFD111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000111</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD111.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000112</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD112.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000113</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD113.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000114</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD114.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000115</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD115.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000116</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD116.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000117</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD117.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000118</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD118.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000119</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD119.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000120</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD120.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD121_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000121</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD121.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD122_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000122</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD122.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD123_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000123</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD123.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD124_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000124</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD124.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD125_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000125</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD125.ts</t>
-  </si>
-  <si>
-    <t>EEHBFD126_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHB7000000000000126</t>
-  </si>
-  <si>
-    <t>Harry y su cubeta de dinosaurios T01 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEHBFD126.ts</t>
+    <t>EEMMMT111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000111</t>
+  </si>
+  <si>
+    <t>Serie Las Aventuras de Meteor</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP11</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Para no participar en una carrera que considera difícil, Amby finge estar enfermo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Para evitar participar en la última carrera de contrarreloj de Big Wheelie, Amby finge que está enfermo porque cree que la competencia es demasiado difícil para un pequeño camión monstruo como él.</t>
+  </si>
+  <si>
+    <t>Infantil/Las Aventuras de Meteor</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Ansell Cameron, Eisner Mitchell, Isen Tajja, Petronijevic Dan, Saunders Cliff</t>
+  </si>
+  <si>
+    <t>Meteor the Monster</t>
+  </si>
+  <si>
+    <t>Hierons, Trevor</t>
+  </si>
+  <si>
+    <t>EEMMMT111.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000112</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP12</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro está molesto con Basurita porque lo abandonó cuando estaba en problemas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Basurita deja a Meteoro atrapado en un charco de lodo muy profundo ¡Meteoro no puede creer que su amigo se haya ido! y, sólo es hasta que Basurita finalmente admite lo que hizo, se da cuenta de que en realidad él no tenía la culpa del accidente.</t>
+  </si>
+  <si>
+    <t>EEMMMT112.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000113</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP13</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Durante una exhibición, Meteoro está a punto de causar un problema por no hacer su trabajo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Crushmeister, uno de los camiones monstruo más famosos de Crushington Park se va a presentar y Meteoro se ofrece para ayudar durante el evento. Sin embargo, se distrae jugando con sus amigos y Big Wheelie tiene que intervenir para evitar un problema.</t>
+  </si>
+  <si>
+    <t>EEMMMT113.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000114</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP14</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Big Wheelie le encarga una tarea a Meteoro, este debe aprender cómo ser un buen líder.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro debe aprender a no ser un líder mandón cuando Big Wheelie lo elige para dirigir a sus amigos en la creación de una nueva “Línea de Meta” para la pista de carreras de la escuela.</t>
+  </si>
+  <si>
+    <t>EEMMMT114.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000115</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP15</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro aprende que hay que practicar hasta que las cosas salgan bien.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro comprende que si algo no le sale bien la primera vez, practicar y practicar, es lo que lo convertirá en un experto.</t>
+  </si>
+  <si>
+    <t>EEMMMT115.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000116</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP16</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro se preocupa pensando que las historias del abuelo aburrirán a sus amigos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El héroe de Meteoro viene de visita: ¡su abuelo, el vehículo lunar original! Pero, cuando queda claro que ya han pasado los días de gloria del abuelo, Meteoro se preocupa innecesariamente pensando que las historias del abuelo aburrirán a sus amigos.</t>
+  </si>
+  <si>
+    <t>EEMMMT116.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000117</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP17</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro tiene el temor de que una de sus pesadillas se convierta en realidad.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro tiene problemas para olvidar la pesadilla que tuvo: Basurita lo empujaba a una zanja al costado del camino. Por lo que, al día siguiente, Meteoro evita a su amigo por temor a que su mal sueño se haga realidad.</t>
+  </si>
+  <si>
+    <t>EEMMMT117.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000118</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP18</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro aprende la importancia de no depender únicamente de la tecnología.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro entiende lo importante que es aprender los conceptos básicos en lugar de depender de la tecnología, cuando daña por accidente un pantalla de video que iba a usar para ganar "la carrera hacia atrás", un recorrido totalmente en reversa.</t>
+  </si>
+  <si>
+    <t>EEMMMT118.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000119</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP19</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Pequeñín quiere usar un enorme gancho pero se da cuenta de que no corresponde a su tamaño.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Pequeñín se enamora de un gancho remolcador que encontró en su patio. Pero cuando intenta usar el enorme gancho para sacar a uno de sus amigos de la basura, se da cuenta de que aun es pequeño para usarlo y no hay nada que pueda hacer al respecto.</t>
+  </si>
+  <si>
+    <t>EEMMMT119.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000120</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP20</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro se molesta con sus amigos cuando comienzan a actuar de forma misteriosa.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro se molesta porque sus amigos lo evitan cuando están jugando al escondite, hasta que descubre que actuaban de forma misteriosa porque le estaban organizando una fiesta de cumpleaños sorpresa.</t>
+  </si>
+  <si>
+    <t>EEMMMT120.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT121_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000121</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP21</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Big Wheelie les da a los camiones una lección sobre la importancia de seguir las instrucciones.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Big Wheelie les da a los camiones una lección sobre la importancia de seguir las instrucciones cuando organiza una carrera para que los chicos recorran un laberinto con distracciones en cada vuelta.</t>
+  </si>
+  <si>
+    <t>EEMMMT121.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT121_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT122_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000122</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP22</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Pony les demuesta a los demás que deben darles una oportunidad a alguien que es diferente a ti.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Sue, un camión de apoyo apestoso y de mal carácter, no les cae bien al resto de los camiones, hasta que Pony se hace amiga de ella y todos aprenden el valor de acercarse a alguien que es diferente a ti.</t>
+  </si>
+  <si>
+    <t>EEMMMT122.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT122_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT123_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000123</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP23</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro aprende que se puede ser un gran vehículo espacial, aunque no gane todas las carreras.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Meteoro aprende que se puede ser un gran vehículo espacial, a pesar de no ganar todas las carreras, cuando Cosmo Starfinder, uno de sus héroes espaciales, hace correr a los pequeños camiones durante un recorrido de entrenamiento en la escuela.</t>
+  </si>
+  <si>
+    <t>EEMMMT123.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT123_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT124_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000124</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP24</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Pony se va a dar una vuelta con su primo sin avisar a sus padres y aprenderá una lección.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duke, un viejo camión de rodeo, primo de Pony llega a la escuela de Crushington Park. Al terminar las clases, los dos se van a dar una vuelta. Pony aprende la importancia de avisar siempre a sus padres en dónde se encuentra.</t>
+  </si>
+  <si>
+    <t>EEMMMT124.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT124_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT125_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000125</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP25</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Todos los chicos quieren salir en la televisión, pero Pony, por su actitud es la elegida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edye presenta: Dynamite Dan, la camioneta de la televisión ha llegado al pueblo para hacer un reportaje. Todos los chicos quieren impresionar a Dan demostrando sus habilidades pero es Pony, con su actitud tranquila, quien es elegida para aparecer en televisión.
+</t>
+  </si>
+  <si>
+    <t>EEMMMT125.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT125_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT126_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM6000000000000126</t>
+  </si>
+  <si>
+    <t>Las Aventuras de MeteorT01EP26</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los pequeños camiones deberán aprender a adaptarse a los cambios inesperados en su rutina.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Big Wheelie va a participar en una carrera y en su ausencia, un vehículo militar, el Sr Halftrack, se hará cargo de la clase. Los pequeños camiones deberán aprender a adaptarse a los cambios inesperados en su rutina diaria.</t>
+  </si>
+  <si>
+    <t>EEMMMT126.mpg</t>
+  </si>
+  <si>
+    <t>EEMMMT126_land.jpg</t>
+  </si>
+  <si>
+    <t>EEMMMT111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000111</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT111.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000112</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT112.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000113</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT113.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000114</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT114.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000115</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT115.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000116</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT116.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000117</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT117.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000118</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT118.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000119</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT119.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000120</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT120.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT121_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000121</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT121.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT122_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000122</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT122.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT123_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000123</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT123.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT124_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000124</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT124.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT125_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000125</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT125.ts</t>
+  </si>
+  <si>
+    <t>EEMMMT126_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEMM7000000000000126</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Meteor T01 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEMMMT126.ts</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1577,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>43</v>
@@ -1603,13 +1601,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -1619,31 +1617,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -1664,10 +1662,10 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>91</v>
@@ -1682,10 +1680,10 @@
         <v>92</v>
       </c>
       <c r="AJ2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -1707,7 +1705,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>310032680</v>
+        <v>323128572</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -1716,7 +1714,7 @@
         <v>57</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -1726,7 +1724,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -1742,15 +1740,15 @@
         <v>61</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>43</v>
@@ -1771,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -1787,31 +1785,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -1832,10 +1830,10 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF3" s="9" t="s">
         <v>91</v>
@@ -1850,10 +1848,10 @@
         <v>92</v>
       </c>
       <c r="AJ3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -1875,7 +1873,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>310242112</v>
+        <v>324086620</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -1884,7 +1882,7 @@
         <v>57</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -1894,7 +1892,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -1910,15 +1908,15 @@
         <v>61</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>43</v>
@@ -1939,13 +1937,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -1955,31 +1953,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -2000,10 +1998,10 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF4" s="9" t="s">
         <v>91</v>
@@ -2018,10 +2016,10 @@
         <v>92</v>
       </c>
       <c r="AJ4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK4" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -2043,7 +2041,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>310078552</v>
+        <v>323802740</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -2052,7 +2050,7 @@
         <v>57</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -2062,7 +2060,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -2078,15 +2076,15 @@
         <v>61</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>43</v>
@@ -2107,13 +2105,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -2123,31 +2121,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -2168,10 +2166,10 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>91</v>
@@ -2186,10 +2184,10 @@
         <v>92</v>
       </c>
       <c r="AJ5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -2211,7 +2209,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>310032680</v>
+        <v>324086620</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -2220,7 +2218,7 @@
         <v>57</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -2230,7 +2228,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -2246,15 +2244,15 @@
         <v>61</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>43</v>
@@ -2275,13 +2273,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -2291,31 +2289,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -2336,10 +2334,10 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE6" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>91</v>
@@ -2354,10 +2352,10 @@
         <v>92</v>
       </c>
       <c r="AJ6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK6" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK6" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -2379,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>310092840</v>
+        <v>324101096</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -2388,7 +2386,7 @@
         <v>57</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -2398,7 +2396,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -2414,15 +2412,15 @@
         <v>61</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>43</v>
@@ -2443,13 +2441,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -2459,31 +2457,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -2504,10 +2502,10 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE7" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF7" s="9" t="s">
         <v>91</v>
@@ -2522,10 +2520,10 @@
         <v>92</v>
       </c>
       <c r="AJ7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK7" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK7" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -2547,7 +2545,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>310032680</v>
+        <v>324101096</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -2556,7 +2554,7 @@
         <v>57</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -2566,7 +2564,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -2582,15 +2580,15 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>43</v>
@@ -2611,13 +2609,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -2627,31 +2625,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="9" t="s">
+      <c r="R8" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -2672,10 +2670,10 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE8" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE8" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>91</v>
@@ -2690,10 +2688,10 @@
         <v>92</v>
       </c>
       <c r="AJ8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK8" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -2715,7 +2713,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>310107128</v>
+        <v>324101096</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -2724,7 +2722,7 @@
         <v>57</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -2734,7 +2732,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -2750,15 +2748,15 @@
         <v>61</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>43</v>
@@ -2779,13 +2777,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -2795,31 +2793,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -2840,10 +2838,10 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF9" s="9" t="s">
         <v>91</v>
@@ -2858,10 +2856,10 @@
         <v>92</v>
       </c>
       <c r="AJ9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK9" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -2883,7 +2881,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>310032680</v>
+        <v>324118204</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -2892,7 +2890,7 @@
         <v>57</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -2902,7 +2900,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -2918,15 +2916,15 @@
         <v>61</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>43</v>
@@ -2947,13 +2945,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -2963,31 +2961,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -3008,10 +3006,10 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE10" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF10" s="9" t="s">
         <v>91</v>
@@ -3026,10 +3024,10 @@
         <v>92</v>
       </c>
       <c r="AJ10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK10" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK10" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -3051,7 +3049,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>310107128</v>
+        <v>324118204</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -3060,7 +3058,7 @@
         <v>57</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -3070,7 +3068,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -3086,15 +3084,15 @@
         <v>61</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>43</v>
@@ -3115,13 +3113,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -3131,31 +3129,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -3176,10 +3174,10 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE11" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF11" s="9" t="s">
         <v>91</v>
@@ -3194,10 +3192,10 @@
         <v>92</v>
       </c>
       <c r="AJ11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK11" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -3219,7 +3217,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="15">
-        <v>310032680</v>
+        <v>324132492</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -3228,7 +3226,7 @@
         <v>57</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -3238,7 +3236,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -3254,15 +3252,15 @@
         <v>61</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>43</v>
@@ -3283,13 +3281,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -3299,31 +3297,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="9" t="s">
+      <c r="R12" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V12" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -3344,10 +3342,10 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE12" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF12" s="9" t="s">
         <v>91</v>
@@ -3362,10 +3360,10 @@
         <v>92</v>
       </c>
       <c r="AJ12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK12" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -3387,7 +3385,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>310046968</v>
+        <v>324118204</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>56</v>
@@ -3396,7 +3394,7 @@
         <v>57</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -3406,7 +3404,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -3422,15 +3420,15 @@
         <v>61</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>43</v>
@@ -3451,13 +3449,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -3467,31 +3465,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="9" t="s">
+      <c r="R13" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V13" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -3512,10 +3510,10 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE13" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>91</v>
@@ -3530,10 +3528,10 @@
         <v>92</v>
       </c>
       <c r="AJ13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK13" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK13" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -3555,7 +3553,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>310092840</v>
+        <v>324101096</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>56</v>
@@ -3564,7 +3562,7 @@
         <v>57</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -3574,7 +3572,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -3590,15 +3588,15 @@
         <v>61</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>43</v>
@@ -3619,13 +3617,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -3635,31 +3633,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+      <c r="R14" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V14" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -3680,10 +3678,10 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE14" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF14" s="9" t="s">
         <v>91</v>
@@ -3698,10 +3696,10 @@
         <v>92</v>
       </c>
       <c r="AJ14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK14" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK14" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -3723,7 +3721,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>310092840</v>
+        <v>324118204</v>
       </c>
       <c r="AT14" s="9" t="s">
         <v>56</v>
@@ -3732,7 +3730,7 @@
         <v>57</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -3742,7 +3740,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -3758,15 +3756,15 @@
         <v>61</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>43</v>
@@ -3787,13 +3785,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -3803,31 +3801,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V15" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -3848,10 +3846,10 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE15" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF15" s="9" t="s">
         <v>91</v>
@@ -3866,10 +3864,10 @@
         <v>92</v>
       </c>
       <c r="AJ15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK15" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK15" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -3891,7 +3889,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>310032680</v>
+        <v>324101096</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>56</v>
@@ -3900,7 +3898,7 @@
         <v>57</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -3910,7 +3908,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -3926,15 +3924,15 @@
         <v>61</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>43</v>
@@ -3955,13 +3953,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -3971,31 +3969,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="P16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="9" t="s">
+      <c r="R16" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V16" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -4016,10 +4014,10 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE16" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE16" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF16" s="9" t="s">
         <v>91</v>
@@ -4034,10 +4032,10 @@
         <v>92</v>
       </c>
       <c r="AJ16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK16" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK16" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -4059,7 +4057,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>310092840</v>
+        <v>324118204</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>56</v>
@@ -4068,7 +4066,7 @@
         <v>57</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -4078,7 +4076,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -4094,15 +4092,15 @@
         <v>61</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="7">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>43</v>
@@ -4123,13 +4121,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
@@ -4139,31 +4137,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="P17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="9" t="s">
+      <c r="R17" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V17" s="3">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -4184,10 +4182,10 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE17" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF17" s="9" t="s">
         <v>91</v>
@@ -4202,10 +4200,10 @@
         <v>92</v>
       </c>
       <c r="AJ17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK17" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK17" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -4227,7 +4225,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>310107128</v>
+        <v>324118204</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>56</v>
@@ -4236,7 +4234,7 @@
         <v>57</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -4246,7 +4244,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -4262,7 +4260,7 @@
         <v>61</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
@@ -4875,7 +4873,7 @@
   <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:BF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5095,10 +5093,10 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>43</v>
@@ -5119,13 +5117,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -5135,31 +5133,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -5180,10 +5178,10 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>91</v>
@@ -5198,10 +5196,10 @@
         <v>92</v>
       </c>
       <c r="AJ2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -5223,7 +5221,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>620007644</v>
+        <v>646193600</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>55</v>
@@ -5232,7 +5230,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -5242,7 +5240,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -5258,15 +5256,15 @@
         <v>61</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>43</v>
@@ -5287,13 +5285,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -5303,31 +5301,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -5348,10 +5346,10 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF3" s="9" t="s">
         <v>91</v>
@@ -5366,10 +5364,10 @@
         <v>92</v>
       </c>
       <c r="AJ3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -5391,7 +5389,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>620426508</v>
+        <v>648115712</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>55</v>
@@ -5400,7 +5398,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -5410,7 +5408,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -5426,15 +5424,15 @@
         <v>61</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>43</v>
@@ -5455,13 +5453,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -5471,31 +5469,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -5516,10 +5514,10 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF4" s="9" t="s">
         <v>91</v>
@@ -5534,10 +5532,10 @@
         <v>92</v>
       </c>
       <c r="AJ4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK4" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -5559,7 +5557,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>620093748</v>
+        <v>647547764</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>55</v>
@@ -5568,7 +5566,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -5578,7 +5576,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -5594,15 +5592,15 @@
         <v>61</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>43</v>
@@ -5623,13 +5621,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -5639,31 +5637,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -5684,10 +5682,10 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>91</v>
@@ -5702,10 +5700,10 @@
         <v>92</v>
       </c>
       <c r="AJ5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -5727,7 +5725,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>620007644</v>
+        <v>648115712</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>55</v>
@@ -5736,7 +5734,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -5746,7 +5744,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -5762,15 +5760,15 @@
         <v>61</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>43</v>
@@ -5791,13 +5789,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -5807,31 +5805,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -5852,10 +5850,10 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE6" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>91</v>
@@ -5870,10 +5868,10 @@
         <v>92</v>
       </c>
       <c r="AJ6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK6" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK6" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -5895,7 +5893,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>620122324</v>
+        <v>648144288</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>55</v>
@@ -5904,7 +5902,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -5914,7 +5912,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -5930,15 +5928,15 @@
         <v>61</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>43</v>
@@ -5959,13 +5957,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -5975,31 +5973,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -6020,10 +6018,10 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE7" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF7" s="9" t="s">
         <v>91</v>
@@ -6038,10 +6036,10 @@
         <v>92</v>
       </c>
       <c r="AJ7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK7" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK7" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -6063,7 +6061,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>620007644</v>
+        <v>648144288</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>55</v>
@@ -6072,7 +6070,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -6082,7 +6080,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -6098,15 +6096,15 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>43</v>
@@ -6127,13 +6125,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -6143,31 +6141,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -6188,10 +6186,10 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE8" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE8" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>91</v>
@@ -6206,10 +6204,10 @@
         <v>92</v>
       </c>
       <c r="AJ8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK8" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -6231,7 +6229,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>620156728</v>
+        <v>648144288</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>55</v>
@@ -6240,7 +6238,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -6250,7 +6248,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -6266,15 +6264,15 @@
         <v>61</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>43</v>
@@ -6295,13 +6293,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -6311,31 +6309,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -6356,10 +6354,10 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF9" s="9" t="s">
         <v>91</v>
@@ -6374,10 +6372,10 @@
         <v>92</v>
       </c>
       <c r="AJ9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK9" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -6399,7 +6397,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>620007644</v>
+        <v>648173052</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>55</v>
@@ -6408,7 +6406,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -6418,7 +6416,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -6434,15 +6432,15 @@
         <v>61</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>43</v>
@@ -6463,13 +6461,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -6479,31 +6477,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -6524,10 +6522,10 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE10" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF10" s="9" t="s">
         <v>91</v>
@@ -6542,10 +6540,10 @@
         <v>92</v>
       </c>
       <c r="AJ10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK10" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK10" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -6567,7 +6565,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>620156728</v>
+        <v>648173052</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>55</v>
@@ -6576,7 +6574,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -6586,7 +6584,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -6602,15 +6600,15 @@
         <v>61</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>43</v>
@@ -6631,13 +6629,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -6647,31 +6645,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -6692,10 +6690,10 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE11" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF11" s="9" t="s">
         <v>91</v>
@@ -6710,10 +6708,10 @@
         <v>92</v>
       </c>
       <c r="AJ11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK11" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -6735,7 +6733,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="9">
-        <v>620007644</v>
+        <v>648207456</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>55</v>
@@ -6744,7 +6742,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -6754,7 +6752,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -6770,15 +6768,15 @@
         <v>61</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>43</v>
@@ -6799,13 +6797,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -6815,31 +6813,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V12" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -6860,10 +6858,10 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE12" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF12" s="9" t="s">
         <v>91</v>
@@ -6878,10 +6876,10 @@
         <v>92</v>
       </c>
       <c r="AJ12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK12" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -6903,7 +6901,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>620036220</v>
+        <v>648173052</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>55</v>
@@ -6912,7 +6910,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -6922,7 +6920,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -6938,15 +6936,15 @@
         <v>61</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>43</v>
@@ -6967,13 +6965,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -6983,31 +6981,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V13" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -7028,10 +7026,10 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE13" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>91</v>
@@ -7046,10 +7044,10 @@
         <v>92</v>
       </c>
       <c r="AJ13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK13" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK13" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -7071,7 +7069,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>620122324</v>
+        <v>648144288</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>55</v>
@@ -7080,7 +7078,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -7090,7 +7088,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -7106,15 +7104,15 @@
         <v>61</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B14" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>43</v>
@@ -7135,13 +7133,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -7151,31 +7149,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V14" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -7196,10 +7194,10 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE14" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF14" s="9" t="s">
         <v>91</v>
@@ -7214,10 +7212,10 @@
         <v>92</v>
       </c>
       <c r="AJ14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK14" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK14" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -7239,7 +7237,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>620122324</v>
+        <v>648173052</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>55</v>
@@ -7248,7 +7246,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -7258,7 +7256,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -7274,15 +7272,15 @@
         <v>61</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>43</v>
@@ -7303,13 +7301,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -7319,31 +7317,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V15" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -7364,10 +7362,10 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE15" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF15" s="9" t="s">
         <v>91</v>
@@ -7382,10 +7380,10 @@
         <v>92</v>
       </c>
       <c r="AJ15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK15" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK15" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -7407,7 +7405,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>620007644</v>
+        <v>648144288</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>55</v>
@@ -7416,7 +7414,7 @@
         <v>62</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -7426,7 +7424,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -7442,15 +7440,15 @@
         <v>61</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>43</v>
@@ -7471,13 +7469,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -7487,31 +7485,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V16" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -7532,10 +7530,10 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE16" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE16" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF16" s="9" t="s">
         <v>91</v>
@@ -7550,10 +7548,10 @@
         <v>92</v>
       </c>
       <c r="AJ16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK16" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK16" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -7575,7 +7573,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>620122324</v>
+        <v>648173052</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>55</v>
@@ -7584,7 +7582,7 @@
         <v>62</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -7594,7 +7592,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -7610,15 +7608,15 @@
         <v>61</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B17" s="12">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>43</v>
@@ -7639,13 +7637,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
@@ -7655,31 +7653,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>7.6388888888888886E-3</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>7.6388888888888886E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="V17" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -7700,10 +7698,10 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE17" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="AF17" s="9" t="s">
         <v>91</v>
@@ -7718,10 +7716,10 @@
         <v>92</v>
       </c>
       <c r="AJ17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK17" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="AK17" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -7743,7 +7741,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>620156728</v>
+        <v>648173052</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>55</v>
@@ -7752,7 +7750,7 @@
         <v>62</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -7762,7 +7760,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -7778,7 +7776,7 @@
         <v>61</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619C854-B835-4A81-8517-14D2E1EDBE17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB5999B-4F94-445C-9BF9-3C76BBEA1018}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,605 +276,604 @@
     <t>EP 26</t>
   </si>
   <si>
-    <t>EEMMMT111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000111</t>
-  </si>
-  <si>
-    <t>Serie Las Aventuras de Meteor</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP11</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Para no participar en una carrera que considera difícil, Amby finge estar enfermo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Para evitar participar en la última carrera de contrarreloj de Big Wheelie, Amby finge que está enfermo porque cree que la competencia es demasiado difícil para un pequeño camión monstruo como él.</t>
-  </si>
-  <si>
-    <t>Infantil/Las Aventuras de Meteor</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Ansell Cameron, Eisner Mitchell, Isen Tajja, Petronijevic Dan, Saunders Cliff</t>
-  </si>
-  <si>
-    <t>Meteor the Monster</t>
-  </si>
-  <si>
-    <t>Hierons, Trevor</t>
-  </si>
-  <si>
-    <t>EEMMMT111.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000112</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP12</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro está molesto con Basurita porque lo abandonó cuando estaba en problemas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Basurita deja a Meteoro atrapado en un charco de lodo muy profundo ¡Meteoro no puede creer que su amigo se haya ido! y, sólo es hasta que Basurita finalmente admite lo que hizo, se da cuenta de que en realidad él no tenía la culpa del accidente.</t>
-  </si>
-  <si>
-    <t>EEMMMT112.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000113</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP13</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Durante una exhibición, Meteoro está a punto de causar un problema por no hacer su trabajo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Crushmeister, uno de los camiones monstruo más famosos de Crushington Park se va a presentar y Meteoro se ofrece para ayudar durante el evento. Sin embargo, se distrae jugando con sus amigos y Big Wheelie tiene que intervenir para evitar un problema.</t>
-  </si>
-  <si>
-    <t>EEMMMT113.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000114</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP14</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Big Wheelie le encarga una tarea a Meteoro, este debe aprender cómo ser un buen líder.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro debe aprender a no ser un líder mandón cuando Big Wheelie lo elige para dirigir a sus amigos en la creación de una nueva “Línea de Meta” para la pista de carreras de la escuela.</t>
-  </si>
-  <si>
-    <t>EEMMMT114.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000115</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP15</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro aprende que hay que practicar hasta que las cosas salgan bien.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro comprende que si algo no le sale bien la primera vez, practicar y practicar, es lo que lo convertirá en un experto.</t>
-  </si>
-  <si>
-    <t>EEMMMT115.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000116</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP16</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro se preocupa pensando que las historias del abuelo aburrirán a sus amigos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El héroe de Meteoro viene de visita: ¡su abuelo, el vehículo lunar original! Pero, cuando queda claro que ya han pasado los días de gloria del abuelo, Meteoro se preocupa innecesariamente pensando que las historias del abuelo aburrirán a sus amigos.</t>
-  </si>
-  <si>
-    <t>EEMMMT116.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000117</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP17</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro tiene el temor de que una de sus pesadillas se convierta en realidad.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro tiene problemas para olvidar la pesadilla que tuvo: Basurita lo empujaba a una zanja al costado del camino. Por lo que, al día siguiente, Meteoro evita a su amigo por temor a que su mal sueño se haga realidad.</t>
-  </si>
-  <si>
-    <t>EEMMMT117.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000118</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP18</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro aprende la importancia de no depender únicamente de la tecnología.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro entiende lo importante que es aprender los conceptos básicos en lugar de depender de la tecnología, cuando daña por accidente un pantalla de video que iba a usar para ganar "la carrera hacia atrás", un recorrido totalmente en reversa.</t>
-  </si>
-  <si>
-    <t>EEMMMT118.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000119</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP19</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pequeñín quiere usar un enorme gancho pero se da cuenta de que no corresponde a su tamaño.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pequeñín se enamora de un gancho remolcador que encontró en su patio. Pero cuando intenta usar el enorme gancho para sacar a uno de sus amigos de la basura, se da cuenta de que aun es pequeño para usarlo y no hay nada que pueda hacer al respecto.</t>
-  </si>
-  <si>
-    <t>EEMMMT119.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000120</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP20</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro se molesta con sus amigos cuando comienzan a actuar de forma misteriosa.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro se molesta porque sus amigos lo evitan cuando están jugando al escondite, hasta que descubre que actuaban de forma misteriosa porque le estaban organizando una fiesta de cumpleaños sorpresa.</t>
-  </si>
-  <si>
-    <t>EEMMMT120.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT121_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000121</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP21</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Big Wheelie les da a los camiones una lección sobre la importancia de seguir las instrucciones.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Big Wheelie les da a los camiones una lección sobre la importancia de seguir las instrucciones cuando organiza una carrera para que los chicos recorran un laberinto con distracciones en cada vuelta.</t>
-  </si>
-  <si>
-    <t>EEMMMT121.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT121_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT122_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000122</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP22</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pony les demuesta a los demás que deben darles una oportunidad a alguien que es diferente a ti.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Sue, un camión de apoyo apestoso y de mal carácter, no les cae bien al resto de los camiones, hasta que Pony se hace amiga de ella y todos aprenden el valor de acercarse a alguien que es diferente a ti.</t>
-  </si>
-  <si>
-    <t>EEMMMT122.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT122_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT123_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000123</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP23</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro aprende que se puede ser un gran vehículo espacial, aunque no gane todas las carreras.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Meteoro aprende que se puede ser un gran vehículo espacial, a pesar de no ganar todas las carreras, cuando Cosmo Starfinder, uno de sus héroes espaciales, hace correr a los pequeños camiones durante un recorrido de entrenamiento en la escuela.</t>
-  </si>
-  <si>
-    <t>EEMMMT123.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT123_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT124_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000124</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP24</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Pony se va a dar una vuelta con su primo sin avisar a sus padres y aprenderá una lección.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duke, un viejo camión de rodeo, primo de Pony llega a la escuela de Crushington Park. Al terminar las clases, los dos se van a dar una vuelta. Pony aprende la importancia de avisar siempre a sus padres en dónde se encuentra.</t>
-  </si>
-  <si>
-    <t>EEMMMT124.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT124_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT125_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000125</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP25</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Todos los chicos quieren salir en la televisión, pero Pony, por su actitud es la elegida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edye presenta: Dynamite Dan, la camioneta de la televisión ha llegado al pueblo para hacer un reportaje. Todos los chicos quieren impresionar a Dan demostrando sus habilidades pero es Pony, con su actitud tranquila, quien es elegida para aparecer en televisión.
-</t>
-  </si>
-  <si>
-    <t>EEMMMT125.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT125_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT126_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM6000000000000126</t>
-  </si>
-  <si>
-    <t>Las Aventuras de MeteorT01EP26</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los pequeños camiones deberán aprender a adaptarse a los cambios inesperados en su rutina.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Big Wheelie va a participar en una carrera y en su ausencia, un vehículo militar, el Sr Halftrack, se hará cargo de la clase. Los pequeños camiones deberán aprender a adaptarse a los cambios inesperados en su rutina diaria.</t>
-  </si>
-  <si>
-    <t>EEMMMT126.mpg</t>
-  </si>
-  <si>
-    <t>EEMMMT126_land.jpg</t>
-  </si>
-  <si>
-    <t>EEMMMT111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000111</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT111.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000112</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT112.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000113</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT113.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000114</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT114.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000115</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT115.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000116</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT116.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000117</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT117.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000118</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT118.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000119</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT119.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000120</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT120.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT121_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000121</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT121.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT122_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000122</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT122.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT123_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000123</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT123.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT124_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000124</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT124.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT125_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000125</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT125.ts</t>
-  </si>
-  <si>
-    <t>EEMMMT126_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEMM7000000000000126</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Meteor T01 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEMMMT126.ts</t>
+    <t>EEWPIG111_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000111</t>
+  </si>
+  <si>
+    <t>Serie Las Aventuras de Wibbly</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP11</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP11</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¿Qué tipo de música te hace querer menearte y bailar? ¡A todos nos gustan cosas diferentes!</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¿Qué tipo de música te hace querer menearte y bailar? ¡A todos nos gustan las cosas diferentes! Wibbly parece que no puede encontrar la música correcta pero ¡Al final, Wibbly y sus amigos ponen toda tipo de música y bailan!</t>
+  </si>
+  <si>
+    <t>Infantil/Las Aventuras de Wibbly</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Liam Tully, Deo Simcox, Mark Ramsay, Zoe Fraser, Jacob Ewaniuk</t>
+  </si>
+  <si>
+    <t>WP Productions</t>
+  </si>
+  <si>
+    <t>Tully Liam, Simcox Deo, Ramsay Mark, Fraser Zoe, Ewaniuk Jacob</t>
+  </si>
+  <si>
+    <t>Hall, Jez</t>
+  </si>
+  <si>
+    <t>EEWPIG111.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG111_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG112_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000112</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP12</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP12</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Wibbly y Tiny Pig hacen un bote! Sólo tenemos que esperar viento para comenzar la aventura.</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Wibbly y Tiny Pig hacen un bote! Wibbly dibuja un mapa a medida que avanzamos. En el camino el viento se levanta y nos lleva a una isla desierta donde nos encontramos con Scruffy Pig ¡Ahora sólo tenemos que esperar un buen viento para volver a casa!</t>
+  </si>
+  <si>
+    <t>EEWPIG112.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG112_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG113_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000113</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP13</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly está jugando en una tienda de campaña y Pigley desaparece antes de comenzar el viaje.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Todos juegan a esconderse. La regla dice que a quién encuentren al último, será el siguiente en buscar, pero como todos se esconden juntos, cuando Wibbly Pig los encuentra, nadie fue “el último” por lo que Wibbly ¡tiene que seguir buscando!</t>
+  </si>
+  <si>
+    <t>EEWPIG113.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG113_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG114_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000114</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP14</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP14</t>
+  </si>
+  <si>
+    <t>Edye presenta: A Wibbly le gusta conducir su coche pero al viajar con Pigley hay obstáculos en el camino.</t>
+  </si>
+  <si>
+    <t>Edye presenta: A Wibbly le gusta conducir en su automóvil pero a pesar de sus mejores esfuerzos para llevar a Pigley a un lindo viaje, descubre que los Pig Twins parecen amar la velocidad, Scruffy Pig levanta una nube de polvo y Tiny Pig causa un atasco de tráfico.</t>
+  </si>
+  <si>
+    <t>EEWPIG114.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG114_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG115_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000115</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP15</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly y sus amigos inician un viaje espacial en el que encuentran un universo y nuevos amigos</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Wibbly y sus amigos inician su viaje espacial, su cuarto es un desastre. En su viaje se encuentran en un universo en el sus nuevos amigos ordenan la galaxia y cuando regresan a la tierra ¡encuentran que la habitación también ha sido ordenada!</t>
+  </si>
+  <si>
+    <t>EEWPIG115.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG115_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG116_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000116</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP16</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly tiene un nuevo soplador de burbujas y todos pueden soplar burbujas perfectas excepto él.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly es el orgulloso propietario de un nuevo soplador de burbujas, ¡pero todos los demás pueden soplar burbujas perfectas excepto él! Cuando finalmente sopla algunas, forman una burbuja Wibbly, lo que lo lleva a una divertida aventura burbujeante.</t>
+  </si>
+  <si>
+    <t>EEWPIG116.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG116_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG117_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000117</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP17</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly está jugando en una tienda de campaña. Pero antes de que pueda comenzar el viaje, Pigley desaparece. Nuestra búsqueda nos lleva al bosque, a la Antártida y a las montañas. Para cuando aparece Pigle ¡se ha comido todas las galletas!</t>
+  </si>
+  <si>
+    <t>EEWPIG117.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG117_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG118_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000118</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP18</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Durante su nueva visita, la tía Larlie ha traido un gran regalo a Wibbly ¿Qué podrá ser?</t>
+  </si>
+  <si>
+    <t>Edye presenta: La tía Larlie, es muy divertida y le ha dado muchos regalos a Wibbly, aunque no todos le han gustado demasiado. Durante su nueva visita él está un poco nervioso porque ella lleva un gran regalo, pero cuando abre el presente, ¿qué encontrará?</t>
+  </si>
+  <si>
+    <t>EEWPIG118.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG118_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG119_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000119</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP19</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly muestra con orgullo a Rocket, su nuevo caballo mecedor y está impaciente por montarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly muestra con orgullo a Rocket, su nuevo caballo mecedor. Wibbly no puede esperar para montarlo pero pronto se da cuenta de que no es tan fácil ser un vaquero. Junto con Tiny, aprenden a cabalgar e incluso logran reunir un poco de ganado.</t>
+  </si>
+  <si>
+    <t>EEWPIG119.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG119_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG120_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000120</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP20</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly recuerda las cosas divertidas que ha hecho con su abuelo mientras espera su llegada.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly está esperando a su abuelo. Mientras llega, Wibbly recuerda algunas de las cosas divertidas que han hecho juntos, porque él es el mejor abuelo del mundo, pero ¿por qué tarda tanto? Cuando aparece, ¡trae un nuevo juego divertido para él!</t>
+  </si>
+  <si>
+    <t>EEWPIG120.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG120_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG121_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000121</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP21</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly nos presenta a su orquesta formada por todo tipo de animales pero, ¿Dónde los encontró?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly nos presenta a su nueva orquesta formada por un pollo, un oso, algunos pájaros, dos elefantes y un ganso ¡La orquesta de Wibbly está completa! ¿Pero en dónde encontró Wibbly a todos estos animales?</t>
+  </si>
+  <si>
+    <t>EEWPIG121.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG121_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG122_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000122</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP22</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP22</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Wibbly se hizo un disfraz de robot! Y ninguno de los chicos logra descubrir quién es él.</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Wibbly se hizo un disfraz de robot! Cuando Scruffy Pig viene a buscarlo, decidimos jugarle una mala pasada y ver si puede saber quién es realmente el robot. ¡No lo hace y tampoco Big Pig! Al final, todos hacen su propio robot y todos bailamos juntos</t>
+  </si>
+  <si>
+    <t>EEWPIG122.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG122_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG123_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000123</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP23</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP23</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Wibbly Pig, Big Pig y Tiny Pig están en la playa y van a hacer el mejor castillo de arena!</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¡Wibbly Pig, Big Pig y Tiny Pig están en la playa y van a hacer el mejor castillo de arena! Pero no es tan sencillo como parece. Al final logran darle forma a la fortaleza pero ¿podrán proteger su castillo de las olas al subir la marea?</t>
+  </si>
+  <si>
+    <t>EEWPIG123.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG123_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG124_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000124</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP24</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly y sus amigos hacen un cerdito de nieve y otras figuras de animales para jugar juntos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Afuera hace mucho frío y Wibbly Pig y sus amigos están haciendo bolas de nieve. Juntos hacen un cerdo de nieve, pero se les escapa y quiere jugar. Pero cuando es hora de entrar, los chicos hacen otras figuras para que el cerdo de nieve no esté solo.</t>
+  </si>
+  <si>
+    <t>EEWPIG124.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG124_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG125_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000125</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP25</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly Pig está buscando su cubo favorito, tratando de encontrarlo se topa con muchas pistas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly Pig está buscando su cubo favorito, y no puede encontrarlo, por lo que los Pig Twins deciden ayudarlo. Pero están confundidos porque hay muchos rastros en la arena ¿Qué puede estar dejando huellas por todas partes?</t>
+  </si>
+  <si>
+    <t>EEWPIG125.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG125_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG126_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP6000000000000126</t>
+  </si>
+  <si>
+    <t>Las Aventuras de WibblyT01EP26</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly quiere jugar a las escondidas con sus amigos, pero¡no puede dejar de estornudar!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Wibbly quiere jugar a las escondidas con sus amigos, pero hay un problema: ¡no puede dejar de estornudar! ¡No podrá esconderse en ningún lado porque se delatará! Intenta muchas formas diferentes de detener los estornudos, pero nada parece funcionar.</t>
+  </si>
+  <si>
+    <t>EEWPIG126.mpg</t>
+  </si>
+  <si>
+    <t>EEWPIG126_land.jpg</t>
+  </si>
+  <si>
+    <t>EEWPIG111_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000111</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG111.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG112_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000112</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG112.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG113_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000113</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG113.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG114_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000114</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG114.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG115_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000115</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG115.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG116_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000116</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG116.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG117_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000117</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG117.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG118_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000118</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG118.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG119_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000119</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG119.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG120_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000120</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG120.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG121_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000121</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG121.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG122_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000122</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG122.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG123_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000123</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG123.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG124_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000124</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG124.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG125_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000125</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG125.ts</t>
+  </si>
+  <si>
+    <t>EEWPIG126_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEWP7000000000000126</t>
+  </si>
+  <si>
+    <t>Las Aventuras de Wibbly T01 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEWPIG126.ts</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1579,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>43</v>
@@ -1632,13 +1631,13 @@
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>88</v>
@@ -1680,10 +1679,10 @@
         <v>92</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -1705,7 +1704,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>323128572</v>
+        <v>281577376</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -1714,7 +1713,7 @@
         <v>57</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -1724,7 +1723,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -1740,15 +1739,15 @@
         <v>61</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>43</v>
@@ -1769,13 +1768,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>83</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -1785,28 +1784,28 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W3" s="9" t="s">
         <v>88</v>
@@ -1848,10 +1847,10 @@
         <v>92</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -1873,7 +1872,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>324086620</v>
+        <v>281471344</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -1882,7 +1881,7 @@
         <v>57</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -1892,7 +1891,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -1908,15 +1907,15 @@
         <v>61</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>43</v>
@@ -1937,13 +1936,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>83</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -1953,28 +1952,28 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>88</v>
@@ -2016,10 +2015,10 @@
         <v>92</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -2041,7 +2040,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>323802740</v>
+        <v>281606140</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -2050,7 +2049,7 @@
         <v>57</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -2060,7 +2059,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -2076,15 +2075,15 @@
         <v>61</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>43</v>
@@ -2105,13 +2104,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>83</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -2121,28 +2120,28 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>68</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>88</v>
@@ -2184,10 +2183,10 @@
         <v>92</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -2209,7 +2208,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>324086620</v>
+        <v>281428292</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -2218,7 +2217,7 @@
         <v>57</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -2228,7 +2227,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -2244,15 +2243,15 @@
         <v>61</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>43</v>
@@ -2273,13 +2272,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>83</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -2289,28 +2288,28 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>88</v>
@@ -2352,10 +2351,10 @@
         <v>92</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -2377,7 +2376,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>324101096</v>
+        <v>281577376</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -2386,7 +2385,7 @@
         <v>57</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -2396,7 +2395,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -2412,15 +2411,15 @@
         <v>61</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>43</v>
@@ -2441,13 +2440,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -2457,28 +2456,28 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>88</v>
@@ -2520,10 +2519,10 @@
         <v>92</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -2545,7 +2544,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>324101096</v>
+        <v>281531504</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -2554,7 +2553,7 @@
         <v>57</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -2564,7 +2563,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -2580,15 +2579,15 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>43</v>
@@ -2609,13 +2608,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>83</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -2625,13 +2624,13 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>142</v>
@@ -2640,13 +2639,13 @@
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>88</v>
@@ -2688,10 +2687,10 @@
         <v>92</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -2713,7 +2712,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>324101096</v>
+        <v>281247436</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -2732,7 +2731,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -2756,7 +2755,7 @@
         <v>145</v>
       </c>
       <c r="B9" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>43</v>
@@ -2808,13 +2807,13 @@
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>88</v>
@@ -2856,10 +2855,10 @@
         <v>92</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -2881,7 +2880,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>324118204</v>
+        <v>281623248</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -2900,7 +2899,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -2924,7 +2923,7 @@
         <v>153</v>
       </c>
       <c r="B10" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>43</v>
@@ -2976,13 +2975,13 @@
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>88</v>
@@ -3024,10 +3023,10 @@
         <v>92</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -3049,7 +3048,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>324118204</v>
+        <v>281545792</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -3068,7 +3067,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -3092,7 +3091,7 @@
         <v>161</v>
       </c>
       <c r="B11" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>43</v>
@@ -3144,13 +3143,13 @@
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W11" s="9" t="s">
         <v>88</v>
@@ -3192,10 +3191,10 @@
         <v>92</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -3217,7 +3216,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="15">
-        <v>324132492</v>
+        <v>281591852</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -3236,7 +3235,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -3260,7 +3259,7 @@
         <v>169</v>
       </c>
       <c r="B12" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>43</v>
@@ -3312,13 +3311,13 @@
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V12" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>88</v>
@@ -3360,10 +3359,10 @@
         <v>92</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -3385,7 +3384,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>324118204</v>
+        <v>281758232</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>56</v>
@@ -3404,7 +3403,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -3428,7 +3427,7 @@
         <v>177</v>
       </c>
       <c r="B13" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>43</v>
@@ -3480,13 +3479,13 @@
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V13" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W13" s="9" t="s">
         <v>88</v>
@@ -3528,10 +3527,10 @@
         <v>92</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -3553,7 +3552,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>324101096</v>
+        <v>281442580</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>56</v>
@@ -3572,7 +3571,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -3596,7 +3595,7 @@
         <v>185</v>
       </c>
       <c r="B14" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>43</v>
@@ -3648,13 +3647,13 @@
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V14" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W14" s="9" t="s">
         <v>88</v>
@@ -3696,10 +3695,10 @@
         <v>92</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -3721,7 +3720,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>324118204</v>
+        <v>281442580</v>
       </c>
       <c r="AT14" s="9" t="s">
         <v>56</v>
@@ -3740,7 +3739,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -3764,7 +3763,7 @@
         <v>193</v>
       </c>
       <c r="B15" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>43</v>
@@ -3816,13 +3815,13 @@
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V15" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W15" s="9" t="s">
         <v>88</v>
@@ -3864,10 +3863,10 @@
         <v>92</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -3889,7 +3888,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>324101096</v>
+        <v>281442580</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>56</v>
@@ -3908,7 +3907,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -3932,7 +3931,7 @@
         <v>201</v>
       </c>
       <c r="B16" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>43</v>
@@ -3984,13 +3983,13 @@
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V16" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W16" s="9" t="s">
         <v>88</v>
@@ -4032,10 +4031,10 @@
         <v>92</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -4057,7 +4056,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>324118204</v>
+        <v>281396708</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>56</v>
@@ -4076,7 +4075,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -4100,7 +4099,7 @@
         <v>209</v>
       </c>
       <c r="B17" s="7">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>43</v>
@@ -4152,13 +4151,13 @@
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V17" s="3">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W17" s="9" t="s">
         <v>88</v>
@@ -4200,10 +4199,10 @@
         <v>92</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -4225,7 +4224,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>324118204</v>
+        <v>281442580</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>56</v>
@@ -4244,7 +4243,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -4873,7 +4872,7 @@
   <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5096,7 +5095,7 @@
         <v>217</v>
       </c>
       <c r="B2" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>43</v>
@@ -5148,13 +5147,13 @@
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>88</v>
@@ -5196,10 +5195,10 @@
         <v>92</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -5221,7 +5220,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>646193600</v>
+        <v>563097224</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>55</v>
@@ -5240,7 +5239,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -5256,7 +5255,7 @@
         <v>61</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
@@ -5264,7 +5263,7 @@
         <v>221</v>
       </c>
       <c r="B3" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>43</v>
@@ -5291,7 +5290,7 @@
         <v>83</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -5307,22 +5306,22 @@
         <v>66</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W3" s="9" t="s">
         <v>88</v>
@@ -5364,10 +5363,10 @@
         <v>92</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -5389,7 +5388,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>648115712</v>
+        <v>562884972</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>55</v>
@@ -5408,7 +5407,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -5424,7 +5423,7 @@
         <v>61</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
@@ -5432,7 +5431,7 @@
         <v>225</v>
       </c>
       <c r="B4" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>43</v>
@@ -5459,7 +5458,7 @@
         <v>83</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -5475,22 +5474,22 @@
         <v>67</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>88</v>
@@ -5532,10 +5531,10 @@
         <v>92</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -5557,7 +5556,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>647547764</v>
+        <v>563154564</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>55</v>
@@ -5576,7 +5575,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -5592,7 +5591,7 @@
         <v>61</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
@@ -5600,7 +5599,7 @@
         <v>229</v>
       </c>
       <c r="B5" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>43</v>
@@ -5627,7 +5626,7 @@
         <v>83</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -5643,22 +5642,22 @@
         <v>68</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>88</v>
@@ -5700,10 +5699,10 @@
         <v>92</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -5725,7 +5724,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>648115712</v>
+        <v>562793040</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>55</v>
@@ -5744,7 +5743,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -5760,7 +5759,7 @@
         <v>61</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
@@ -5768,7 +5767,7 @@
         <v>233</v>
       </c>
       <c r="B6" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>43</v>
@@ -5795,7 +5794,7 @@
         <v>83</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -5811,22 +5810,22 @@
         <v>69</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>88</v>
@@ -5868,10 +5867,10 @@
         <v>92</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -5893,7 +5892,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>648144288</v>
+        <v>563097224</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>55</v>
@@ -5912,7 +5911,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -5928,7 +5927,7 @@
         <v>61</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
@@ -5936,7 +5935,7 @@
         <v>237</v>
       </c>
       <c r="B7" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>43</v>
@@ -5963,7 +5962,7 @@
         <v>83</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -5979,22 +5978,22 @@
         <v>70</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>88</v>
@@ -6036,10 +6035,10 @@
         <v>92</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -6061,7 +6060,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>648144288</v>
+        <v>563005480</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>55</v>
@@ -6080,7 +6079,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -6096,7 +6095,7 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
@@ -6104,7 +6103,7 @@
         <v>241</v>
       </c>
       <c r="B8" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>43</v>
@@ -6131,7 +6130,7 @@
         <v>83</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -6147,7 +6146,7 @@
         <v>71</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>142</v>
@@ -6156,13 +6155,13 @@
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>88</v>
@@ -6204,10 +6203,10 @@
         <v>92</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -6229,7 +6228,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>648144288</v>
+        <v>562437344</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>55</v>
@@ -6248,7 +6247,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -6272,7 +6271,7 @@
         <v>245</v>
       </c>
       <c r="B9" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>43</v>
@@ -6324,13 +6323,13 @@
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>88</v>
@@ -6372,10 +6371,10 @@
         <v>92</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -6397,7 +6396,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>648173052</v>
+        <v>563183328</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>55</v>
@@ -6416,7 +6415,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -6440,7 +6439,7 @@
         <v>249</v>
       </c>
       <c r="B10" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>43</v>
@@ -6492,13 +6491,13 @@
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>88</v>
@@ -6540,10 +6539,10 @@
         <v>92</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -6565,7 +6564,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>648173052</v>
+        <v>563034056</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>55</v>
@@ -6584,7 +6583,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -6608,7 +6607,7 @@
         <v>253</v>
       </c>
       <c r="B11" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>43</v>
@@ -6660,13 +6659,13 @@
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W11" s="9" t="s">
         <v>88</v>
@@ -6708,10 +6707,10 @@
         <v>92</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -6733,7 +6732,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="9">
-        <v>648207456</v>
+        <v>563125800</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>55</v>
@@ -6752,7 +6751,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -6776,7 +6775,7 @@
         <v>257</v>
       </c>
       <c r="B12" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>43</v>
@@ -6828,13 +6827,13 @@
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V12" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>88</v>
@@ -6876,10 +6875,10 @@
         <v>92</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -6901,7 +6900,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>648173052</v>
+        <v>563452920</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>55</v>
@@ -6920,7 +6919,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -6944,7 +6943,7 @@
         <v>261</v>
       </c>
       <c r="B13" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>43</v>
@@ -6996,13 +6995,13 @@
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V13" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W13" s="9" t="s">
         <v>88</v>
@@ -7044,10 +7043,10 @@
         <v>92</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -7069,7 +7068,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>648144288</v>
+        <v>562827444</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>55</v>
@@ -7088,7 +7087,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -7112,7 +7111,7 @@
         <v>265</v>
       </c>
       <c r="B14" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>43</v>
@@ -7164,13 +7163,13 @@
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V14" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W14" s="9" t="s">
         <v>88</v>
@@ -7212,10 +7211,10 @@
         <v>92</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -7237,7 +7236,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>648173052</v>
+        <v>562827444</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>55</v>
@@ -7256,7 +7255,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -7280,7 +7279,7 @@
         <v>269</v>
       </c>
       <c r="B15" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>43</v>
@@ -7332,13 +7331,13 @@
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V15" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W15" s="9" t="s">
         <v>88</v>
@@ -7380,10 +7379,10 @@
         <v>92</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -7405,7 +7404,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>648144288</v>
+        <v>562827444</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>55</v>
@@ -7424,7 +7423,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -7448,7 +7447,7 @@
         <v>273</v>
       </c>
       <c r="B16" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>43</v>
@@ -7500,13 +7499,13 @@
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V16" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W16" s="9" t="s">
         <v>88</v>
@@ -7548,10 +7547,10 @@
         <v>92</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -7573,7 +7572,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>648173052</v>
+        <v>562735700</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>55</v>
@@ -7592,7 +7591,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -7616,7 +7615,7 @@
         <v>277</v>
       </c>
       <c r="B17" s="12">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>43</v>
@@ -7668,13 +7667,13 @@
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>7.9861111111111122E-3</v>
+        <v>6.9328703703703696E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="V17" s="9">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="W17" s="9" t="s">
         <v>88</v>
@@ -7716,10 +7715,10 @@
         <v>92</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -7741,7 +7740,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>648173052</v>
+        <v>562827444</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>55</v>
@@ -7760,7 +7759,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB5999B-4F94-445C-9BF9-3C76BBEA1018}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9568CE-B274-4329-92F9-6ED7BFD7AD5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="282">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -228,652 +228,655 @@
     <t>Content_Value</t>
   </si>
   <si>
-    <t>EP 11</t>
-  </si>
-  <si>
-    <t>EP 12</t>
-  </si>
-  <si>
-    <t>EP 13</t>
-  </si>
-  <si>
-    <t>EP 14</t>
-  </si>
-  <si>
-    <t>EP 15</t>
-  </si>
-  <si>
-    <t>EP 16</t>
-  </si>
-  <si>
-    <t>EP 17</t>
-  </si>
-  <si>
-    <t>EP 18</t>
-  </si>
-  <si>
-    <t>EP 19</t>
-  </si>
-  <si>
-    <t>EP 20</t>
-  </si>
-  <si>
-    <t>EP 21</t>
-  </si>
-  <si>
-    <t>EP 22</t>
-  </si>
-  <si>
-    <t>EP 23</t>
-  </si>
-  <si>
-    <t>EP 24</t>
-  </si>
-  <si>
-    <t>EP 25</t>
-  </si>
-  <si>
-    <t>EP 26</t>
-  </si>
-  <si>
-    <t>EEWPIG111_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000111</t>
-  </si>
-  <si>
-    <t>Serie Las Aventuras de Wibbly</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP11</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¿Qué tipo de música te hace querer menearte y bailar? ¡A todos nos gustan cosas diferentes!</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¿Qué tipo de música te hace querer menearte y bailar? ¡A todos nos gustan las cosas diferentes! Wibbly parece que no puede encontrar la música correcta pero ¡Al final, Wibbly y sus amigos ponen toda tipo de música y bailan!</t>
-  </si>
-  <si>
-    <t>Infantil/Las Aventuras de Wibbly</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
-    <t>Liam Tully, Deo Simcox, Mark Ramsay, Zoe Fraser, Jacob Ewaniuk</t>
-  </si>
-  <si>
-    <t>WP Productions</t>
-  </si>
-  <si>
-    <t>Tully Liam, Simcox Deo, Ramsay Mark, Fraser Zoe, Ewaniuk Jacob</t>
-  </si>
-  <si>
-    <t>Hall, Jez</t>
-  </si>
-  <si>
-    <t>EEWPIG111.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG111_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG112_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000112</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP12</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Wibbly y Tiny Pig hacen un bote! Sólo tenemos que esperar viento para comenzar la aventura.</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Wibbly y Tiny Pig hacen un bote! Wibbly dibuja un mapa a medida que avanzamos. En el camino el viento se levanta y nos lleva a una isla desierta donde nos encontramos con Scruffy Pig ¡Ahora sólo tenemos que esperar un buen viento para volver a casa!</t>
-  </si>
-  <si>
-    <t>EEWPIG112.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG112_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG113_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000113</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP13</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly está jugando en una tienda de campaña y Pigley desaparece antes de comenzar el viaje.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Todos juegan a esconderse. La regla dice que a quién encuentren al último, será el siguiente en buscar, pero como todos se esconden juntos, cuando Wibbly Pig los encuentra, nadie fue “el último” por lo que Wibbly ¡tiene que seguir buscando!</t>
-  </si>
-  <si>
-    <t>EEWPIG113.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG113_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG114_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000114</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP14</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: A Wibbly le gusta conducir su coche pero al viajar con Pigley hay obstáculos en el camino.</t>
-  </si>
-  <si>
-    <t>Edye presenta: A Wibbly le gusta conducir en su automóvil pero a pesar de sus mejores esfuerzos para llevar a Pigley a un lindo viaje, descubre que los Pig Twins parecen amar la velocidad, Scruffy Pig levanta una nube de polvo y Tiny Pig causa un atasco de tráfico.</t>
-  </si>
-  <si>
-    <t>EEWPIG114.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG114_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG115_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000115</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP15</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly y sus amigos inician un viaje espacial en el que encuentran un universo y nuevos amigos</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Wibbly y sus amigos inician su viaje espacial, su cuarto es un desastre. En su viaje se encuentran en un universo en el sus nuevos amigos ordenan la galaxia y cuando regresan a la tierra ¡encuentran que la habitación también ha sido ordenada!</t>
-  </si>
-  <si>
-    <t>EEWPIG115.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG115_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG116_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000116</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP16</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly tiene un nuevo soplador de burbujas y todos pueden soplar burbujas perfectas excepto él.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly es el orgulloso propietario de un nuevo soplador de burbujas, ¡pero todos los demás pueden soplar burbujas perfectas excepto él! Cuando finalmente sopla algunas, forman una burbuja Wibbly, lo que lo lleva a una divertida aventura burbujeante.</t>
-  </si>
-  <si>
-    <t>EEWPIG116.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG116_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG117_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000117</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP17</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly está jugando en una tienda de campaña. Pero antes de que pueda comenzar el viaje, Pigley desaparece. Nuestra búsqueda nos lleva al bosque, a la Antártida y a las montañas. Para cuando aparece Pigle ¡se ha comido todas las galletas!</t>
-  </si>
-  <si>
-    <t>EEWPIG117.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG117_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG118_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000118</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP18</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Durante su nueva visita, la tía Larlie ha traido un gran regalo a Wibbly ¿Qué podrá ser?</t>
-  </si>
-  <si>
-    <t>Edye presenta: La tía Larlie, es muy divertida y le ha dado muchos regalos a Wibbly, aunque no todos le han gustado demasiado. Durante su nueva visita él está un poco nervioso porque ella lleva un gran regalo, pero cuando abre el presente, ¿qué encontrará?</t>
-  </si>
-  <si>
-    <t>EEWPIG118.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG118_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG119_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000119</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP19</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly muestra con orgullo a Rocket, su nuevo caballo mecedor y está impaciente por montarlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly muestra con orgullo a Rocket, su nuevo caballo mecedor. Wibbly no puede esperar para montarlo pero pronto se da cuenta de que no es tan fácil ser un vaquero. Junto con Tiny, aprenden a cabalgar e incluso logran reunir un poco de ganado.</t>
-  </si>
-  <si>
-    <t>EEWPIG119.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG119_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG120_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000120</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP20</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly recuerda las cosas divertidas que ha hecho con su abuelo mientras espera su llegada.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly está esperando a su abuelo. Mientras llega, Wibbly recuerda algunas de las cosas divertidas que han hecho juntos, porque él es el mejor abuelo del mundo, pero ¿por qué tarda tanto? Cuando aparece, ¡trae un nuevo juego divertido para él!</t>
-  </si>
-  <si>
-    <t>EEWPIG120.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG120_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG121_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000121</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP21</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly nos presenta a su orquesta formada por todo tipo de animales pero, ¿Dónde los encontró?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly nos presenta a su nueva orquesta formada por un pollo, un oso, algunos pájaros, dos elefantes y un ganso ¡La orquesta de Wibbly está completa! ¿Pero en dónde encontró Wibbly a todos estos animales?</t>
-  </si>
-  <si>
-    <t>EEWPIG121.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG121_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG122_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000122</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP22</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Wibbly se hizo un disfraz de robot! Y ninguno de los chicos logra descubrir quién es él.</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Wibbly se hizo un disfraz de robot! Cuando Scruffy Pig viene a buscarlo, decidimos jugarle una mala pasada y ver si puede saber quién es realmente el robot. ¡No lo hace y tampoco Big Pig! Al final, todos hacen su propio robot y todos bailamos juntos</t>
-  </si>
-  <si>
-    <t>EEWPIG122.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG122_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG123_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000123</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP23</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Wibbly Pig, Big Pig y Tiny Pig están en la playa y van a hacer el mejor castillo de arena!</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¡Wibbly Pig, Big Pig y Tiny Pig están en la playa y van a hacer el mejor castillo de arena! Pero no es tan sencillo como parece. Al final logran darle forma a la fortaleza pero ¿podrán proteger su castillo de las olas al subir la marea?</t>
-  </si>
-  <si>
-    <t>EEWPIG123.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG123_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG124_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000124</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP24</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly y sus amigos hacen un cerdito de nieve y otras figuras de animales para jugar juntos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Afuera hace mucho frío y Wibbly Pig y sus amigos están haciendo bolas de nieve. Juntos hacen un cerdo de nieve, pero se les escapa y quiere jugar. Pero cuando es hora de entrar, los chicos hacen otras figuras para que el cerdo de nieve no esté solo.</t>
-  </si>
-  <si>
-    <t>EEWPIG124.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG124_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG125_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000125</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP25</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly Pig está buscando su cubo favorito, tratando de encontrarlo se topa con muchas pistas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly Pig está buscando su cubo favorito, y no puede encontrarlo, por lo que los Pig Twins deciden ayudarlo. Pero están confundidos porque hay muchos rastros en la arena ¿Qué puede estar dejando huellas por todas partes?</t>
-  </si>
-  <si>
-    <t>EEWPIG125.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG125_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG126_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP6000000000000126</t>
-  </si>
-  <si>
-    <t>Las Aventuras de WibblyT01EP26</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly quiere jugar a las escondidas con sus amigos, pero¡no puede dejar de estornudar!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Wibbly quiere jugar a las escondidas con sus amigos, pero hay un problema: ¡no puede dejar de estornudar! ¡No podrá esconderse en ningún lado porque se delatará! Intenta muchas formas diferentes de detener los estornudos, pero nada parece funcionar.</t>
-  </si>
-  <si>
-    <t>EEWPIG126.mpg</t>
-  </si>
-  <si>
-    <t>EEWPIG126_land.jpg</t>
-  </si>
-  <si>
-    <t>EEWPIG111_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000111</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG111.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG112_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000112</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG112.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG113_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000113</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG113.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG114_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000114</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG114.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG115_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000115</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG115.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG116_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000116</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG116.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG117_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000117</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG117.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG118_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000118</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG118.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG119_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000119</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG119.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG120_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000120</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG120.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG121_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000121</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG121.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG122_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000122</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG122.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG123_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000123</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG123.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG124_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000124</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG124.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG125_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000125</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG125.ts</t>
-  </si>
-  <si>
-    <t>EEWPIG126_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEWP7000000000000126</t>
-  </si>
-  <si>
-    <t>Las Aventuras de Wibbly T01 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEWPIG126.ts</t>
+    <t>EEBHBR137_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000137</t>
+  </si>
+  <si>
+    <t>Serie Historias con Osos</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP37</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP37</t>
+  </si>
+  <si>
+    <t>EP 37</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cody se asusta con un cuervo y se molesta por espantarse tan fácilmente.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cody se asusta con un cuervo y se molesta por espantarse tan fácilmente. Cuando los osos se encuentran con un espantapájaros, Cody decide que él también será un espantapájaros. A veces, nos comparamos con los demás y deseamos ser como ellos.</t>
+  </si>
+  <si>
+    <t>Infantil/Historias con Osos</t>
+  </si>
+  <si>
+    <t>Historias con Osos</t>
+  </si>
+  <si>
+    <t>Jacob Soley, Nissae Isen, Hattie Kragten, Milo Toriel-McGibbon, Linda Ballantyne, Jamie Cavanagh</t>
+  </si>
+  <si>
+    <t>Hengxin Shambala</t>
+  </si>
+  <si>
+    <t>Soley Jacob, Isen Nissae, Kragten Hattie, Toriel-McGibbon Milo, Ballantyne Linda, Cavanagh Jamie</t>
+  </si>
+  <si>
+    <t>Gaul, Tim</t>
+  </si>
+  <si>
+    <t>EEBHBR137.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR137_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR138_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000138</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP38</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP38</t>
+  </si>
+  <si>
+    <t>EP 38</t>
+  </si>
+  <si>
+    <t>Edye presenta: Kimberly quiere fingir que es una mamá gata y que sus amigos son sus pequeños gatitos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Kimberly pretende fingir que es una mamá gata y que sus amigos son sus pequeños gatitos, pero los demás quieren ser diferentes animales. Kimberly aprende que los padres pueden amar a todo tipo de bebés.</t>
+  </si>
+  <si>
+    <t>EEBHBR138.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR138_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR139_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000139</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP39</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP39</t>
+  </si>
+  <si>
+    <t>EP 39</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden que compartir puede traer felicidad a otros</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden que compartir puede traer felicidad a otros cuando Bravo, aunque se divertía haciendo malabares con tres piñas, las va regalando, una a una, a sus amigos según las necesitan hasta que no le queda ninguna para él.</t>
+  </si>
+  <si>
+    <t>EEBHBR139.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR139_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR140_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000140</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP40</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP40</t>
+  </si>
+  <si>
+    <t>EP 40</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden que pueden jugar juntos de diferentes formas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden que pueden jugar de manera diferente cuando Kimberly quiere hacerlo con un castillo de arena, mientras sus amigos quieren ser dinosaurios. Kimberly tiene que usar su creatividad y perseverancia para encontrar la manera de jugar juntos.</t>
+  </si>
+  <si>
+    <t>EEBHBR140.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR140_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR141_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000141</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP41</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP41</t>
+  </si>
+  <si>
+    <t>EP 41</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden sobre la alegría del ritmo y el movimiento.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden sobre la alegría del ritmo y el movimiento cuando Kimberly usa su creatividad para formar una banda de libros y con su música atrae libros. Pero Kimberly tiene problemas para elegir su propio instrumento de entre la banda de libros.</t>
+  </si>
+  <si>
+    <t>EEBHBR141.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR141_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR142_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000142</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP42</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP42</t>
+  </si>
+  <si>
+    <t>EP 42</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cody quiere acurrucarse con sus amigos, pero los demás osos piensan que hace demasiado calor.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cody quiere acurrucarse con sus amigos, pero los demás osos piensan que hace demasiado calor. Cambian de opinión y aprenden el poder de un abrazo después de leer un libro a la sombra.</t>
+  </si>
+  <si>
+    <t>EEBHBR142.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR142_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR143_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000143</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP43</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP43</t>
+  </si>
+  <si>
+    <t>EP 43</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Osos encuentran una criatura misteriosa, un alce, pero Crystal cree que es un caballo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos se encuentran con una criatura misteriosa, un alce, que Crystal está convencida de que es un caballo hasta que admite que no sabe qué es.</t>
+  </si>
+  <si>
+    <t>EEBHBR143.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR143_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR144_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000144</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP44</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP44</t>
+  </si>
+  <si>
+    <t>EP 44</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras busca un libro, Cody se hace amigo de una tortuga.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras busca un libro, Cody se hace amigo de una tortuga e insiste en que la tortuga puede ayudarlos a encontrar libros. Los osos aprenden a adaptarse a los desafíos que les plantea la tortuga.</t>
+  </si>
+  <si>
+    <t>EEBHBR144.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR144_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR145_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000145</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP45</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP45</t>
+  </si>
+  <si>
+    <t>EP 45</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando los osos llegan a una parte del bosque sin luz solar, Cody duda en entrar.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando los osos llegan a una parte del bosque sin luz solar, Cody duda en entrar. Con la ayuda de Kimberly, Cody aprende a usar el poder de la imaginación para ayudarlo a superar sus miedos y seguir adelante.</t>
+  </si>
+  <si>
+    <t>EEBHBR145.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR145_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR146_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000146</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP46</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP46</t>
+  </si>
+  <si>
+    <t>EP 46</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cody quiere encontrar un lugar tranquilo para leer la historia del día.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cody quiere encontrar un lugar tranquilo para leer la historia del día, pero donde sea que él y los demás vayan en la granja, se encuentran con animales ruidosos. Los osos aprenden que el sonido está presente, incluso en los momentos más tranquilos.</t>
+  </si>
+  <si>
+    <t>EEBHBR146.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR146_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR147_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000147</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP47</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP47</t>
+  </si>
+  <si>
+    <t>EP 47</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cansados de buscar libros, los osos necesitan descansar ... excepto Bravo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Mientras buscan libros, los osos se cansan y necesitan descansar, excepto Bravo, que está lleno de energía. Bravo sigue jugando solo, pero aprende a respetar las necesidades de los demás cuando él también comienza a sentirse cansado.</t>
+  </si>
+  <si>
+    <t>EEBHBR147.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR147_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR148_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000148</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP48</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP48</t>
+  </si>
+  <si>
+    <t>EP 48</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden que encontrar similitudes con otros puede ser divertido.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden que encontrar similitudes con otros puede ser divertido. Cuando todos los demás osos encuentran animales similares a su apariencia y comportamiento, ¡Cody está decidido a encontrar a su igual!</t>
+  </si>
+  <si>
+    <t>EEBHBR148.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR148_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR149_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000149</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP49</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP49</t>
+  </si>
+  <si>
+    <t>EP 49</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos creen que Crystal es una maga ¡porque puede predecir lo que va a suceder!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Al observar cuidadosamente lo que sucede a su alrededor, Crystal es capaz de predecir con precisión lo que sucederá a continuación, los otros Osos quedan impresionados y piensan que es una maga.</t>
+  </si>
+  <si>
+    <t>EEBHBR149.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR149_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR150_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000150</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP50</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP50</t>
+  </si>
+  <si>
+    <t>EP 50</t>
+  </si>
+  <si>
+    <t>Edye presenta: Kimberly cree que se ha tragado una mosca y se niega a abrir la boca.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos cantan para atraer libros, pero Kimberly cree que se ha tragado una mosca y se niega a abrir la boca. Los demás intentan usar los sonidos de otros animales para ayudar a atraer libros, pero descubren que sólo la voz de Kimberly servirá.</t>
+  </si>
+  <si>
+    <t>EEBHBR150.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR150_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR151_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000151</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP51</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP51</t>
+  </si>
+  <si>
+    <t>EP 51</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden que la determinación y el ayudar a otros a lograr una meta tiene mucho valor.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los osos aprenden que la determinación y el ayudar a otros a lograr una meta tiene mucho valor. Después de una lluvia, Kimberly declara que su sueño es bailar bajo un hermoso arcoiris. Todos sus amigos la ayudan a intentar hacer realidad su sueño.</t>
+  </si>
+  <si>
+    <t>EEBHBR151.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR151_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR152_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH6000000000000152</t>
+  </si>
+  <si>
+    <t>Historias con OsosT01EP52</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP52</t>
+  </si>
+  <si>
+    <t>EP 52</t>
+  </si>
+  <si>
+    <t>Edye presenta: Kimberly construye un castillo en la nieve; Crystal, Bravo y Cody intentan hacer uno idéntico.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Kimberly construye un castillo en la nieve, Crystal, Bravo y Cody intentan hacer un castillo idéntico, pero no importa cuánto lo intente Crystal, no puede hacer que su creación se vea exactamente igual a la de Kimberly.</t>
+  </si>
+  <si>
+    <t>EEBHBR152.mpg</t>
+  </si>
+  <si>
+    <t>EEBHBR152_land.jpg</t>
+  </si>
+  <si>
+    <t>EEBHBR137_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000137</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP37 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR137.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR138_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000138</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP38 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR138.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR139_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000139</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP39 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR139.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR140_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000140</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP40 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR140.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR141_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000141</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP41 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR141.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR142_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000142</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP42 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR142.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR143_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000143</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP43 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR143.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR144_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000144</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP44 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR144.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR145_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000145</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP45 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR145.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR146_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000146</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP46 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR146.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR147_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000147</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP47 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR147.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR148_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000148</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP48 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR148.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR149_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000149</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP49 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR149.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR150_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000150</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP50 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR150.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR151_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000151</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP51 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR151.ts</t>
+  </si>
+  <si>
+    <t>EEBHBR152_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEBH7000000000000152</t>
+  </si>
+  <si>
+    <t>Historias con Osos T01 EP52 HD</t>
+  </si>
+  <si>
+    <t>EEBHBR152.ts</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1600,13 +1603,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -1616,31 +1619,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -1649,7 +1652,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
@@ -1661,28 +1664,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -1704,7 +1707,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>281577376</v>
+        <v>310135892</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -1713,7 +1716,7 @@
         <v>57</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -1723,7 +1726,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -1739,12 +1742,12 @@
         <v>61</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7">
         <v>44623</v>
@@ -1768,13 +1771,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -1784,31 +1787,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -1817,7 +1820,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
@@ -1829,28 +1832,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -1872,7 +1875,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>281471344</v>
+        <v>310135892</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -1881,7 +1884,7 @@
         <v>57</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -1891,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -1907,12 +1910,12 @@
         <v>61</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7">
         <v>44623</v>
@@ -1936,13 +1939,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -1952,31 +1955,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -1985,7 +1988,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
@@ -1997,28 +2000,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -2040,7 +2043,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>281606140</v>
+        <v>310135892</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -2049,7 +2052,7 @@
         <v>57</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -2059,7 +2062,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -2075,12 +2078,12 @@
         <v>61</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7">
         <v>44623</v>
@@ -2104,13 +2107,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -2120,31 +2123,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -2153,7 +2156,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
@@ -2165,28 +2168,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -2208,7 +2211,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>281428292</v>
+        <v>310135892</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -2217,7 +2220,7 @@
         <v>57</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -2227,7 +2230,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -2243,12 +2246,12 @@
         <v>61</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B6" s="7">
         <v>44623</v>
@@ -2272,13 +2275,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -2288,31 +2291,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -2321,7 +2324,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
@@ -2333,28 +2336,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -2376,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>281577376</v>
+        <v>310135892</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -2385,7 +2388,7 @@
         <v>57</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -2395,7 +2398,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -2411,12 +2414,12 @@
         <v>61</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B7" s="7">
         <v>44623</v>
@@ -2440,13 +2443,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -2456,31 +2459,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -2489,7 +2492,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
@@ -2501,28 +2504,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -2544,7 +2547,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>281531504</v>
+        <v>310135892</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -2553,7 +2556,7 @@
         <v>57</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -2563,7 +2566,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -2579,12 +2582,12 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B8" s="7">
         <v>44623</v>
@@ -2608,13 +2611,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -2624,31 +2627,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -2657,7 +2660,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
@@ -2669,28 +2672,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -2712,7 +2715,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>281247436</v>
+        <v>310135892</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -2721,7 +2724,7 @@
         <v>57</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -2731,7 +2734,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -2747,12 +2750,12 @@
         <v>61</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B9" s="7">
         <v>44623</v>
@@ -2776,13 +2779,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -2792,31 +2795,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -2825,7 +2828,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
@@ -2837,28 +2840,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -2880,7 +2883,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>281623248</v>
+        <v>310135892</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -2889,7 +2892,7 @@
         <v>57</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -2899,7 +2902,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -2915,12 +2918,12 @@
         <v>61</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B10" s="7">
         <v>44623</v>
@@ -2944,13 +2947,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -2960,31 +2963,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -2993,7 +2996,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
@@ -3005,28 +3008,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -3048,7 +3051,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>281545792</v>
+        <v>310135892</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -3057,7 +3060,7 @@
         <v>57</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -3067,7 +3070,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -3083,12 +3086,12 @@
         <v>61</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B11" s="7">
         <v>44623</v>
@@ -3112,13 +3115,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -3128,31 +3131,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -3161,7 +3164,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
@@ -3173,28 +3176,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -3216,7 +3219,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="15">
-        <v>281591852</v>
+        <v>310135892</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -3225,7 +3228,7 @@
         <v>57</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -3235,7 +3238,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -3251,12 +3254,12 @@
         <v>61</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B12" s="7">
         <v>44623</v>
@@ -3280,13 +3283,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -3296,31 +3299,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V12" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -3329,7 +3332,7 @@
         <v>44</v>
       </c>
       <c r="Z12" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA12" s="4">
         <v>45138</v>
@@ -3341,28 +3344,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -3384,7 +3387,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>281758232</v>
+        <v>310135892</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>56</v>
@@ -3393,7 +3396,7 @@
         <v>57</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -3403,7 +3406,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -3419,12 +3422,12 @@
         <v>61</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B13" s="7">
         <v>44623</v>
@@ -3448,13 +3451,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -3464,31 +3467,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V13" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -3497,7 +3500,7 @@
         <v>44</v>
       </c>
       <c r="Z13" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA13" s="4">
         <v>45138</v>
@@ -3509,28 +3512,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -3552,7 +3555,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>281442580</v>
+        <v>310135892</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>56</v>
@@ -3561,7 +3564,7 @@
         <v>57</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -3571,7 +3574,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -3587,12 +3590,12 @@
         <v>61</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B14" s="7">
         <v>44623</v>
@@ -3616,13 +3619,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -3632,31 +3635,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V14" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -3665,7 +3668,7 @@
         <v>44</v>
       </c>
       <c r="Z14" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA14" s="4">
         <v>45138</v>
@@ -3677,28 +3680,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -3720,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>281442580</v>
+        <v>310135892</v>
       </c>
       <c r="AT14" s="9" t="s">
         <v>56</v>
@@ -3729,7 +3732,7 @@
         <v>57</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -3739,7 +3742,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -3755,12 +3758,12 @@
         <v>61</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" s="7">
         <v>44623</v>
@@ -3784,13 +3787,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -3800,31 +3803,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V15" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -3833,7 +3836,7 @@
         <v>44</v>
       </c>
       <c r="Z15" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA15" s="4">
         <v>45138</v>
@@ -3845,28 +3848,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -3888,7 +3891,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>281442580</v>
+        <v>310135892</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>56</v>
@@ -3897,7 +3900,7 @@
         <v>57</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -3907,7 +3910,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -3923,12 +3926,12 @@
         <v>61</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="7">
         <v>44623</v>
@@ -3952,13 +3955,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -3968,10 +3971,10 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>205</v>
@@ -3983,16 +3986,16 @@
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V16" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -4001,7 +4004,7 @@
         <v>44</v>
       </c>
       <c r="Z16" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA16" s="4">
         <v>45138</v>
@@ -4013,28 +4016,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -4056,7 +4059,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>281396708</v>
+        <v>310135892</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>56</v>
@@ -4075,7 +4078,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -4123,7 +4126,7 @@
         <v>210</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>211</v>
@@ -4139,28 +4142,28 @@
         <v>212</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V17" s="3">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -4169,7 +4172,7 @@
         <v>44</v>
       </c>
       <c r="Z17" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA17" s="4">
         <v>45138</v>
@@ -4181,28 +4184,28 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -4224,7 +4227,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>281442580</v>
+        <v>310135892</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>56</v>
@@ -4233,7 +4236,7 @@
         <v>57</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -4243,7 +4246,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -4259,7 +4262,7 @@
         <v>61</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
@@ -4872,7 +4875,7 @@
   <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:BF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5092,7 +5095,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -5116,13 +5119,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -5132,31 +5135,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -5165,7 +5168,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA2" s="4">
         <v>45138</v>
@@ -5177,28 +5180,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -5220,7 +5223,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>563097224</v>
+        <v>620214068</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>55</v>
@@ -5229,7 +5232,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -5239,7 +5242,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -5255,12 +5258,12 @@
         <v>61</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -5284,13 +5287,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -5300,31 +5303,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -5333,7 +5336,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA3" s="4">
         <v>45138</v>
@@ -5345,28 +5348,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -5388,7 +5391,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>562884972</v>
+        <v>620214068</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>55</v>
@@ -5397,7 +5400,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -5407,7 +5410,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -5423,12 +5426,12 @@
         <v>61</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -5452,13 +5455,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -5468,31 +5471,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -5501,7 +5504,7 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA4" s="4">
         <v>45138</v>
@@ -5513,28 +5516,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -5556,7 +5559,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>563154564</v>
+        <v>620214068</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>55</v>
@@ -5565,7 +5568,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -5575,7 +5578,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -5591,12 +5594,12 @@
         <v>61</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -5620,13 +5623,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -5636,31 +5639,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -5669,7 +5672,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA5" s="4">
         <v>45138</v>
@@ -5681,28 +5684,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -5724,7 +5727,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>562793040</v>
+        <v>620214068</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>55</v>
@@ -5733,7 +5736,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -5743,7 +5746,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -5759,12 +5762,12 @@
         <v>61</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -5788,13 +5791,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -5804,31 +5807,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -5837,7 +5840,7 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA6" s="4">
         <v>45138</v>
@@ -5849,28 +5852,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -5892,7 +5895,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>563097224</v>
+        <v>620214068</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>55</v>
@@ -5901,7 +5904,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -5911,7 +5914,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -5927,12 +5930,12 @@
         <v>61</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -5956,13 +5959,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -5972,31 +5975,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -6005,7 +6008,7 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA7" s="4">
         <v>45138</v>
@@ -6017,28 +6020,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -6060,7 +6063,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>563005480</v>
+        <v>620214068</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>55</v>
@@ -6069,7 +6072,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -6079,7 +6082,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -6095,12 +6098,12 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -6124,13 +6127,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -6140,31 +6143,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -6173,7 +6176,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA8" s="4">
         <v>45138</v>
@@ -6185,28 +6188,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -6228,7 +6231,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>562437344</v>
+        <v>620214068</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>55</v>
@@ -6237,7 +6240,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -6247,7 +6250,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -6263,12 +6266,12 @@
         <v>61</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -6292,13 +6295,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -6308,31 +6311,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -6341,7 +6344,7 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA9" s="4">
         <v>45138</v>
@@ -6353,28 +6356,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -6396,7 +6399,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>563183328</v>
+        <v>620214068</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>55</v>
@@ -6405,7 +6408,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -6415,7 +6418,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -6431,12 +6434,12 @@
         <v>61</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -6460,13 +6463,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -6476,31 +6479,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -6509,7 +6512,7 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA10" s="4">
         <v>45138</v>
@@ -6521,28 +6524,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -6564,7 +6567,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>563034056</v>
+        <v>620214068</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>55</v>
@@ -6573,7 +6576,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -6583,7 +6586,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -6599,12 +6602,12 @@
         <v>61</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -6628,13 +6631,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -6644,31 +6647,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -6677,7 +6680,7 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA11" s="4">
         <v>45138</v>
@@ -6689,28 +6692,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -6732,7 +6735,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="9">
-        <v>563125800</v>
+        <v>620214068</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>55</v>
@@ -6741,7 +6744,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -6751,7 +6754,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -6767,12 +6770,12 @@
         <v>61</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B12" s="12">
         <v>44623</v>
@@ -6796,13 +6799,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -6812,31 +6815,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V12" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -6845,7 +6848,7 @@
         <v>44</v>
       </c>
       <c r="Z12" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA12" s="4">
         <v>45138</v>
@@ -6857,28 +6860,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -6900,7 +6903,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>563452920</v>
+        <v>620214068</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>55</v>
@@ -6909,7 +6912,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -6919,7 +6922,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -6935,12 +6938,12 @@
         <v>61</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B13" s="12">
         <v>44623</v>
@@ -6964,13 +6967,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -6980,31 +6983,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V13" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -7013,7 +7016,7 @@
         <v>44</v>
       </c>
       <c r="Z13" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA13" s="4">
         <v>45138</v>
@@ -7025,28 +7028,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -7068,7 +7071,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>562827444</v>
+        <v>620214068</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>55</v>
@@ -7077,7 +7080,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -7087,7 +7090,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -7103,12 +7106,12 @@
         <v>61</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B14" s="12">
         <v>44623</v>
@@ -7132,13 +7135,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -7148,31 +7151,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V14" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -7181,7 +7184,7 @@
         <v>44</v>
       </c>
       <c r="Z14" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA14" s="4">
         <v>45138</v>
@@ -7193,28 +7196,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -7236,7 +7239,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>562827444</v>
+        <v>620214068</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>55</v>
@@ -7245,7 +7248,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -7255,7 +7258,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -7271,12 +7274,12 @@
         <v>61</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B15" s="12">
         <v>44623</v>
@@ -7300,13 +7303,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -7316,31 +7319,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Q15" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V15" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -7349,7 +7352,7 @@
         <v>44</v>
       </c>
       <c r="Z15" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA15" s="4">
         <v>45138</v>
@@ -7361,28 +7364,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -7404,7 +7407,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>562827444</v>
+        <v>620214068</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>55</v>
@@ -7413,7 +7416,7 @@
         <v>62</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -7423,7 +7426,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -7439,12 +7442,12 @@
         <v>61</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B16" s="12">
         <v>44623</v>
@@ -7468,13 +7471,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -7484,10 +7487,10 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>205</v>
@@ -7499,16 +7502,16 @@
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V16" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -7517,7 +7520,7 @@
         <v>44</v>
       </c>
       <c r="Z16" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA16" s="4">
         <v>45138</v>
@@ -7529,28 +7532,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -7572,7 +7575,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>562735700</v>
+        <v>620214068</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>55</v>
@@ -7581,7 +7584,7 @@
         <v>62</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -7591,7 +7594,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -7612,7 +7615,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B17" s="12">
         <v>44623</v>
@@ -7636,10 +7639,10 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>211</v>
@@ -7652,31 +7655,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>6.9328703703703696E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>6.9444444444444441E-3</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="V17" s="9">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -7685,7 +7688,7 @@
         <v>44</v>
       </c>
       <c r="Z17" s="4">
-        <v>43678</v>
+        <v>44409</v>
       </c>
       <c r="AA17" s="4">
         <v>45138</v>
@@ -7697,28 +7700,28 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -7740,7 +7743,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>562827444</v>
+        <v>620214068</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>55</v>
@@ -7749,7 +7752,7 @@
         <v>62</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -7759,7 +7762,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -7775,7 +7778,7 @@
         <v>61</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9568CE-B274-4329-92F9-6ED7BFD7AD5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4154126-D7CB-4599-A8A6-5188ADE87ADF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="412">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -228,655 +228,1045 @@
     <t>Content_Value</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>EEBHBR137_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000137</t>
-  </si>
-  <si>
-    <t>Serie Historias con Osos</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP37</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP37</t>
-  </si>
-  <si>
-    <t>EP 37</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cody se asusta con un cuervo y se molesta por espantarse tan fácilmente.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cody se asusta con un cuervo y se molesta por espantarse tan fácilmente. Cuando los osos se encuentran con un espantapájaros, Cody decide que él también será un espantapájaros. A veces, nos comparamos con los demás y deseamos ser como ellos.</t>
-  </si>
-  <si>
-    <t>Infantil/Historias con Osos</t>
-  </si>
-  <si>
-    <t>Historias con Osos</t>
-  </si>
-  <si>
-    <t>Jacob Soley, Nissae Isen, Hattie Kragten, Milo Toriel-McGibbon, Linda Ballantyne, Jamie Cavanagh</t>
-  </si>
-  <si>
-    <t>Hengxin Shambala</t>
-  </si>
-  <si>
-    <t>Soley Jacob, Isen Nissae, Kragten Hattie, Toriel-McGibbon Milo, Ballantyne Linda, Cavanagh Jamie</t>
-  </si>
-  <si>
-    <t>Gaul, Tim</t>
-  </si>
-  <si>
-    <t>EEBHBR137.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR137_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR138_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000138</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP38</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP38</t>
-  </si>
-  <si>
-    <t>EP 38</t>
-  </si>
-  <si>
-    <t>Edye presenta: Kimberly quiere fingir que es una mamá gata y que sus amigos son sus pequeños gatitos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Kimberly pretende fingir que es una mamá gata y que sus amigos son sus pequeños gatitos, pero los demás quieren ser diferentes animales. Kimberly aprende que los padres pueden amar a todo tipo de bebés.</t>
-  </si>
-  <si>
-    <t>EEBHBR138.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR138_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR139_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000139</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP39</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP39</t>
-  </si>
-  <si>
-    <t>EP 39</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden que compartir puede traer felicidad a otros</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden que compartir puede traer felicidad a otros cuando Bravo, aunque se divertía haciendo malabares con tres piñas, las va regalando, una a una, a sus amigos según las necesitan hasta que no le queda ninguna para él.</t>
-  </si>
-  <si>
-    <t>EEBHBR139.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR139_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR140_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000140</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP40</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP40</t>
-  </si>
-  <si>
-    <t>EP 40</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden que pueden jugar juntos de diferentes formas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden que pueden jugar de manera diferente cuando Kimberly quiere hacerlo con un castillo de arena, mientras sus amigos quieren ser dinosaurios. Kimberly tiene que usar su creatividad y perseverancia para encontrar la manera de jugar juntos.</t>
-  </si>
-  <si>
-    <t>EEBHBR140.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR140_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR141_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000141</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP41</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP41</t>
-  </si>
-  <si>
-    <t>EP 41</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden sobre la alegría del ritmo y el movimiento.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden sobre la alegría del ritmo y el movimiento cuando Kimberly usa su creatividad para formar una banda de libros y con su música atrae libros. Pero Kimberly tiene problemas para elegir su propio instrumento de entre la banda de libros.</t>
-  </si>
-  <si>
-    <t>EEBHBR141.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR141_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR142_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000142</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP42</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP42</t>
-  </si>
-  <si>
-    <t>EP 42</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cody quiere acurrucarse con sus amigos, pero los demás osos piensan que hace demasiado calor.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cody quiere acurrucarse con sus amigos, pero los demás osos piensan que hace demasiado calor. Cambian de opinión y aprenden el poder de un abrazo después de leer un libro a la sombra.</t>
-  </si>
-  <si>
-    <t>EEBHBR142.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR142_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR143_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000143</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP43</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP43</t>
-  </si>
-  <si>
-    <t>EP 43</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Osos encuentran una criatura misteriosa, un alce, pero Crystal cree que es un caballo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos se encuentran con una criatura misteriosa, un alce, que Crystal está convencida de que es un caballo hasta que admite que no sabe qué es.</t>
-  </si>
-  <si>
-    <t>EEBHBR143.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR143_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR144_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000144</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP44</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP44</t>
-  </si>
-  <si>
-    <t>EP 44</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras busca un libro, Cody se hace amigo de una tortuga.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras busca un libro, Cody se hace amigo de una tortuga e insiste en que la tortuga puede ayudarlos a encontrar libros. Los osos aprenden a adaptarse a los desafíos que les plantea la tortuga.</t>
-  </si>
-  <si>
-    <t>EEBHBR144.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR144_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR145_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000145</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP45</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP45</t>
-  </si>
-  <si>
-    <t>EP 45</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando los osos llegan a una parte del bosque sin luz solar, Cody duda en entrar.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando los osos llegan a una parte del bosque sin luz solar, Cody duda en entrar. Con la ayuda de Kimberly, Cody aprende a usar el poder de la imaginación para ayudarlo a superar sus miedos y seguir adelante.</t>
-  </si>
-  <si>
-    <t>EEBHBR145.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR145_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR146_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000146</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP46</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP46</t>
-  </si>
-  <si>
-    <t>EP 46</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cody quiere encontrar un lugar tranquilo para leer la historia del día.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cody quiere encontrar un lugar tranquilo para leer la historia del día, pero donde sea que él y los demás vayan en la granja, se encuentran con animales ruidosos. Los osos aprenden que el sonido está presente, incluso en los momentos más tranquilos.</t>
-  </si>
-  <si>
-    <t>EEBHBR146.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR146_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR147_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000147</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP47</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP47</t>
-  </si>
-  <si>
-    <t>EP 47</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cansados de buscar libros, los osos necesitan descansar ... excepto Bravo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Mientras buscan libros, los osos se cansan y necesitan descansar, excepto Bravo, que está lleno de energía. Bravo sigue jugando solo, pero aprende a respetar las necesidades de los demás cuando él también comienza a sentirse cansado.</t>
-  </si>
-  <si>
-    <t>EEBHBR147.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR147_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR148_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000148</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP48</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP48</t>
-  </si>
-  <si>
-    <t>EP 48</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden que encontrar similitudes con otros puede ser divertido.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden que encontrar similitudes con otros puede ser divertido. Cuando todos los demás osos encuentran animales similares a su apariencia y comportamiento, ¡Cody está decidido a encontrar a su igual!</t>
-  </si>
-  <si>
-    <t>EEBHBR148.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR148_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR149_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000149</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP49</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP49</t>
-  </si>
-  <si>
-    <t>EP 49</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos creen que Crystal es una maga ¡porque puede predecir lo que va a suceder!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Al observar cuidadosamente lo que sucede a su alrededor, Crystal es capaz de predecir con precisión lo que sucederá a continuación, los otros Osos quedan impresionados y piensan que es una maga.</t>
-  </si>
-  <si>
-    <t>EEBHBR149.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR149_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR150_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000150</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP50</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP50</t>
-  </si>
-  <si>
-    <t>EP 50</t>
-  </si>
-  <si>
-    <t>Edye presenta: Kimberly cree que se ha tragado una mosca y se niega a abrir la boca.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos cantan para atraer libros, pero Kimberly cree que se ha tragado una mosca y se niega a abrir la boca. Los demás intentan usar los sonidos de otros animales para ayudar a atraer libros, pero descubren que sólo la voz de Kimberly servirá.</t>
-  </si>
-  <si>
-    <t>EEBHBR150.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR150_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR151_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000151</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP51</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP51</t>
-  </si>
-  <si>
-    <t>EP 51</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden que la determinación y el ayudar a otros a lograr una meta tiene mucho valor.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los osos aprenden que la determinación y el ayudar a otros a lograr una meta tiene mucho valor. Después de una lluvia, Kimberly declara que su sueño es bailar bajo un hermoso arcoiris. Todos sus amigos la ayudan a intentar hacer realidad su sueño.</t>
-  </si>
-  <si>
-    <t>EEBHBR151.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR151_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR152_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH6000000000000152</t>
-  </si>
-  <si>
-    <t>Historias con OsosT01EP52</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP52</t>
-  </si>
-  <si>
-    <t>EP 52</t>
-  </si>
-  <si>
-    <t>Edye presenta: Kimberly construye un castillo en la nieve; Crystal, Bravo y Cody intentan hacer uno idéntico.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Kimberly construye un castillo en la nieve, Crystal, Bravo y Cody intentan hacer un castillo idéntico, pero no importa cuánto lo intente Crystal, no puede hacer que su creación se vea exactamente igual a la de Kimberly.</t>
-  </si>
-  <si>
-    <t>EEBHBR152.mpg</t>
-  </si>
-  <si>
-    <t>EEBHBR152_land.jpg</t>
-  </si>
-  <si>
-    <t>EEBHBR137_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000137</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP37 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR137.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR138_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000138</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP38 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR138.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR139_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000139</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP39 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR139.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR140_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000140</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP40 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR140.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR141_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000141</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP41 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR141.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR142_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000142</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP42 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR142.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR143_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000143</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP43 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR143.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR144_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000144</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP44 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR144.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR145_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000145</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP45 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR145.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR146_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000146</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP46 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR146.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR147_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000147</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP47 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR147.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR148_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000148</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP48 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR148.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR149_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000149</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP49 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR149.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR150_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000150</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP50 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR150.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR151_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000151</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP51 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR151.ts</t>
-  </si>
-  <si>
-    <t>EEBHBR152_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEBH7000000000000152</t>
-  </si>
-  <si>
-    <t>Historias con Osos T01 EP52 HD</t>
-  </si>
-  <si>
-    <t>EEBHBR152.ts</t>
+    <t>EEGOJE201_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000201</t>
+  </si>
+  <si>
+    <t>Serie Go Jetters</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP01</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP01</t>
+  </si>
+  <si>
+    <t>EP 01</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¿Lograrán los Go Jetters rescatar la antigua ciudad de Petra cuando Glitch cause un terremoto?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gran Maestro Glitch tiene una aventura en el desierto para descubrir una misteriosa ciudad. Si tan sólo no hubiera sido descubierta antes. Cuando Glitch intenta llegar antes que un grupo de turistas a Petra, en Jordania, estrella su Grimbler en el Cañón Siq.</t>
+  </si>
+  <si>
+    <t>Infantil/Go Jetters</t>
+  </si>
+  <si>
+    <t>Go Jetters</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Akie Kotabe,Tommie Earl Jenkins, Syrus Lowe, John Hasler, Pilar Orti, Marc Silk, Naomi McDonald</t>
+  </si>
+  <si>
+    <t>BBC</t>
+  </si>
+  <si>
+    <t>Kotabe Akie, Jenkins Tommie Earl, Lowe Syrus, Hasler John, Orti Pilar, Silk Marc, McDonald Naomi</t>
+  </si>
+  <si>
+    <t>Shaw, Adam</t>
+  </si>
+  <si>
+    <t>EEGOJE201.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE2_box.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE201_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE202_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000202</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP02</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP02</t>
+  </si>
+  <si>
+    <t>EP 02</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch ocasiona una montaña de problemas mientras los Go Jetters tratan de escalar el Matterhorn.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Conozcan a los Go Jetters, cuatro exploradores en una aventura global. Glitch ocasiona una montaña de problemas cuando los Go Jetters escalan el Matterhorn.</t>
+  </si>
+  <si>
+    <t>EEGOJE202.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE202_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE203_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000203</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP03</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP03</t>
+  </si>
+  <si>
+    <t>EP 03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Xuli y Glitch se enfrentan cara a cara cuando tratan de superar el récord de velocidad por tierra de la Academia Go Jet.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Go Jetters llegan a las Salinas de Bonneville en Utah, Estados Unidos, un gran lecho de lago seco que es perfecto para conducir a gran velocidad. Lars presenta el Turbo Zoomster, un auto de carreras hecho para que Xuli rompa el record Go Jet de velocidad en tierra.</t>
+  </si>
+  <si>
+    <t>EEGOJE203.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE203_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE204_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000204</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP04</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP04</t>
+  </si>
+  <si>
+    <t>EP 04</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¿Podrán los Go Jetters impedir que la planta más apestosa del mundo se convierta en el nuevo perfume de Glitch?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Gran Maestro Glitch inventa el perfume más apestoso, descubre que necesita más de un ingerdiente: el aroma super apestoso de la titan arum, una enorme flor que florece cada varios años en el bosque lluvioso de Sumatra.</t>
+  </si>
+  <si>
+    <t>EEGOJE204.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE204_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE205_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000205</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP05</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP05</t>
+  </si>
+  <si>
+    <t>EP 05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Xuli encuentra un naufragio en un arrecife de coral y aprende que no todas las fallas necesitan enmendarse.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Kyan, Lars y Foz recogen basura en la playa de la Academia después de una tormenta, mientras que Xuli se sumerge para revisar el arrecife de coral y descubre algo en las turbias profundidades: un enorme submarino oxidado yace sobre el arrecife y está goteando aceite.</t>
+  </si>
+  <si>
+    <t>EEGOJE205.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE205_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE206_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000206</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP06</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP06</t>
+  </si>
+  <si>
+    <t>EP 06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un Grimbot gigante rebota sobre el valle de Machu Picchu. ¿Podrán los Go Jetters detenerlo?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Go Jetters van a la antigua ciudad Peruana de Machu Picchu para ver a Kyan competir en la Maratón del Inca. En el cielo, Gran Maestro Glitch trata de reparar a su Grimbot cuando un resorte suelto lo hace rebotar dentro del Cuartel Sucio como un juguete.</t>
+  </si>
+  <si>
+    <t>EEGOJE206.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE206_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE207_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000207</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP07</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP07</t>
+  </si>
+  <si>
+    <t>EP 07</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Cuartel Sucio se estrella contra unos árboles Baobab. ¿Podrán los Go Jetters rescatar a un lémur bebé a tiempo?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gran Maestro Glitch prueba suerte en el vuelo acrobático, pero los Grimbots no están impresionados y lo califican con los pulgares hacia abajo. Él intenta de nuevo, pero el giro es demasiado para el pobre Cuartel Sucio y se estrella contra las ramas de un árbol baobab.</t>
+  </si>
+  <si>
+    <t>EEGOJE207.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE207_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE208_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000208</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP08</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP08</t>
+  </si>
+  <si>
+    <t>EP 08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Go Jetters tienen un mal presentimiento cuando Glitch convierte los canales de Venecia en caminos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gran Maestro Glitch le exige a los Grimbots que encuentren un lugar sin autos para practicar en su biciclta sin ruedas estabilizadoras. Llega a Venecia y le encanta ver que las "calles" están vacías.</t>
+  </si>
+  <si>
+    <t>EEGOJE208.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE208_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE209_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000209</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP09</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP09</t>
+  </si>
+  <si>
+    <t>EP 09</t>
+  </si>
+  <si>
+    <t>Edye presenta: El equipo se dirige a donde ningún Go Jetter ha ido antes, cuando Glitch hace un lanzamiento al espacio.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch le ha puesto aceleradores de cohete al Cuartel Sucio en un intento por convertirse en el primer Gran Maestro en llegar al espacio. Mientras se adentra en el cielo nocturno, parece que esta vez podría lograrlo.</t>
+  </si>
+  <si>
+    <t>EEGOJE209.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE209_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE210_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000210</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP10</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP10</t>
+  </si>
+  <si>
+    <t>EP 10</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¿Podrá el nuevo instrumento de los Go Jetters salvar a la Academia Go Jet de la tormenta eléctrica de Glitch?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Go Jetters acompañan a Ubercorn a la Academia Go Jet para probar un nuevo instrumento: el G.O. Aspirador. Una super aspiradora que puede succionar el mal clima. Para ponerla a prueba Ubercorn crea una pequeña nube de granizo dentro del domo.</t>
+  </si>
+  <si>
+    <t>EEGOJE210.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE210_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE211_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000211</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP11</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP11</t>
+  </si>
+  <si>
+    <t>EP 11</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Cuartel Sucio se sobrecalienta y aterriza en la Ciudad Congelada de Harbin, derritiendo las increíbles esculturas de hielo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando el Cuartel Sucio se sobrecalienta, Glitch busca un lugar fresco para aterrizar y esperar a que se enfríe. Mientras tanto, los Go Jetters disfrutan las increíbles vistas de la ciudad congelada de Harbin, en China.</t>
+  </si>
+  <si>
+    <t>EEGOJE211.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE211_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE212_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000212</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP12</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP12</t>
+  </si>
+  <si>
+    <t>EP 12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Go Jetters se apresuran para salvar los acantilados blancos de Dover cuando Glitch quiere extraer tiza para la pizarra..</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch intenta enseñarle a los grimbots a dibujar en una pizarra. Antes de que pueda terminar, su última pieza de tiza se rompe y el gruñón Gran Maestro le exige a los Grimbots que consigan nuevo material.</t>
+  </si>
+  <si>
+    <t>EEGOJE212.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE212_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE213_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000213</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP13</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP13</t>
+  </si>
+  <si>
+    <t>EP 13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch visita Broadway mientras los Go Jetters enfrentan una enorme nube de smog en Central Park.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch está en Nueva York para ver una obra de Broadway, pero no encuentra ningún lugar donde dejar el Grimbler. Entonces encuentra Central Park y decide construir su propio estacionamiento ahí.</t>
+  </si>
+  <si>
+    <t>EEGOJE213.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE213_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE214_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000214</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP14</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP14</t>
+  </si>
+  <si>
+    <t>EP 14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Todos a bordo para una aventura de alta velocidad, cuando los Go Jetters visitan el Tren Bala en Japón.</t>
+  </si>
+  <si>
+    <t>Edye presenta: En Japón, Gran Maestro Glitch está en una estación de trenes preguntándose a dónde fueron sus Grimbots. Unos peculiares ruidos provenientes del fondo de la plataforma revelan que entraron en la cabina del conductor de un tren bala y están muy felices presionando todos los botones.</t>
+  </si>
+  <si>
+    <t>EEGOJE214.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE214_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE215_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000215</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP15</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP15</t>
+  </si>
+  <si>
+    <t>EP 15</t>
+  </si>
+  <si>
+    <t>Edye presenta: El equipo corre para salvar a Glitch cuando su cometa vuela muy cerca de la central eólica de la Academia.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un día ventoso en la Academia Go Jet, cuando Jetpad aterriza acercándose a las turbinas de la central eólica. Mientras tanto, en un campo cercano, Gran Maestro Glitch enseña a sus grimbots una lección sobre la energía eólica cuando trata de volar su cometa gigante.</t>
+  </si>
+  <si>
+    <t>EEGOJE215.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE215_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE216_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000216</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP16</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP16</t>
+  </si>
+  <si>
+    <t>EP 16</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¿Podrá el radar de Xuli encontrar a Glitch en una cueva oscura antes de que millones de murciélagos regresen para descansar?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Gran Maestro Glitch descubre que su calabaza de Halloween no es tan grande como la de los Grimbots, va en busca de fertilizante para hacerla crecer. Mientras, Xuli está probando su nuevo G. O. Buzo equipado con sonar en la cueva Gua Rusa en Borneo.</t>
+  </si>
+  <si>
+    <t>EEGOJE216.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE216_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE217_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000217</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP17</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP17</t>
+  </si>
+  <si>
+    <t>EP 17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Go Jetters entran en acción mientras Glitch busca alegría festiva en la Isla de Navidad.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gran Maestro Glitch viaja con sus grimbots a la Isla de Navidad en el Océano Indigo esperando encontrar un ambiente festivo, aunque no es época navideña.</t>
+  </si>
+  <si>
+    <t>EEGOJE217.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE217_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE218_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000218</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP18</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP18</t>
+  </si>
+  <si>
+    <t>EP 18</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¿Podrán los Go Jetters detener la ruidosa guitarra de Glitch y salvar al Ejército de Terracota en China?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Ubercorn es el DJ en una fiesta de la Academia Go Jet para que los Go Jetters y los cadetes se diviertan, cuando de pronto Gran Maestro Glitch aparece con su poderosa guitarra eléctrica. Glitch empieza a tocar rock mientras sus Grimbots lo acompañan en la batería.</t>
+  </si>
+  <si>
+    <t>EEGOJE218.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE218_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE219_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000219</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP19</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP19</t>
+  </si>
+  <si>
+    <t>EP 19</t>
+  </si>
+  <si>
+    <t>Edye presenta: El intento de Glitch por no formarse en la fila de espera para el Canal de Panamá lo deja hundiéndose.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gran Maestro Glitch va retrasado para la ceremonia de premiación al Mejor Bigote Europeo del Año, y aún peor, sufrió una avería. Los Grimbots son los encargados de encontrar un atajo: El Canal de Panamá.</t>
+  </si>
+  <si>
+    <t>EEGOJE219.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE219_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE220_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000220</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP20</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP20</t>
+  </si>
+  <si>
+    <t>EP 20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gran Maestro Glitch visita Londres y encuentra el sombrero perfecto de recuerdo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gran Maestro Glitch visita Londres y encuentra el sombrero perfecto de recuerdo. Pero se queda sin efectivo así que decide ganar un poco trabajando como guía de turistas. Los Go Jetters también están en Londres mientras Lars ayuda a reparar el Puente de la Torre.</t>
+  </si>
+  <si>
+    <t>EEGOJE220.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE220_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE221_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000221</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP21</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP21</t>
+  </si>
+  <si>
+    <t>EP 21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch y Xuli caen en un sumidero en Venezuela. ¿Logrará el equipo catapultarlos hasta un lugar seguro?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Foz, Kyan y Lars escalan un Tepui en Venezuela y Xuli explora este increíble lugar en su Vroomster. Mientras, Gran Maestro Glitch se pierde buscando a sus Grimbots entre las grandes nubes alrededor del Tepui.</t>
+  </si>
+  <si>
+    <t>EEGOJE221.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE221_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE222_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000222</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP22</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP22</t>
+  </si>
+  <si>
+    <t>EP 22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch provoca un caos en la Academia cuando pierde el control de sus nuevos impulsores de biogás.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch se emociona cuando Lars mejora el Grimbler con nuevos impulsores limpios de biogas que lo harán incluso más rápido que el Vroomster. Los impulsores funcionan con combustible hecho de desechos orgánicos y por suerte hay muchas sobras de comida en el comedor de la Academia.</t>
+  </si>
+  <si>
+    <t>EEGOJE222.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE222_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE223_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000223</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP23</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP23</t>
+  </si>
+  <si>
+    <t>EP 23</t>
+  </si>
+  <si>
+    <t>Edye presenta: El equipo se ve atrapado en el ojo de la tomenta cuando Glitch conduce a JetPad hacia un huracán.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El Cuartel Sucio batalla en el cielo sobre el Océano Atlántico, luchando contra el poderoso viento de un huracán. Un grimbot cae por la borda antes de que la nave se estrelle en la Academia Go Jet.</t>
+  </si>
+  <si>
+    <t>EEGOJE223.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE223_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE224_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000224</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP24</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP24</t>
+  </si>
+  <si>
+    <t>EP 24</t>
+  </si>
+  <si>
+    <t>Edye presenta: ¿Podrán los Go Jetters tomar el control de una situación difícil en el Valle de las Bolas (Esferas)?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los Go Jetters viajan al Valle de las Bolas en Kazajistán, donde encuentran miles de rocas que son casi perfectamente redondas. Mientras, Gran Maestro Glitch busca la bola ideal para practicar su juego de bolos. Algo grande y pesado.</t>
+  </si>
+  <si>
+    <t>EEGOJE224.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE224_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE225_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000225</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP25</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP25</t>
+  </si>
+  <si>
+    <t>EP 25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch hace trampa en un examen de planeo de la Academia, lo cual provoca una calamidad en los cielos de Argentina.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Los cadetes Go Jet son llevados a los cielos de Argentina en un intento de aprobar el examen de vuelo de la academia. Como los planeadores no tienen motores, Xuli les enseña a otros dos cadetes pilotos cómo planear usando termales para mantenerse en el aire.</t>
+  </si>
+  <si>
+    <t>EEGOJE225.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE225_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE226_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO6000000000000226</t>
+  </si>
+  <si>
+    <t>Go JettersT02EP26</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP26</t>
+  </si>
+  <si>
+    <t>EP 26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Glitch ofende a algunos nómadas en Mongolia, así que los Go Jetters tienen que tomar las riendas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gran Maestro Glitch se va de campamento a Mongolia. No hay mucho alrededor, excepto un grupo de mongoles nómadas, personas que viajan por todo el país con sus animales, acampando en asombrosas tiendas llamadas gers.</t>
+  </si>
+  <si>
+    <t>EEGOJE226.mpg</t>
+  </si>
+  <si>
+    <t>EEGOJE226_land.jpg</t>
+  </si>
+  <si>
+    <t>EEGOJE201_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000201</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE201.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE202_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000202</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE202.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE203_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000203</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE203.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE204_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000204</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE204.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE205_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000205</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE205.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE206_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000206</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE206.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE207_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000207</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE207.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE208_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000208</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE208.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE209_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000209</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE209.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE210_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000210</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE210.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE211_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000211</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE211.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE212_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000212</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE212.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE213_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000213</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE213.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE214_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000214</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE214.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE215_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000215</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE215.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE216_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000216</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE216.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE217_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000217</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE217.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE218_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000218</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE218.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE219_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000219</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE219.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE220_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000220</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE220.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE221_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000221</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE221.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE222_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000222</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE222.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE223_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000223</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE223.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE224_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000224</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE224.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE225_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000225</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE225.ts</t>
+  </si>
+  <si>
+    <t>EEGOJE226_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEGO7000000000000226</t>
+  </si>
+  <si>
+    <t>Go Jetters T02 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEGOJE226.ts</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1748,7 @@
   <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF17"/>
+      <selection activeCell="A2" sqref="A2:BF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1969,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1603,13 +1993,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -1619,31 +2009,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -1652,10 +2042,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA2" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>50</v>
@@ -1664,10 +2054,10 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>76</v>
@@ -1707,7 +2097,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>310135892</v>
+        <v>313391864</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -1774,7 +2164,7 @@
         <v>84</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>85</v>
@@ -1802,16 +2192,16 @@
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -1820,10 +2210,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA3" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>50</v>
@@ -1832,10 +2222,10 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF3" s="9" t="s">
         <v>76</v>
@@ -1875,7 +2265,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>310135892</v>
+        <v>312448104</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -1942,7 +2332,7 @@
         <v>93</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>94</v>
@@ -1970,16 +2360,16 @@
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -1988,10 +2378,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA4" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>50</v>
@@ -2000,10 +2390,10 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF4" s="9" t="s">
         <v>76</v>
@@ -2043,7 +2433,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>310135892</v>
+        <v>312448104</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -2110,7 +2500,7 @@
         <v>102</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>103</v>
@@ -2138,16 +2528,16 @@
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -2156,10 +2546,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA5" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>50</v>
@@ -2168,10 +2558,10 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>76</v>
@@ -2211,7 +2601,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>310135892</v>
+        <v>312927128</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -2278,7 +2668,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>112</v>
@@ -2306,16 +2696,16 @@
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6851851851851847E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6851851851851847E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -2324,10 +2714,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA6" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB6" s="9" t="s">
         <v>50</v>
@@ -2336,10 +2726,10 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE6" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>76</v>
@@ -2379,7 +2769,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>310135892</v>
+        <v>311983368</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -2446,7 +2836,7 @@
         <v>120</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>121</v>
@@ -2474,16 +2864,16 @@
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -2492,10 +2882,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA7" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>50</v>
@@ -2504,10 +2894,10 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF7" s="9" t="s">
         <v>76</v>
@@ -2547,7 +2937,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>310135892</v>
+        <v>310107128</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -2614,7 +3004,7 @@
         <v>129</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>130</v>
@@ -2642,16 +3032,16 @@
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -2660,10 +3050,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA8" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>50</v>
@@ -2672,10 +3062,10 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE8" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE8" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>76</v>
@@ -2715,7 +3105,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>310135892</v>
+        <v>313391864</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -2782,7 +3172,7 @@
         <v>138</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>139</v>
@@ -2810,16 +3200,16 @@
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -2828,10 +3218,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA9" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>50</v>
@@ -2840,10 +3230,10 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF9" s="9" t="s">
         <v>76</v>
@@ -2883,7 +3273,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>310135892</v>
+        <v>312898552</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -2950,7 +3340,7 @@
         <v>147</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>148</v>
@@ -2978,16 +3368,16 @@
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6736111111111111E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6736111111111111E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -2996,10 +3386,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA10" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB10" s="9" t="s">
         <v>50</v>
@@ -3008,10 +3398,10 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF10" s="9" t="s">
         <v>76</v>
@@ -3051,7 +3441,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>310135892</v>
+        <v>311518632</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -3118,7 +3508,7 @@
         <v>156</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>157</v>
@@ -3146,16 +3536,16 @@
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -3164,10 +3554,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA11" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB11" s="9" t="s">
         <v>50</v>
@@ -3176,10 +3566,10 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF11" s="9" t="s">
         <v>76</v>
@@ -3219,7 +3609,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="15">
-        <v>310135892</v>
+        <v>312448104</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -3286,7 +3676,7 @@
         <v>165</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>166</v>
@@ -3314,16 +3704,16 @@
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V12" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -3332,10 +3722,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA12" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB12" s="9" t="s">
         <v>50</v>
@@ -3344,10 +3734,10 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF12" s="9" t="s">
         <v>76</v>
@@ -3387,7 +3777,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>310135892</v>
+        <v>312448292</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>56</v>
@@ -3454,7 +3844,7 @@
         <v>174</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>175</v>
@@ -3482,16 +3872,16 @@
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V13" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -3500,10 +3890,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA13" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB13" s="9" t="s">
         <v>50</v>
@@ -3512,10 +3902,10 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE13" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>76</v>
@@ -3555,7 +3945,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>310135892</v>
+        <v>312448104</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>56</v>
@@ -3622,7 +4012,7 @@
         <v>183</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>184</v>
@@ -3650,16 +4040,16 @@
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="V14" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -3668,10 +4058,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA14" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB14" s="9" t="s">
         <v>50</v>
@@ -3680,10 +4070,10 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE14" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF14" s="9" t="s">
         <v>76</v>
@@ -3723,7 +4113,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>310135892</v>
+        <v>313391864</v>
       </c>
       <c r="AT14" s="9" t="s">
         <v>56</v>
@@ -3790,7 +4180,7 @@
         <v>192</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>193</v>
@@ -3818,16 +4208,16 @@
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V15" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -3836,10 +4226,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA15" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB15" s="9" t="s">
         <v>50</v>
@@ -3848,10 +4238,10 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF15" s="9" t="s">
         <v>76</v>
@@ -3891,7 +4281,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>310135892</v>
+        <v>312448104</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>56</v>
@@ -3958,7 +4348,7 @@
         <v>201</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>202</v>
@@ -3986,16 +4376,16 @@
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="V16" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -4004,10 +4394,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA16" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>50</v>
@@ -4016,10 +4406,10 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE16" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF16" s="9" t="s">
         <v>76</v>
@@ -4059,7 +4449,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>310135892</v>
+        <v>312927128</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>56</v>
@@ -4126,7 +4516,7 @@
         <v>210</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>211</v>
@@ -4154,16 +4544,16 @@
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V17" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -4172,10 +4562,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA17" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB17" s="9" t="s">
         <v>50</v>
@@ -4184,10 +4574,10 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF17" s="9" t="s">
         <v>76</v>
@@ -4227,7 +4617,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>310135892</v>
+        <v>312448104</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>56</v>
@@ -4266,604 +4656,1684 @@
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U18" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V18" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL18" s="8"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
+      <c r="AM18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS18" s="9">
+        <v>312416520</v>
+      </c>
+      <c r="AT18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV18" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="AW18" s="8"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
+      <c r="AX18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ18" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA18" s="8"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-      <c r="BF18" s="9"/>
+      <c r="BB18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF18" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
+      <c r="M19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U19" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V19" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK19" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL19" s="8"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="9"/>
-      <c r="AT19" s="9"/>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="9"/>
+      <c r="AM19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS19" s="9">
+        <v>312448104</v>
+      </c>
+      <c r="AT19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV19" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="AW19" s="8"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
+      <c r="AX19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ19" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA19" s="8"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-      <c r="BF19" s="9"/>
+      <c r="BB19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF19" s="9" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
+      <c r="M20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U20" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL20" s="8"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
+      <c r="AM20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS20" s="9">
+        <v>312448104</v>
+      </c>
+      <c r="AT20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV20" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AW20" s="8"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
+      <c r="AX20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ20" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA20" s="8"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
+      <c r="BB20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF20" s="9" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U21" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL21" s="8"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
+      <c r="AM21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS21" s="9">
+        <v>312448104</v>
+      </c>
+      <c r="AT21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV21" s="9" t="s">
+        <v>252</v>
+      </c>
       <c r="AW21" s="8"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
+      <c r="AX21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ21" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA21" s="8"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
+      <c r="BB21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF21" s="9" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U22" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V22" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK22" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
+      <c r="AM22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS22" s="9">
+        <v>312448104</v>
+      </c>
+      <c r="AT22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV22" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="AW22" s="8"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
+      <c r="AX22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ22" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA22" s="8"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
+      <c r="BB22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF22" s="9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="10">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="U23" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V23" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
+      <c r="AM23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS23" s="9">
+        <v>310107128</v>
+      </c>
+      <c r="AT23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV23" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="AW23" s="8"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
+      <c r="AX23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ23" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA23" s="8"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
+      <c r="BB23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF23" s="9" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="10">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="U24" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V24" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL24" s="8"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="9"/>
-      <c r="AV24" s="9"/>
+      <c r="AM24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS24" s="9">
+        <v>310107128</v>
+      </c>
+      <c r="AT24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV24" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="AW24" s="8"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
+      <c r="AX24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ24" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-      <c r="BF24" s="9"/>
+      <c r="BB24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF24" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U25" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V25" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL25" s="8"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="9"/>
-      <c r="AV25" s="9"/>
+      <c r="AM25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS25" s="9">
+        <v>312448104</v>
+      </c>
+      <c r="AT25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV25" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="AW25" s="8"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
+      <c r="AX25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ25" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA25" s="8"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
+      <c r="BB25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF25" s="9" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U26" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V26" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL26" s="8"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
+      <c r="AM26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS26" s="9">
+        <v>312448104</v>
+      </c>
+      <c r="AT26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV26" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="AW26" s="8"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
+      <c r="AX26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ26" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
+      <c r="BB26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF26" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U27" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V27" s="3">
+        <v>2017</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL27" s="8"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
-      <c r="AT27" s="9"/>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
+      <c r="AM27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS27" s="9">
+        <v>312448104</v>
+      </c>
+      <c r="AT27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV27" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="AW27" s="8"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
+      <c r="AX27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ27" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA27" s="8"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-      <c r="BF27" s="9"/>
+      <c r="BB27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF27" s="9" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4875,7 +6345,7 @@
   <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF17"/>
+      <selection activeCell="A2" sqref="A2:BF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5095,7 +6565,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -5119,13 +6589,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -5135,31 +6605,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -5168,10 +6638,10 @@
         <v>44</v>
       </c>
       <c r="Z2" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA2" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>50</v>
@@ -5180,10 +6650,10 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>76</v>
@@ -5223,7 +6693,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>620214068</v>
+        <v>626726200</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>55</v>
@@ -5232,7 +6702,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -5263,7 +6733,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -5287,10 +6757,10 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>85</v>
@@ -5303,7 +6773,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>87</v>
@@ -5318,16 +6788,16 @@
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -5336,10 +6806,10 @@
         <v>44</v>
       </c>
       <c r="Z3" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA3" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>50</v>
@@ -5348,10 +6818,10 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF3" s="9" t="s">
         <v>76</v>
@@ -5391,7 +6861,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>620214068</v>
+        <v>624832852</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>55</v>
@@ -5400,7 +6870,7 @@
         <v>62</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -5431,7 +6901,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -5455,10 +6925,10 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>94</v>
@@ -5471,7 +6941,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>96</v>
@@ -5486,16 +6956,16 @@
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -5504,10 +6974,10 @@
         <v>44</v>
       </c>
       <c r="Z4" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA4" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>50</v>
@@ -5516,10 +6986,10 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF4" s="9" t="s">
         <v>76</v>
@@ -5559,7 +7029,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>620214068</v>
+        <v>624832852</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>55</v>
@@ -5568,7 +7038,7 @@
         <v>62</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -5599,7 +7069,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -5623,10 +7093,10 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>103</v>
@@ -5639,7 +7109,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>105</v>
@@ -5654,16 +7124,16 @@
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -5672,10 +7142,10 @@
         <v>44</v>
       </c>
       <c r="Z5" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA5" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>50</v>
@@ -5684,10 +7154,10 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>76</v>
@@ -5727,7 +7197,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>620214068</v>
+        <v>625796728</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>55</v>
@@ -5736,7 +7206,7 @@
         <v>62</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -5767,7 +7237,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -5791,10 +7261,10 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>112</v>
@@ -5807,7 +7277,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>114</v>
@@ -5822,16 +7292,16 @@
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6851851851851847E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6851851851851847E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -5840,10 +7310,10 @@
         <v>44</v>
       </c>
       <c r="Z6" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA6" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB6" s="9" t="s">
         <v>50</v>
@@ -5852,10 +7322,10 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE6" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>76</v>
@@ -5895,7 +7365,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>620214068</v>
+        <v>623903380</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>55</v>
@@ -5904,7 +7374,7 @@
         <v>62</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -5935,7 +7405,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -5959,10 +7429,10 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>121</v>
@@ -5975,7 +7445,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>123</v>
@@ -5990,16 +7460,16 @@
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -6008,10 +7478,10 @@
         <v>44</v>
       </c>
       <c r="Z7" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA7" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>50</v>
@@ -6020,10 +7490,10 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF7" s="9" t="s">
         <v>76</v>
@@ -6063,7 +7533,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>620214068</v>
+        <v>620156728</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>55</v>
@@ -6072,7 +7542,7 @@
         <v>62</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -6103,7 +7573,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -6127,10 +7597,10 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>130</v>
@@ -6143,7 +7613,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>132</v>
@@ -6158,16 +7628,16 @@
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -6176,10 +7646,10 @@
         <v>44</v>
       </c>
       <c r="Z8" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA8" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>50</v>
@@ -6188,10 +7658,10 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE8" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE8" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>76</v>
@@ -6231,7 +7701,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>620214068</v>
+        <v>626726200</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>55</v>
@@ -6240,7 +7710,7 @@
         <v>62</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -6271,7 +7741,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -6295,10 +7765,10 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>139</v>
@@ -6311,7 +7781,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>141</v>
@@ -6326,16 +7796,16 @@
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -6344,10 +7814,10 @@
         <v>44</v>
       </c>
       <c r="Z9" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA9" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>50</v>
@@ -6356,10 +7826,10 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF9" s="9" t="s">
         <v>76</v>
@@ -6399,7 +7869,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>620214068</v>
+        <v>625733560</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>55</v>
@@ -6408,7 +7878,7 @@
         <v>62</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -6439,7 +7909,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -6463,10 +7933,10 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>148</v>
@@ -6479,7 +7949,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>150</v>
@@ -6494,16 +7964,16 @@
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6736111111111111E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.6736111111111111E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -6512,10 +7982,10 @@
         <v>44</v>
       </c>
       <c r="Z10" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA10" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB10" s="9" t="s">
         <v>50</v>
@@ -6524,10 +7994,10 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF10" s="9" t="s">
         <v>76</v>
@@ -6567,7 +8037,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>620214068</v>
+        <v>622973908</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>55</v>
@@ -6576,7 +8046,7 @@
         <v>62</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -6607,7 +8077,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -6631,10 +8101,10 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>157</v>
@@ -6647,7 +8117,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>159</v>
@@ -6662,16 +8132,16 @@
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -6680,10 +8150,10 @@
         <v>44</v>
       </c>
       <c r="Z11" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA11" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB11" s="9" t="s">
         <v>50</v>
@@ -6692,10 +8162,10 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF11" s="9" t="s">
         <v>76</v>
@@ -6735,7 +8205,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="9">
-        <v>620214068</v>
+        <v>624832852</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>55</v>
@@ -6744,7 +8214,7 @@
         <v>62</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -6775,7 +8245,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="B12" s="12">
         <v>44623</v>
@@ -6799,10 +8269,10 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>166</v>
@@ -6815,7 +8285,7 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>168</v>
@@ -6830,16 +8300,16 @@
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V12" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -6848,10 +8318,10 @@
         <v>44</v>
       </c>
       <c r="Z12" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA12" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB12" s="9" t="s">
         <v>50</v>
@@ -6860,10 +8330,10 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF12" s="9" t="s">
         <v>76</v>
@@ -6903,7 +8373,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>620214068</v>
+        <v>624832852</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>55</v>
@@ -6912,7 +8382,7 @@
         <v>62</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -6943,7 +8413,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="B13" s="12">
         <v>44623</v>
@@ -6967,10 +8437,10 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>175</v>
@@ -6983,7 +8453,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>177</v>
@@ -6998,16 +8468,16 @@
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V13" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -7016,10 +8486,10 @@
         <v>44</v>
       </c>
       <c r="Z13" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA13" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB13" s="9" t="s">
         <v>50</v>
@@ -7028,10 +8498,10 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE13" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>76</v>
@@ -7071,7 +8541,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>620214068</v>
+        <v>624832852</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>55</v>
@@ -7080,7 +8550,7 @@
         <v>62</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>265</v>
+        <v>355</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -7111,7 +8581,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="B14" s="12">
         <v>44623</v>
@@ -7135,10 +8605,10 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>184</v>
@@ -7151,7 +8621,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>186</v>
@@ -7166,16 +8636,16 @@
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.719907407407408E-3</v>
       </c>
       <c r="V14" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -7184,10 +8654,10 @@
         <v>44</v>
       </c>
       <c r="Z14" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA14" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB14" s="9" t="s">
         <v>50</v>
@@ -7196,10 +8666,10 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE14" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF14" s="9" t="s">
         <v>76</v>
@@ -7239,7 +8709,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>620214068</v>
+        <v>626726200</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>55</v>
@@ -7248,7 +8718,7 @@
         <v>62</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -7279,7 +8749,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="B15" s="12">
         <v>44623</v>
@@ -7303,10 +8773,10 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>193</v>
@@ -7319,7 +8789,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>195</v>
@@ -7334,16 +8804,16 @@
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V15" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -7352,10 +8822,10 @@
         <v>44</v>
       </c>
       <c r="Z15" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA15" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB15" s="9" t="s">
         <v>50</v>
@@ -7364,10 +8834,10 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF15" s="9" t="s">
         <v>76</v>
@@ -7407,7 +8877,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>620214068</v>
+        <v>624832852</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>55</v>
@@ -7416,7 +8886,7 @@
         <v>62</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -7447,7 +8917,7 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="B16" s="12">
         <v>44623</v>
@@ -7471,10 +8941,10 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>202</v>
@@ -7487,7 +8957,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>204</v>
@@ -7502,16 +8972,16 @@
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="V16" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -7520,10 +8990,10 @@
         <v>44</v>
       </c>
       <c r="Z16" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA16" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB16" s="9" t="s">
         <v>50</v>
@@ -7532,10 +9002,10 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE16" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF16" s="9" t="s">
         <v>76</v>
@@ -7575,7 +9045,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>620214068</v>
+        <v>625796728</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>55</v>
@@ -7584,7 +9054,7 @@
         <v>62</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -7615,7 +9085,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="B17" s="12">
         <v>44623</v>
@@ -7639,10 +9109,10 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>211</v>
@@ -7655,7 +9125,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>213</v>
@@ -7670,16 +9140,16 @@
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>7.6388888888888904E-3</v>
+        <v>7.69675925925926E-3</v>
       </c>
       <c r="V17" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -7688,10 +9158,10 @@
         <v>44</v>
       </c>
       <c r="Z17" s="4">
-        <v>44409</v>
+        <v>44027</v>
       </c>
       <c r="AA17" s="4">
-        <v>45138</v>
+        <v>45747</v>
       </c>
       <c r="AB17" s="9" t="s">
         <v>50</v>
@@ -7700,10 +9170,10 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="AF17" s="9" t="s">
         <v>76</v>
@@ -7743,7 +9213,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>620214068</v>
+        <v>624832852</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>55</v>
@@ -7752,7 +9222,7 @@
         <v>62</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -7782,604 +9252,1684 @@
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
+      <c r="M18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U18" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V18" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL18" s="8"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
+      <c r="AM18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS18" s="9">
+        <v>624775512</v>
+      </c>
+      <c r="AT18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV18" s="9" t="s">
+        <v>375</v>
+      </c>
       <c r="AW18" s="8"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
+      <c r="AX18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ18" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA18" s="8"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-      <c r="BF18" s="9"/>
+      <c r="BB18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF18" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
+      <c r="M19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U19" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V19" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK19" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL19" s="8"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="9"/>
-      <c r="AT19" s="9"/>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="9"/>
+      <c r="AM19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS19" s="9">
+        <v>624832852</v>
+      </c>
+      <c r="AT19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV19" s="9" t="s">
+        <v>379</v>
+      </c>
       <c r="AW19" s="8"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
+      <c r="AX19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ19" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA19" s="8"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-      <c r="BF19" s="9"/>
+      <c r="BB19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF19" s="9" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
+      <c r="M20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U20" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V20" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL20" s="8"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
+      <c r="AM20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS20" s="9">
+        <v>624832852</v>
+      </c>
+      <c r="AT20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV20" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="AW20" s="8"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
+      <c r="AX20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ20" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA20" s="8"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="9"/>
+      <c r="BB20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF20" s="9" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U21" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V21" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL21" s="8"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
+      <c r="AM21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS21" s="9">
+        <v>624832852</v>
+      </c>
+      <c r="AT21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV21" s="9" t="s">
+        <v>387</v>
+      </c>
       <c r="AW21" s="8"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
+      <c r="AX21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ21" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA21" s="8"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
+      <c r="BB21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF21" s="9" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U22" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V22" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK22" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
+      <c r="AM22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS22" s="9">
+        <v>624832852</v>
+      </c>
+      <c r="AT22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV22" s="9" t="s">
+        <v>391</v>
+      </c>
       <c r="AW22" s="8"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
+      <c r="AX22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ22" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA22" s="8"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
+      <c r="BB22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF22" s="9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="10">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="U23" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V23" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
+      <c r="AM23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS23" s="9">
+        <v>620156728</v>
+      </c>
+      <c r="AT23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV23" s="9" t="s">
+        <v>395</v>
+      </c>
       <c r="AW23" s="8"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
+      <c r="AX23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ23" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA23" s="8"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
+      <c r="BB23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF23" s="9" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="10">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="U24" s="11">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="V24" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL24" s="8"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="9"/>
-      <c r="AV24" s="9"/>
+      <c r="AM24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS24" s="9">
+        <v>620156728</v>
+      </c>
+      <c r="AT24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV24" s="9" t="s">
+        <v>399</v>
+      </c>
       <c r="AW24" s="8"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
+      <c r="AX24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ24" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-      <c r="BF24" s="9"/>
+      <c r="BB24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF24" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B25" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U25" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V25" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL25" s="8"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="9"/>
-      <c r="AV25" s="9"/>
+      <c r="AM25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS25" s="9">
+        <v>624832852</v>
+      </c>
+      <c r="AT25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV25" s="9" t="s">
+        <v>403</v>
+      </c>
       <c r="AW25" s="8"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
+      <c r="AX25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ25" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA25" s="8"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
+      <c r="BB25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF25" s="9" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U26" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V26" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL26" s="8"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
+      <c r="AM26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS26" s="9">
+        <v>624832852</v>
+      </c>
+      <c r="AT26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV26" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="AW26" s="8"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
+      <c r="AX26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ26" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
+      <c r="BB26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF26" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" s="10">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="U27" s="11">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="V27" s="9">
+        <v>2017</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="AL27" s="8"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
-      <c r="AT27" s="9"/>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
+      <c r="AM27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS27" s="9">
+        <v>624832852</v>
+      </c>
+      <c r="AT27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV27" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="AW27" s="8"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
+      <c r="AX27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ27" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="BA27" s="8"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-      <c r="BF27" s="9"/>
+      <c r="BB27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF27" s="9" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AAB95E-7408-4AA6-9569-2F7CE2349B96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D813328-7EBC-468B-969A-963C1E7D2F13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="344">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -225,1048 +225,844 @@
     <t>Content_Value</t>
   </si>
   <si>
-    <t>EP 01</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
-    <t>EP 02</t>
-  </si>
-  <si>
-    <t>EP 03</t>
-  </si>
-  <si>
-    <t>EP 04</t>
-  </si>
-  <si>
-    <t>EP 05</t>
-  </si>
-  <si>
-    <t>EP 06</t>
-  </si>
-  <si>
-    <t>EP 07</t>
-  </si>
-  <si>
-    <t>EP 08</t>
-  </si>
-  <si>
-    <t>EP 09</t>
-  </si>
-  <si>
-    <t>EP 10</t>
-  </si>
-  <si>
-    <t>EP 11</t>
-  </si>
-  <si>
-    <t>EP 12</t>
-  </si>
-  <si>
-    <t>EP 13</t>
-  </si>
-  <si>
-    <t>EP 14</t>
-  </si>
-  <si>
-    <t>EP 15</t>
-  </si>
-  <si>
-    <t>EP 16</t>
-  </si>
-  <si>
-    <t>EP 17</t>
-  </si>
-  <si>
-    <t>EP 18</t>
-  </si>
-  <si>
-    <t>EP 19</t>
-  </si>
-  <si>
-    <t>EP 20</t>
-  </si>
-  <si>
-    <t>EP 21</t>
-  </si>
-  <si>
-    <t>EP 22</t>
-  </si>
-  <si>
-    <t>EP 23</t>
-  </si>
-  <si>
-    <t>EP 24</t>
-  </si>
-  <si>
-    <t>EP 25</t>
-  </si>
-  <si>
-    <t>EP 26</t>
-  </si>
-  <si>
     <t>H264 HD</t>
   </si>
   <si>
-    <t>EEGOJE301_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000301</t>
-  </si>
-  <si>
-    <t>Serie Go Jetters</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP01</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP01</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¿Podrán Kyan y Foz usar su nuevo conocimiento de las brújulas para encontrar la salida en un laberinto de la Academia?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Kyan y Foz están trabajando en sus habilidades para navegar con brújula y necesitan encontrar la Torre Norte dentro de un magnífico laberinto para aprobar su examen de la academia. Gran Maestro Glitch también intenta entrar al increíble laberinto pero termina perdiéndose.</t>
-  </si>
-  <si>
-    <t>Infantil/Go Jetters</t>
-  </si>
-  <si>
-    <t>Go Jetters</t>
-  </si>
-  <si>
-    <t>Akie Kotabe, Tommie Earl Jenkins, Syrus Lowe, John Hasler, Orti Pilar, Marc Silk, Naomi McDonald</t>
-  </si>
-  <si>
-    <t>BBC</t>
-  </si>
-  <si>
-    <t>Kotabe Akie, Jenkins Tommie Earl, Lowe Syrus, Hasler John, Orti Pilar, Silk Marc, McDonald Naomi</t>
-  </si>
-  <si>
-    <t>Shaw, Adam</t>
-  </si>
-  <si>
-    <t>EEGOJE301.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE3_box.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE301_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE302_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000302</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP02</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters visitan una reserva natural en China. Pero, ¿quién se está llevando todo el bambú de los pandas?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Lars y Foz están en la Reserva Natural de Wolong en China, cuidando de los 2000 pandas que viven ahí en su estado natural. El Cuartel Sucio también aterrizó en la reserva, después de atravesar un monzón. La lluvia dejó la nave de Gran Maestro Glitch reluciendo de limpia.</t>
-  </si>
-  <si>
-    <t>EEGOJE302.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE302_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE303_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000303</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP03</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Gran Maestro Glitch reta a los Go Jetters a encontrar el G.O. Domo perdido de los ancestros.</t>
-  </si>
-  <si>
-    <t>Edye presenta: En la Academia Go Jet, Ubercorn ha encontrado un viejo mapa que lleva al G.O. Domo de los ancestros. Este misterioso domo fue construido por los primeros Go Jetters y había estado perdido por cientos de años.</t>
-  </si>
-  <si>
-    <t>EEGOJE303.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE303_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE304_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000304</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP04</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Glitch viaja a Ontario para buscar un nuevo osito, pero las cosas empiezan a salir muy mal.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Grimbots de Gran Maestro Glitch necesitan cariño, así que Glitch les conseguirá un nuevo osito. Glitch sabe que hay osos que viven en Ontario, Canadá así que se dirige hacia allá para encontrar un lindo osito.</t>
-  </si>
-  <si>
-    <t>EEGOJE304.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE304_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE305_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000305</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP05</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters visitan Timgad en Argelia, pero alguien está jugando con sus instrumentos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters viajan a Argelia en el norte de África para ver las antiguas ruinas demTimgad. Creada por los Romanos hace cerca de 2000 mil años, la ciudad fue construida como una red, con todos los caminos dirigiéndose en líneas rectas de norte a sur y de este a oeste.</t>
-  </si>
-  <si>
-    <t>EEGOJE305.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE305_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE306_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000306</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP06</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters salvan el día cuando unos cocodrilos hambrientos acechan el día de campo de Glitch.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters visitan el Parque Nacional de los Everglades en Florida, Estados Unidos. Es un área formada principalmente por agua con una asombrosa fauna salvaje, incluyendo cocodrilos.</t>
-  </si>
-  <si>
-    <t>EEGOJE306.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE306_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE307_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000307</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP07</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters están en Egipto, en donde deben volver a hacer grande a la Gran Esfinge.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters están en Egipto, donde necesitan volver a hacer grande a la Gran Esfinge.</t>
-  </si>
-  <si>
-    <t>EEGOJE307.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE307_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE308_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000308</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP08</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Glitch construye un Sucio-domo en una colina y ocasiona un deslave. ¿Podrán los Go Jetters salvar el día?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es un día muy lluvioso en la Academia Go Jet y los Go Jetters están en los domos de entrenamiento enseñando a los cadetes algunas habilidades escenciales.</t>
-  </si>
-  <si>
-    <t>EEGOJE308.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE308_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE309_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000309</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP09</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters se enfrentan a su mayor desafío hasta ahora. La Gran Mancha de Basura del Pacífico.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando una tormenta arrastra muchos desechos plásticos a la playa de la Academia Go Jet, los Go Jetters dejan atrás a Ubercorn, Gran Maestro Glitch y los cadetes y se dirigen al Océano Pacífico para intentar resolver el problema de la Gran Mancha de Basura del Pacífico.</t>
-  </si>
-  <si>
-    <t>EEGOJE309.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE309_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE310_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000310</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP10</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters aprenden el arte del despertar de conciencia para salvar al Buda gigante de Leshan, China.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Inspirado por la estatua del Buda gigante de Leshan, Ubercorn le enseña a los Go Jetters sobre la consciencia plena para ayudarles a concentrarse, mantener la calma y ser amables con los otros. Ellos van a visitar la enorme estatutua de hace miles de años.</t>
-  </si>
-  <si>
-    <t>EEGOJE310.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE310_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE311_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000311</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP11</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es un remolino de emoción cuando los Go Jetters viajan a los Países Bajos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es un remolino de emoción para los Go Jetters cuando viajan a Kinderdijk en los Países Bajos, para celebrar el día nacional del molino. Gran parte de los Países Bajos está debajo del nivel del mar y hay un gran riesgo de indundación.</t>
-  </si>
-  <si>
-    <t>EEGOJE311.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE311_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE312_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000312</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP12</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP12</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¿Podrán los Go Jetters impedir que Glitch dañe la Gran Mesquita de Djenne con su enorme sombrilla?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Gran Maestro Glitch fue invitado a Djenne en Mali, África para visitar a las personas y ver una de sus cosas favoritas en uso: el lodo. Queda especialmente sorprendido por la espectacular Gran Mezquita de Djenne.</t>
-  </si>
-  <si>
-    <t>EEGOJE312.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE312_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE313_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000313</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP13</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters tienen que devolver la Cancha Central a Wimbledon, Londres antes de que el juego termine.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters están en la Cancha Central de Wimbledon, en Londres, para ver el torneo de tennis más famoso del mundo. Pero cuando se preparan para ver la final de dobles, Gran Maestro Glitch y sus Grimbots invaden la cancha.</t>
-  </si>
-  <si>
-    <t>EEGOJE313.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE313_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE314_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000314</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP14</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP14</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¿Podrá Glitch ser rescatado de la Cueva de los Cristales en México antes de que se vuelva demasiado calurosa?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando están en México, Glitch toma un atajo en la Cueva de los Cristales, un lugar oculto que contiene algunos de los cristales más grandes en el mundo. En su camino por la cueva el torpe Gran Maestro cae de uno de los cristales hacia un prufundo barranco.</t>
-  </si>
-  <si>
-    <t>EEGOJE314.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE314_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE315_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000315</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP15</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Glitch se sumerge en la oscuridad del mar en una aventura nocturna cerca de las Islas Sorlingas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es una noche oscura y Glitch vuela en su Cuartel Sucio sobre el mar por las Islas Sorlingas. Les lee una historia para dormir a los Grimbots cuando su lámpara se rompe. Necesita una luz nueva y ve el Faro de la Roca del Obispo</t>
-  </si>
-  <si>
-    <t>EEGOJE315.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE315_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE316_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000316</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP16</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters son encogidos por Glitch cuando él realiza una alarmante agricultura en la Academia.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es tiempo de agricultura en la Academia Go Jet y los Go Jetters están sembrando maíz en un gran campo. Los cultivos necesitan ser regados así que el equipo está creando un sistema de irrigación que regará todos los cultivos del campo.</t>
-  </si>
-  <si>
-    <t>EEGOJE316.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE316_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE317_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000317</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP17</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hay una aventura aérea sobre Gibraltar mientras el equipo sigue a un grupo de aves migratorias.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters están en el Estrecho de Gibraltar en el sur de España trabajando con un equipo de conservacionistas que rastrean a un grupo de cigüeñas bebé mientras migran de Europa hacia África donde hace más calor.</t>
-  </si>
-  <si>
-    <t>EEGOJE317.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE317_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE318_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000318</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP18</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Glitch ocasiona una catástrofe en el teleférico de la Montaña Whistler en Canadá.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters están en la Montaña Whistler en Canadá, practicando esquí y conociendo el asombroso teleférico. Kyan y Foz van a probar con el Reto Celeste Go Jet, cuando aparece Gran Maestro Glitch.</t>
-  </si>
-  <si>
-    <t>EEGOJE318.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE318_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE319_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000319</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP19</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Después de ver un eclipse solar, el equipo se dirige al espacio para enmendar el peor de los glitcheos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters están por ver uno de los eventos más espectacures de la naturaleza: un eclipse solar. Lo observan con asombro a través de sus proyectores perforados mientras la luna se mueve entre la Tierra y el sol y su sombra los envuelve en la oscuridad.</t>
-  </si>
-  <si>
-    <t>EEGOJE319.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE319_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE320_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000320</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP20</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Hay un poco de turbulencia para el equipo en las copas de los árboles del bosque lluvioso de Papua, en Indonesia.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters han sido invitados por la tribu Korowai para visitar su aldea en el bosque lluvioso de Papua, en Indonesia. Son una tribu muy antigua que construye sus casas sobre la tierra, a salvo de inundaciones e insectos.</t>
-  </si>
-  <si>
-    <t>EEGOJE320.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE320_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE321_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000321</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP21</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP21</t>
-  </si>
-  <si>
-    <t>Edye presenta: Emergen problemas para los Go Jetters cuando Glitch altera un volcán submarino.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Gran Maestro Glitch está excavando la tierra por debajo del océano cerca de la Isla de la Academia, en busca de lodo burbujeante que se calienta por un volcán submarino.</t>
-  </si>
-  <si>
-    <t>EEGOJE321.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE321_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE322_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000322</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP22</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP22</t>
-  </si>
-  <si>
-    <t>Edye presenta: El glotón Gran Maestro Glitch ocasiona un caos chocolatoso en las Filipinas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El glotón Gran Maestro Glitch ha estado comiendo mucho chocolate y quiere más. Los Grimbots descubren un lugar llamado Colinas de Chocolate en la Isla Bohol en las Filipinas y lo llevan ahí.</t>
-  </si>
-  <si>
-    <t>EEGOJE322.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE322_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE323_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000323</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP23</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP23</t>
-  </si>
-  <si>
-    <t>Edye presenta: El equipo Go Jetter se enfrenta al equipo Glitch para ver quién ganará en un concurso de juegos geográficos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Conoce a los Go Jetters como nunca antes los habías visto, mientras forman parte de un deslumbrante concurso de juegos mundiales. Foz y Xuli conforman en el equipo Go Jetter y Gran Maestro Glitch y Kyan son el equipo Glitch.</t>
-  </si>
-  <si>
-    <t>EEGOJE323.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE323_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE324_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000324</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP24</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP24</t>
-  </si>
-  <si>
-    <t>Edye presenta: ¿Podrá el equipo salvar a Glorinda la princesa de nieve y a la Cascada de Fuego en el Parque Nacional de Yosemite?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters viajan a la Cascada Cola de Caballo en el Parque Nacional de Yosemite. Es una cascada de 300 metros de altura hecha de nieve derretida. Una vez al año la posición del sol ilumina el agua haciéndola relucir como fuego por tan sólo unos especiales minutos.</t>
-  </si>
-  <si>
-    <t>EEGOJE324.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE324_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE325_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000325</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP25</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP25</t>
-  </si>
-  <si>
-    <t>Edye presenta: En Illulissat, Groenlandia, los Go Jetters intentan salvar la ciudad de un iceberg deslizante.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Gran Maestro Glitch lleva a su osito Cuddles a Ilulissat, en Groenlandia, para mostrarle los paisajes, pero Cuddles cae del Cuartel Sucio y queda atrapado en la nieve.</t>
-  </si>
-  <si>
-    <t>EEGOJE325.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE325_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE326_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO6000000000000326</t>
-  </si>
-  <si>
-    <t>Go JettersT03EP26</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP26</t>
-  </si>
-  <si>
-    <t>Edye presenta: En la nevada Noruega, el pastoreo de renos Sami necesita ayuda luego de que el Grimbler de Glitch provoca un desastre.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Los Go Jetters van a la nevada Noruega para aprender sobre los renos que son cuidados por las personas de la comunidad Sami. En la primavera los renos hacen un largo viaje llamado migración y en una parte de ese viaje tienen que subir a un ferry.</t>
-  </si>
-  <si>
-    <t>EEGOJE326.mpg</t>
-  </si>
-  <si>
-    <t>EEGOJE326_land.jpg</t>
-  </si>
-  <si>
-    <t>EEGOJE301_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000301</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP01 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE301.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE302_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000302</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP02 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE302.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE303_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000303</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP03 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE303.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE304_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000304</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP04 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE304.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE305_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000305</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP05 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE305.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE306_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000306</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP06 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE306.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE307_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000307</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP07 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE307.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE308_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000308</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP08 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE308.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE309_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000309</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP09 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE309.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE310_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000310</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP10 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE310.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE311_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000311</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE311.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE312_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000312</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE312.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE313_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000313</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE313.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE314_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000314</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE314.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE315_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000315</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE315.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE316_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000316</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE316.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE317_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000317</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE317.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE318_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000318</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE318.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE319_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000319</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE319.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE320_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000320</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE320.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE321_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000321</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP21 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE321.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE322_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000322</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP22 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE322.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE323_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000323</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP23 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE323.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE324_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000324</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP24 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE324.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE325_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000325</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP25 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE325.ts</t>
-  </si>
-  <si>
-    <t>EEGOJE326_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEGO7000000000000326</t>
-  </si>
-  <si>
-    <t>Go Jetters T03 EP26 HD</t>
-  </si>
-  <si>
-    <t>EEGOJE326.ts</t>
+    <t>EEHYDG131_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000131</t>
+  </si>
+  <si>
+    <t>Serie Hola Duggee</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP31</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP31</t>
+  </si>
+  <si>
+    <t>EP 31</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está pintando el club, y las ardillas le preguntan si pueden ayudarle.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee decide pintar el club, y Tino el ratón artista tiene algunas ideas creativas con patrones de hojas, huellas de dedos, y sellos de patatas</t>
+  </si>
+  <si>
+    <t>Infantil/Hola Duggee</t>
+  </si>
+  <si>
+    <t>Hola Duggee</t>
+  </si>
+  <si>
+    <t>Alexander Armstrong</t>
+  </si>
+  <si>
+    <t>Studio AKA Ltd</t>
+  </si>
+  <si>
+    <t>Armstrong Alexander</t>
+  </si>
+  <si>
+    <t>Orchard, Grant</t>
+  </si>
+  <si>
+    <t>EEHYDG131.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG1_box.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG131_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG132_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000132</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP32</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP32</t>
+  </si>
+  <si>
+    <t>EP 32</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es momento de la limpieza de primavera. Duggee está limpiando cuando llega un gran paquete para él.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es momento de la limpieza de primavera. Duggee está limpiando cuando suena el timbre, y llega un gran paquete para él. Es una aspiradora asombrosa, pera vaya, ¡es muy poderosa!</t>
+  </si>
+  <si>
+    <t>EEHYDG132.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG132_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG133_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000133</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP33</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP33</t>
+  </si>
+  <si>
+    <t>EP 33</t>
+  </si>
+  <si>
+    <t>Edye presenta: El circo ha llegado al pueblo, y las ardillas están emocionadas, pero es un circo de pulgas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El circo ha llegado al pueblo, y las ardillas están emocionadas, hasta que ven que es un circo de pulgas. ¡es diminuto! No creen que sea muy impresionante hasta que llegan a ver algunos de los actos.</t>
+  </si>
+  <si>
+    <t>EEHYDG133.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG133_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG134_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000134</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP34</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP34</t>
+  </si>
+  <si>
+    <t>EP 34</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una de las gallinas está poniendo huevos, ¡y a uno de los huevos le salieron patas!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una de las gallinas está poniendo huevos, ¡pero cuando el tercer polluelo se queda atorado sale corriendo! ¿podrán atraparlo y llevarlo a donde esté a salvo?</t>
+  </si>
+  <si>
+    <t>EEHYDG134.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG134_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG135_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000135</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP35</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP35</t>
+  </si>
+  <si>
+    <t>EP 35</t>
+  </si>
+  <si>
+    <t>Edye presenta: El sobrino de Duggee, Dudley viene a quedarse, y crea un caos de cahorros en el club.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El sobrino de Duggee, Dudley viene a quedarse. Es un lindo cachorro, pero ¿qué es ese terrible olor?</t>
+  </si>
+  <si>
+    <t>EEHYDG135.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG135_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG136_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000136</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP36</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP36</t>
+  </si>
+  <si>
+    <t>EP 36</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas están interesadas en una caja de cartón que le ha llegado a Duggee.</t>
+  </si>
+  <si>
+    <t>EEHYDG136.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG136_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG137_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000137</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP37</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP37</t>
+  </si>
+  <si>
+    <t>EP 37</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas le están ayudando a Duggee en el jardín y se hacen amigos de una oruga.</t>
+  </si>
+  <si>
+    <t>EEHYDG137.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG137_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG138_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000138</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP38</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP38</t>
+  </si>
+  <si>
+    <t>EP 38</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un hermoso día ya las ardillas aprenden a hacer castillos de arena en la playa.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas aprenden a hacer castillos de arena en la playa, y su trabajo es tan impresionan que dos cangrejos les piden que les construyan un nuevo hogar.</t>
+  </si>
+  <si>
+    <t>EEHYDG138.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG138_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG139_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000139</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP39</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP39</t>
+  </si>
+  <si>
+    <t>EP 39</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee decide que es momento de enseñar a las ardillas a jugar futbol.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee decide jugar fútbol, pero cuando patea el balón a las ardillas, se ven algo confundidas. ¡no saben qué hacer!</t>
+  </si>
+  <si>
+    <t>EEHYDG139.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG139_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG140_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000140</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP40</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP40</t>
+  </si>
+  <si>
+    <t>EP 40</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas dan un show de marionetas para todos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas tuvieron una gran aventura y quieren contársela a todos. Qué mejor forma de contar una historia que con un show de marionetas, así todos podrán sentarse y disfrutar de su aventura.</t>
+  </si>
+  <si>
+    <t>EEHYDG140.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG140_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG141_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000141</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP41</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP41</t>
+  </si>
+  <si>
+    <t>EP 41</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee utiliza sus binoculares para observar aves.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee utiliza sus binoculares para observar aves, y obviamente las ardillas también quieren intentarlo. El problema es que si quieres observar aves debes ser muy, muy silencioso.</t>
+  </si>
+  <si>
+    <t>EEHYDG141.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG141_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG142_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000142</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP42</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP42</t>
+  </si>
+  <si>
+    <t>EP 42</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee presenta a las ardillas a su amigo Eugenio, el líder del gran desfile.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee presenta a las ardillas a su amigo Eugenio, el líder del gran desfile. El pobre eugenio perdió su sombrero. No te preocupes, Eugenio, las ardillas te ayudarán un nuevo sombrero es su caja de disfraces. Y tal vez también se unan al desfile.</t>
+  </si>
+  <si>
+    <t>EEHYDG142.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG142_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG143_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000143</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP43</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP43</t>
+  </si>
+  <si>
+    <t>EP 43</t>
+  </si>
+  <si>
+    <t>Edye presenta: El mono travieso causa caos al arrojar sus cáscaras de banana.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un hermoso día y todos están afuera divirtiéndose bajo el sol. Todo está en paz hasta que el mono travieso comienza a arrojar cáscaras de banana desde su rama. ¡Eso no se hace! ¡Tengan cuidado todos!</t>
+  </si>
+  <si>
+    <t>EEHYDG143.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG143_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG144_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000144</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP44</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP44</t>
+  </si>
+  <si>
+    <t>EP 44</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tag se cae y golpea la rodilla. Duggee tiene su insignia de los primeros auxilios y así puede ayudar a Tag.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan a imitarse cuando Tag cae y se golpea la rodilla. Duggee tiene su insignia de los primeros auxilios y así puede vendar a Tag. Las ardillas también quieren ayudar y practican vendando a Feliz.</t>
+  </si>
+  <si>
+    <t>EEHYDG144.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG144_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG145_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000145</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP45</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP45</t>
+  </si>
+  <si>
+    <t>EP 45</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee tiene un frasco de burbujas y hace unas fantásticas burbujas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee tiene un frasco de burbujas y hace unas fantásticas burbujas. Es difícil de hacer, pero las ardillas aprenden rápido. Pero el pobre de Feliz no puede aprender.</t>
+  </si>
+  <si>
+    <t>EEHYDG145.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG145_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG146_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000146</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP46</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP46</t>
+  </si>
+  <si>
+    <t>EP 46</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas salen del club y se van a una aventura subacuática.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas salen del club y se van a una aventura subacuática con el papá de Betty y su submarino. Ven todas las maravillas del mar, incluyendo un gigantesco caballo de mar.</t>
+  </si>
+  <si>
+    <t>EEHYDG146.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG146_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG147_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000147</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP47</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP47</t>
+  </si>
+  <si>
+    <t>EP 47</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee se pone su insignia de detective para resolver el misterio de la tarta perdida.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee ha hecho una deliciosa tarta de manzana. La pone en la ventana para dejar que se enfríe, pero en cuanto le da la espalda desaparece. ¿Quién la tomó? Duggee se pone su insignia de detective y sigue una pista y algunas pequeñas pisadas.</t>
+  </si>
+  <si>
+    <t>EEHYDG147.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG147_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG148_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000148</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP48</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP48</t>
+  </si>
+  <si>
+    <t>EP 48</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee hace un vistoso poncho y se encuentra con un oso polar resfriado que necesita un pañuelo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está tejiendo y hace un vistoso poncho. Las ardillas también quieren hacer uno. Todos comienzan a tejer y hay mucho silencio en el club… hasta que escuchan un estornudo muy fuerte. Duggee y las ardillas salen a investigar.</t>
+  </si>
+  <si>
+    <t>EEHYDG148.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG148_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG149_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000149</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP49</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP49</t>
+  </si>
+  <si>
+    <t>EP 49</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas le compran un regalo de cumpleaños a Hennie.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas le compran un regalo de cumpleaños a Hennie, pero primero deben envolverlo. Es muy grande y necesitarán de mucho papel y cinta adhesiva. Cada ardilla elige su propio papel colorido y comienzan a envolverlo.</t>
+  </si>
+  <si>
+    <t>EEHYDG149.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG149_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG150_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000150</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP50</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP50</t>
+  </si>
+  <si>
+    <t>EP 50</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee se pregunta “¿de quién es ese enorme oso de peluche?”.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee se pregunta “¿de quién es ese enorme oso de peluche?”. No es un oso, es Beryl ¡y es una osa de verdad! Las ardillas le hacen algunos regalos para que pueda unirse al picnic con todos los demás.</t>
+  </si>
+  <si>
+    <t>EEHYDG150.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG150_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG151_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000151</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT01EP51</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP51</t>
+  </si>
+  <si>
+    <t>EP 51</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee cuenta un cuento a las exhaustas ardillas pero luego comienzan a interrumpir.</t>
+  </si>
+  <si>
+    <t>EEHYDG151.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG151_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG131_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000131</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP31 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG131.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG132_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000132</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP32 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG132.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG133_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000133</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP33 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG133.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG134_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000134</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP34 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG134.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG135_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000135</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP35 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG135.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG136_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000136</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP36 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG136.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG137_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000137</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP37 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG137.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG138_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000138</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP38 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG138.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG139_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000139</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP39 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG139.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG140_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000140</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP40 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG140.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG141_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000141</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP41 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG141.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG142_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000142</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP42 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG142.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG143_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000143</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP43 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG143.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG144_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000144</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP44 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG144.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG145_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000145</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP45 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG145.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG146_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000146</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP46 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG146.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG147_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000147</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP47 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG147.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG148_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000148</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP48 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG148.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG149_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000149</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP49 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG149.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG150_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000150</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP50 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG150.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG151_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000151</t>
+  </si>
+  <si>
+    <t>Hola Duggee T01 EP51 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG151.ts</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1766,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1994,13 +1790,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -2010,31 +1806,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333333701E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333333701E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -2055,28 +1851,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -2098,7 +1894,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -2107,7 +1903,7 @@
         <v>57</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -2117,7 +1913,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -2133,12 +1929,12 @@
         <v>61</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7">
         <v>44623</v>
@@ -2162,13 +1958,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -2178,31 +1974,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333333796E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333333796E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -2223,28 +2019,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -2266,7 +2062,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>312431184</v>
+        <v>199017364</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -2275,7 +2071,7 @@
         <v>57</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -2285,7 +2081,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -2301,12 +2097,12 @@
         <v>61</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7">
         <v>44623</v>
@@ -2330,13 +2126,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -2346,31 +2142,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333339E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333339E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -2391,28 +2187,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -2434,7 +2230,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -2443,7 +2239,7 @@
         <v>57</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -2453,7 +2249,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -2469,12 +2265,12 @@
         <v>61</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7">
         <v>44623</v>
@@ -2498,13 +2294,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -2514,31 +2310,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334004E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334004E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -2559,28 +2355,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -2602,7 +2398,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>312416520</v>
+        <v>199017364</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -2611,7 +2407,7 @@
         <v>57</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -2621,7 +2417,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -2637,12 +2433,12 @@
         <v>61</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B6" s="7">
         <v>44623</v>
@@ -2666,13 +2462,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -2682,31 +2478,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333341E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333341E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -2727,28 +2523,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -2770,7 +2566,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>312416520</v>
+        <v>199003076</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -2779,7 +2575,7 @@
         <v>57</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -2789,7 +2585,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -2805,12 +2601,12 @@
         <v>61</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B7" s="7">
         <v>44623</v>
@@ -2834,13 +2630,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -2850,31 +2646,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334204E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334204E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -2895,28 +2691,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -2938,7 +2734,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>312430996</v>
+        <v>199003076</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -2947,7 +2743,7 @@
         <v>57</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -2957,7 +2753,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -2973,12 +2769,12 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B8" s="7">
         <v>44623</v>
@@ -3002,13 +2798,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -3018,31 +2814,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334299E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334299E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -3063,28 +2859,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -3106,7 +2902,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>312430996</v>
+        <v>199003076</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -3115,7 +2911,7 @@
         <v>57</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -3125,7 +2921,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -3141,12 +2937,12 @@
         <v>61</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B9" s="7">
         <v>44623</v>
@@ -3170,13 +2966,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -3186,31 +2982,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334403E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334403E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -3231,28 +3027,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -3274,7 +3070,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -3283,7 +3079,7 @@
         <v>57</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -3293,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -3309,12 +3105,12 @@
         <v>61</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B10" s="7">
         <v>44623</v>
@@ -3338,13 +3134,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -3354,31 +3150,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334499E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334499E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -3399,28 +3195,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -3442,7 +3238,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -3451,7 +3247,7 @@
         <v>57</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -3461,7 +3257,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -3477,12 +3273,12 @@
         <v>61</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B11" s="7">
         <v>44623</v>
@@ -3506,13 +3302,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -3522,31 +3318,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334603E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334603E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -3567,28 +3363,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -3610,7 +3406,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="15">
-        <v>312430996</v>
+        <v>199003076</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -3619,7 +3415,7 @@
         <v>57</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -3629,7 +3425,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -3645,12 +3441,12 @@
         <v>61</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B12" s="7">
         <v>44623</v>
@@ -3674,13 +3470,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -3690,31 +3486,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334698E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334698E-3</v>
       </c>
       <c r="V12" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -3735,28 +3531,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -3778,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>312416520</v>
+        <v>199003076</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>56</v>
@@ -3787,7 +3583,7 @@
         <v>57</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -3797,7 +3593,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -3813,12 +3609,12 @@
         <v>61</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B13" s="7">
         <v>44623</v>
@@ -3842,13 +3638,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -3858,31 +3654,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334802E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334802E-3</v>
       </c>
       <c r="V13" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -3903,28 +3699,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -3946,7 +3742,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>56</v>
@@ -3955,7 +3751,7 @@
         <v>57</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -3965,7 +3761,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -3981,12 +3777,12 @@
         <v>61</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B14" s="7">
         <v>44623</v>
@@ -4010,13 +3806,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -4026,31 +3822,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="V14" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -4071,28 +3867,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -4114,7 +3910,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>312430996</v>
+        <v>199482288</v>
       </c>
       <c r="AT14" s="9" t="s">
         <v>56</v>
@@ -4123,7 +3919,7 @@
         <v>57</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -4133,7 +3929,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -4149,12 +3945,12 @@
         <v>61</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B15" s="7">
         <v>44623</v>
@@ -4178,13 +3974,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -4194,31 +3990,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335002E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335002E-3</v>
       </c>
       <c r="V15" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -4239,28 +4035,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -4282,7 +4078,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>56</v>
@@ -4291,7 +4087,7 @@
         <v>57</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -4301,7 +4097,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -4317,12 +4113,12 @@
         <v>61</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B16" s="7">
         <v>44623</v>
@@ -4346,13 +4142,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -4362,31 +4158,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335002E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335002E-3</v>
       </c>
       <c r="V16" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -4407,28 +4203,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -4450,7 +4246,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>312430996</v>
+        <v>198957204</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>56</v>
@@ -4459,7 +4255,7 @@
         <v>57</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -4469,7 +4265,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -4485,12 +4281,12 @@
         <v>61</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B17" s="7">
         <v>44623</v>
@@ -4514,13 +4310,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
@@ -4530,31 +4326,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335201E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335201E-3</v>
       </c>
       <c r="V17" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -4575,28 +4371,28 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -4618,7 +4414,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>56</v>
@@ -4627,7 +4423,7 @@
         <v>57</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -4637,7 +4433,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -4653,12 +4449,12 @@
         <v>61</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B18" s="7">
         <v>44623</v>
@@ -4682,13 +4478,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
@@ -4698,31 +4494,31 @@
         <v>47</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T18" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335297E-3</v>
       </c>
       <c r="U18" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335297E-3</v>
       </c>
       <c r="V18" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X18" s="9" t="s">
         <v>49</v>
@@ -4743,28 +4539,28 @@
         <v>31028</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI18" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK18" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL18" s="8"/>
       <c r="AM18" s="9" t="s">
@@ -4786,7 +4582,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="9">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT18" s="9" t="s">
         <v>56</v>
@@ -4795,7 +4591,7 @@
         <v>57</v>
       </c>
       <c r="AV18" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AW18" s="8"/>
       <c r="AX18" s="9" t="s">
@@ -4805,7 +4601,7 @@
         <v>58</v>
       </c>
       <c r="AZ18" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA18" s="8"/>
       <c r="BB18" s="9" t="s">
@@ -4821,12 +4617,12 @@
         <v>61</v>
       </c>
       <c r="BF18" s="9" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B19" s="7">
         <v>44623</v>
@@ -4850,13 +4646,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="9" t="s">
@@ -4866,31 +4662,31 @@
         <v>47</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T19" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335496E-3</v>
       </c>
       <c r="U19" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335496E-3</v>
       </c>
       <c r="V19" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X19" s="9" t="s">
         <v>49</v>
@@ -4911,28 +4707,28 @@
         <v>31028</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI19" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ19" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL19" s="8"/>
       <c r="AM19" s="9" t="s">
@@ -4954,7 +4750,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="9">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT19" s="9" t="s">
         <v>56</v>
@@ -4963,7 +4759,7 @@
         <v>57</v>
       </c>
       <c r="AV19" s="9" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AW19" s="8"/>
       <c r="AX19" s="9" t="s">
@@ -4973,7 +4769,7 @@
         <v>58</v>
       </c>
       <c r="AZ19" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA19" s="8"/>
       <c r="BB19" s="9" t="s">
@@ -4989,12 +4785,12 @@
         <v>61</v>
       </c>
       <c r="BF19" s="9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B20" s="7">
         <v>44623</v>
@@ -5018,13 +4814,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="9" t="s">
@@ -5034,31 +4830,31 @@
         <v>47</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="10">
-        <v>7.8703703703703713E-3</v>
+        <v>4.89583333333356E-3</v>
       </c>
       <c r="U20" s="11">
-        <v>7.8703703703703713E-3</v>
+        <v>4.89583333333356E-3</v>
       </c>
       <c r="V20" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X20" s="9" t="s">
         <v>49</v>
@@ -5079,28 +4875,28 @@
         <v>31028</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK20" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL20" s="8"/>
       <c r="AM20" s="9" t="s">
@@ -5122,7 +4918,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="9">
-        <v>319468024</v>
+        <v>199017364</v>
       </c>
       <c r="AT20" s="9" t="s">
         <v>56</v>
@@ -5131,7 +4927,7 @@
         <v>57</v>
       </c>
       <c r="AV20" s="9" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AW20" s="8"/>
       <c r="AX20" s="9" t="s">
@@ -5141,7 +4937,7 @@
         <v>58</v>
       </c>
       <c r="AZ20" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA20" s="8"/>
       <c r="BB20" s="9" t="s">
@@ -5157,12 +4953,12 @@
         <v>61</v>
       </c>
       <c r="BF20" s="9" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B21" s="7">
         <v>44623</v>
@@ -5186,13 +4982,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
@@ -5202,31 +4998,31 @@
         <v>47</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T21" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335704E-3</v>
       </c>
       <c r="U21" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335704E-3</v>
       </c>
       <c r="V21" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X21" s="9" t="s">
         <v>49</v>
@@ -5247,28 +5043,28 @@
         <v>31028</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ21" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK21" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL21" s="8"/>
       <c r="AM21" s="9" t="s">
@@ -5290,7 +5086,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="9">
-        <v>312430996</v>
+        <v>199017364</v>
       </c>
       <c r="AT21" s="9" t="s">
         <v>56</v>
@@ -5299,7 +5095,7 @@
         <v>57</v>
       </c>
       <c r="AV21" s="9" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AW21" s="8"/>
       <c r="AX21" s="9" t="s">
@@ -5309,7 +5105,7 @@
         <v>58</v>
       </c>
       <c r="AZ21" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA21" s="8"/>
       <c r="BB21" s="9" t="s">
@@ -5325,12 +5121,12 @@
         <v>61</v>
       </c>
       <c r="BF21" s="9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B22" s="7">
         <v>44623</v>
@@ -5354,13 +5150,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="9" t="s">
@@ -5370,31 +5166,31 @@
         <v>47</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T22" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333358E-3</v>
       </c>
       <c r="U22" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333358E-3</v>
       </c>
       <c r="V22" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X22" s="9" t="s">
         <v>49</v>
@@ -5415,28 +5211,28 @@
         <v>31028</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI22" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ22" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK22" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL22" s="8"/>
       <c r="AM22" s="9" t="s">
@@ -5458,7 +5254,7 @@
         <v>55</v>
       </c>
       <c r="AS22" s="9">
-        <v>312430996</v>
+        <v>198957204</v>
       </c>
       <c r="AT22" s="9" t="s">
         <v>56</v>
@@ -5467,7 +5263,7 @@
         <v>57</v>
       </c>
       <c r="AV22" s="9" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AW22" s="8"/>
       <c r="AX22" s="9" t="s">
@@ -5477,7 +5273,7 @@
         <v>58</v>
       </c>
       <c r="AZ22" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA22" s="8"/>
       <c r="BB22" s="9" t="s">
@@ -5493,848 +5289,308 @@
         <v>61</v>
       </c>
       <c r="BF22" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>270</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T23" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U23" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V23" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD23" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK23" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS23" s="9">
-        <v>312430996</v>
-      </c>
-      <c r="AT23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV23" s="9" t="s">
-        <v>274</v>
-      </c>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
       <c r="AW23" s="8"/>
-      <c r="AX23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ23" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
       <c r="BA23" s="8"/>
-      <c r="BB23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF23" s="9" t="s">
-        <v>275</v>
-      </c>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B24" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T24" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U24" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V24" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC24" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD24" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK24" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
       <c r="AL24" s="8"/>
-      <c r="AM24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS24" s="9">
-        <v>312430996</v>
-      </c>
-      <c r="AT24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV24" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
       <c r="AW24" s="8"/>
-      <c r="AX24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ24" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF24" s="9" t="s">
-        <v>283</v>
-      </c>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B25" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>286</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T25" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U25" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V25" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA25" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF25" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK25" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
       <c r="AL25" s="8"/>
-      <c r="AM25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS25" s="9">
-        <v>312430996</v>
-      </c>
-      <c r="AT25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV25" s="9" t="s">
-        <v>290</v>
-      </c>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
       <c r="AW25" s="8"/>
-      <c r="AX25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ25" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
       <c r="BA25" s="8"/>
-      <c r="BB25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF25" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T26" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U26" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V26" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z26" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA26" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC26" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD26" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK26" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
       <c r="AL26" s="8"/>
-      <c r="AM26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS26" s="9">
-        <v>312430996</v>
-      </c>
-      <c r="AT26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV26" s="9" t="s">
-        <v>298</v>
-      </c>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
       <c r="AW26" s="8"/>
-      <c r="AX26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ26" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF26" s="9" t="s">
-        <v>299</v>
-      </c>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>302</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T27" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U27" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V27" s="3">
-        <v>2018</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA27" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC27" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ27" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK27" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
       <c r="AL27" s="8"/>
-      <c r="AM27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS27" s="9">
-        <v>312430996</v>
-      </c>
-      <c r="AT27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV27" s="9" t="s">
-        <v>306</v>
-      </c>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
       <c r="AW27" s="8"/>
-      <c r="AX27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ27" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
       <c r="BA27" s="8"/>
-      <c r="BB27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF27" s="9" t="s">
-        <v>307</v>
-      </c>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -7047,7 +6303,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -7071,13 +6327,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -7087,31 +6343,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333333701E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333333701E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -7132,28 +6388,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -7175,16 +6431,16 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -7194,7 +6450,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -7210,12 +6466,12 @@
         <v>61</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -7239,13 +6495,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
@@ -7255,31 +6511,31 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333333796E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333333796E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -7300,28 +6556,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -7343,16 +6599,16 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -7362,7 +6618,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -7378,12 +6634,12 @@
         <v>61</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -7407,13 +6663,13 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
@@ -7423,31 +6679,31 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333339E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333339E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -7468,28 +6724,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -7511,16 +6767,16 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -7530,7 +6786,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -7546,12 +6802,12 @@
         <v>61</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -7575,13 +6831,13 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="9" t="s">
@@ -7591,31 +6847,31 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334004E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334004E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -7636,28 +6892,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -7679,16 +6935,16 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>624775512</v>
+        <v>397977200</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -7698,7 +6954,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -7714,12 +6970,12 @@
         <v>61</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -7743,13 +6999,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9" t="s">
@@ -7759,31 +7015,31 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333341E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333341E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -7804,28 +7060,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -7847,16 +7103,16 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>624775512</v>
+        <v>397942796</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -7866,7 +7122,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -7882,12 +7138,12 @@
         <v>61</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -7911,13 +7167,13 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9" t="s">
@@ -7927,31 +7183,31 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334204E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334204E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -7972,28 +7228,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -8015,16 +7271,16 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>624804088</v>
+        <v>397942796</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -8034,7 +7290,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -8050,12 +7306,12 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -8079,13 +7335,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -8095,31 +7351,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334299E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334299E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -8140,28 +7396,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -8183,16 +7439,16 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>624804088</v>
+        <v>397942796</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -8202,7 +7458,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -8218,12 +7474,12 @@
         <v>61</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -8247,13 +7503,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -8263,31 +7519,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334403E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334403E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -8308,28 +7564,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -8351,16 +7607,16 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -8370,7 +7626,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -8386,12 +7642,12 @@
         <v>61</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -8415,13 +7671,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -8431,31 +7687,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334499E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334499E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -8476,28 +7732,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -8519,16 +7775,16 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -8538,7 +7794,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -8554,12 +7810,12 @@
         <v>61</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -8583,13 +7839,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -8599,31 +7855,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334603E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334603E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -8644,28 +7900,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -8687,16 +7943,16 @@
         <v>55</v>
       </c>
       <c r="AS11" s="9">
-        <v>624804088</v>
+        <v>397942796</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -8706,7 +7962,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -8722,12 +7978,12 @@
         <v>61</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="B12" s="12">
         <v>44623</v>
@@ -8751,13 +8007,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -8767,31 +8023,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334698E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334698E-3</v>
       </c>
       <c r="V12" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -8812,28 +8068,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -8855,16 +8111,16 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>624775512</v>
+        <v>397942796</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU12" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -8874,7 +8130,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -8890,12 +8146,12 @@
         <v>61</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="B13" s="12">
         <v>44623</v>
@@ -8919,13 +8175,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -8935,31 +8191,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334802E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333334802E-3</v>
       </c>
       <c r="V13" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -8980,28 +8236,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -9023,16 +8279,16 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU13" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -9042,7 +8298,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -9058,12 +8314,12 @@
         <v>61</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="B14" s="12">
         <v>44623</v>
@@ -9087,13 +8343,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -9103,31 +8359,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="V14" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -9148,28 +8404,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -9191,16 +8447,16 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>624804088</v>
+        <v>398906672</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AU14" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -9210,7 +8466,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -9226,12 +8482,12 @@
         <v>61</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="B15" s="12">
         <v>44623</v>
@@ -9255,13 +8511,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -9271,31 +8527,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335002E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335002E-3</v>
       </c>
       <c r="V15" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -9316,28 +8572,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -9359,16 +8615,16 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU15" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -9378,7 +8634,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -9394,12 +8650,12 @@
         <v>61</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="B16" s="12">
         <v>44623</v>
@@ -9423,13 +8679,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -9439,31 +8695,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335002E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335002E-3</v>
       </c>
       <c r="V16" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -9484,28 +8740,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -9527,16 +8783,16 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>624804088</v>
+        <v>397856692</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU16" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -9546,7 +8802,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -9562,12 +8818,12 @@
         <v>61</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="B17" s="12">
         <v>44623</v>
@@ -9591,13 +8847,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
@@ -9607,31 +8863,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335201E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335201E-3</v>
       </c>
       <c r="V17" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -9652,28 +8908,28 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -9695,16 +8951,16 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU17" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -9714,7 +8970,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -9730,12 +8986,12 @@
         <v>61</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="B18" s="12">
         <v>44623</v>
@@ -9759,13 +9015,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
@@ -9775,31 +9031,31 @@
         <v>47</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T18" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335297E-3</v>
       </c>
       <c r="U18" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335297E-3</v>
       </c>
       <c r="V18" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X18" s="9" t="s">
         <v>49</v>
@@ -9820,28 +9076,28 @@
         <v>31028</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI18" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK18" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL18" s="8"/>
       <c r="AM18" s="9" t="s">
@@ -9863,16 +9119,16 @@
         <v>55</v>
       </c>
       <c r="AS18" s="9">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT18" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU18" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV18" s="9" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="AW18" s="8"/>
       <c r="AX18" s="9" t="s">
@@ -9882,7 +9138,7 @@
         <v>58</v>
       </c>
       <c r="AZ18" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA18" s="8"/>
       <c r="BB18" s="9" t="s">
@@ -9898,12 +9154,12 @@
         <v>61</v>
       </c>
       <c r="BF18" s="9" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="B19" s="12">
         <v>44623</v>
@@ -9927,13 +9183,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="9" t="s">
@@ -9943,31 +9199,31 @@
         <v>47</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T19" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335496E-3</v>
       </c>
       <c r="U19" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335496E-3</v>
       </c>
       <c r="V19" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X19" s="9" t="s">
         <v>49</v>
@@ -9988,28 +9244,28 @@
         <v>31028</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI19" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ19" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL19" s="8"/>
       <c r="AM19" s="9" t="s">
@@ -10031,16 +9287,16 @@
         <v>55</v>
       </c>
       <c r="AS19" s="9">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT19" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU19" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV19" s="9" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="AW19" s="8"/>
       <c r="AX19" s="9" t="s">
@@ -10050,7 +9306,7 @@
         <v>58</v>
       </c>
       <c r="AZ19" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA19" s="8"/>
       <c r="BB19" s="9" t="s">
@@ -10066,12 +9322,12 @@
         <v>61</v>
       </c>
       <c r="BF19" s="9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="B20" s="12">
         <v>44623</v>
@@ -10095,13 +9351,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="9" t="s">
@@ -10111,31 +9367,31 @@
         <v>47</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="10">
-        <v>7.8703703703703713E-3</v>
+        <v>4.89583333333356E-3</v>
       </c>
       <c r="U20" s="11">
-        <v>7.8703703703703713E-3</v>
+        <v>4.89583333333356E-3</v>
       </c>
       <c r="V20" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X20" s="9" t="s">
         <v>49</v>
@@ -10156,28 +9412,28 @@
         <v>31028</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK20" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL20" s="8"/>
       <c r="AM20" s="9" t="s">
@@ -10199,16 +9455,16 @@
         <v>55</v>
       </c>
       <c r="AS20" s="9">
-        <v>638872504</v>
+        <v>397977200</v>
       </c>
       <c r="AT20" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU20" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV20" s="9" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="AW20" s="8"/>
       <c r="AX20" s="9" t="s">
@@ -10218,7 +9474,7 @@
         <v>58</v>
       </c>
       <c r="AZ20" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA20" s="8"/>
       <c r="BB20" s="9" t="s">
@@ -10234,12 +9490,12 @@
         <v>61</v>
       </c>
       <c r="BF20" s="9" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="B21" s="12">
         <v>44623</v>
@@ -10263,13 +9519,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
@@ -10279,31 +9535,31 @@
         <v>47</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T21" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335704E-3</v>
       </c>
       <c r="U21" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.8958333333335704E-3</v>
       </c>
       <c r="V21" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X21" s="9" t="s">
         <v>49</v>
@@ -10324,28 +9580,28 @@
         <v>31028</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ21" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK21" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL21" s="8"/>
       <c r="AM21" s="9" t="s">
@@ -10367,16 +9623,16 @@
         <v>55</v>
       </c>
       <c r="AS21" s="9">
-        <v>624804088</v>
+        <v>397977200</v>
       </c>
       <c r="AT21" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU21" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV21" s="9" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="AW21" s="8"/>
       <c r="AX21" s="9" t="s">
@@ -10386,7 +9642,7 @@
         <v>58</v>
       </c>
       <c r="AZ21" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA21" s="8"/>
       <c r="BB21" s="9" t="s">
@@ -10402,12 +9658,12 @@
         <v>61</v>
       </c>
       <c r="BF21" s="9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="B22" s="12">
         <v>44623</v>
@@ -10431,13 +9687,13 @@
         <v>46</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="9" t="s">
@@ -10447,31 +9703,31 @@
         <v>47</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T22" s="10">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333358E-3</v>
       </c>
       <c r="U22" s="11">
-        <v>7.69675925925926E-3</v>
+        <v>4.89583333333358E-3</v>
       </c>
       <c r="V22" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="X22" s="9" t="s">
         <v>49</v>
@@ -10492,28 +9748,28 @@
         <v>31028</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AH22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI22" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AJ22" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK22" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL22" s="8"/>
       <c r="AM22" s="9" t="s">
@@ -10535,16 +9791,16 @@
         <v>55</v>
       </c>
       <c r="AS22" s="9">
-        <v>624804088</v>
+        <v>397856692</v>
       </c>
       <c r="AT22" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AU22" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AV22" s="9" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="AW22" s="8"/>
       <c r="AX22" s="9" t="s">
@@ -10554,7 +9810,7 @@
         <v>58</v>
       </c>
       <c r="AZ22" s="9" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BA22" s="8"/>
       <c r="BB22" s="9" t="s">
@@ -10570,848 +9826,308 @@
         <v>61</v>
       </c>
       <c r="BF22" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B23" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>270</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T23" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U23" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V23" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD23" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK23" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS23" s="9">
-        <v>624804088</v>
-      </c>
-      <c r="AT23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV23" s="9" t="s">
-        <v>395</v>
-      </c>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
       <c r="AW23" s="8"/>
-      <c r="AX23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ23" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
       <c r="BA23" s="8"/>
-      <c r="BB23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF23" s="9" t="s">
-        <v>275</v>
-      </c>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="B24" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T24" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U24" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V24" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC24" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD24" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK24" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
       <c r="AL24" s="8"/>
-      <c r="AM24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS24" s="9">
-        <v>624804088</v>
-      </c>
-      <c r="AT24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU24" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV24" s="9" t="s">
-        <v>399</v>
-      </c>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
       <c r="AW24" s="8"/>
-      <c r="AX24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ24" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF24" s="9" t="s">
-        <v>283</v>
-      </c>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B25" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>286</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T25" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U25" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V25" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA25" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF25" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK25" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
       <c r="AL25" s="8"/>
-      <c r="AM25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS25" s="9">
-        <v>624804088</v>
-      </c>
-      <c r="AT25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU25" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV25" s="9" t="s">
-        <v>403</v>
-      </c>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
       <c r="AW25" s="8"/>
-      <c r="AX25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ25" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
       <c r="BA25" s="8"/>
-      <c r="BB25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF25" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="B26" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T26" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U26" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V26" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z26" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA26" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC26" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD26" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK26" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
       <c r="AL26" s="8"/>
-      <c r="AM26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS26" s="9">
-        <v>624804088</v>
-      </c>
-      <c r="AT26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU26" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV26" s="9" t="s">
-        <v>407</v>
-      </c>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
       <c r="AW26" s="8"/>
-      <c r="AX26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ26" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF26" s="9" t="s">
-        <v>299</v>
-      </c>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B27" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>302</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T27" s="10">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="U27" s="11">
-        <v>7.69675925925926E-3</v>
-      </c>
-      <c r="V27" s="9">
-        <v>2018</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA27" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC27" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ27" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK27" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
       <c r="AL27" s="8"/>
-      <c r="AM27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS27" s="9">
-        <v>624804088</v>
-      </c>
-      <c r="AT27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU27" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV27" s="9" t="s">
-        <v>411</v>
-      </c>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
       <c r="AW27" s="8"/>
-      <c r="AX27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ27" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
       <c r="BA27" s="8"/>
-      <c r="BB27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF27" s="9" t="s">
-        <v>307</v>
-      </c>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D813328-7EBC-468B-969A-963C1E7D2F13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D1400-849F-4969-8BF2-F4E3942F9E0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="334">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -231,30 +231,9 @@
     <t>H264 HD</t>
   </si>
   <si>
-    <t>EEHYDG131_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000131</t>
-  </si>
-  <si>
     <t>Serie Hola Duggee</t>
   </si>
   <si>
-    <t>Hola DuggeeT01EP31</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP31</t>
-  </si>
-  <si>
-    <t>EP 31</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee está pintando el club, y las ardillas le preguntan si pueden ayudarle.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee decide pintar el club, y Tino el ratón artista tiene algunas ideas creativas con patrones de hojas, huellas de dedos, y sellos de patatas</t>
-  </si>
-  <si>
     <t>Infantil/Hola Duggee</t>
   </si>
   <si>
@@ -273,796 +252,787 @@
     <t>Orchard, Grant</t>
   </si>
   <si>
-    <t>EEHYDG131.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG1_box.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG131_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG132_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000132</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP32</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP32</t>
-  </si>
-  <si>
-    <t>EP 32</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es momento de la limpieza de primavera. Duggee está limpiando cuando llega un gran paquete para él.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es momento de la limpieza de primavera. Duggee está limpiando cuando suena el timbre, y llega un gran paquete para él. Es una aspiradora asombrosa, pera vaya, ¡es muy poderosa!</t>
-  </si>
-  <si>
-    <t>EEHYDG132.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG132_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG133_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000133</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP33</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP33</t>
-  </si>
-  <si>
-    <t>EP 33</t>
-  </si>
-  <si>
-    <t>Edye presenta: El circo ha llegado al pueblo, y las ardillas están emocionadas, pero es un circo de pulgas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El circo ha llegado al pueblo, y las ardillas están emocionadas, hasta que ven que es un circo de pulgas. ¡es diminuto! No creen que sea muy impresionante hasta que llegan a ver algunos de los actos.</t>
-  </si>
-  <si>
-    <t>EEHYDG133.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG133_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG134_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000134</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP34</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP34</t>
-  </si>
-  <si>
-    <t>EP 34</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una de las gallinas está poniendo huevos, ¡y a uno de los huevos le salieron patas!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una de las gallinas está poniendo huevos, ¡pero cuando el tercer polluelo se queda atorado sale corriendo! ¿podrán atraparlo y llevarlo a donde esté a salvo?</t>
-  </si>
-  <si>
-    <t>EEHYDG134.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG134_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG135_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000135</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP35</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP35</t>
-  </si>
-  <si>
-    <t>EP 35</t>
-  </si>
-  <si>
-    <t>Edye presenta: El sobrino de Duggee, Dudley viene a quedarse, y crea un caos de cahorros en el club.</t>
-  </si>
-  <si>
-    <t>Edye presenta: El sobrino de Duggee, Dudley viene a quedarse. Es un lindo cachorro, pero ¿qué es ese terrible olor?</t>
-  </si>
-  <si>
-    <t>EEHYDG135.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG135_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG136_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000136</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP36</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP36</t>
-  </si>
-  <si>
-    <t>EP 36</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas están interesadas en una caja de cartón que le ha llegado a Duggee.</t>
-  </si>
-  <si>
-    <t>EEHYDG136.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG136_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG137_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000137</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP37</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP37</t>
-  </si>
-  <si>
-    <t>EP 37</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas le están ayudando a Duggee en el jardín y se hacen amigos de una oruga.</t>
-  </si>
-  <si>
-    <t>EEHYDG137.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG137_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG138_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000138</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP38</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP38</t>
-  </si>
-  <si>
-    <t>EP 38</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es un hermoso día ya las ardillas aprenden a hacer castillos de arena en la playa.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas aprenden a hacer castillos de arena en la playa, y su trabajo es tan impresionan que dos cangrejos les piden que les construyan un nuevo hogar.</t>
-  </si>
-  <si>
-    <t>EEHYDG138.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG138_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG139_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000139</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP39</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP39</t>
-  </si>
-  <si>
-    <t>EP 39</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee decide que es momento de enseñar a las ardillas a jugar futbol.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee decide jugar fútbol, pero cuando patea el balón a las ardillas, se ven algo confundidas. ¡no saben qué hacer!</t>
-  </si>
-  <si>
-    <t>EEHYDG139.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG139_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG140_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000140</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP40</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP40</t>
-  </si>
-  <si>
-    <t>EP 40</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas dan un show de marionetas para todos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas tuvieron una gran aventura y quieren contársela a todos. Qué mejor forma de contar una historia que con un show de marionetas, así todos podrán sentarse y disfrutar de su aventura.</t>
-  </si>
-  <si>
-    <t>EEHYDG140.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG140_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG141_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000141</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP41</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP41</t>
-  </si>
-  <si>
-    <t>EP 41</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee utiliza sus binoculares para observar aves.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee utiliza sus binoculares para observar aves, y obviamente las ardillas también quieren intentarlo. El problema es que si quieres observar aves debes ser muy, muy silencioso.</t>
-  </si>
-  <si>
-    <t>EEHYDG141.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG141_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG142_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000142</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP42</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP42</t>
-  </si>
-  <si>
-    <t>EP 42</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee presenta a las ardillas a su amigo Eugenio, el líder del gran desfile.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee presenta a las ardillas a su amigo Eugenio, el líder del gran desfile. El pobre eugenio perdió su sombrero. No te preocupes, Eugenio, las ardillas te ayudarán un nuevo sombrero es su caja de disfraces. Y tal vez también se unan al desfile.</t>
-  </si>
-  <si>
-    <t>EEHYDG142.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG142_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG143_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000143</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP43</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP43</t>
-  </si>
-  <si>
-    <t>EP 43</t>
-  </si>
-  <si>
-    <t>Edye presenta: El mono travieso causa caos al arrojar sus cáscaras de banana.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es un hermoso día y todos están afuera divirtiéndose bajo el sol. Todo está en paz hasta que el mono travieso comienza a arrojar cáscaras de banana desde su rama. ¡Eso no se hace! ¡Tengan cuidado todos!</t>
-  </si>
-  <si>
-    <t>EEHYDG143.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG143_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG144_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000144</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP44</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP44</t>
-  </si>
-  <si>
-    <t>EP 44</t>
-  </si>
-  <si>
-    <t>Edye presenta: Tag se cae y golpea la rodilla. Duggee tiene su insignia de los primeros auxilios y así puede ayudar a Tag.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas juegan a imitarse cuando Tag cae y se golpea la rodilla. Duggee tiene su insignia de los primeros auxilios y así puede vendar a Tag. Las ardillas también quieren ayudar y practican vendando a Feliz.</t>
-  </si>
-  <si>
-    <t>EEHYDG144.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG144_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG145_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000145</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP45</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP45</t>
-  </si>
-  <si>
-    <t>EP 45</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee tiene un frasco de burbujas y hace unas fantásticas burbujas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee tiene un frasco de burbujas y hace unas fantásticas burbujas. Es difícil de hacer, pero las ardillas aprenden rápido. Pero el pobre de Feliz no puede aprender.</t>
-  </si>
-  <si>
-    <t>EEHYDG145.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG145_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG146_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000146</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP46</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP46</t>
-  </si>
-  <si>
-    <t>EP 46</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas salen del club y se van a una aventura subacuática.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas salen del club y se van a una aventura subacuática con el papá de Betty y su submarino. Ven todas las maravillas del mar, incluyendo un gigantesco caballo de mar.</t>
-  </si>
-  <si>
-    <t>EEHYDG146.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG146_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG147_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000147</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP47</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP47</t>
-  </si>
-  <si>
-    <t>EP 47</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee se pone su insignia de detective para resolver el misterio de la tarta perdida.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee ha hecho una deliciosa tarta de manzana. La pone en la ventana para dejar que se enfríe, pero en cuanto le da la espalda desaparece. ¿Quién la tomó? Duggee se pone su insignia de detective y sigue una pista y algunas pequeñas pisadas.</t>
-  </si>
-  <si>
-    <t>EEHYDG147.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG147_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG148_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000148</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP48</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP48</t>
-  </si>
-  <si>
-    <t>EP 48</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee hace un vistoso poncho y se encuentra con un oso polar resfriado que necesita un pañuelo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee está tejiendo y hace un vistoso poncho. Las ardillas también quieren hacer uno. Todos comienzan a tejer y hay mucho silencio en el club… hasta que escuchan un estornudo muy fuerte. Duggee y las ardillas salen a investigar.</t>
-  </si>
-  <si>
-    <t>EEHYDG148.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG148_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG149_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000149</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP49</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP49</t>
-  </si>
-  <si>
-    <t>EP 49</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas le compran un regalo de cumpleaños a Hennie.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas le compran un regalo de cumpleaños a Hennie, pero primero deben envolverlo. Es muy grande y necesitarán de mucho papel y cinta adhesiva. Cada ardilla elige su propio papel colorido y comienzan a envolverlo.</t>
-  </si>
-  <si>
-    <t>EEHYDG149.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG149_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG150_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000150</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP50</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP50</t>
-  </si>
-  <si>
-    <t>EP 50</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee se pregunta “¿de quién es ese enorme oso de peluche?”.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee se pregunta “¿de quién es ese enorme oso de peluche?”. No es un oso, es Beryl ¡y es una osa de verdad! Las ardillas le hacen algunos regalos para que pueda unirse al picnic con todos los demás.</t>
-  </si>
-  <si>
-    <t>EEHYDG150.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG150_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG151_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000151</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT01EP51</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP51</t>
-  </si>
-  <si>
-    <t>EP 51</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee cuenta un cuento a las exhaustas ardillas pero luego comienzan a interrumpir.</t>
-  </si>
-  <si>
-    <t>EEHYDG151.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG151_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG131_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000131</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP31 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG131.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG132_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000132</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP32 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG132.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG133_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000133</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP33 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG133.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG134_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000134</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP34 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG134.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG135_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000135</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP35 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG135.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG136_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000136</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP36 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG136.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG137_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000137</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP37 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG137.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG138_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000138</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP38 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG138.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG139_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000139</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP39 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG139.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG140_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000140</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP40 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG140.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG141_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000141</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP41 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG141.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG142_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000142</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP42 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG142.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG143_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000143</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP43 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG143.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG144_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000144</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP44 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG144.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG145_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000145</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP45 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG145.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG146_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000146</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP46 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG146.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG147_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000147</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP47 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG147.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG148_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000148</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP48 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG148.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG149_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000149</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP49 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG149.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG150_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000150</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP50 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG150.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG151_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000151</t>
-  </si>
-  <si>
-    <t>Hola Duggee T01 EP51 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG151.ts</t>
+    <t>EEHYDG201_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000201</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP01</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP01</t>
+  </si>
+  <si>
+    <t>EP 01</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando las ardillas ven a Duggee tocando el saxofón, también quieren intentarlo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando las ardillas ven a Duggee tocando el saxofón, también quieren intentarlo. Luego de probar con ollas, globos, latas, tubos y agua, comienzan a hacer música. ¡ya vaya que tocan fuerte!</t>
+  </si>
+  <si>
+    <t>EEHYDG201.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG2_box.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG201_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG202_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000202</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP02</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP02</t>
+  </si>
+  <si>
+    <t>EP 02</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas quieren aprender a silbar.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando huevo, el travieso polluelo vuelve a escapar, Duggee le silba para que vuelva. Un minuto, Duggee. ¿qué fue ese ruido? ¿un silbido? Las ardillas quieren aprender a silbar.</t>
+  </si>
+  <si>
+    <t>EEHYDG202.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG202_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG203_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000203</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP03</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP03</t>
+  </si>
+  <si>
+    <t>EP 03</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan el juego de las formas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un hermoso día y las ardillas juegan afuera. juegan el juego de las formas. Averiguar que forma sigue es algo difícil.</t>
+  </si>
+  <si>
+    <t>EEHYDG203.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG203_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG204_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000204</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP04</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP04</t>
+  </si>
+  <si>
+    <t>EP 04</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee les hará a las ardillas jugo de las frutas frescas del jardín.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee les hará a las ardillas jugo de las frutas frescas del jardín. Mientras recogen la fruta, las ardillas conocen a un pequeño insecto lleno de infortunio por ser tan pequeño.</t>
+  </si>
+  <si>
+    <t>EEHYDG204.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG204_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG205_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000205</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP05</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP05</t>
+  </si>
+  <si>
+    <t>EP 05</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan a las escondidas, pero no pueden encontrar a feliz.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan a las escondidas, pero no pueden encontrar a feliz. Las ardillas siguen muchas pisadas diferentes que los llevan con su amigo, pero hay unas huellas que no pueden identificar.</t>
+  </si>
+  <si>
+    <t>EEHYDG205.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG205_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG206_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000206</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP06</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP06</t>
+  </si>
+  <si>
+    <t>EP 06</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas excavan en el jardín cuando se encuentran con un fósil</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas excavan en el jardín cuando se encuentran con un fósil, así que Duggee y el narrador les explican todo sobre los fósiles y la época prehistórica.</t>
+  </si>
+  <si>
+    <t>EEHYDG206.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG206_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG207_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000207</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP07</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP07</t>
+  </si>
+  <si>
+    <t>EP 07</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está limpiando el club y las ardillas se refugian en la casa del árbol.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está limpiando el club y las ardillas se refugian en la casa del árbol, pero se está poniendo algo apretada. Norrie tiene una idea. Tal vez necesiten hacer una extensión.</t>
+  </si>
+  <si>
+    <t>EEHYDG207.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG207_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG208_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000208</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP08</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP08</t>
+  </si>
+  <si>
+    <t>EP 08</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un día con mucho viento y las ardillas quieren jugar afuera. ¿qué podrán hacer?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un día con mucho viento y las ardillas quieren jugar afuera. ¿qué podrán hacer? Duggee sabe, está volando su cometa. Las ardillas comienzan a hacer sus propias cometas para volarlas.</t>
+  </si>
+  <si>
+    <t>EEHYDG208.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG208_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG209_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000209</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP09</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP09</t>
+  </si>
+  <si>
+    <t>EP 09</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas ven las cosas más extrañas en un estanque. Puntos con colas que se mueven.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee ha hecho un hermoso estanque. Las ardillas ven las cosas más extrañas. Puntos con colas que se mueven. ¿Qué serán? ¡Son ranitas bebé!</t>
+  </si>
+  <si>
+    <t>EEHYDG209.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG209_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG210_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000210</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP10</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP10</t>
+  </si>
+  <si>
+    <t>EP 10</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee ha hecho unos deliciosos hot cakes, pero el club no tiene miel.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee ha hecho unos deliciosos hot cakes, pero el club no tiene miel. ¡Es hora de que las abejas se pongan a trabajar!</t>
+  </si>
+  <si>
+    <t>EEHYDG210.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG210_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG211_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000211</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP11</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP11</t>
+  </si>
+  <si>
+    <t>EP 11</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando Roly sorprende a Duggee, Duggee salta y suelta su taza, la cual queda hecha pedazos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está tomando una deliciosa taza de té Cuando Roly lo sorprende con un fuerte grito. Es tan fuerte que Duggee salta y suelta su taza, la cual queda hecha pedazos.</t>
+  </si>
+  <si>
+    <t>EEHYDG211.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG211_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG212_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000212</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP12</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP12</t>
+  </si>
+  <si>
+    <t>EP 12</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una enorme caja es entregada al club y las ardillas están muy emocionadas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una caja llena de piezas es entregada al club y las ardillas están muy emocionadas. Duggee y las ardillas tendrán que trabajar duro para juntarlas. Es hora de trabajar en equipo.</t>
+  </si>
+  <si>
+    <t>EEHYDG212.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG212_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG213_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000213</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP13</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP13</t>
+  </si>
+  <si>
+    <t>EP 13</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un insecto bailarín aterriza en la cabeza de Duggee, y no puede dejar de bailar.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Un insecto bailarín aterriza en la cabeza de Duggee, y no puede dejar de bailar. Las ardillas ven que es un insecto campirano con un violín, y además lleva consigo a la banda de insectos campiranos.</t>
+  </si>
+  <si>
+    <t>EEHYDG213.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG213_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG214_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000214</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP14</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP14</t>
+  </si>
+  <si>
+    <t>EP 14</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee juega con un tren de juguete y las ardillas sienten curiosidad.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee juega con un tren de juguete. ¡Chu-chu! ¡Es asombroso! Las ardillas sienten curiosidad y quieren saber todo de él. Duggee les explica que es un juguete pero que funciona igual que un tren de verdad. Hennie llega y también tiene un tren.</t>
+  </si>
+  <si>
+    <t>EEHYDG214.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG214_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG215_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000215</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP15</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP15</t>
+  </si>
+  <si>
+    <t>EP 15</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas ayudan a Duggee a probar su nuevo horno exterior de pizza.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas ayudan a Duggee a probar su nuevo horno exterior de pizza. Duggee prepara las bases, y cada ardilla pone los ingredientes que más le gusta. Algunas de sus combinaciones son… ¡interesantes!</t>
+  </si>
+  <si>
+    <t>EEHYDG215.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG215_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG216_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000216</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP16</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP16</t>
+  </si>
+  <si>
+    <t>EP 16</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee no está muy bien. Ha perdido su voz.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee no está muy bien. Ha perdido su voz. Las ardillas quieren hacerlo sentir mejor. Duggee trata de decirles que necesita agua, pero las ardillas no entienden, así que le piden consejo a otros animales.</t>
+  </si>
+  <si>
+    <t>EEHYDG216.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG216_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG217_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000217</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP17</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP17</t>
+  </si>
+  <si>
+    <t>EP 17</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas salen de campamento, ¡y escuchan un espeluznante ruido afuera de su tienda!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas salen de campamento. Necesitan encontrar un lugar donde poner su tienda pero no es tan fácil como creían que iba a ser. Todos trabajan juntos y al final la ponen.</t>
+  </si>
+  <si>
+    <t>EEHYDG217.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG217_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG218_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000218</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP18</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP18</t>
+  </si>
+  <si>
+    <t>EP 18</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas salen a una reunión de exploradores para hacer nuevos amigos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas salen a una reunión de exploradores para hacer nuevos amigos, jugar juegos y hacer un picnic. Conocen a otro grupo de animales jóvenes con su propia versión de Duggee, pero todo lo que hacen es diferente.</t>
+  </si>
+  <si>
+    <t>EEHYDG218.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG218_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG219_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000219</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP19</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP19</t>
+  </si>
+  <si>
+    <t>EP 19</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas toman un bote por el río para entregar un paquete.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee tiene un paquete que debe ser entregado justo al final del río, muy lejos del club. Parece que las ardillas pasarán un día en el bote. ¡por suerte Duggee tiene su insignia del río!</t>
+  </si>
+  <si>
+    <t>EEHYDG219.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG219_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG220_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000220</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP20</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP20</t>
+  </si>
+  <si>
+    <t>EP 20</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas están llenas de energía y Dugge las tranquiliza con algo de yoga.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es uno de esos días. Las ardillas han llegado y están un poco… intensas. Con mucha energía. Las cosas se están poniendo un poco frenéticas, y Duggee necesita calmar todo. Por fortuna tiene su insignia del Yoga.</t>
+  </si>
+  <si>
+    <t>EEHYDG220.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG220_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG201_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000201</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP01 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG201.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG202_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000202</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP02 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG202.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG203_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000203</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP03 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG203.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG204_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000204</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP04 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG204.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG205_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000205</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP05 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG205.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG206_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000206</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP06 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG206.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG207_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000207</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP07 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG207.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG208_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000208</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP08 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG208.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG209_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000209</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP09 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG209.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG210_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000210</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP10 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG210.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG211_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000211</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP11 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG211.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG212_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000212</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP12 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG212.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG213_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000213</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP13 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG213.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG214_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000214</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP14 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG214.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG215_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000215</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP15 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG215.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG216_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000216</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP16 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG216.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG217_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000217</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP17 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG217.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG218_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000218</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP18 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG218.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG219_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000219</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP19 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG219.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG220_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000220</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP20 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG220.ts</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1736,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1790,13 +1760,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -1806,31 +1776,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>4.8958333333333701E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>4.8958333333333701E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V2" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -1851,28 +1821,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -1894,7 +1864,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>56</v>
@@ -1961,7 +1931,7 @@
         <v>84</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>85</v>
@@ -1989,16 +1959,16 @@
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>4.8958333333333796E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>4.8958333333333796E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V3" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -2019,28 +1989,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -2062,7 +2032,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>56</v>
@@ -2129,7 +2099,7 @@
         <v>93</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>94</v>
@@ -2157,16 +2127,16 @@
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>4.89583333333339E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>4.89583333333339E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V4" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -2187,28 +2157,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -2230,7 +2200,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>56</v>
@@ -2297,7 +2267,7 @@
         <v>102</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>103</v>
@@ -2325,16 +2295,16 @@
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>4.8958333333334004E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>4.8958333333334004E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V5" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -2355,28 +2325,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -2398,7 +2368,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -2465,7 +2435,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>112</v>
@@ -2493,16 +2463,16 @@
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>4.89583333333341E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>4.89583333333341E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V6" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -2523,28 +2493,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE6" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -2566,7 +2536,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>199003076</v>
+        <v>199947024</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>56</v>
@@ -2633,7 +2603,7 @@
         <v>120</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>121</v>
@@ -2655,22 +2625,22 @@
         <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>4.8958333333334204E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>4.8958333333334204E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V7" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -2691,28 +2661,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -2734,7 +2704,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>199003076</v>
+        <v>199947024</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>56</v>
@@ -2743,7 +2713,7 @@
         <v>57</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -2769,12 +2739,12 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" s="7">
         <v>44623</v>
@@ -2798,13 +2768,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -2814,31 +2784,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>4.8958333333334299E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>4.8958333333334299E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -2859,28 +2829,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -2902,7 +2872,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>199003076</v>
+        <v>199947024</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -2911,7 +2881,7 @@
         <v>57</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -2937,12 +2907,12 @@
         <v>61</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" s="7">
         <v>44623</v>
@@ -2966,13 +2936,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -2982,31 +2952,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>4.8958333333334403E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>4.8958333333334403E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V9" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -3027,28 +2997,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -3070,7 +3040,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -3079,7 +3049,7 @@
         <v>57</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -3105,12 +3075,12 @@
         <v>61</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="7">
         <v>44623</v>
@@ -3134,13 +3104,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -3150,31 +3120,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>4.8958333333334499E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>4.8958333333334499E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V10" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -3195,28 +3165,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -3238,7 +3208,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -3247,7 +3217,7 @@
         <v>57</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -3273,12 +3243,12 @@
         <v>61</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B11" s="7">
         <v>44623</v>
@@ -3302,13 +3272,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -3318,31 +3288,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>4.8958333333334603E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>4.8958333333334603E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V11" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -3363,28 +3333,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -3406,7 +3376,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="15">
-        <v>199003076</v>
+        <v>199947024</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -3415,7 +3385,7 @@
         <v>57</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -3441,12 +3411,12 @@
         <v>61</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B12" s="7">
         <v>44623</v>
@@ -3470,13 +3440,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -3486,31 +3456,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>4.8958333333334698E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>4.8958333333334698E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V12" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -3531,28 +3501,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -3574,7 +3544,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>199003076</v>
+        <v>199947024</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>56</v>
@@ -3583,7 +3553,7 @@
         <v>57</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -3609,12 +3579,12 @@
         <v>61</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B13" s="7">
         <v>44623</v>
@@ -3638,13 +3608,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -3654,31 +3624,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>4.8958333333334802E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>4.8958333333334802E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V13" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -3699,28 +3669,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE13" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -3742,7 +3712,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>199017364</v>
+        <v>199978420</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>56</v>
@@ -3751,7 +3721,7 @@
         <v>57</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -3777,12 +3747,12 @@
         <v>61</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B14" s="7">
         <v>44623</v>
@@ -3806,13 +3776,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -3822,31 +3792,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V14" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -3867,28 +3837,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE14" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -3910,7 +3880,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>199482288</v>
+        <v>199947024</v>
       </c>
       <c r="AT14" s="9" t="s">
         <v>56</v>
@@ -3919,7 +3889,7 @@
         <v>57</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -3945,12 +3915,12 @@
         <v>61</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B15" s="7">
         <v>44623</v>
@@ -3974,13 +3944,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -3990,31 +3960,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>4.8958333333335002E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>4.8958333333335002E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V15" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -4035,28 +4005,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE15" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -4078,7 +4048,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>199017364</v>
+        <v>199918260</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>56</v>
@@ -4087,7 +4057,7 @@
         <v>57</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -4113,12 +4083,12 @@
         <v>61</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B16" s="7">
         <v>44623</v>
@@ -4142,13 +4112,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -4158,31 +4128,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>4.8958333333335002E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>4.8958333333335002E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V16" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -4203,28 +4173,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE16" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -4246,7 +4216,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>198957204</v>
+        <v>199918260</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>56</v>
@@ -4255,7 +4225,7 @@
         <v>57</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -4281,12 +4251,12 @@
         <v>61</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B17" s="7">
         <v>44623</v>
@@ -4310,13 +4280,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
@@ -4326,31 +4296,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>4.8958333333335201E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>4.8958333333335201E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="V17" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -4371,28 +4341,28 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE17" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -4414,7 +4384,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>199017364</v>
+        <v>199421940</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>56</v>
@@ -4423,7 +4393,7 @@
         <v>57</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -4449,12 +4419,12 @@
         <v>61</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" s="7">
         <v>44623</v>
@@ -4478,13 +4448,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
@@ -4494,31 +4464,31 @@
         <v>47</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T18" s="10">
-        <v>4.8958333333335297E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="U18" s="11">
-        <v>4.8958333333335297E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="V18" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X18" s="9" t="s">
         <v>49</v>
@@ -4539,28 +4509,28 @@
         <v>31028</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE18" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI18" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK18" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL18" s="8"/>
       <c r="AM18" s="9" t="s">
@@ -4582,7 +4552,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="9">
-        <v>199017364</v>
+        <v>198971492</v>
       </c>
       <c r="AT18" s="9" t="s">
         <v>56</v>
@@ -4591,7 +4561,7 @@
         <v>57</v>
       </c>
       <c r="AV18" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AW18" s="8"/>
       <c r="AX18" s="9" t="s">
@@ -4617,12 +4587,12 @@
         <v>61</v>
       </c>
       <c r="BF18" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B19" s="7">
         <v>44623</v>
@@ -4646,13 +4616,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="9" t="s">
@@ -4662,31 +4632,31 @@
         <v>47</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T19" s="10">
-        <v>4.8958333333335496E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U19" s="11">
-        <v>4.8958333333335496E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V19" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X19" s="9" t="s">
         <v>49</v>
@@ -4707,28 +4677,28 @@
         <v>31028</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE19" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI19" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ19" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL19" s="8"/>
       <c r="AM19" s="9" t="s">
@@ -4750,7 +4720,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="9">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT19" s="9" t="s">
         <v>56</v>
@@ -4759,7 +4729,7 @@
         <v>57</v>
       </c>
       <c r="AV19" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AW19" s="8"/>
       <c r="AX19" s="9" t="s">
@@ -4785,12 +4755,12 @@
         <v>61</v>
       </c>
       <c r="BF19" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B20" s="7">
         <v>44623</v>
@@ -4814,13 +4784,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="9" t="s">
@@ -4830,31 +4800,31 @@
         <v>47</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="10">
-        <v>4.89583333333356E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U20" s="11">
-        <v>4.89583333333356E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V20" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X20" s="9" t="s">
         <v>49</v>
@@ -4875,28 +4845,28 @@
         <v>31028</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE20" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK20" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL20" s="8"/>
       <c r="AM20" s="9" t="s">
@@ -4918,7 +4888,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="9">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT20" s="9" t="s">
         <v>56</v>
@@ -4927,7 +4897,7 @@
         <v>57</v>
       </c>
       <c r="AV20" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AW20" s="8"/>
       <c r="AX20" s="9" t="s">
@@ -4953,12 +4923,12 @@
         <v>61</v>
       </c>
       <c r="BF20" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B21" s="7">
         <v>44623</v>
@@ -4982,13 +4952,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
@@ -4998,31 +4968,31 @@
         <v>47</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T21" s="10">
-        <v>4.8958333333335704E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U21" s="11">
-        <v>4.8958333333335704E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V21" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X21" s="9" t="s">
         <v>49</v>
@@ -5043,28 +5013,28 @@
         <v>31028</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE21" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ21" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK21" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL21" s="8"/>
       <c r="AM21" s="9" t="s">
@@ -5086,7 +5056,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="9">
-        <v>199017364</v>
+        <v>199947024</v>
       </c>
       <c r="AT21" s="9" t="s">
         <v>56</v>
@@ -5095,7 +5065,7 @@
         <v>57</v>
       </c>
       <c r="AV21" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW21" s="8"/>
       <c r="AX21" s="9" t="s">
@@ -5121,176 +5091,68 @@
         <v>61</v>
       </c>
       <c r="BF21" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="7">
-        <v>44623</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>254</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T22" s="10">
-        <v>4.89583333333358E-3</v>
-      </c>
-      <c r="U22" s="11">
-        <v>4.89583333333358E-3</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2015</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK22" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS22" s="9">
-        <v>198957204</v>
-      </c>
-      <c r="AT22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV22" s="9" t="s">
-        <v>258</v>
-      </c>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
       <c r="AW22" s="8"/>
-      <c r="AX22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ22" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
       <c r="BA22" s="8"/>
-      <c r="BB22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF22" s="9" t="s">
-        <v>259</v>
-      </c>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -6303,7 +6165,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -6327,13 +6189,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -6343,31 +6205,31 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="10">
-        <v>4.8958333333333701E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U2" s="11">
-        <v>4.8958333333333701E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V2" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>49</v>
@@ -6388,28 +6250,28 @@
         <v>31028</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9" t="s">
@@ -6431,7 +6293,7 @@
         <v>55</v>
       </c>
       <c r="AS2" s="15">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>55</v>
@@ -6440,7 +6302,7 @@
         <v>65</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -6471,7 +6333,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -6495,10 +6357,10 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>85</v>
@@ -6511,7 +6373,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>87</v>
@@ -6526,16 +6388,16 @@
         <v>48</v>
       </c>
       <c r="T3" s="10">
-        <v>4.8958333333333796E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U3" s="11">
-        <v>4.8958333333333796E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V3" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>49</v>
@@ -6556,28 +6418,28 @@
         <v>31028</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="9" t="s">
@@ -6599,7 +6461,7 @@
         <v>55</v>
       </c>
       <c r="AS3" s="15">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>55</v>
@@ -6608,7 +6470,7 @@
         <v>65</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -6639,7 +6501,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -6663,10 +6525,10 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>94</v>
@@ -6679,7 +6541,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>96</v>
@@ -6694,16 +6556,16 @@
         <v>48</v>
       </c>
       <c r="T4" s="10">
-        <v>4.89583333333339E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U4" s="11">
-        <v>4.89583333333339E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V4" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>49</v>
@@ -6724,28 +6586,28 @@
         <v>31028</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="9" t="s">
@@ -6767,7 +6629,7 @@
         <v>55</v>
       </c>
       <c r="AS4" s="15">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>55</v>
@@ -6776,7 +6638,7 @@
         <v>65</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -6807,7 +6669,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -6831,10 +6693,10 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>103</v>
@@ -6847,7 +6709,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>105</v>
@@ -6862,16 +6724,16 @@
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>4.8958333333334004E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>4.8958333333334004E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>49</v>
@@ -6892,28 +6754,28 @@
         <v>31028</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="9" t="s">
@@ -6935,7 +6797,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>55</v>
@@ -6944,7 +6806,7 @@
         <v>65</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -6975,7 +6837,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -6999,10 +6861,10 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>112</v>
@@ -7015,7 +6877,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>114</v>
@@ -7030,16 +6892,16 @@
         <v>48</v>
       </c>
       <c r="T6" s="10">
-        <v>4.89583333333341E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U6" s="11">
-        <v>4.89583333333341E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V6" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>49</v>
@@ -7060,28 +6922,28 @@
         <v>31028</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE6" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="9" t="s">
@@ -7103,7 +6965,7 @@
         <v>55</v>
       </c>
       <c r="AS6" s="15">
-        <v>397942796</v>
+        <v>399836144</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>55</v>
@@ -7112,7 +6974,7 @@
         <v>65</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -7143,7 +7005,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -7167,10 +7029,10 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>121</v>
@@ -7183,7 +7045,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>123</v>
@@ -7192,22 +7054,22 @@
         <v>124</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="10">
-        <v>4.8958333333334204E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U7" s="11">
-        <v>4.8958333333334204E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V7" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>49</v>
@@ -7228,28 +7090,28 @@
         <v>31028</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL7" s="8"/>
       <c r="AM7" s="9" t="s">
@@ -7271,7 +7133,7 @@
         <v>55</v>
       </c>
       <c r="AS7" s="15">
-        <v>397942796</v>
+        <v>399836144</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>55</v>
@@ -7280,7 +7142,7 @@
         <v>65</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -7306,12 +7168,12 @@
         <v>61</v>
       </c>
       <c r="BF7" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -7335,13 +7197,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9" t="s">
@@ -7351,31 +7213,31 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="10">
-        <v>4.8958333333334299E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U8" s="11">
-        <v>4.8958333333334299E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V8" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>49</v>
@@ -7396,28 +7258,28 @@
         <v>31028</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL8" s="8"/>
       <c r="AM8" s="9" t="s">
@@ -7439,7 +7301,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>397942796</v>
+        <v>399836144</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>55</v>
@@ -7448,7 +7310,7 @@
         <v>65</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -7474,12 +7336,12 @@
         <v>61</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -7503,13 +7365,13 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9" t="s">
@@ -7519,31 +7381,31 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="10">
-        <v>4.8958333333334403E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U9" s="11">
-        <v>4.8958333333334403E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V9" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>49</v>
@@ -7564,28 +7426,28 @@
         <v>31028</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="9" t="s">
@@ -7607,7 +7469,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>55</v>
@@ -7616,7 +7478,7 @@
         <v>65</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -7642,12 +7504,12 @@
         <v>61</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -7671,13 +7533,13 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9" t="s">
@@ -7687,31 +7549,31 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>4.8958333333334499E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>4.8958333333334499E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V10" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X10" s="9" t="s">
         <v>49</v>
@@ -7732,28 +7594,28 @@
         <v>31028</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL10" s="8"/>
       <c r="AM10" s="9" t="s">
@@ -7775,7 +7637,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>55</v>
@@ -7784,7 +7646,7 @@
         <v>65</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -7810,12 +7672,12 @@
         <v>61</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -7839,13 +7701,13 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -7855,31 +7717,31 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="10">
-        <v>4.8958333333334603E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U11" s="11">
-        <v>4.8958333333334603E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V11" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>49</v>
@@ -7900,28 +7762,28 @@
         <v>31028</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="9" t="s">
@@ -7943,7 +7805,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="9">
-        <v>397942796</v>
+        <v>399836144</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>55</v>
@@ -7952,7 +7814,7 @@
         <v>65</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -7978,12 +7840,12 @@
         <v>61</v>
       </c>
       <c r="BF11" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B12" s="12">
         <v>44623</v>
@@ -8007,13 +7869,13 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="9" t="s">
@@ -8023,31 +7885,31 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>4.8958333333334698E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>4.8958333333334698E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V12" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>49</v>
@@ -8068,28 +7930,28 @@
         <v>31028</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="9" t="s">
@@ -8111,7 +7973,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>397942796</v>
+        <v>399836144</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>55</v>
@@ -8120,7 +7982,7 @@
         <v>65</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -8146,12 +8008,12 @@
         <v>61</v>
       </c>
       <c r="BF12" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B13" s="12">
         <v>44623</v>
@@ -8175,13 +8037,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
@@ -8191,31 +8053,31 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>4.8958333333334802E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>4.8958333333334802E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V13" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X13" s="9" t="s">
         <v>49</v>
@@ -8236,28 +8098,28 @@
         <v>31028</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE13" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL13" s="8"/>
       <c r="AM13" s="9" t="s">
@@ -8279,7 +8141,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>397977200</v>
+        <v>399893672</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>55</v>
@@ -8288,7 +8150,7 @@
         <v>65</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -8314,12 +8176,12 @@
         <v>61</v>
       </c>
       <c r="BF13" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B14" s="12">
         <v>44623</v>
@@ -8343,13 +8205,13 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="s">
@@ -8359,31 +8221,31 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V14" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>49</v>
@@ -8404,28 +8266,28 @@
         <v>31028</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE14" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL14" s="8"/>
       <c r="AM14" s="9" t="s">
@@ -8447,7 +8309,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>398906672</v>
+        <v>399836144</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>55</v>
@@ -8456,7 +8318,7 @@
         <v>65</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -8482,12 +8344,12 @@
         <v>61</v>
       </c>
       <c r="BF14" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B15" s="12">
         <v>44623</v>
@@ -8511,13 +8373,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="9" t="s">
@@ -8527,31 +8389,31 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T15" s="10">
-        <v>4.8958333333335002E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U15" s="11">
-        <v>4.8958333333335002E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V15" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X15" s="9" t="s">
         <v>49</v>
@@ -8572,28 +8434,28 @@
         <v>31028</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE15" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL15" s="8"/>
       <c r="AM15" s="9" t="s">
@@ -8615,7 +8477,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>397977200</v>
+        <v>399773164</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>55</v>
@@ -8624,7 +8486,7 @@
         <v>65</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -8650,12 +8512,12 @@
         <v>61</v>
       </c>
       <c r="BF15" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B16" s="12">
         <v>44623</v>
@@ -8679,13 +8541,13 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="9" t="s">
@@ -8695,31 +8557,31 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>4.8958333333335002E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>4.8958333333335002E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V16" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X16" s="9" t="s">
         <v>49</v>
@@ -8740,28 +8602,28 @@
         <v>31028</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE16" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL16" s="8"/>
       <c r="AM16" s="9" t="s">
@@ -8783,7 +8645,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>397856692</v>
+        <v>399773164</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>55</v>
@@ -8792,7 +8654,7 @@
         <v>65</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -8818,12 +8680,12 @@
         <v>61</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B17" s="12">
         <v>44623</v>
@@ -8847,13 +8709,13 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="9" t="s">
@@ -8863,31 +8725,31 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>4.8958333333335201E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>4.8958333333335201E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="V17" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>49</v>
@@ -8908,28 +8770,28 @@
         <v>31028</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE17" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL17" s="8"/>
       <c r="AM17" s="9" t="s">
@@ -8951,7 +8813,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>397977200</v>
+        <v>398786164</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>55</v>
@@ -8960,7 +8822,7 @@
         <v>65</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -8986,12 +8848,12 @@
         <v>61</v>
       </c>
       <c r="BF17" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B18" s="12">
         <v>44623</v>
@@ -9015,13 +8877,13 @@
         <v>46</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="9" t="s">
@@ -9031,31 +8893,31 @@
         <v>47</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T18" s="10">
-        <v>4.8958333333335297E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="U18" s="11">
-        <v>4.8958333333335297E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="V18" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X18" s="9" t="s">
         <v>49</v>
@@ -9076,28 +8938,28 @@
         <v>31028</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE18" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI18" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK18" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL18" s="8"/>
       <c r="AM18" s="9" t="s">
@@ -9119,7 +8981,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="9">
-        <v>397977200</v>
+        <v>397885456</v>
       </c>
       <c r="AT18" s="9" t="s">
         <v>55</v>
@@ -9128,7 +8990,7 @@
         <v>65</v>
       </c>
       <c r="AV18" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AW18" s="8"/>
       <c r="AX18" s="9" t="s">
@@ -9154,12 +9016,12 @@
         <v>61</v>
       </c>
       <c r="BF18" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B19" s="12">
         <v>44623</v>
@@ -9183,13 +9045,13 @@
         <v>46</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="9" t="s">
@@ -9199,31 +9061,31 @@
         <v>47</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="S19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T19" s="10">
-        <v>4.8958333333335496E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U19" s="11">
-        <v>4.8958333333335496E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V19" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X19" s="9" t="s">
         <v>49</v>
@@ -9244,28 +9106,28 @@
         <v>31028</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE19" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI19" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ19" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL19" s="8"/>
       <c r="AM19" s="9" t="s">
@@ -9287,7 +9149,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="9">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT19" s="9" t="s">
         <v>55</v>
@@ -9296,7 +9158,7 @@
         <v>65</v>
       </c>
       <c r="AV19" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AW19" s="8"/>
       <c r="AX19" s="9" t="s">
@@ -9322,12 +9184,12 @@
         <v>61</v>
       </c>
       <c r="BF19" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B20" s="12">
         <v>44623</v>
@@ -9351,13 +9213,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="9" t="s">
@@ -9367,31 +9229,31 @@
         <v>47</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="10">
-        <v>4.89583333333356E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U20" s="11">
-        <v>4.89583333333356E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V20" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X20" s="9" t="s">
         <v>49</v>
@@ -9412,28 +9274,28 @@
         <v>31028</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE20" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK20" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL20" s="8"/>
       <c r="AM20" s="9" t="s">
@@ -9455,7 +9317,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="9">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT20" s="9" t="s">
         <v>55</v>
@@ -9464,7 +9326,7 @@
         <v>65</v>
       </c>
       <c r="AV20" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AW20" s="8"/>
       <c r="AX20" s="9" t="s">
@@ -9490,12 +9352,12 @@
         <v>61</v>
       </c>
       <c r="BF20" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B21" s="12">
         <v>44623</v>
@@ -9519,13 +9381,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="9" t="s">
@@ -9535,31 +9397,31 @@
         <v>47</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="T21" s="10">
-        <v>4.8958333333335704E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U21" s="11">
-        <v>4.8958333333335704E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V21" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X21" s="9" t="s">
         <v>49</v>
@@ -9580,28 +9442,28 @@
         <v>31028</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AE21" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AH21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ21" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AK21" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AL21" s="8"/>
       <c r="AM21" s="9" t="s">
@@ -9623,7 +9485,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="9">
-        <v>397977200</v>
+        <v>399836144</v>
       </c>
       <c r="AT21" s="9" t="s">
         <v>55</v>
@@ -9632,7 +9494,7 @@
         <v>65</v>
       </c>
       <c r="AV21" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AW21" s="8"/>
       <c r="AX21" s="9" t="s">
@@ -9658,176 +9520,68 @@
         <v>61</v>
       </c>
       <c r="BF21" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" s="12">
-        <v>44623</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>254</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="T22" s="10">
-        <v>4.89583333333358E-3</v>
-      </c>
-      <c r="U22" s="11">
-        <v>4.89583333333358E-3</v>
-      </c>
-      <c r="V22" s="9">
-        <v>2015</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>44027</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>45747</v>
-      </c>
-      <c r="AB22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>31028</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK22" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS22" s="9">
-        <v>397856692</v>
-      </c>
-      <c r="AT22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV22" s="9" t="s">
-        <v>343</v>
-      </c>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
       <c r="AW22" s="8"/>
-      <c r="AX22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ22" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
       <c r="BA22" s="8"/>
-      <c r="BB22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF22" s="9" t="s">
-        <v>259</v>
-      </c>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>

--- a/XML_SD_HD.xlsx
+++ b/XML_SD_HD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Readfile\createReadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D1400-849F-4969-8BF2-F4E3942F9E0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31CEB25-8070-44F7-A4E0-F807E4BE0284}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="490">
   <si>
     <t>Creation_Date</t>
   </si>
@@ -252,787 +252,1255 @@
     <t>Orchard, Grant</t>
   </si>
   <si>
-    <t>EEHYDG201_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000201</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP01</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP01</t>
-  </si>
-  <si>
-    <t>EP 01</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando las ardillas ven a Duggee tocando el saxofón, también quieren intentarlo.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando las ardillas ven a Duggee tocando el saxofón, también quieren intentarlo. Luego de probar con ollas, globos, latas, tubos y agua, comienzan a hacer música. ¡ya vaya que tocan fuerte!</t>
-  </si>
-  <si>
-    <t>EEHYDG201.mpg</t>
-  </si>
-  <si>
     <t>EEHYDG2_box.jpg</t>
   </si>
   <si>
-    <t>EEHYDG201_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG202_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000202</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP02</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP02</t>
-  </si>
-  <si>
-    <t>EP 02</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas quieren aprender a silbar.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando huevo, el travieso polluelo vuelve a escapar, Duggee le silba para que vuelva. Un minuto, Duggee. ¿qué fue ese ruido? ¿un silbido? Las ardillas quieren aprender a silbar.</t>
-  </si>
-  <si>
-    <t>EEHYDG202.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG202_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG203_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000203</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP03</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP03</t>
-  </si>
-  <si>
-    <t>EP 03</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas juegan el juego de las formas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es un hermoso día y las ardillas juegan afuera. juegan el juego de las formas. Averiguar que forma sigue es algo difícil.</t>
-  </si>
-  <si>
-    <t>EEHYDG203.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG203_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG204_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000204</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP04</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP04</t>
-  </si>
-  <si>
-    <t>EP 04</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee les hará a las ardillas jugo de las frutas frescas del jardín.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee les hará a las ardillas jugo de las frutas frescas del jardín. Mientras recogen la fruta, las ardillas conocen a un pequeño insecto lleno de infortunio por ser tan pequeño.</t>
-  </si>
-  <si>
-    <t>EEHYDG204.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG204_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG205_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000205</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP05</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP05</t>
-  </si>
-  <si>
-    <t>EP 05</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas juegan a las escondidas, pero no pueden encontrar a feliz.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas juegan a las escondidas, pero no pueden encontrar a feliz. Las ardillas siguen muchas pisadas diferentes que los llevan con su amigo, pero hay unas huellas que no pueden identificar.</t>
-  </si>
-  <si>
-    <t>EEHYDG205.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG205_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG206_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000206</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP06</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP06</t>
-  </si>
-  <si>
-    <t>EP 06</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas excavan en el jardín cuando se encuentran con un fósil</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas excavan en el jardín cuando se encuentran con un fósil, así que Duggee y el narrador les explican todo sobre los fósiles y la época prehistórica.</t>
-  </si>
-  <si>
-    <t>EEHYDG206.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG206_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG207_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000207</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP07</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP07</t>
-  </si>
-  <si>
-    <t>EP 07</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee está limpiando el club y las ardillas se refugian en la casa del árbol.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee está limpiando el club y las ardillas se refugian en la casa del árbol, pero se está poniendo algo apretada. Norrie tiene una idea. Tal vez necesiten hacer una extensión.</t>
-  </si>
-  <si>
-    <t>EEHYDG207.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG207_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG208_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000208</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP08</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP08</t>
-  </si>
-  <si>
-    <t>EP 08</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es un día con mucho viento y las ardillas quieren jugar afuera. ¿qué podrán hacer?</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es un día con mucho viento y las ardillas quieren jugar afuera. ¿qué podrán hacer? Duggee sabe, está volando su cometa. Las ardillas comienzan a hacer sus propias cometas para volarlas.</t>
-  </si>
-  <si>
-    <t>EEHYDG208.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG208_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG209_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000209</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP09</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP09</t>
-  </si>
-  <si>
-    <t>EP 09</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas ven las cosas más extrañas en un estanque. Puntos con colas que se mueven.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee ha hecho un hermoso estanque. Las ardillas ven las cosas más extrañas. Puntos con colas que se mueven. ¿Qué serán? ¡Son ranitas bebé!</t>
-  </si>
-  <si>
-    <t>EEHYDG209.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG209_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG210_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000210</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP10</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP10</t>
-  </si>
-  <si>
-    <t>EP 10</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee ha hecho unos deliciosos hot cakes, pero el club no tiene miel.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee ha hecho unos deliciosos hot cakes, pero el club no tiene miel. ¡Es hora de que las abejas se pongan a trabajar!</t>
-  </si>
-  <si>
-    <t>EEHYDG210.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG210_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG211_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000211</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP11</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP11</t>
-  </si>
-  <si>
-    <t>EP 11</t>
-  </si>
-  <si>
-    <t>Edye presenta: Cuando Roly sorprende a Duggee, Duggee salta y suelta su taza, la cual queda hecha pedazos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee está tomando una deliciosa taza de té Cuando Roly lo sorprende con un fuerte grito. Es tan fuerte que Duggee salta y suelta su taza, la cual queda hecha pedazos.</t>
-  </si>
-  <si>
-    <t>EEHYDG211.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG211_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG212_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000212</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP12</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP12</t>
-  </si>
-  <si>
-    <t>EP 12</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una enorme caja es entregada al club y las ardillas están muy emocionadas.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Una caja llena de piezas es entregada al club y las ardillas están muy emocionadas. Duggee y las ardillas tendrán que trabajar duro para juntarlas. Es hora de trabajar en equipo.</t>
-  </si>
-  <si>
-    <t>EEHYDG212.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG212_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG213_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000213</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP13</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP13</t>
-  </si>
-  <si>
-    <t>EP 13</t>
-  </si>
-  <si>
-    <t>Edye presenta: Un insecto bailarín aterriza en la cabeza de Duggee, y no puede dejar de bailar.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Un insecto bailarín aterriza en la cabeza de Duggee, y no puede dejar de bailar. Las ardillas ven que es un insecto campirano con un violín, y además lleva consigo a la banda de insectos campiranos.</t>
-  </si>
-  <si>
-    <t>EEHYDG213.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG213_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG214_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000214</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP14</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP14</t>
-  </si>
-  <si>
-    <t>EP 14</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee juega con un tren de juguete y las ardillas sienten curiosidad.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee juega con un tren de juguete. ¡Chu-chu! ¡Es asombroso! Las ardillas sienten curiosidad y quieren saber todo de él. Duggee les explica que es un juguete pero que funciona igual que un tren de verdad. Hennie llega y también tiene un tren.</t>
-  </si>
-  <si>
-    <t>EEHYDG214.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG214_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG215_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000215</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP15</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP15</t>
-  </si>
-  <si>
-    <t>EP 15</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas ayudan a Duggee a probar su nuevo horno exterior de pizza.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas ayudan a Duggee a probar su nuevo horno exterior de pizza. Duggee prepara las bases, y cada ardilla pone los ingredientes que más le gusta. Algunas de sus combinaciones son… ¡interesantes!</t>
-  </si>
-  <si>
-    <t>EEHYDG215.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG215_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG216_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000216</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP16</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP16</t>
-  </si>
-  <si>
-    <t>EP 16</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee no está muy bien. Ha perdido su voz.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee no está muy bien. Ha perdido su voz. Las ardillas quieren hacerlo sentir mejor. Duggee trata de decirles que necesita agua, pero las ardillas no entienden, así que le piden consejo a otros animales.</t>
-  </si>
-  <si>
-    <t>EEHYDG216.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG216_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG217_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000217</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP17</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP17</t>
-  </si>
-  <si>
-    <t>EP 17</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas salen de campamento, ¡y escuchan un espeluznante ruido afuera de su tienda!</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas salen de campamento. Necesitan encontrar un lugar donde poner su tienda pero no es tan fácil como creían que iba a ser. Todos trabajan juntos y al final la ponen.</t>
-  </si>
-  <si>
-    <t>EEHYDG217.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG217_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG218_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000218</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP18</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP18</t>
-  </si>
-  <si>
-    <t>EP 18</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas salen a una reunión de exploradores para hacer nuevos amigos.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas salen a una reunión de exploradores para hacer nuevos amigos, jugar juegos y hacer un picnic. Conocen a otro grupo de animales jóvenes con su propia versión de Duggee, pero todo lo que hacen es diferente.</t>
-  </si>
-  <si>
-    <t>EEHYDG218.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG218_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG219_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000219</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP19</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP19</t>
-  </si>
-  <si>
-    <t>EP 19</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee y las ardillas toman un bote por el río para entregar un paquete.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Duggee tiene un paquete que debe ser entregado justo al final del río, muy lejos del club. Parece que las ardillas pasarán un día en el bote. ¡por suerte Duggee tiene su insignia del río!</t>
-  </si>
-  <si>
-    <t>EEHYDG219.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG219_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG220_SD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY6000000000000220</t>
-  </si>
-  <si>
-    <t>Hola DuggeeT02EP20</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP20</t>
-  </si>
-  <si>
-    <t>EP 20</t>
-  </si>
-  <si>
-    <t>Edye presenta: Las ardillas están llenas de energía y Dugge las tranquiliza con algo de yoga.</t>
-  </si>
-  <si>
-    <t>Edye presenta: Es uno de esos días. Las ardillas han llegado y están un poco… intensas. Con mucha energía. Las cosas se están poniendo un poco frenéticas, y Duggee necesita calmar todo. Por fortuna tiene su insignia del Yoga.</t>
-  </si>
-  <si>
-    <t>EEHYDG220.mpg</t>
-  </si>
-  <si>
-    <t>EEHYDG220_land.jpg</t>
-  </si>
-  <si>
-    <t>EEHYDG201_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000201</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP01 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG201.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG202_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000202</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP02 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG202.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG203_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000203</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP03 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG203.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG204_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000204</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP04 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG204.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG205_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000205</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP05 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG205.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG206_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000206</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP06 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG206.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG207_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000207</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP07 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG207.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG208_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000208</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP08 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG208.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG209_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000209</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP09 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG209.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG210_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000210</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP10 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG210.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG211_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000211</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP11 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG211.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG212_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000212</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP12 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG212.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG213_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000213</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP13 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG213.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG214_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000214</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP14 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG214.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG215_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000215</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP15 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG215.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG216_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000216</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP16 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG216.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG217_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000217</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP17 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG217.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG218_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000218</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP18 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG218.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG219_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000219</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP19 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG219.ts</t>
-  </si>
-  <si>
-    <t>EEHYDG220_HD_ADI.XML</t>
-  </si>
-  <si>
-    <t>EEHY7000000000000220</t>
-  </si>
-  <si>
-    <t>Hola Duggee T02 EP20 HD</t>
-  </si>
-  <si>
-    <t>EEHYDG220.ts</t>
+    <t>EEHYDG221_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000221</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP21</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP21</t>
+  </si>
+  <si>
+    <t>EP 21</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas están ocupadas haciendo colecciones de sus cosas favoritas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está limpiando su colección de cajas de galletas, una de las muchas cosas que colecciona. Las ardillas se inspiran para hacer sus propias colecciones. Se ocupan en hacer sus colecciones, y luego exhiben sus tesoros en el club.</t>
+  </si>
+  <si>
+    <t>EEHYDG221.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG221_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG222_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000222</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP22</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP22</t>
+  </si>
+  <si>
+    <t>EP 22</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hay un apagón y las ardillas usan sus linternas para hacer sombras.</t>
+  </si>
+  <si>
+    <t>Edye presenta: El sol se oculta, y las ardillas se sientan en el sofá. Han tenido un día muy ocupado. ¡De pronto todas las luces se apagan! ¡Pop! Válgame, hay un apagón y las ardillas no pueden ver nada.</t>
+  </si>
+  <si>
+    <t>EEHYDG222.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG222_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG223_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000223</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP23</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP23</t>
+  </si>
+  <si>
+    <t>EP 23</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas ayudan a montar un teatro amateur.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tino y Eugenio tienen discuten sobre que obra de teatro poner. Uno quiere canciones y bailes extravagantes, mientras que el otro quiere una obra seria. ¿Podrán Duggee y las ardillas ayudarles a preparar algo?</t>
+  </si>
+  <si>
+    <t>EEHYDG223.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG223_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG224_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000224</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP24</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP24</t>
+  </si>
+  <si>
+    <t>EP 24</t>
+  </si>
+  <si>
+    <t>Edye presenta: Feliz descubre que ya no tiene su diente flojo, ¡pero lo perdió!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Feliz descubre que ya no tiene su diente flojo, ¡pero lo perdió! Tiene el problema de no recordar cuando se le cayó. Las ardillas comienzan a buscarlo pero no pueden encontrar el diente por ningún lugar. Es hora de pensar cuidadosamente y recordar.</t>
+  </si>
+  <si>
+    <t>EEHYDG224.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG224_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG225_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000225</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP25</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP25</t>
+  </si>
+  <si>
+    <t>EP 25</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas andan corriendo por todos lados, así que Duggee les enseña a dar pasos más calmados.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas andan corriendo por todos lados, así que Duggee les enseña a disfrutar de las cosas con calma. Sin embargo se encuentran con una tortuga que necesita llegar al hospital ya que su esposa tendrá bebés. ¡Duggee y las ardillas deben llevarlo rápido!</t>
+  </si>
+  <si>
+    <t>EEHYDG225.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG225_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG226_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000226</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP26</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP26</t>
+  </si>
+  <si>
+    <t>EP 26</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas compiten en la carrera de obstáculos anual para animales.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es momento de la carrera de obstáculos anual para animales, y los animales deben trabajar juntos en equipo para completar la ruta. Duggee tiene su insignia de carreras con obstáculos, forma un equipo con las ardillas, y comienza la diversión.</t>
+  </si>
+  <si>
+    <t>EEHYDG226.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG226_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG227_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000227</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP27</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP27</t>
+  </si>
+  <si>
+    <t>EP 27</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan a disfrazarse cuando escuchan un sonido fantasmagórico. ¿Qué está pasando?</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan a disfrazarse cuando escuchan un sonido fantasmagórico. Pueden ver que algo ha asustado a las gallinas, así que detienen lo que estaban haciendo para investigar.</t>
+  </si>
+  <si>
+    <t>EEHYDG227.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG227_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG228_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000228</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP28</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP28</t>
+  </si>
+  <si>
+    <t>EP 28</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee le enseña a las ardillas sobre las estrellas, los planetas, ¡y la vía láctea!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas se preguntan qué hace Duggee, parece estar viendo a través de un tubo por una ventana. ¿Qué es eso, Duggee? Duggee les explica que es un telescopio, y que ve cosas muy, muy lejos… ¡en el espacio!</t>
+  </si>
+  <si>
+    <t>EEHYDG228.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG228_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG229_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000229</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP29</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP29</t>
+  </si>
+  <si>
+    <t>EP 29</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas cosechan las semillas que plantaron hace algún tiempo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee se está preparando para cosechar los cultivos maduros que sembraron. Las ardillas recuerdan cuando plantaron sus semillas, las regaron, y las dejaron crecer. Ahora es momento de ayudar a Duggee a recogerlas.</t>
+  </si>
+  <si>
+    <t>EEHYDG229.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG229_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG230_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000230</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP30</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP30</t>
+  </si>
+  <si>
+    <t>EP 30</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está pintando en su libro para colorear favorito. Las ardillas quieren intentarlo también.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está pintando en su libro para colorear favorito. Las ardillas quieren intentarlo también. Cuando es el turno de Norrie, no puede encontrar el color que quiere, pero Duggee tiene su insignia de los colores. ¡Puede mezclarlos para hacer nuevos!</t>
+  </si>
+  <si>
+    <t>EEHYDG230.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG230_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG231_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000231</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP31</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP31</t>
+  </si>
+  <si>
+    <t>EP 31</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas preparan una fogata recogiendo ramas de todos los tamaños.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas se preparan hacer una fogata. Duggee la está preparando y necesita que las ardillas le ayuden a encontrar muchas ramas. Necesita ramas pequeñas, medianas, y grandes… ¡muchas ramas!</t>
+  </si>
+  <si>
+    <t>EEHYDG231.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG231_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG232_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000232</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP32</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP32</t>
+  </si>
+  <si>
+    <t>EP 32</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee explica por qué los animales tienen diferentes voces.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando las ardillas comienzan a hablarse con otras voces queda claro que algo anda raro. Pero Duggee tiene su insignia de la voz. ¡Él sabe qué hacer!</t>
+  </si>
+  <si>
+    <t>EEHYDG232.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG232_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG233_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000233</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP33</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP33</t>
+  </si>
+  <si>
+    <t>EP 33</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas salen a navegar un poco. ¡qué divertido!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas salen a navegar un poco. ¡qué divertido! Cuando tag comienza a sentirse algo mareado, Duggee sugiere hacer una parada en una isla para buscar un lugar donde almorzar. ¿Pero dónde está toda la comida?</t>
+  </si>
+  <si>
+    <t>EEHYDG233.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG233_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG234_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000234</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP34</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP34</t>
+  </si>
+  <si>
+    <t>EP 34</t>
+  </si>
+  <si>
+    <t>Edye presenta: Tag tiene problemas para dormir, y Duggee le enseña algunos trucos para ayudarle.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas han tenido una ajetreada mañana de juegos. Después de su leche podrán tomarse un descanso. Qué lindo… ¡Pero Tag no puede dormir! Pero descuiden, Duggee puede ayudar, tiene su insignia dormilona, y tiene algunos trucos para dormir.</t>
+  </si>
+  <si>
+    <t>EEHYDG234.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG234_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG235_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000235</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP35</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP35</t>
+  </si>
+  <si>
+    <t>EP 35</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando rayos y truenos asustan a las ardillas, Duggee les enseña sobre la valentía.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Una enorme nube negra se detiene sobre el club y comienza la tormenta. ¡resulta que las ardillas tienen miedo de los rayos! Por fortuna Duggee tiene su insignia de la banana valiente, así que sabe exactamente como ayudarles a enfrentar sus miedos.</t>
+  </si>
+  <si>
+    <t>EEHYDG235.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG235_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG236_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000236</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP36</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP36</t>
+  </si>
+  <si>
+    <t>EP 36</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas aprenden de donde viene el agua.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas aprenden de donde viene el agua, y su viaje los lleva del mar a la llave de la cocina, y a otro trago de agua. ¡Guau! ¡El agua es asombrosa!</t>
+  </si>
+  <si>
+    <t>EEHYDG236.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG236_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG237_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000237</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP37</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP37</t>
+  </si>
+  <si>
+    <t>EP 37</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas van de viaje el lago, ¡pero se quedan atorados en el tráfico!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un día caluroso, así que Duggee invita a las ardillas a un viaje al lago tropical. Hay mucho ajetreo en el lago hoy, ¡y hay mucho tráfico! Suerte que Duggee trae su insignia del tráfico. ¡Él sabe qué hacer!</t>
+  </si>
+  <si>
+    <t>EEHYDG237.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG237_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG238_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000238</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP38</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP38</t>
+  </si>
+  <si>
+    <t>EP 38</t>
+  </si>
+  <si>
+    <t>Edye presenta: Norrie sugiere una fiesta de disfraces para celebrar el cumpleaños de Enid.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee está envolviendo un regalo porque es el cumpleaños de Enid. ¡Pero las ardillas no le llevaron nada! Tal vez puedan darle una sorpresa… pero a Enid no le gustan las sorpresas. Norrie sugiere disfrazarse, ¡qué gran idea!</t>
+  </si>
+  <si>
+    <t>EEHYDG238.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG238_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG239_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000239</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP39</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP39</t>
+  </si>
+  <si>
+    <t>EP 39</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando las ardillas molestan al topo con su ruido, Duggee sugiere construir en equipo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando las ardillas molestan al topo con su ruido, Duggee sugiere formas en las que todos puedan vivir en paz en el subsuelo.</t>
+  </si>
+  <si>
+    <t>EEHYDG239.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG239_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG240_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000240</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP40</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP40</t>
+  </si>
+  <si>
+    <t>EP 40</t>
+  </si>
+  <si>
+    <t>Edye presenta: El rey tigre ha conocido a su pareja perfecta y se casará.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan en el club cuando tocan la puerta. Es el cartero ardilla con una entrega especial para Duggee y las ardillas.</t>
+  </si>
+  <si>
+    <t>EEHYDG240.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG240_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG241_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000241</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP41</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP41</t>
+  </si>
+  <si>
+    <t>EP 41</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hoy es día de llevar a tus abuelos al club de las ardillas.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas están limpiando. Es día de llevar a los abuelos al club. Duggee tiene su insignia de los abuelos, así que sabe lo que les gusta. Una deliciosa taza de té.</t>
+  </si>
+  <si>
+    <t>EEHYDG241.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG241_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG242_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000242</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP42</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP42</t>
+  </si>
+  <si>
+    <t>EP 42</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas reorganizan todo en el club, y afuera también.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas juegan en el club. Roly trata de meter una pelota muy grande en el cesto, pero vuela y se estrella con una torre que Betty acaba de construir.</t>
+  </si>
+  <si>
+    <t>EEHYDG242.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG242_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG243_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000243</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP43</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP43</t>
+  </si>
+  <si>
+    <t>EP 43</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hay un globo aerostático afuera del club. ¡Alguien se irá a la aventura!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Afuera del club una gran multitud se ha reunido alrededor de un globo aerostático, ¡hay rumores de que alguien se irá a una aventura! Son Phileas Rana y Flea, están a punto de iniciar una expedición alrededor del mundo en su globo aerostático.</t>
+  </si>
+  <si>
+    <t>EEHYDG243.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG243_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG244_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000244</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP44</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP44</t>
+  </si>
+  <si>
+    <t>EP 44</t>
+  </si>
+  <si>
+    <t>Edye presenta: Cuando tag se lastima la rodilla, las ardillas deciden que la risa es la mejor medicina.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas van a ver qué hace Duggee pero en su camino Tag se tropieza con algunos bloques de juguete y se lastima la rodilla. ¿Cómo podrán hacerlo sentir mejor? La mamá de Feliz siempre dice que la risa es la mejor medicina. ¿pero cómo harán reír a Tag?</t>
+  </si>
+  <si>
+    <t>EEHYDG244.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG244_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG245_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000245</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP45</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP45</t>
+  </si>
+  <si>
+    <t>EP 45</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas salen a una larga y cansada caminata por el bosque.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Es un día hermoso. Duggee y las ardillas salen a un paseo por el bosque. Ha sido una larga caminata, y las ardillas comienzan a cansarse, pero es un largo camino de vuelta. Descuiden, Duggee tiene su insignia cantora.</t>
+  </si>
+  <si>
+    <t>EEHYDG245.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG245_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG246_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000246</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP46</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP46</t>
+  </si>
+  <si>
+    <t>EP 46</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan en el club cuando llega el mono travieso a causar caos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas juegan en el club cuando llega el mono travieso a causar caos. Luego regresa a su hogar a relajarse cuando tocan a su puerta. Son sus vecinos que han llegado a visitarlo.</t>
+  </si>
+  <si>
+    <t>EEHYDG246.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG246_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG247_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000247</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP47</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP47</t>
+  </si>
+  <si>
+    <t>EP 47</t>
+  </si>
+  <si>
+    <t>Edye presenta: El cartero ardilla tiene un paquete para Duggee envuelto como un regalo. ¡Tal vez es el cumpleaños de Duggee!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Ding dong. Hay alguien en la puerta. Es el cartero ardilla con un paquete para Duggee, ¿pero por qué está envuelto como un regalo? ¡Tal vez es el cumpleaños de Duggee!</t>
+  </si>
+  <si>
+    <t>EEHYDG247.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG247_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG248_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000248</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP48</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP48</t>
+  </si>
+  <si>
+    <t>EP 48</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerbie, la serpiente está de vacaciones y quiere ver los mejores lugares. ¡Duggee puede ayudar!</t>
+  </si>
+  <si>
+    <t>Edye presenta: Gerbie, la serpiente está de vacaciones y quiere ver los mejores lugares. Duggee puede ayudar, ¡tiene su insignia de guía turístico! Hay mucho que ver, desde el museo de la zanahoria hasta el gran árbol frutal.</t>
+  </si>
+  <si>
+    <t>EEHYDG248.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG248_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG249_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000249</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP49</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP49</t>
+  </si>
+  <si>
+    <t>EP 49</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas disfrutan de un día en la playa cuando se encuentran con los pingüinos.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Duggee y las ardillas disfrutan de un día en la playa cuando se encuentran con los pingüinos, quienes les explican que estaban en una misión muy importante cuando se enfermaron. Necesitan ir a una isla cercana, pero están muy débiles como para zarpar.</t>
+  </si>
+  <si>
+    <t>EEHYDG249.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG249_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG250_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000250</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP50</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP50</t>
+  </si>
+  <si>
+    <t>EP 50</t>
+  </si>
+  <si>
+    <t>Edye presenta: Roly está cavando en el jardín cuando de pronto su pala golpea con algo. Es una llave.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Roly está cavando en el jardín cuando de pronto su pala golpea con algo. Es una llave, pero ¿qué hace? Duggee tiene su insignia de la llave. Podrán saberlo a través de prueba y error.</t>
+  </si>
+  <si>
+    <t>EEHYDG250.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG250_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG251_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000251</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP51</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP51</t>
+  </si>
+  <si>
+    <t>EP 51</t>
+  </si>
+  <si>
+    <t>Edye presenta: El uniforme de Duggee ya está viejo. Y es hora de hacerle un nuevo atuendo.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Las ardillas encuentran a Duggee limpiando y reparando su colección de antigüedades. Debe tener especial cuidado con ellas ya que son muy viejas. Así como tu camisa, dice Tag.</t>
+  </si>
+  <si>
+    <t>EEHYDG251.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG251_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG252_SD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY6000000000000252</t>
+  </si>
+  <si>
+    <t>Hola DuggeeT02EP52</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP52</t>
+  </si>
+  <si>
+    <t>EP 52</t>
+  </si>
+  <si>
+    <t>Edye presenta: El topo está triste porque no pudo alcanzar su sueño de la infancia ya que su vista es muy mala.</t>
+  </si>
+  <si>
+    <t>Edye presenta: Hace un día maravilloso afuera, y Duggee está regando las plantas mientras las ardillas juegan cerca. Feliz va a recoger una pelota y encuentra a un topo sentado en una banca muy triste.</t>
+  </si>
+  <si>
+    <t>EEHYDG252.mpg</t>
+  </si>
+  <si>
+    <t>EEHYDG252_land.jpg</t>
+  </si>
+  <si>
+    <t>EEHYDG221_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000221</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP21 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG221.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG222_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000222</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP22 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG222.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG223_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000223</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP23 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG223.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG224_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000224</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP24 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG224.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG225_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000225</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP25 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG225.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG226_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000226</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP26 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG226.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG227_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000227</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP27 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG227.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG228_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000228</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP28 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG228.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG229_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000229</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP29 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG229.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG230_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000230</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP30 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG230.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG231_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000231</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP31 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG231.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG232_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000232</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP32 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG232.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG233_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000233</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP33 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG233.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG234_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000234</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP34 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG234.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG235_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000235</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP35 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG235.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG236_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000236</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP36 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG236.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG237_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000237</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP37 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG237.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG238_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000238</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP38 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG238.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG239_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000239</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP39 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG239.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG240_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000240</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP40 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG240.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG241_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000241</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP41 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG241.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG242_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000242</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP42 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG242.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG243_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000243</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP43 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG243.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG244_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000244</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP44 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG244.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG245_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000245</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP45 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG245.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG246_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000246</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP46 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG246.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG247_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000247</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP47 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG247.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG248_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000248</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP48 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG248.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG249_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000249</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP49 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG249.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG250_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000250</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP50 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG250.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG251_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000251</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP51 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG251.ts</t>
+  </si>
+  <si>
+    <t>EEHYDG252_HD_ADI.XML</t>
+  </si>
+  <si>
+    <t>EEHY7000000000000252</t>
+  </si>
+  <si>
+    <t>Hola Duggee T02 EP52 HD</t>
+  </si>
+  <si>
+    <t>EEHYDG252.ts</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +2204,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7">
         <v>44623</v>
@@ -1760,13 +2228,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -1776,16 +2244,16 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
@@ -1873,7 +2341,7 @@
         <v>57</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -1883,7 +2351,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -2051,7 +2519,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -2219,7 +2687,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -2295,10 +2763,10 @@
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="V5" s="3">
         <v>2016</v>
@@ -2368,7 +2836,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>199947024</v>
+        <v>199017364</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>56</v>
@@ -2387,7 +2855,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -2555,7 +3023,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -2723,7 +3191,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -2872,7 +3340,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>199947024</v>
+        <v>199918260</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>56</v>
@@ -2891,7 +3359,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -3040,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>199947024</v>
+        <v>199918260</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>56</v>
@@ -3059,7 +3527,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -3135,10 +3603,10 @@
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V10" s="3">
         <v>2016</v>
@@ -3208,7 +3676,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>199947024</v>
+        <v>200351412</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>56</v>
@@ -3227,7 +3695,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -3376,7 +3844,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="15">
-        <v>199947024</v>
+        <v>199900964</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>56</v>
@@ -3395,7 +3863,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -3471,10 +3939,10 @@
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V12" s="3">
         <v>2016</v>
@@ -3544,7 +4012,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>199947024</v>
+        <v>200351412</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>56</v>
@@ -3563,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -3639,10 +4107,10 @@
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V13" s="3">
         <v>2016</v>
@@ -3712,7 +4180,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>199978420</v>
+        <v>199900964</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>56</v>
@@ -3731,7 +4199,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -3807,10 +4275,10 @@
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V14" s="3">
         <v>2016</v>
@@ -3880,7 +4348,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>199947024</v>
+        <v>199900964</v>
       </c>
       <c r="AT14" s="9" t="s">
         <v>56</v>
@@ -3899,7 +4367,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -4048,7 +4516,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>199918260</v>
+        <v>199900964</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>56</v>
@@ -4067,7 +4535,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -4143,10 +4611,10 @@
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="V16" s="3">
         <v>2016</v>
@@ -4216,7 +4684,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>199918260</v>
+        <v>199407652</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>56</v>
@@ -4235,7 +4703,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -4311,10 +4779,10 @@
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V17" s="3">
         <v>2016</v>
@@ -4384,7 +4852,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>199421940</v>
+        <v>199900964</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>56</v>
@@ -4403,7 +4871,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -4479,10 +4947,10 @@
         <v>48</v>
       </c>
       <c r="T18" s="10">
-        <v>4.8958333333333328E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U18" s="11">
-        <v>4.8958333333333328E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V18" s="3">
         <v>2016</v>
@@ -4552,7 +5020,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="9">
-        <v>198971492</v>
+        <v>200365700</v>
       </c>
       <c r="AT18" s="9" t="s">
         <v>56</v>
@@ -4571,7 +5039,7 @@
         <v>58</v>
       </c>
       <c r="AZ18" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA18" s="8"/>
       <c r="BB18" s="9" t="s">
@@ -4647,10 +5115,10 @@
         <v>48</v>
       </c>
       <c r="T19" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="U19" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="V19" s="3">
         <v>2016</v>
@@ -4720,7 +5188,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="9">
-        <v>199947024</v>
+        <v>200833444</v>
       </c>
       <c r="AT19" s="9" t="s">
         <v>56</v>
@@ -4739,7 +5207,7 @@
         <v>58</v>
       </c>
       <c r="AZ19" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA19" s="8"/>
       <c r="BB19" s="9" t="s">
@@ -4815,10 +5283,10 @@
         <v>48</v>
       </c>
       <c r="T20" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="U20" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="V20" s="3">
         <v>2016</v>
@@ -4888,7 +5356,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="9">
-        <v>199947024</v>
+        <v>200833444</v>
       </c>
       <c r="AT20" s="9" t="s">
         <v>56</v>
@@ -4907,7 +5375,7 @@
         <v>58</v>
       </c>
       <c r="AZ20" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA20" s="8"/>
       <c r="BB20" s="9" t="s">
@@ -4983,10 +5451,10 @@
         <v>48</v>
       </c>
       <c r="T21" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9537037037037041E-3</v>
       </c>
       <c r="U21" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9537037037037041E-3</v>
       </c>
       <c r="V21" s="3">
         <v>2016</v>
@@ -5056,7 +5524,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="9">
-        <v>199947024</v>
+        <v>201298180</v>
       </c>
       <c r="AT21" s="9" t="s">
         <v>56</v>
@@ -5075,7 +5543,7 @@
         <v>58</v>
       </c>
       <c r="AZ21" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA21" s="8"/>
       <c r="BB21" s="9" t="s">
@@ -5095,724 +5563,2020 @@
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U22" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V22" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK22" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
+      <c r="AM22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS22" s="9">
+        <v>199918260</v>
+      </c>
+      <c r="AT22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV22" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="AW22" s="8"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
+      <c r="AX22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ22" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA22" s="8"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
+      <c r="BB22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF22" s="9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="10">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="U23" s="11">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="V23" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
+      <c r="AM23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS23" s="9">
+        <v>200876496</v>
+      </c>
+      <c r="AT23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV23" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="AW23" s="8"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
+      <c r="AX23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ23" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA23" s="8"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
+      <c r="BB23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF23" s="9" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U24" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V24" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL24" s="8"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="9"/>
-      <c r="AV24" s="9"/>
+      <c r="AM24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS24" s="9">
+        <v>199900964</v>
+      </c>
+      <c r="AT24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV24" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="AW24" s="8"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
+      <c r="AX24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ24" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-      <c r="BF24" s="9"/>
+      <c r="BB24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF24" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="10">
+        <v>4.9074074074074072E-3</v>
+      </c>
+      <c r="U25" s="11">
+        <v>4.9074074074074072E-3</v>
+      </c>
+      <c r="V25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL25" s="8"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="9"/>
-      <c r="AV25" s="9"/>
+      <c r="AM25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS25" s="9">
+        <v>199453524</v>
+      </c>
+      <c r="AT25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV25" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="AW25" s="8"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
+      <c r="AX25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ25" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA25" s="8"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
+      <c r="BB25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF25" s="9" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="10">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="U26" s="11">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="V26" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL26" s="8"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
+      <c r="AM26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS26" s="9">
+        <v>200833444</v>
+      </c>
+      <c r="AT26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV26" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="AW26" s="8"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
+      <c r="AX26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ26" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
+      <c r="BB26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF26" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U27" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V27" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL27" s="8"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
-      <c r="AT27" s="9"/>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
+      <c r="AM27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS27" s="9">
+        <v>199900964</v>
+      </c>
+      <c r="AT27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV27" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="AW27" s="8"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
+      <c r="AX27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ27" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA27" s="8"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-      <c r="BF27" s="9"/>
+      <c r="BB27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF27" s="9" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U28" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V28" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="9"/>
-      <c r="AP28" s="9"/>
-      <c r="AQ28" s="9"/>
-      <c r="AR28" s="9"/>
-      <c r="AS28" s="9"/>
-      <c r="AT28" s="9"/>
-      <c r="AU28" s="9"/>
-      <c r="AV28" s="9"/>
+      <c r="AM28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS28" s="9">
+        <v>199857912</v>
+      </c>
+      <c r="AT28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV28" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="AW28" s="8"/>
-      <c r="AX28" s="9"/>
-      <c r="AY28" s="9"/>
-      <c r="AZ28" s="9"/>
+      <c r="AX28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ28" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA28" s="8"/>
-      <c r="BB28" s="9"/>
-      <c r="BC28" s="9"/>
-      <c r="BD28" s="9"/>
-      <c r="BE28" s="9"/>
-      <c r="BF28" s="9"/>
+      <c r="BB28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF28" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>319</v>
+      </c>
       <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U29" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V29" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL29" s="8"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
-      <c r="AQ29" s="9"/>
-      <c r="AR29" s="9"/>
-      <c r="AS29" s="9"/>
-      <c r="AT29" s="9"/>
-      <c r="AU29" s="9"/>
-      <c r="AV29" s="9"/>
+      <c r="AM29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS29" s="9">
+        <v>199900964</v>
+      </c>
+      <c r="AT29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV29" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="AW29" s="8"/>
-      <c r="AX29" s="9"/>
-      <c r="AY29" s="9"/>
-      <c r="AZ29" s="9"/>
+      <c r="AX29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ29" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA29" s="8"/>
-      <c r="BB29" s="9"/>
-      <c r="BC29" s="9"/>
-      <c r="BD29" s="9"/>
-      <c r="BE29" s="9"/>
-      <c r="BF29" s="9"/>
+      <c r="BB29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF29" s="9" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T30" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U30" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V30" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL30" s="8"/>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="9"/>
-      <c r="AP30" s="9"/>
-      <c r="AQ30" s="9"/>
-      <c r="AR30" s="9"/>
-      <c r="AS30" s="9"/>
-      <c r="AT30" s="9"/>
-      <c r="AU30" s="9"/>
-      <c r="AV30" s="9"/>
+      <c r="AM30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS30" s="9">
+        <v>199900964</v>
+      </c>
+      <c r="AT30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV30" s="9" t="s">
+        <v>333</v>
+      </c>
       <c r="AW30" s="8"/>
-      <c r="AX30" s="9"/>
-      <c r="AY30" s="9"/>
-      <c r="AZ30" s="9"/>
+      <c r="AX30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ30" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA30" s="8"/>
-      <c r="BB30" s="9"/>
-      <c r="BC30" s="9"/>
-      <c r="BD30" s="9"/>
-      <c r="BE30" s="9"/>
-      <c r="BF30" s="9"/>
+      <c r="BB30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF30" s="9" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
+      <c r="M31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T31" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U31" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V31" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK31" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL31" s="8"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
-      <c r="AQ31" s="9"/>
-      <c r="AR31" s="9"/>
-      <c r="AS31" s="9"/>
-      <c r="AT31" s="9"/>
-      <c r="AU31" s="9"/>
-      <c r="AV31" s="9"/>
+      <c r="AM31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS31" s="9">
+        <v>199872388</v>
+      </c>
+      <c r="AT31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV31" s="9" t="s">
+        <v>342</v>
+      </c>
       <c r="AW31" s="8"/>
-      <c r="AX31" s="9"/>
-      <c r="AY31" s="9"/>
-      <c r="AZ31" s="9"/>
+      <c r="AX31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ31" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA31" s="8"/>
-      <c r="BB31" s="9"/>
-      <c r="BC31" s="9"/>
-      <c r="BD31" s="9"/>
-      <c r="BE31" s="9"/>
-      <c r="BF31" s="9"/>
+      <c r="BB31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF31" s="9" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>346</v>
+      </c>
       <c r="L32" s="8"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
+      <c r="M32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U32" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V32" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK32" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL32" s="8"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
-      <c r="AR32" s="9"/>
-      <c r="AS32" s="9"/>
-      <c r="AT32" s="9"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9"/>
+      <c r="AM32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS32" s="9">
+        <v>199900964</v>
+      </c>
+      <c r="AT32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV32" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="AW32" s="8"/>
-      <c r="AX32" s="9"/>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="9"/>
+      <c r="AX32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ32" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA32" s="8"/>
-      <c r="BB32" s="9"/>
-      <c r="BC32" s="9"/>
-      <c r="BD32" s="9"/>
-      <c r="BE32" s="9"/>
-      <c r="BF32" s="9"/>
+      <c r="BB32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF32" s="9" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>355</v>
+      </c>
       <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
+      <c r="M33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U33" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V33" s="3">
+        <v>2016</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK33" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
+      <c r="AM33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS33" s="9">
+        <v>199918260</v>
+      </c>
+      <c r="AT33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV33" s="9" t="s">
+        <v>360</v>
+      </c>
       <c r="AW33" s="8"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
+      <c r="AX33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ33" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA33" s="8"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-      <c r="BF33" s="9"/>
+      <c r="BB33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF33" s="9" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
@@ -5944,7 +7708,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:BF38"/>
     </sheetView>
   </sheetViews>
@@ -6165,7 +7929,7 @@
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="B2" s="12">
         <v>44623</v>
@@ -6189,13 +7953,13 @@
         <v>46</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
@@ -6205,16 +7969,16 @@
         <v>47</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>48</v>
@@ -6302,7 +8066,7 @@
         <v>65</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9" t="s">
@@ -6312,7 +8076,7 @@
         <v>58</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA2" s="8"/>
       <c r="BB2" s="9" t="s">
@@ -6333,7 +8097,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="B3" s="12">
         <v>44623</v>
@@ -6357,7 +8121,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>66</v>
@@ -6373,7 +8137,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>87</v>
@@ -6470,7 +8234,7 @@
         <v>65</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="AW3" s="8"/>
       <c r="AX3" s="9" t="s">
@@ -6480,7 +8244,7 @@
         <v>58</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA3" s="8"/>
       <c r="BB3" s="9" t="s">
@@ -6501,7 +8265,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="B4" s="12">
         <v>44623</v>
@@ -6525,7 +8289,7 @@
         <v>46</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>66</v>
@@ -6541,7 +8305,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>96</v>
@@ -6638,7 +8402,7 @@
         <v>65</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9" t="s">
@@ -6648,7 +8412,7 @@
         <v>58</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA4" s="8"/>
       <c r="BB4" s="9" t="s">
@@ -6669,7 +8433,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="B5" s="12">
         <v>44623</v>
@@ -6693,7 +8457,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>267</v>
+        <v>375</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>66</v>
@@ -6709,7 +8473,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>105</v>
@@ -6724,10 +8488,10 @@
         <v>48</v>
       </c>
       <c r="T5" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="U5" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.8958333333333328E-3</v>
       </c>
       <c r="V5" s="9">
         <v>2016</v>
@@ -6797,7 +8561,7 @@
         <v>55</v>
       </c>
       <c r="AS5" s="15">
-        <v>399836144</v>
+        <v>397977200</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>55</v>
@@ -6806,7 +8570,7 @@
         <v>65</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9" t="s">
@@ -6816,7 +8580,7 @@
         <v>58</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA5" s="8"/>
       <c r="BB5" s="9" t="s">
@@ -6837,7 +8601,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="B6" s="12">
         <v>44623</v>
@@ -6861,7 +8625,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>66</v>
@@ -6877,7 +8641,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>272</v>
+        <v>380</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>114</v>
@@ -6974,7 +8738,7 @@
         <v>65</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="AW6" s="8"/>
       <c r="AX6" s="9" t="s">
@@ -6984,7 +8748,7 @@
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA6" s="8"/>
       <c r="BB6" s="9" t="s">
@@ -7005,7 +8769,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
       <c r="B7" s="12">
         <v>44623</v>
@@ -7029,7 +8793,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>66</v>
@@ -7045,7 +8809,7 @@
         <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>123</v>
@@ -7142,7 +8906,7 @@
         <v>65</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="AW7" s="8"/>
       <c r="AX7" s="9" t="s">
@@ -7152,7 +8916,7 @@
         <v>58</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA7" s="8"/>
       <c r="BB7" s="9" t="s">
@@ -7173,7 +8937,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="B8" s="12">
         <v>44623</v>
@@ -7197,7 +8961,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>66</v>
@@ -7213,7 +8977,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>132</v>
@@ -7301,7 +9065,7 @@
         <v>55</v>
       </c>
       <c r="AS8" s="15">
-        <v>399836144</v>
+        <v>399773164</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>55</v>
@@ -7310,7 +9074,7 @@
         <v>65</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="AW8" s="8"/>
       <c r="AX8" s="9" t="s">
@@ -7320,7 +9084,7 @@
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA8" s="8"/>
       <c r="BB8" s="9" t="s">
@@ -7341,7 +9105,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="B9" s="12">
         <v>44623</v>
@@ -7365,7 +9129,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>66</v>
@@ -7381,7 +9145,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>141</v>
@@ -7469,7 +9233,7 @@
         <v>55</v>
       </c>
       <c r="AS9" s="15">
-        <v>399836144</v>
+        <v>399773164</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>55</v>
@@ -7478,7 +9242,7 @@
         <v>65</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="AW9" s="8"/>
       <c r="AX9" s="9" t="s">
@@ -7488,7 +9252,7 @@
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA9" s="8"/>
       <c r="BB9" s="9" t="s">
@@ -7509,7 +9273,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="B10" s="12">
         <v>44623</v>
@@ -7533,7 +9297,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>66</v>
@@ -7549,7 +9313,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>288</v>
+        <v>396</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>150</v>
@@ -7564,10 +9328,10 @@
         <v>48</v>
       </c>
       <c r="T10" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U10" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V10" s="9">
         <v>2016</v>
@@ -7637,7 +9401,7 @@
         <v>55</v>
       </c>
       <c r="AS10" s="15">
-        <v>399836144</v>
+        <v>400645296</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>55</v>
@@ -7646,7 +9410,7 @@
         <v>65</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>289</v>
+        <v>397</v>
       </c>
       <c r="AW10" s="8"/>
       <c r="AX10" s="9" t="s">
@@ -7656,7 +9420,7 @@
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA10" s="8"/>
       <c r="BB10" s="9" t="s">
@@ -7677,7 +9441,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>290</v>
+        <v>398</v>
       </c>
       <c r="B11" s="12">
         <v>44623</v>
@@ -7701,7 +9465,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>66</v>
@@ -7717,7 +9481,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>159</v>
@@ -7805,7 +9569,7 @@
         <v>55</v>
       </c>
       <c r="AS11" s="9">
-        <v>399836144</v>
+        <v>399744400</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>55</v>
@@ -7814,7 +9578,7 @@
         <v>65</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="AW11" s="8"/>
       <c r="AX11" s="9" t="s">
@@ -7824,7 +9588,7 @@
         <v>58</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="9" t="s">
@@ -7845,7 +9609,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="B12" s="12">
         <v>44623</v>
@@ -7869,7 +9633,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>66</v>
@@ -7885,7 +9649,7 @@
         <v>47</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>296</v>
+        <v>404</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>168</v>
@@ -7900,10 +9664,10 @@
         <v>48</v>
       </c>
       <c r="T12" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U12" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V12" s="9">
         <v>2016</v>
@@ -7973,7 +9737,7 @@
         <v>55</v>
       </c>
       <c r="AS12" s="9">
-        <v>399836144</v>
+        <v>400645296</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>55</v>
@@ -7982,7 +9746,7 @@
         <v>65</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="9" t="s">
@@ -7992,7 +9756,7 @@
         <v>58</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA12" s="8"/>
       <c r="BB12" s="9" t="s">
@@ -8013,7 +9777,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="B13" s="12">
         <v>44623</v>
@@ -8037,7 +9801,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>299</v>
+        <v>407</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>66</v>
@@ -8053,7 +9817,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>177</v>
@@ -8068,10 +9832,10 @@
         <v>48</v>
       </c>
       <c r="T13" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U13" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V13" s="9">
         <v>2016</v>
@@ -8141,7 +9905,7 @@
         <v>55</v>
       </c>
       <c r="AS13" s="9">
-        <v>399893672</v>
+        <v>399744400</v>
       </c>
       <c r="AT13" s="9" t="s">
         <v>55</v>
@@ -8150,7 +9914,7 @@
         <v>65</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>301</v>
+        <v>409</v>
       </c>
       <c r="AW13" s="8"/>
       <c r="AX13" s="9" t="s">
@@ -8160,7 +9924,7 @@
         <v>58</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA13" s="8"/>
       <c r="BB13" s="9" t="s">
@@ -8181,7 +9945,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="B14" s="12">
         <v>44623</v>
@@ -8205,7 +9969,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>66</v>
@@ -8221,7 +9985,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>186</v>
@@ -8236,10 +10000,10 @@
         <v>48</v>
       </c>
       <c r="T14" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U14" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V14" s="9">
         <v>2016</v>
@@ -8309,7 +10073,7 @@
         <v>55</v>
       </c>
       <c r="AS14" s="9">
-        <v>399836144</v>
+        <v>399744400</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>55</v>
@@ -8318,7 +10082,7 @@
         <v>65</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>305</v>
+        <v>413</v>
       </c>
       <c r="AW14" s="8"/>
       <c r="AX14" s="9" t="s">
@@ -8328,7 +10092,7 @@
         <v>58</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA14" s="8"/>
       <c r="BB14" s="9" t="s">
@@ -8349,7 +10113,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>306</v>
+        <v>414</v>
       </c>
       <c r="B15" s="12">
         <v>44623</v>
@@ -8373,7 +10137,7 @@
         <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>66</v>
@@ -8389,7 +10153,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>195</v>
@@ -8477,7 +10241,7 @@
         <v>55</v>
       </c>
       <c r="AS15" s="9">
-        <v>399773164</v>
+        <v>399744400</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>55</v>
@@ -8486,7 +10250,7 @@
         <v>65</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>309</v>
+        <v>417</v>
       </c>
       <c r="AW15" s="8"/>
       <c r="AX15" s="9" t="s">
@@ -8496,7 +10260,7 @@
         <v>58</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA15" s="8"/>
       <c r="BB15" s="9" t="s">
@@ -8517,7 +10281,7 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>310</v>
+        <v>418</v>
       </c>
       <c r="B16" s="12">
         <v>44623</v>
@@ -8541,7 +10305,7 @@
         <v>46</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>66</v>
@@ -8557,7 +10321,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>204</v>
@@ -8572,10 +10336,10 @@
         <v>48</v>
       </c>
       <c r="T16" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="U16" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="V16" s="9">
         <v>2016</v>
@@ -8645,7 +10409,7 @@
         <v>55</v>
       </c>
       <c r="AS16" s="9">
-        <v>399773164</v>
+        <v>398757588</v>
       </c>
       <c r="AT16" s="9" t="s">
         <v>55</v>
@@ -8654,7 +10418,7 @@
         <v>65</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="AW16" s="8"/>
       <c r="AX16" s="9" t="s">
@@ -8664,7 +10428,7 @@
         <v>58</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA16" s="8"/>
       <c r="BB16" s="9" t="s">
@@ -8685,7 +10449,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="B17" s="12">
         <v>44623</v>
@@ -8709,7 +10473,7 @@
         <v>46</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>66</v>
@@ -8725,7 +10489,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>213</v>
@@ -8740,10 +10504,10 @@
         <v>48</v>
       </c>
       <c r="T17" s="10">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="U17" s="11">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="V17" s="9">
         <v>2016</v>
@@ -8813,7 +10577,7 @@
         <v>55</v>
       </c>
       <c r="AS17" s="9">
-        <v>398786164</v>
+        <v>399744400</v>
       </c>
       <c r="AT17" s="9" t="s">
         <v>55</v>
@@ -8822,7 +10586,7 @@
         <v>65</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="AW17" s="8"/>
       <c r="AX17" s="9" t="s">
@@ -8832,7 +10596,7 @@
         <v>58</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="9" t="s">
@@ -8853,7 +10617,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="B18" s="12">
         <v>44623</v>
@@ -8877,7 +10641,7 @@
         <v>46</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>319</v>
+        <v>427</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>66</v>
@@ -8893,7 +10657,7 @@
         <v>47</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>222</v>
@@ -8908,10 +10672,10 @@
         <v>48</v>
       </c>
       <c r="T18" s="10">
-        <v>4.8958333333333328E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="U18" s="11">
-        <v>4.8958333333333328E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="V18" s="9">
         <v>2016</v>
@@ -8981,7 +10745,7 @@
         <v>55</v>
       </c>
       <c r="AS18" s="9">
-        <v>397885456</v>
+        <v>400673872</v>
       </c>
       <c r="AT18" s="9" t="s">
         <v>55</v>
@@ -8990,7 +10754,7 @@
         <v>65</v>
       </c>
       <c r="AV18" s="9" t="s">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="AW18" s="8"/>
       <c r="AX18" s="9" t="s">
@@ -9000,7 +10764,7 @@
         <v>58</v>
       </c>
       <c r="AZ18" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA18" s="8"/>
       <c r="BB18" s="9" t="s">
@@ -9021,7 +10785,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>322</v>
+        <v>430</v>
       </c>
       <c r="B19" s="12">
         <v>44623</v>
@@ -9045,7 +10809,7 @@
         <v>46</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>66</v>
@@ -9061,7 +10825,7 @@
         <v>47</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>231</v>
@@ -9076,10 +10840,10 @@
         <v>48</v>
       </c>
       <c r="T19" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="U19" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="V19" s="9">
         <v>2016</v>
@@ -9149,7 +10913,7 @@
         <v>55</v>
       </c>
       <c r="AS19" s="9">
-        <v>399836144</v>
+        <v>401603344</v>
       </c>
       <c r="AT19" s="9" t="s">
         <v>55</v>
@@ -9158,7 +10922,7 @@
         <v>65</v>
       </c>
       <c r="AV19" s="9" t="s">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="AW19" s="8"/>
       <c r="AX19" s="9" t="s">
@@ -9168,7 +10932,7 @@
         <v>58</v>
       </c>
       <c r="AZ19" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA19" s="8"/>
       <c r="BB19" s="9" t="s">
@@ -9189,7 +10953,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="B20" s="12">
         <v>44623</v>
@@ -9213,7 +10977,7 @@
         <v>46</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>66</v>
@@ -9229,7 +10993,7 @@
         <v>47</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>240</v>
@@ -9244,10 +11008,10 @@
         <v>48</v>
       </c>
       <c r="T20" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="U20" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="V20" s="9">
         <v>2016</v>
@@ -9317,7 +11081,7 @@
         <v>55</v>
       </c>
       <c r="AS20" s="9">
-        <v>399836144</v>
+        <v>401603344</v>
       </c>
       <c r="AT20" s="9" t="s">
         <v>55</v>
@@ -9326,7 +11090,7 @@
         <v>65</v>
       </c>
       <c r="AV20" s="9" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="AW20" s="8"/>
       <c r="AX20" s="9" t="s">
@@ -9336,7 +11100,7 @@
         <v>58</v>
       </c>
       <c r="AZ20" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA20" s="8"/>
       <c r="BB20" s="9" t="s">
@@ -9357,7 +11121,7 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="B21" s="12">
         <v>44623</v>
@@ -9381,7 +11145,7 @@
         <v>46</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>66</v>
@@ -9397,7 +11161,7 @@
         <v>47</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>249</v>
@@ -9412,10 +11176,10 @@
         <v>48</v>
       </c>
       <c r="T21" s="10">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9537037037037041E-3</v>
       </c>
       <c r="U21" s="11">
-        <v>4.9189814814814816E-3</v>
+        <v>4.9537037037037041E-3</v>
       </c>
       <c r="V21" s="9">
         <v>2016</v>
@@ -9485,7 +11249,7 @@
         <v>55</v>
       </c>
       <c r="AS21" s="9">
-        <v>399836144</v>
+        <v>402532816</v>
       </c>
       <c r="AT21" s="9" t="s">
         <v>55</v>
@@ -9494,7 +11258,7 @@
         <v>65</v>
       </c>
       <c r="AV21" s="9" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="AW21" s="8"/>
       <c r="AX21" s="9" t="s">
@@ -9504,7 +11268,7 @@
         <v>58</v>
       </c>
       <c r="AZ21" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="BA21" s="8"/>
       <c r="BB21" s="9" t="s">
@@ -9524,724 +11288,2020 @@
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U22" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V22" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK22" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL22" s="8"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
+      <c r="AM22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS22" s="9">
+        <v>399773164</v>
+      </c>
+      <c r="AT22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV22" s="9" t="s">
+        <v>445</v>
+      </c>
       <c r="AW22" s="8"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
+      <c r="AX22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ22" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA22" s="8"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
+      <c r="BB22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF22" s="9" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="10">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="U23" s="11">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="V23" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL23" s="8"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
+      <c r="AM23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS23" s="9">
+        <v>401695088</v>
+      </c>
+      <c r="AT23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV23" s="9" t="s">
+        <v>449</v>
+      </c>
       <c r="AW23" s="8"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
+      <c r="AX23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ23" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA23" s="8"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
+      <c r="BB23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF23" s="9" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U24" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V24" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL24" s="8"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="9"/>
-      <c r="AV24" s="9"/>
+      <c r="AM24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS24" s="9">
+        <v>399744400</v>
+      </c>
+      <c r="AT24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV24" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="AW24" s="8"/>
-      <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
-      <c r="AZ24" s="9"/>
+      <c r="AX24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ24" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-      <c r="BF24" s="9"/>
+      <c r="BB24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF24" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="10">
+        <v>4.9074074074074072E-3</v>
+      </c>
+      <c r="U25" s="11">
+        <v>4.9074074074074072E-3</v>
+      </c>
+      <c r="V25" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL25" s="8"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="9"/>
-      <c r="AV25" s="9"/>
+      <c r="AM25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS25" s="9">
+        <v>398843692</v>
+      </c>
+      <c r="AT25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV25" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="AW25" s="8"/>
-      <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
-      <c r="AZ25" s="9"/>
+      <c r="AX25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ25" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA25" s="8"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
+      <c r="BB25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF25" s="9" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B26" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="10">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="U26" s="11">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="V26" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL26" s="8"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
+      <c r="AM26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS26" s="9">
+        <v>401603344</v>
+      </c>
+      <c r="AT26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV26" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="AW26" s="8"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
+      <c r="AX26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ26" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
+      <c r="BB26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF26" s="9" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U27" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V27" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL27" s="8"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
-      <c r="AT27" s="9"/>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
+      <c r="AM27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS27" s="9">
+        <v>399744400</v>
+      </c>
+      <c r="AT27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV27" s="9" t="s">
+        <v>465</v>
+      </c>
       <c r="AW27" s="8"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
+      <c r="AX27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ27" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA27" s="8"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-      <c r="BF27" s="9"/>
+      <c r="BB27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF27" s="9" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B28" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U28" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V28" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL28" s="8"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="9"/>
-      <c r="AP28" s="9"/>
-      <c r="AQ28" s="9"/>
-      <c r="AR28" s="9"/>
-      <c r="AS28" s="9"/>
-      <c r="AT28" s="9"/>
-      <c r="AU28" s="9"/>
-      <c r="AV28" s="9"/>
+      <c r="AM28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS28" s="9">
+        <v>399652656</v>
+      </c>
+      <c r="AT28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV28" s="9" t="s">
+        <v>469</v>
+      </c>
       <c r="AW28" s="8"/>
-      <c r="AX28" s="9"/>
-      <c r="AY28" s="9"/>
-      <c r="AZ28" s="9"/>
+      <c r="AX28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ28" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA28" s="8"/>
-      <c r="BB28" s="9"/>
-      <c r="BC28" s="9"/>
-      <c r="BD28" s="9"/>
-      <c r="BE28" s="9"/>
-      <c r="BF28" s="9"/>
+      <c r="BB28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF28" s="9" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B29" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>319</v>
+      </c>
       <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U29" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V29" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL29" s="8"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
-      <c r="AQ29" s="9"/>
-      <c r="AR29" s="9"/>
-      <c r="AS29" s="9"/>
-      <c r="AT29" s="9"/>
-      <c r="AU29" s="9"/>
-      <c r="AV29" s="9"/>
+      <c r="AM29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS29" s="9">
+        <v>399744400</v>
+      </c>
+      <c r="AT29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV29" s="9" t="s">
+        <v>473</v>
+      </c>
       <c r="AW29" s="8"/>
-      <c r="AX29" s="9"/>
-      <c r="AY29" s="9"/>
-      <c r="AZ29" s="9"/>
+      <c r="AX29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ29" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA29" s="8"/>
-      <c r="BB29" s="9"/>
-      <c r="BC29" s="9"/>
-      <c r="BD29" s="9"/>
-      <c r="BE29" s="9"/>
-      <c r="BF29" s="9"/>
+      <c r="BB29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF29" s="9" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B30" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T30" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U30" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V30" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL30" s="8"/>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="9"/>
-      <c r="AP30" s="9"/>
-      <c r="AQ30" s="9"/>
-      <c r="AR30" s="9"/>
-      <c r="AS30" s="9"/>
-      <c r="AT30" s="9"/>
-      <c r="AU30" s="9"/>
-      <c r="AV30" s="9"/>
+      <c r="AM30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS30" s="9">
+        <v>399744400</v>
+      </c>
+      <c r="AT30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV30" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="AW30" s="8"/>
-      <c r="AX30" s="9"/>
-      <c r="AY30" s="9"/>
-      <c r="AZ30" s="9"/>
+      <c r="AX30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ30" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA30" s="8"/>
-      <c r="BB30" s="9"/>
-      <c r="BC30" s="9"/>
-      <c r="BD30" s="9"/>
-      <c r="BE30" s="9"/>
-      <c r="BF30" s="9"/>
+      <c r="BB30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF30" s="9" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B31" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>337</v>
+      </c>
       <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
+      <c r="M31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T31" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U31" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V31" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK31" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL31" s="8"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
-      <c r="AQ31" s="9"/>
-      <c r="AR31" s="9"/>
-      <c r="AS31" s="9"/>
-      <c r="AT31" s="9"/>
-      <c r="AU31" s="9"/>
-      <c r="AV31" s="9"/>
+      <c r="AM31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS31" s="9">
+        <v>399687060</v>
+      </c>
+      <c r="AT31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV31" s="9" t="s">
+        <v>481</v>
+      </c>
       <c r="AW31" s="8"/>
-      <c r="AX31" s="9"/>
-      <c r="AY31" s="9"/>
-      <c r="AZ31" s="9"/>
+      <c r="AX31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ31" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA31" s="8"/>
-      <c r="BB31" s="9"/>
-      <c r="BC31" s="9"/>
-      <c r="BD31" s="9"/>
-      <c r="BE31" s="9"/>
-      <c r="BF31" s="9"/>
+      <c r="BB31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF31" s="9" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B32" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>346</v>
+      </c>
       <c r="L32" s="8"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
+      <c r="M32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U32" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V32" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK32" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL32" s="8"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
-      <c r="AR32" s="9"/>
-      <c r="AS32" s="9"/>
-      <c r="AT32" s="9"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9"/>
+      <c r="AM32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS32" s="9">
+        <v>399744400</v>
+      </c>
+      <c r="AT32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV32" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="AW32" s="8"/>
-      <c r="AX32" s="9"/>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="9"/>
+      <c r="AX32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ32" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA32" s="8"/>
-      <c r="BB32" s="9"/>
-      <c r="BC32" s="9"/>
-      <c r="BD32" s="9"/>
-      <c r="BE32" s="9"/>
-      <c r="BF32" s="9"/>
+      <c r="BB32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF32" s="9" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B33" s="12">
+        <v>44623</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>355</v>
+      </c>
       <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
+      <c r="M33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33" s="10">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="U33" s="11">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="V33" s="9">
+        <v>2016</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>44027</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>45747</v>
+      </c>
+      <c r="AB33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>31028</v>
+      </c>
+      <c r="AD33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK33" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="AL33" s="8"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
+      <c r="AM33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS33" s="9">
+        <v>399773164</v>
+      </c>
+      <c r="AT33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV33" s="9" t="s">
+        <v>489</v>
+      </c>
       <c r="AW33" s="8"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
+      <c r="AX33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ33" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="BA33" s="8"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-      <c r="BF33" s="9"/>
+      <c r="BB33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF33" s="9" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
